--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="666" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="632" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId3"/>
     <sheet name="AllFeaturesTestDataInstructions" sheetId="2" r:id="rId4"/>
-    <sheet name="FMS_Login" sheetId="3" r:id="rId5"/>
-    <sheet name="FMSParam_login" sheetId="4" r:id="rId6"/>
-    <sheet name="SadsLogin" sheetId="5" r:id="rId7"/>
-    <sheet name="TestExecution" sheetId="6" r:id="rId8"/>
-    <sheet name="FMSParam_Control_Records" sheetId="7" r:id="rId9"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="8" r:id="rId10"/>
+    <sheet name="CSMParam_Login" sheetId="3" r:id="rId5"/>
+    <sheet name="CSM_Login" sheetId="4" r:id="rId6"/>
+    <sheet name="FMS_Login" sheetId="5" r:id="rId7"/>
+    <sheet name="FMSParam_login" sheetId="6" r:id="rId8"/>
+    <sheet name="SadsLogin" sheetId="7" r:id="rId9"/>
+    <sheet name="TestExecution" sheetId="8" r:id="rId10"/>
+    <sheet name="FMSParam_Control_Records" sheetId="9" r:id="rId11"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -112,6 +114,12 @@
     <t>SANKAR</t>
   </si>
   <si>
+    <t>CSM_User1</t>
+  </si>
+  <si>
+    <t>CSM_User2</t>
+  </si>
+  <si>
     <t>FMS_ParamUser1</t>
   </si>
   <si>
@@ -182,6 +190,9 @@
   </si>
   <si>
     <t>DS01_305703</t>
+  </si>
+  <si>
+    <t>DS01_834966</t>
   </si>
   <si>
     <t>EndExecution</t>
@@ -271,25 +282,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -298,6 +290,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -314,6 +312,19 @@
       <sz val="11"/>
       <color rgb="FF1E1C11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -467,7 +478,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -501,27 +512,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment/>
       <protection/>
     </xf>
@@ -543,56 +554,60 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -600,7 +615,7 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -608,121 +623,77 @@
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="29" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -730,11 +701,63 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="41"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="29">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="Currency" xfId="16" builtinId="4"/>
@@ -763,6 +786,7 @@
     <cellStyle name="Result_5f_20_5f_1" xfId="39"/>
     <cellStyle name="ConditionalStyle_5f_2" xfId="40"/>
     <cellStyle name="ConditionalStyle_5f_1" xfId="41"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="42"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1165,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3b71e691-6f34-4e12-a193-6bdfc00cb5aa}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dc5790bf-e5d8-4a63-a53d-440e240e271b}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1368,8 +1392,193 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74adafa0-ebd2-44f4-a7ac-9ec3e62ca35c}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" width="13.571428571428571" customWidth="1"/>
+    <col min="2" max="2" width="14.428571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.571428571428571" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.142857142857142" customWidth="1"/>
+    <col min="12" max="12" width="18.857142857142858" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.9">
+      <c r="A1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12.8">
+      <c r="A2" s="30">
+        <v>843959</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="34">
+        <v>727</v>
+      </c>
+      <c r="F2" s="34">
+        <v>369</v>
+      </c>
+      <c r="G2" s="34">
+        <v>320</v>
+      </c>
+      <c r="H2" s="34">
+        <v>2</v>
+      </c>
+      <c r="I2" s="34">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="34">
+        <v>600</v>
+      </c>
+      <c r="L2" s="37">
+        <v>1</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.8">
+      <c r="A3" s="30">
+        <v>862019</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="34">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12.8">
+      <c r="A4" s="30">
+        <v>296063</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="34">
+        <v>727</v>
+      </c>
+      <c r="F4" s="34">
+        <v>369</v>
+      </c>
+      <c r="G4" s="34">
+        <v>320</v>
+      </c>
+      <c r="H4" s="34">
+        <v>2</v>
+      </c>
+      <c r="I4" s="34">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37">
+        <v>1</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.8">
+      <c r="A5" s="30">
+        <v>834966</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="34">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0834" bottom="1.0834" header="0.9445" footer="0.9445"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203c5bf3-6dcf-42e2-8c0a-a4f18bf2d47e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb9cc7e6-e6f6-4974-97d2-cbc723daadd7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1438,21 +1647,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05505636-76ce-4504-893f-78d7a9728d94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0b23647b-1eb9-4a3b-8ded-053875d8dffc}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0" topLeftCell="F1">
+      <selection pane="topLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="11.857142857142858" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="26"/>
-    <col min="4" max="4" width="15.428571428571429" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="26"/>
+    <col min="1" max="1" width="15.714285714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.142857142857142" customWidth="1"/>
+    <col min="3" max="3" width="12.142857142857142" customWidth="1"/>
+    <col min="4" max="4" width="16.142857142857142" customWidth="1"/>
+    <col min="5" max="5" width="18.571428571428573" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
@@ -1503,6 +1711,161 @@
         <v>1</v>
       </c>
       <c r="E3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16a28846-a64f-4173-a25b-e41183f79fe5}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
+  <cols>
+    <col min="1" max="3" width="12.142857142857142" customWidth="1"/>
+    <col min="4" max="4" width="16.714285714285715" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.05">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.05">
+      <c r="A2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25">
+        <v>123</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.05">
+      <c r="A3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25">
+        <v>321</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fc79e8bd-54ac-4250-b5d4-4cfbb85704cf}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <cols>
+    <col min="1" max="1" width="11.857142857142858" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.428571428571429" style="27"/>
+    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="10.428571428571429" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.05">
+      <c r="A1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.05">
+      <c r="A2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="26">
+        <v>123</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.05">
+      <c r="A3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="26">
+        <v>321</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -1512,8 +1875,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606ca347-bda9-4a41-a6f8-29d76feabf9a}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757a393f-771b-48ea-b3df-2694e0ef6174}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1522,62 +1885,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="18.285714285714285" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="26"/>
-    <col min="4" max="4" width="15.428571428571429" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="26"/>
+    <col min="1" max="1" width="18.285714285714285" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.428571428571429" style="27"/>
+    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="10.428571428571429" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="26">
         <v>123</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="26">
         <v>321</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -1587,8 +1950,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d44d67b3-8781-4c27-b6be-90949ab4437c}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7af62a67-9c13-4ca9-8ddc-34cb9777b40f}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1597,41 +1960,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.714285714285714" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.285714285714286" style="26" customWidth="1"/>
-    <col min="3" max="16384" width="10.428571428571429" style="26"/>
+    <col min="1" max="1" width="12.714285714285714" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.285714285714286" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="10.428571428571429" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.05">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="26">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.05">
-      <c r="A3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="A3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="26">
         <v>123</v>
       </c>
     </row>
@@ -1641,71 +2004,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ad50b727-9145-42d4-8141-5f7e598bd32e}">
-  <dimension ref="A1:J11"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f818d3d1-bf22-48fc-b578-6b7965f8d607}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.714285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="10.714285714285714" style="32" customWidth="1"/>
-    <col min="2" max="3" width="15.285714285714286" style="32" customWidth="1"/>
-    <col min="4" max="4" width="16.142857142857142" style="32" customWidth="1"/>
-    <col min="5" max="6" width="29.857142857142858" style="32" customWidth="1"/>
-    <col min="7" max="7" width="31.571428571428573" style="32" customWidth="1"/>
-    <col min="8" max="8" width="30.285714285714285" style="32" customWidth="1"/>
-    <col min="9" max="9" width="29.857142857142858" style="32" customWidth="1"/>
-    <col min="10" max="10" width="28.857142857142858" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="44.714285714285715" style="32"/>
+    <col min="1" max="1" width="10.714285714285714" style="41" customWidth="1"/>
+    <col min="2" max="3" width="15.285714285714286" style="41" customWidth="1"/>
+    <col min="4" max="4" width="16.142857142857142" style="41" customWidth="1"/>
+    <col min="5" max="6" width="29.857142857142858" style="41" customWidth="1"/>
+    <col min="7" max="7" width="31.571428571428573" style="41" customWidth="1"/>
+    <col min="8" max="8" width="30.285714285714285" style="41" customWidth="1"/>
+    <col min="9" max="9" width="29.857142857142858" style="41" customWidth="1"/>
+    <col min="10" max="10" width="28.857142857142858" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="44.714285714285715" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.7" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="E1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="F1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="G1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="H1" s="52" t="s">
         <v>43</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.7" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>46</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1718,18 +2081,18 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="44">
         <v>862019</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -1738,18 +2101,18 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="45">
         <v>843959</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1758,18 +2121,18 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="30">
         <v>296063</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1778,18 +2141,18 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="30">
         <v>305703</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -1798,72 +2161,92 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.05">
-      <c r="A8" s="21"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="B7" s="30">
+        <v>834966</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.9">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="14.05">
       <c r="A9" s="21"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="14.05">
       <c r="A10" s="21"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="14.05">
       <c r="A11" s="21"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
+    <row r="12" spans="1:10" ht="14.05">
+      <c r="A12" s="21"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="expression" priority="3" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("Yes",#REF!)))</formula>
       <formula/>
@@ -1874,7 +2257,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1883,8 +2266,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2123743d-cd67-4401-b9c4-65d8dab46824}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfc5b282-eeca-4cbf-b11c-ca5bcee4e097}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1899,24 +2282,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.85">
-      <c r="A1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.8">
+      <c r="A2" s="30">
+        <v>305703</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.8">
-      <c r="A2" s="28">
-        <v>305703</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="C2" s="32">
         <v>320</v>
       </c>
     </row>
@@ -1928,178 +2311,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86e2840c-c4dd-45fd-8bb5-b0527edf997c}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="12.8"/>
-  <cols>
-    <col min="1" max="1" width="13.571428571428571" customWidth="1"/>
-    <col min="2" max="2" width="14.428571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.571428571428571" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.142857142857142" customWidth="1"/>
-    <col min="12" max="12" width="18.857142857142858" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="14.9">
-      <c r="A1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.8">
-      <c r="A2" s="28">
-        <v>843959</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="45">
-        <v>727</v>
-      </c>
-      <c r="F2" s="45">
-        <v>369</v>
-      </c>
-      <c r="G2" s="45">
-        <v>320</v>
-      </c>
-      <c r="H2" s="45">
-        <v>2</v>
-      </c>
-      <c r="I2" s="45">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="45">
-        <v>600</v>
-      </c>
-      <c r="L2" s="48">
-        <v>1</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.8">
-      <c r="A3" s="28">
-        <v>862019</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="45">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.8">
-      <c r="A4" s="28">
-        <v>296063</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="45">
-        <v>727</v>
-      </c>
-      <c r="F4" s="45">
-        <v>369</v>
-      </c>
-      <c r="G4" s="45">
-        <v>320</v>
-      </c>
-      <c r="H4" s="45">
-        <v>2</v>
-      </c>
-      <c r="I4" s="45">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="45">
-        <v>1</v>
-      </c>
-      <c r="L4" s="48">
-        <v>1</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0834" bottom="1.0834" header="0.9445" footer="0.9445"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="632" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="632" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId3"/>
@@ -13,10 +13,11 @@
     <sheet name="CSM_Login" sheetId="4" r:id="rId6"/>
     <sheet name="FMS_Login" sheetId="5" r:id="rId7"/>
     <sheet name="FMSParam_login" sheetId="6" r:id="rId8"/>
-    <sheet name="SadsLogin" sheetId="7" r:id="rId9"/>
-    <sheet name="TestExecution" sheetId="8" r:id="rId10"/>
-    <sheet name="FMSParam_Control_Records" sheetId="9" r:id="rId11"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="10" r:id="rId12"/>
+    <sheet name="IISParam_Login" sheetId="7" r:id="rId9"/>
+    <sheet name="SadsLogin" sheetId="8" r:id="rId10"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId11"/>
+    <sheet name="FMSParam_Control_Records" sheetId="10" r:id="rId12"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -126,6 +127,12 @@
     <t>FMS_ParamUser2</t>
   </si>
   <si>
+    <t>IIS_ParamUser1</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser2</t>
+  </si>
+  <si>
     <t>SADS_User1</t>
   </si>
   <si>
@@ -195,6 +202,9 @@
     <t>DS01_834966</t>
   </si>
   <si>
+    <t>DS01_681303</t>
+  </si>
+  <si>
     <t>EndExecution</t>
   </si>
   <si>
@@ -232,6 +242,12 @@
   </si>
   <si>
     <t>Charges Details Code</t>
+  </si>
+  <si>
+    <t>Solicitor Name</t>
+  </si>
+  <si>
+    <t>Estimator Name</t>
   </si>
   <si>
     <t>Decision1</t>
@@ -282,6 +298,25 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -290,12 +325,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -312,19 +341,6 @@
       <sz val="11"/>
       <color rgb="FF1E1C11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -512,27 +528,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment/>
       <protection/>
     </xf>
@@ -554,7 +570,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment/>
       <protection/>
     </xf>
@@ -563,7 +579,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
@@ -571,23 +615,31 @@
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -595,105 +647,121 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="29" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -701,59 +769,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="41"/>
   </cellXfs>
@@ -1189,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dc5790bf-e5d8-4a63-a53d-440e240e271b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821fa0b8-9868-4e36-937a-34e6f36268dd}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1198,14 +1214,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="22" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.714285714285714" style="14" customWidth="1"/>
-    <col min="3" max="3" width="30.857142857142858" style="14" customWidth="1"/>
-    <col min="4" max="5" width="20.285714285714285" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.714285714285715" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.285714285714285" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.142857142857142" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="32.285714285714285" style="14"/>
+    <col min="1" max="1" width="22" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.714285714285714" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.857142857142858" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.285714285714285" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.714285714285715" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.285714285714285" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.142857142857142" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="32.285714285714285" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.05">
@@ -1224,167 +1240,167 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="14.05">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="14.05">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="14.05">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="14.05">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="14.05">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="14.05">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="14.05">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="14.05">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="14.05">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="14.05">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="14.05">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.05">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="14.05">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="14.05">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
@@ -1393,11 +1409,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74adafa0-ebd2-44f4-a7ac-9ec3e62ca35c}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43e7b4e2-e16e-4e74-8e7e-c9e1ff69d603}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="topLeft" activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="20.85"/>
+  <cols>
+    <col min="1" max="1" width="12.142857142857142" customWidth="1"/>
+    <col min="2" max="2" width="18.571428571428573" customWidth="1"/>
+    <col min="3" max="3" width="15.428571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.85">
+      <c r="A1" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.8">
+      <c r="A2" s="36">
+        <v>305703</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="45">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595128b8-f654-4b10-a7b7-8d9d2130e430}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="12.8"/>
@@ -1407,164 +1470,273 @@
     <col min="3" max="3" width="13.571428571428571" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="7" max="7" width="22.142857142857142" customWidth="1"/>
-    <col min="12" max="12" width="18.857142857142858" customWidth="1"/>
+    <col min="12" max="12" width="21.142857142857142" customWidth="1"/>
+    <col min="13" max="13" width="14.571428571428571" customWidth="1"/>
+    <col min="14" max="14" width="15.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.9">
-      <c r="A1" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:17" ht="14.9">
+      <c r="A1" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="12.8">
+      <c r="A2" s="36">
+        <v>843959</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="47">
+        <v>727</v>
+      </c>
+      <c r="F2" s="47">
+        <v>369</v>
+      </c>
+      <c r="G2" s="47">
+        <v>320</v>
+      </c>
+      <c r="H2" s="47">
+        <v>2</v>
+      </c>
+      <c r="I2" s="47">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="47">
+        <v>600</v>
+      </c>
+      <c r="L2" s="50">
+        <v>1</v>
+      </c>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.8">
+      <c r="A3" s="36">
+        <v>862019</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="47">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12.8">
+      <c r="A4" s="36">
+        <v>296063</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="47">
+        <v>727</v>
+      </c>
+      <c r="F4" s="47">
+        <v>369</v>
+      </c>
+      <c r="G4" s="47">
+        <v>320</v>
+      </c>
+      <c r="H4" s="47">
+        <v>2</v>
+      </c>
+      <c r="I4" s="47">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="47">
+        <v>1</v>
+      </c>
+      <c r="L4" s="50">
+        <v>1</v>
+      </c>
+      <c r="M4" s="50">
+        <v>1</v>
+      </c>
+      <c r="N4" s="50">
+        <v>1</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12.8">
+      <c r="A5" s="36">
+        <v>834966</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.8">
-      <c r="A2" s="30">
-        <v>843959</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="34">
+      <c r="C5" s="47">
+        <v>369</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="47">
         <v>727</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F5" s="47">
         <v>369</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G5" s="47">
         <v>320</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H5" s="47">
         <v>2</v>
       </c>
-      <c r="I2" s="34">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="34">
-        <v>600</v>
-      </c>
-      <c r="L2" s="37">
-        <v>1</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.8">
-      <c r="A3" s="30">
-        <v>862019</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.8">
-      <c r="A4" s="30">
-        <v>296063</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="I5" s="47">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="47">
+        <v>1</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50">
+        <v>1</v>
+      </c>
+      <c r="N5" s="50">
+        <v>1</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12.8">
+      <c r="A6" s="36">
+        <v>681303</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="47">
+        <v>369</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="47">
         <v>727</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F6" s="47">
         <v>369</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G6" s="47">
         <v>320</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H6" s="47">
         <v>2</v>
       </c>
-      <c r="I4" s="34">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="34">
-        <v>1</v>
-      </c>
-      <c r="L4" s="37">
-        <v>1</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.8">
-      <c r="A5" s="30">
-        <v>834966</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="34">
-        <v>369</v>
+      <c r="I6" s="47">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+      <c r="L6" s="50">
+        <v>1</v>
+      </c>
+      <c r="M6" s="50">
+        <v>1</v>
+      </c>
+      <c r="N6" s="50">
+        <v>1</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb9cc7e6-e6f6-4974-97d2-cbc723daadd7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7b28dd9a-1c26-454e-82e4-56b9d7afa54d}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1587,10 +1759,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.71428571428572" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="21" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33.57142857142857" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.857142857142854" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="137.71428571428572" style="14"/>
+    <col min="1" max="1" width="21" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.57142857142857" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.857142857142854" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="137.71428571428572" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -1606,7 +1778,7 @@
     </row>
     <row r="2" spans="1:3" ht="28.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1615,7 +1787,7 @@
     </row>
     <row r="3" spans="1:3" ht="28.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1624,7 +1796,7 @@
     </row>
     <row r="4" spans="1:3" ht="28.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1633,7 +1805,7 @@
     </row>
     <row r="5" spans="1:3" ht="28.3">
       <c r="A5" s="22"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -1647,7 +1819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0b23647b-1eb9-4a3b-8ded-053875d8dffc}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d121898f-fd3b-422c-b19e-866b7cebb03d}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="F1">
@@ -1725,11 +1897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16a28846-a64f-4173-a25b-e41183f79fe5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ab973daa-3553-4c20-8759-b0a2da87ec58}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
@@ -1801,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fc79e8bd-54ac-4250-b5d4-4cfbb85704cf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44b17301-0b04-4d4b-a064-5ecd5e4fcae6}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1810,62 +1982,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="11.857142857142858" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="27"/>
-    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="27"/>
+    <col min="1" max="1" width="11.857142857142858" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.571428571428571" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.428571428571429" style="28"/>
+    <col min="4" max="4" width="15.428571428571429" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.714285714285714" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="10.428571428571429" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>123</v>
       </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="27">
         <v>321</v>
       </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1876,71 +2048,71 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757a393f-771b-48ea-b3df-2694e0ef6174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7e722af3-2fc2-486b-8ba3-6a2f2e1bee96}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="18.285714285714285" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="27"/>
-    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="27"/>
+    <col min="1" max="1" width="18.285714285714285" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.571428571428571" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.428571428571429" style="28"/>
+    <col min="4" max="4" width="15.428571428571429" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.714285714285714" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="10.428571428571429" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>123</v>
       </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="27">
         <v>321</v>
       </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1951,7 +2123,82 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7af62a67-9c13-4ca9-8ddc-34cb9777b40f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ed56be-cd1c-44cc-a971-44b35c59feba}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
+  <cols>
+    <col min="1" max="1" width="17.142857142857142" customWidth="1"/>
+    <col min="2" max="5" width="12.142857142857142" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.05">
+      <c r="A1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.05">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27">
+        <v>321</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.05">
+      <c r="A3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="27">
+        <v>123</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3e05e7ad-d45d-404e-a1c3-f7083522788a}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1960,41 +2207,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.714285714285714" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.285714285714286" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="10.428571428571429" style="27"/>
+    <col min="1" max="1" width="12.714285714285714" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.285714285714286" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="10.428571428571429" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.05">
-      <c r="A2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="27">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.05">
-      <c r="A3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="A3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="27">
         <v>123</v>
       </c>
     </row>
@@ -2004,71 +2251,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f818d3d1-bf22-48fc-b578-6b7965f8d607}">
-  <dimension ref="A1:J12"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35c06e19-ba96-48d0-ae30-b93734e33e9c}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.714285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="10.714285714285714" style="41" customWidth="1"/>
-    <col min="2" max="3" width="15.285714285714286" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.142857142857142" style="41" customWidth="1"/>
-    <col min="5" max="6" width="29.857142857142858" style="41" customWidth="1"/>
-    <col min="7" max="7" width="31.571428571428573" style="41" customWidth="1"/>
-    <col min="8" max="8" width="30.285714285714285" style="41" customWidth="1"/>
-    <col min="9" max="9" width="29.857142857142858" style="41" customWidth="1"/>
-    <col min="10" max="10" width="28.857142857142858" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="44.714285714285715" style="41"/>
+    <col min="1" max="1" width="10.714285714285714" style="31" customWidth="1"/>
+    <col min="2" max="3" width="15.285714285714286" style="31" customWidth="1"/>
+    <col min="4" max="4" width="16.142857142857142" style="31" customWidth="1"/>
+    <col min="5" max="6" width="29.857142857142858" style="31" customWidth="1"/>
+    <col min="7" max="7" width="31.571428571428573" style="31" customWidth="1"/>
+    <col min="8" max="8" width="30.285714285714285" style="31" customWidth="1"/>
+    <col min="9" max="9" width="29.857142857142858" style="31" customWidth="1"/>
+    <col min="10" max="10" width="28.857142857142858" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="44.714285714285715" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.7" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="C1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="E1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="F1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="H1" s="43" t="s">
         <v>45</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.7" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>48</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -2081,18 +2328,18 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="34">
         <v>862019</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -2101,38 +2348,38 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="35">
         <v>843959</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="C4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="14.9">
+    <row r="5" spans="1:10" ht="14.05">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="36">
         <v>296063</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -2141,18 +2388,18 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="36">
         <v>305703</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="C6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -2161,18 +2408,18 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="36">
         <v>834966</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="C7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2181,72 +2428,92 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.05">
-      <c r="A9" s="21"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="B8" s="36">
+        <v>681303</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.9">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="14.05">
       <c r="A10" s="21"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="14.05">
       <c r="A11" s="21"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="14.05">
       <c r="A12" s="21"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
+    <row r="13" spans="1:10" ht="14.05">
+      <c r="A13" s="21"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" priority="3" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("Yes",#REF!)))</formula>
       <formula/>
@@ -2257,58 +2524,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="9.309099999999999" bottom="9.309099999999999" header="9.1122" footer="9.1122"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfc5b282-eeca-4cbf-b11c-ca5bcee4e097}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="20.85"/>
-  <cols>
-    <col min="1" max="1" width="12.142857142857142" customWidth="1"/>
-    <col min="2" max="2" width="18.571428571428573" customWidth="1"/>
-    <col min="3" max="3" width="15.428571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20.85">
-      <c r="A1" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.8">
-      <c r="A2" s="30">
-        <v>305703</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="32">
-        <v>320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="632" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="632" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,8 @@
     <sheet name="SadsLogin" sheetId="8" r:id="rId10"/>
     <sheet name="TestExecution" sheetId="9" r:id="rId11"/>
     <sheet name="FMSParam_Control_Records" sheetId="10" r:id="rId12"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="11" r:id="rId13"/>
+    <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId13"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -121,6 +122,9 @@
     <t>CSM_User2</t>
   </si>
   <si>
+    <t>VAK</t>
+  </si>
+  <si>
     <t>FMS_ParamUser1</t>
   </si>
   <si>
@@ -214,31 +218,61 @@
     <t>Country Code</t>
   </si>
   <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>No of payment input</t>
+  </si>
+  <si>
+    <t>No of Payment Select</t>
+  </si>
+  <si>
+    <t>Application For</t>
+  </si>
+  <si>
+    <t>CIF No</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Country of Financing</t>
+  </si>
+  <si>
+    <t>Facility Rating</t>
+  </si>
+  <si>
+    <t>Total value</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>DS01_665923</t>
+  </si>
+  <si>
+    <t>Nearest 1</t>
+  </si>
+  <si>
+    <t>New Facility</t>
+  </si>
+  <si>
+    <t>31/5/2023</t>
+  </si>
+  <si>
+    <t>More Comments</t>
+  </si>
+  <si>
     <t>Search Code</t>
   </si>
   <si>
-    <t>Application For</t>
-  </si>
-  <si>
-    <t>CIF No</t>
-  </si>
-  <si>
-    <t>Facility Type</t>
-  </si>
-  <si>
-    <t>Country of Financing</t>
-  </si>
-  <si>
-    <t>Facility Rating</t>
-  </si>
-  <si>
-    <t>Total value</t>
-  </si>
-  <si>
-    <t>Expire Date</t>
-  </si>
-  <si>
-    <t>Product Class</t>
+    <t>Down Payment %</t>
+  </si>
+  <si>
+    <t>Down Payment to Vendor %</t>
   </si>
   <si>
     <t>Charges Details Code</t>
@@ -259,13 +293,25 @@
     <t>Decision3</t>
   </si>
   <si>
-    <t>New Facility</t>
-  </si>
-  <si>
-    <t>31/5/2023</t>
-  </si>
-  <si>
     <t>Approve</t>
+  </si>
+  <si>
+    <t>DS01_640861</t>
+  </si>
+  <si>
+    <t>583893_1</t>
+  </si>
+  <si>
+    <t>DS01_583893_1</t>
+  </si>
+  <si>
+    <t>Test Comments</t>
+  </si>
+  <si>
+    <t>583893_2</t>
+  </si>
+  <si>
+    <t>DS01_583893_2</t>
   </si>
 </sst>
 </file>
@@ -304,19 +350,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,6 +358,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -341,6 +380,13 @@
       <sz val="11"/>
       <color rgb="FF1E1C11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -528,27 +574,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment/>
       <protection/>
     </xf>
@@ -570,28 +616,60 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment/>
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -599,7 +677,7 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -607,168 +685,135 @@
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="29" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="29" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="41"/>
@@ -1205,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821fa0b8-9868-4e36-937a-34e6f36268dd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ad7d13b-5586-4475-b56c-6f2d2cfb8fe6}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1214,14 +1259,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.714285714285714" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.857142857142858" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.285714285714285" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.714285714285715" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.285714285714285" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.142857142857142" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="32.285714285714285" style="6"/>
+    <col min="1" max="1" width="22" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.714285714285714" style="14" customWidth="1"/>
+    <col min="3" max="3" width="30.857142857142858" style="14" customWidth="1"/>
+    <col min="4" max="5" width="20.285714285714285" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.714285714285715" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.285714285714285" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.142857142857142" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="32.285714285714285" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.05">
@@ -1240,167 +1285,167 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="15">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="14.05">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="14.05">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="14.05">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="14.05">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14.05">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14.05">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14.05">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14.05">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14.05">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14.05">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14.05">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14.05">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14.05">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14.05">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
@@ -1409,39 +1454,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43e7b4e2-e16e-4e74-8e7e-c9e1ff69d603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7067efe6-66b0-48d9-be4a-d5a8bbf12d36}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="20.85"/>
+  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="12.8"/>
   <cols>
     <col min="1" max="1" width="12.142857142857142" customWidth="1"/>
     <col min="2" max="2" width="18.571428571428573" customWidth="1"/>
     <col min="3" max="3" width="15.428571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.85">
-      <c r="A1" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="44" t="s">
+    <row r="1" spans="1:3" ht="20.85" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>60</v>
       </c>
+      <c r="C1" s="31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="12.8">
-      <c r="A2" s="36">
+      <c r="A2" s="30">
         <v>305703</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="32">
         <v>320</v>
       </c>
     </row>
@@ -1456,287 +1501,468 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595128b8-f654-4b10-a7b7-8d9d2130e430}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b96853dd-8930-443f-8654-6edeca6e88cf}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" width="12.142857142857142" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.714285714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.428571428571427" customWidth="1"/>
+    <col min="5" max="5" width="21.428571428571427" customWidth="1"/>
+    <col min="6" max="6" width="17.285714285714285" customWidth="1"/>
+    <col min="7" max="13" width="12.142857142857142" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14.9">
+      <c r="A1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.8">
+      <c r="A2" s="30">
+        <v>665923</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>60</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="36">
+        <v>727</v>
+      </c>
+      <c r="H2" s="36">
+        <v>369</v>
+      </c>
+      <c r="I2" s="36">
+        <v>320</v>
+      </c>
+      <c r="J2" s="36">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="36">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e8e3de11-bfac-497f-9da0-258b22dc936c}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="12.8"/>
   <cols>
     <col min="1" max="1" width="13.571428571428571" customWidth="1"/>
-    <col min="2" max="2" width="14.428571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.571428571428571" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.142857142857142" customWidth="1"/>
-    <col min="12" max="12" width="21.142857142857142" customWidth="1"/>
-    <col min="13" max="13" width="14.571428571428571" customWidth="1"/>
-    <col min="14" max="14" width="15.571428571428571" customWidth="1"/>
+    <col min="2" max="2" width="15.714285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.428571428571427" customWidth="1"/>
+    <col min="4" max="4" width="13.571428571428571" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="8" max="8" width="20.857142857142858" customWidth="1"/>
+    <col min="9" max="9" width="14.571428571428571" customWidth="1"/>
+    <col min="11" max="11" width="18.571428571428573" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="15" max="15" width="21.142857142857142" customWidth="1"/>
+    <col min="16" max="16" width="14.571428571428571" customWidth="1"/>
+    <col min="17" max="17" width="15.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.9">
-      <c r="A1" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="46" t="s">
+    <row r="1" spans="1:20" ht="14.9">
+      <c r="A1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="G1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="I1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="49" t="s">
+      <c r="O1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="12.8">
+      <c r="A2" s="30">
+        <v>843959</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="12.8">
-      <c r="A2" s="36">
-        <v>843959</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="F2" s="36">
+        <v>727</v>
+      </c>
+      <c r="G2" s="36">
+        <v>369</v>
+      </c>
+      <c r="H2" s="36">
+        <v>320</v>
+      </c>
+      <c r="I2" s="36">
+        <v>2</v>
+      </c>
+      <c r="J2" s="36">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="47">
+      <c r="N2" s="36">
+        <v>600</v>
+      </c>
+      <c r="O2" s="50">
+        <v>1</v>
+      </c>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.8">
+      <c r="A3" s="30">
+        <v>862019</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="36">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="12.8">
+      <c r="A4" s="30">
+        <v>296063</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="36">
         <v>727</v>
       </c>
-      <c r="F2" s="47">
+      <c r="G4" s="36">
         <v>369</v>
       </c>
-      <c r="G2" s="47">
+      <c r="H4" s="36">
         <v>320</v>
       </c>
-      <c r="H2" s="47">
+      <c r="I4" s="36">
         <v>2</v>
       </c>
-      <c r="I2" s="47">
+      <c r="J4" s="36">
         <v>1000</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="47">
-        <v>600</v>
-      </c>
-      <c r="L2" s="50">
-        <v>1</v>
-      </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.8">
-      <c r="A3" s="36">
-        <v>862019</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="47">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="12.8">
-      <c r="A4" s="36">
-        <v>296063</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="M4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="47">
+      <c r="N4" s="36">
+        <v>1</v>
+      </c>
+      <c r="O4" s="50">
+        <v>1</v>
+      </c>
+      <c r="P4" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>1</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="12.8">
+      <c r="A5" s="30">
+        <v>834966</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="36">
+        <v>369</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="36">
         <v>727</v>
       </c>
-      <c r="F4" s="47">
+      <c r="G5" s="36">
         <v>369</v>
       </c>
-      <c r="G4" s="47">
+      <c r="H5" s="36">
         <v>320</v>
       </c>
-      <c r="H4" s="47">
+      <c r="I5" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="47">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="47">
-        <v>1</v>
-      </c>
-      <c r="L4" s="50">
-        <v>1</v>
-      </c>
-      <c r="M4" s="50">
-        <v>1</v>
-      </c>
-      <c r="N4" s="50">
-        <v>1</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="12.8">
-      <c r="A5" s="36">
-        <v>834966</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="47">
+      <c r="J5" s="36">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="36">
+        <v>1</v>
+      </c>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>1</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="12.8">
+      <c r="A6" s="30">
+        <v>681303</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="36">
         <v>369</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="E6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="36">
+        <v>727</v>
+      </c>
+      <c r="G6" s="36">
+        <v>369</v>
+      </c>
+      <c r="H6" s="36">
+        <v>320</v>
+      </c>
+      <c r="I6" s="36">
+        <v>2</v>
+      </c>
+      <c r="J6" s="36">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="47">
+      <c r="N6" s="36">
+        <v>1</v>
+      </c>
+      <c r="O6" s="50">
+        <v>1</v>
+      </c>
+      <c r="P6" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>1</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.8">
+      <c r="A7" s="30">
+        <v>640861</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="36">
         <v>727</v>
       </c>
-      <c r="F5" s="47">
+      <c r="G7" s="36">
         <v>369</v>
       </c>
-      <c r="G5" s="47">
+      <c r="H7" s="36">
         <v>320</v>
       </c>
-      <c r="H5" s="47">
+      <c r="I7" s="36">
         <v>2</v>
       </c>
-      <c r="I5" s="47">
+      <c r="J7" s="36">
         <v>10000</v>
       </c>
-      <c r="J5" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="47">
-        <v>1</v>
-      </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50">
-        <v>1</v>
-      </c>
-      <c r="N5" s="50">
-        <v>1</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="12.8">
-      <c r="A6" s="36">
-        <v>681303</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="47">
-        <v>369</v>
-      </c>
-      <c r="D6" s="48" t="s">
+      <c r="K7" s="36">
+        <v>2</v>
+      </c>
+      <c r="L7" s="36">
+        <v>2</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="47">
-        <v>727</v>
-      </c>
-      <c r="F6" s="47">
-        <v>369</v>
-      </c>
-      <c r="G6" s="47">
-        <v>320</v>
-      </c>
-      <c r="H6" s="47">
-        <v>2</v>
-      </c>
-      <c r="I6" s="47">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="47">
-        <v>1</v>
-      </c>
-      <c r="L6" s="50">
-        <v>1</v>
-      </c>
-      <c r="M6" s="50">
-        <v>1</v>
-      </c>
-      <c r="N6" s="50">
-        <v>1</v>
-      </c>
-      <c r="O6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="52" t="s">
-        <v>78</v>
+      <c r="N7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.8">
+      <c r="A8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12.8">
+      <c r="A9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7b28dd9a-1c26-454e-82e4-56b9d7afa54d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991a69c-8eb4-414c-a4b8-178015bf6e4c}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1759,10 +1985,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.71428571428572" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.57142857142857" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.857142857142854" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="137.71428571428572" style="6"/>
+    <col min="1" max="1" width="21" style="14" customWidth="1"/>
+    <col min="2" max="2" width="33.57142857142857" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.857142857142854" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="137.71428571428572" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -1778,7 +2004,7 @@
     </row>
     <row r="2" spans="1:3" ht="28.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1787,7 +2013,7 @@
     </row>
     <row r="3" spans="1:3" ht="28.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1796,7 +2022,7 @@
     </row>
     <row r="4" spans="1:3" ht="28.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1805,7 +2031,7 @@
     </row>
     <row r="5" spans="1:3" ht="28.3">
       <c r="A5" s="22"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -1819,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d121898f-fd3b-422c-b19e-866b7cebb03d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b126ef78-ea5e-413e-a258-92425a1fd4e8}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="F1">
@@ -1897,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ab973daa-3553-4c20-8759-b0a2da87ec58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81c5fa3b-5668-464d-b7dd-f2b40c7547aa}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1973,71 +2199,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44b17301-0b04-4d4b-a064-5ecd5e4fcae6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494cc60-995e-4fb7-b0f8-a9c5c691a95b}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="11.857142857142858" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="28"/>
-    <col min="4" max="4" width="15.428571428571429" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="28"/>
+    <col min="1" max="1" width="11.857142857142858" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.428571428571429" style="27"/>
+    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="10.428571428571429" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="27">
-        <v>123</v>
-      </c>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="B2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="26">
+        <v>321</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>321</v>
       </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2048,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7e722af3-2fc2-486b-8ba3-6a2f2e1bee96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b6a8bd43-985d-436e-ad2b-6481c4c27fbe}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -2057,62 +2283,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="18.285714285714285" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="28"/>
-    <col min="4" max="4" width="15.428571428571429" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="28"/>
+    <col min="1" max="1" width="18.285714285714285" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.428571428571429" style="27"/>
+    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="10.428571428571429" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>123</v>
       </c>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>321</v>
       </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2123,11 +2349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ed56be-cd1c-44cc-a971-44b35c59feba}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{be0e83df-fe04-4e43-a8e7-76c285c93728}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
@@ -2137,53 +2363,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>321</v>
       </c>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>123</v>
       </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2198,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3e05e7ad-d45d-404e-a1c3-f7083522788a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34f17f97-9cad-4c90-a4b5-60ca29a96e81}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -2207,41 +2433,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.714285714285714" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.285714285714286" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="10.428571428571429" style="28"/>
+    <col min="1" max="1" width="12.714285714285714" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.285714285714286" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="10.428571428571429" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.05">
-      <c r="A2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="27">
+      <c r="B2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="26">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.05">
-      <c r="A3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="27">
+      <c r="B3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="26">
         <v>123</v>
       </c>
     </row>
@@ -2252,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35c06e19-ba96-48d0-ae30-b93734e33e9c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ad804aee-a6a8-438e-96c8-fac6a78b8638}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -2261,61 +2487,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.714285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="10.714285714285714" style="31" customWidth="1"/>
-    <col min="2" max="3" width="15.285714285714286" style="31" customWidth="1"/>
-    <col min="4" max="4" width="16.142857142857142" style="31" customWidth="1"/>
-    <col min="5" max="6" width="29.857142857142858" style="31" customWidth="1"/>
-    <col min="7" max="7" width="31.571428571428573" style="31" customWidth="1"/>
-    <col min="8" max="8" width="30.285714285714285" style="31" customWidth="1"/>
-    <col min="9" max="9" width="29.857142857142858" style="31" customWidth="1"/>
-    <col min="10" max="10" width="28.857142857142858" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="44.714285714285715" style="31"/>
+    <col min="1" max="1" width="10.714285714285714" style="38" customWidth="1"/>
+    <col min="2" max="3" width="15.285714285714286" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.142857142857142" style="38" customWidth="1"/>
+    <col min="5" max="6" width="29.857142857142858" style="38" customWidth="1"/>
+    <col min="7" max="7" width="31.571428571428573" style="38" customWidth="1"/>
+    <col min="8" max="8" width="30.285714285714285" style="38" customWidth="1"/>
+    <col min="9" max="9" width="29.857142857142858" style="38" customWidth="1"/>
+    <col min="10" max="10" width="28.857142857142858" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="44.714285714285715" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.7" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="49" t="s">
         <v>47</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.7" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>50</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -2328,18 +2554,18 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="41">
         <v>862019</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -2348,18 +2574,18 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="42">
         <v>843959</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -2368,18 +2594,18 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="30">
         <v>296063</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -2388,18 +2614,18 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="30">
         <v>305703</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -2408,18 +2634,18 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="30">
         <v>834966</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2428,18 +2654,18 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="30">
         <v>681303</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -2448,66 +2674,66 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="B9" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="14.05">
       <c r="A10" s="21"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="14.05">
       <c r="A11" s="21"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="14.05">
       <c r="A12" s="21"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="14.05">
       <c r="A13" s="21"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="632" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId3"/>
-    <sheet name="AllFeaturesTestDataInstructions" sheetId="2" r:id="rId4"/>
-    <sheet name="CSMParam_Login" sheetId="3" r:id="rId5"/>
-    <sheet name="CSM_Login" sheetId="4" r:id="rId6"/>
-    <sheet name="FMS_Login" sheetId="5" r:id="rId7"/>
-    <sheet name="FMSParam_login" sheetId="6" r:id="rId8"/>
-    <sheet name="IISParam_Login" sheetId="7" r:id="rId9"/>
-    <sheet name="SadsLogin" sheetId="8" r:id="rId10"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId11"/>
-    <sheet name="FMSParam_Control_Records" sheetId="10" r:id="rId12"/>
-    <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId13"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId14"/>
+    <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="AllFeaturesTestDataInstructions" sheetId="2" r:id="rId2"/>
+    <sheet name="CSMParam_Login" sheetId="3" r:id="rId3"/>
+    <sheet name="CSM_Login" sheetId="4" r:id="rId4"/>
+    <sheet name="FMS_Login" sheetId="5" r:id="rId5"/>
+    <sheet name="FMSParam_login" sheetId="6" r:id="rId6"/>
+    <sheet name="IISParam_Login" sheetId="7" r:id="rId7"/>
+    <sheet name="SadsLogin" sheetId="8" r:id="rId8"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId9"/>
+    <sheet name="FMSParam_Control_Records" sheetId="10" r:id="rId10"/>
+    <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId11"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId12"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -312,19 +311,59 @@
   </si>
   <si>
     <t>DS01_583893_2</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>DS01_583895</t>
+  </si>
+  <si>
+    <t>Collateral</t>
+  </si>
+  <si>
+    <t>Collaterals defined</t>
+  </si>
+  <si>
+    <t>Application Level</t>
+  </si>
+  <si>
+    <t>Sublimit</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>DS01_582426</t>
+  </si>
+  <si>
+    <t>Facility Ref</t>
+  </si>
+  <si>
+    <t>Finance Amount</t>
+  </si>
+  <si>
+    <t>CV Value</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>9500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="dddd, mmmm dd, yyyy"/>
-    <numFmt numFmtId="178" formatCode="&quot;Rs.&quot;#,##0.00;[RED]&quot;-Rs.&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="$#,##0.00;[RED]-$#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -334,12 +373,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -405,23 +438,6 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -430,25 +446,19 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -517,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -538,322 +548,186 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="29" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="40"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="41"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="9">
+    <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="8"/>
+    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="5"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="6"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="ConditionalStyle_5f_5f_5f_1" xfId="24"/>
-    <cellStyle name="ConditionalStyle_5f_5f_5f_2" xfId="25"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="26"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal_5f_20_5f_1" xfId="27"/>
-    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="28"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="29"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="30"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="31"/>
-    <cellStyle name="Heading_20_1" xfId="32"/>
-    <cellStyle name="Heading1_20_1" xfId="33"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="34"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="35"/>
-    <cellStyle name="Result_20_1" xfId="36"/>
-    <cellStyle name="Result2_20_1" xfId="37"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="38"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="39"/>
-    <cellStyle name="ConditionalStyle_5f_2" xfId="40"/>
-    <cellStyle name="ConditionalStyle_5f_1" xfId="41"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="42"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
         <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
+        <name val="Arial"/>
       </font>
       <fill>
         <patternFill>
@@ -862,87 +736,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -997,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1049,7 +844,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1250,26 +1045,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ad7d13b-5586-4475-b56c-6f2d2cfb8fe6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.714285714285714" style="14" customWidth="1"/>
-    <col min="3" max="3" width="30.857142857142858" style="14" customWidth="1"/>
-    <col min="4" max="5" width="20.285714285714285" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.714285714285715" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.285714285714285" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.142857142857142" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="32.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="14" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="30.88671875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="14" width="20.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="14" width="17.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="14" width="20.109375" collapsed="true"/>
+    <col min="9" max="16384" style="14" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.05">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.2">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
       <c r="C2" s="10"/>
@@ -1307,7 +1102,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="14.05">
+    <row r="3" spans="1:8">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1317,7 +1112,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="14.05">
+    <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1327,7 +1122,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.05">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1337,7 +1132,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="14.05">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1347,7 +1142,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="14.05">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1357,7 +1152,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="14.05">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1367,7 +1162,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="14.05">
+    <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1377,7 +1172,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="14.05">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1387,7 +1182,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="14.05">
+    <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1397,7 +1192,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="14.05">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1407,7 +1202,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="14.05">
+    <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1417,7 +1212,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="14.05">
+    <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1427,7 +1222,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="14.05">
+    <row r="15" spans="1:8">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1437,7 +1232,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="14.05">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1448,24 +1243,24 @@
       <c r="H16" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9803" footer="4.9803"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9802999999999997" footer="4.9802999999999997"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7067efe6-66b0-48d9-be4a-d5a8bbf12d36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.142857142857142" customWidth="1"/>
-    <col min="2" max="2" width="18.571428571428573" customWidth="1"/>
-    <col min="3" max="3" width="15.428571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.85" customHeight="1">
@@ -1479,7 +1274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.8">
+    <row r="2" spans="1:3">
       <c r="A2" s="30">
         <v>305703</v>
       </c>
@@ -1491,8 +1286,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1501,25 +1296,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b96853dd-8930-443f-8654-6edeca6e88cf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.142857142857142" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.714285714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.428571428571427" customWidth="1"/>
-    <col min="5" max="5" width="21.428571428571427" customWidth="1"/>
-    <col min="6" max="6" width="17.285714285714285" customWidth="1"/>
-    <col min="7" max="13" width="12.142857142857142" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="13" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.9">
+    <row r="1" spans="1:13" ht="14.4">
       <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.8">
+    <row r="2" spans="1:13">
       <c r="A2" s="30">
         <v>665923</v>
       </c>
@@ -1602,8 +1397,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1612,362 +1407,1192 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e8e3de11-bfac-497f-9da0-258b22dc936c}">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.571428571428571" customWidth="1"/>
-    <col min="2" max="2" width="15.714285714285714" customWidth="1"/>
-    <col min="3" max="3" width="17.428571428571427" customWidth="1"/>
-    <col min="4" max="4" width="13.571428571428571" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.857142857142858" customWidth="1"/>
-    <col min="9" max="9" width="14.571428571428571" customWidth="1"/>
-    <col min="11" max="11" width="18.571428571428573" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="15" max="15" width="21.142857142857142" customWidth="1"/>
-    <col min="16" max="16" width="14.571428571428571" customWidth="1"/>
-    <col min="17" max="17" width="15.571428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.6796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68359375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.9">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:26" ht="14.4">
+      <c r="A1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="12.8">
-      <c r="A2" s="30">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="50">
         <v>843959</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="36">
+      <c r="G2" s="51"/>
+      <c r="H2" s="52">
         <v>727</v>
       </c>
-      <c r="G2" s="36">
+      <c r="I2" s="52">
         <v>369</v>
       </c>
-      <c r="H2" s="36">
+      <c r="J2" s="52">
         <v>320</v>
       </c>
-      <c r="I2" s="36">
+      <c r="K2" s="52">
         <v>2</v>
       </c>
-      <c r="J2" s="36">
+      <c r="L2" s="52">
         <v>1000</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="36">
+      <c r="Q2" s="52">
         <v>600</v>
       </c>
-      <c r="O2" s="50">
-        <v>1</v>
-      </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="53">
+        <v>1</v>
+      </c>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="W2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="X2" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.8">
-      <c r="A3" s="30">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="57"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="50">
         <v>862019</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="36">
+      <c r="C3" s="52">
         <v>3451</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="12.8">
-      <c r="A4" s="30">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="50">
         <v>296063</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="36">
+      <c r="G4" s="51"/>
+      <c r="H4" s="52">
         <v>727</v>
       </c>
-      <c r="G4" s="36">
+      <c r="I4" s="52">
         <v>369</v>
       </c>
-      <c r="H4" s="36">
+      <c r="J4" s="52">
         <v>320</v>
       </c>
-      <c r="I4" s="36">
+      <c r="K4" s="52">
         <v>2</v>
       </c>
-      <c r="J4" s="36">
+      <c r="L4" s="52">
         <v>1000</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="52"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="36">
-        <v>1</v>
-      </c>
-      <c r="O4" s="50">
-        <v>1</v>
-      </c>
-      <c r="P4" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="50">
-        <v>1</v>
-      </c>
-      <c r="R4" s="51" t="s">
+      <c r="Q4" s="52">
+        <v>1</v>
+      </c>
+      <c r="R4" s="52"/>
+      <c r="S4" s="53">
+        <v>1</v>
+      </c>
+      <c r="T4" s="53">
+        <v>1</v>
+      </c>
+      <c r="U4" s="53">
+        <v>1</v>
+      </c>
+      <c r="V4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="W4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="X4" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="12.8">
-      <c r="A5" s="30">
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="57"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="50">
         <v>834966</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36">
+      <c r="C5" s="52">
         <v>369</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="36">
+      <c r="G5" s="51"/>
+      <c r="H5" s="52">
         <v>727</v>
       </c>
-      <c r="G5" s="36">
+      <c r="I5" s="52">
         <v>369</v>
       </c>
-      <c r="H5" s="36">
+      <c r="J5" s="52">
         <v>320</v>
       </c>
-      <c r="I5" s="36">
+      <c r="K5" s="52">
         <v>2</v>
       </c>
-      <c r="J5" s="36">
+      <c r="L5" s="52">
         <v>10000</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="36">
-        <v>1</v>
-      </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="50">
-        <v>1</v>
-      </c>
-      <c r="R5" s="51" t="s">
+      <c r="Q5" s="52">
+        <v>1</v>
+      </c>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53">
+        <v>1</v>
+      </c>
+      <c r="U5" s="53">
+        <v>1</v>
+      </c>
+      <c r="V5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="51" t="s">
+      <c r="W5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="X5" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="12.8">
-      <c r="A6" s="30">
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="57"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="50">
         <v>681303</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="36">
+      <c r="C6" s="52">
         <v>369</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="36">
+      <c r="G6" s="51"/>
+      <c r="H6" s="52">
         <v>727</v>
       </c>
-      <c r="G6" s="36">
+      <c r="I6" s="52">
         <v>369</v>
       </c>
-      <c r="H6" s="36">
+      <c r="J6" s="52">
         <v>320</v>
       </c>
-      <c r="I6" s="36">
+      <c r="K6" s="52">
         <v>2</v>
       </c>
-      <c r="J6" s="36">
+      <c r="L6" s="52">
         <v>10000</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="52"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="36">
-        <v>1</v>
-      </c>
-      <c r="O6" s="50">
-        <v>1</v>
-      </c>
-      <c r="P6" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="50">
-        <v>1</v>
-      </c>
-      <c r="R6" s="51" t="s">
+      <c r="Q6" s="52">
+        <v>1</v>
+      </c>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53">
+        <v>1</v>
+      </c>
+      <c r="T6" s="53">
+        <v>1</v>
+      </c>
+      <c r="U6" s="53">
+        <v>1</v>
+      </c>
+      <c r="V6" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S6" s="51" t="s">
+      <c r="W6" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="X6" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="12.8">
-      <c r="A7" s="30">
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="57"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="50">
         <v>640861</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="36">
+      <c r="G7" s="51"/>
+      <c r="H7" s="52">
         <v>727</v>
       </c>
-      <c r="G7" s="36">
+      <c r="I7" s="52">
         <v>369</v>
       </c>
-      <c r="H7" s="36">
+      <c r="J7" s="52">
         <v>320</v>
       </c>
-      <c r="I7" s="36">
+      <c r="K7" s="52">
         <v>2</v>
       </c>
-      <c r="J7" s="36">
+      <c r="L7" s="52">
         <v>10000</v>
       </c>
-      <c r="K7" s="36">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52">
         <v>2</v>
       </c>
-      <c r="L7" s="36">
+      <c r="O7" s="52">
         <v>2</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="P7" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.8">
-      <c r="A8" s="30" t="s">
+      <c r="Q7" s="52">
+        <v>1</v>
+      </c>
+      <c r="R7" s="52"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.8">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:26">
+      <c r="A9" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="50" t="s">
         <v>93</v>
       </c>
+      <c r="C9" s="57">
+        <v>3679</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="58">
+        <v>583895</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="52">
+        <v>369</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52">
+        <v>727</v>
+      </c>
+      <c r="I10" s="52">
+        <v>369</v>
+      </c>
+      <c r="J10" s="52">
+        <v>320</v>
+      </c>
+      <c r="K10" s="52">
+        <v>2</v>
+      </c>
+      <c r="L10" s="52">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="52"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="52">
+        <v>1</v>
+      </c>
+      <c r="R10" s="52"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="53">
+        <v>1</v>
+      </c>
+      <c r="U10" s="53">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="58">
+        <v>582426</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="53">
+        <v>1349</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57">
+        <v>2</v>
+      </c>
+      <c r="L11" s="57">
+        <v>500</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="57"/>
+      <c r="T11" s="53">
+        <v>1</v>
+      </c>
+      <c r="U11" s="53">
+        <v>1</v>
+      </c>
+      <c r="V11" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0834" bottom="1.0834" header="0.9445" footer="0.9445"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
@@ -1976,22 +2601,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991a69c-8eb4-414c-a4b8-178015bf6e4c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="137.71428571428572" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33.57142857142857" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.857142857142854" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="137.71428571428572" style="14"/>
+    <col min="1" max="1" customWidth="true" style="14" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="42.88671875" collapsed="true"/>
+    <col min="4" max="16384" style="14" width="137.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.05">
+    <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.3">
+    <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="19"/>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -2011,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.3">
+    <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="20"/>
       <c r="B3" s="9" t="s">
         <v>13</v>
@@ -2020,7 +2645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.3">
+    <row r="4" spans="1:3" ht="28.8">
       <c r="A4" s="21"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
@@ -2029,7 +2654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.3">
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="22"/>
       <c r="B5" s="9" t="s">
         <v>17</v>
@@ -2039,29 +2664,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="7.5382" bottom="7.5382" header="7.3412999999999995" footer="7.3412999999999995"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="7.5381999999999998" bottom="7.5381999999999998" header="7.3412999999999995" footer="7.3412999999999995"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b126ef78-ea5e-413e-a258-92425a1fd4e8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="F1">
-      <selection pane="topLeft" activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.714285714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.142857142857142" customWidth="1"/>
-    <col min="3" max="3" width="12.142857142857142" customWidth="1"/>
-    <col min="4" max="4" width="16.142857142857142" customWidth="1"/>
-    <col min="5" max="5" width="18.571428571428573" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5" ht="14.4">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
@@ -2095,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.05">
+    <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="25" t="s">
         <v>26</v>
       </c>
@@ -2113,8 +2738,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2123,21 +2748,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81c5fa3b-5668-464d-b7dd-f2b40c7547aa}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.142857142857142" customWidth="1"/>
-    <col min="4" max="4" width="16.714285714285715" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5" ht="14.4">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -2154,7 +2779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
@@ -2171,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.05">
+    <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="25" t="s">
         <v>29</v>
       </c>
@@ -2189,8 +2814,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2199,24 +2824,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494cc60-995e-4fb7-b0f8-a9c5c691a95b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.857142857142858" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="27"/>
-    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="27"/>
+    <col min="1" max="1" customWidth="true" style="27" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="27" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="27" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="27" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="27" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.05">
+    <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
@@ -2268,30 +2893,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386000000000001" footer="1.4386000000000001"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b6a8bd43-985d-436e-ad2b-6481c4c27fbe}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.285714285714285" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.571428571428571" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.428571428571429" style="27"/>
-    <col min="4" max="4" width="15.428571428571429" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.714285714285714" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.428571428571429" style="27"/>
+    <col min="1" max="1" customWidth="true" style="27" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="27" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="27" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="27" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="27" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -2308,7 +2933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
         <v>31</v>
       </c>
@@ -2325,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.05">
+    <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
         <v>32</v>
       </c>
@@ -2343,26 +2968,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386000000000001" footer="1.4386000000000001"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{be0e83df-fe04-4e43-a8e7-76c285c93728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.284285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.142857142857142" customWidth="1"/>
-    <col min="2" max="5" width="12.142857142857142" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5" ht="14.4">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +3004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="26" t="s">
         <v>33</v>
       </c>
@@ -2396,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.05">
+    <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
@@ -2414,8 +3039,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874" right="0.7874" top="1.0831" bottom="1.0831" header="0.8858" footer="0.8858"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2424,21 +3049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34f17f97-9cad-4c90-a4b5-60ca29a96e81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.714285714285714" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.285714285714286" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="10.428571428571429" style="27"/>
+    <col min="1" max="1" customWidth="true" style="27" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.05">
+    <row r="1" spans="1:3">
       <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +3074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.05">
+    <row r="2" spans="1:3">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
@@ -2460,7 +3085,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05">
+    <row r="3" spans="1:3">
       <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
@@ -2472,33 +3097,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386000000000001" footer="1.4386000000000001"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ad804aee-a6a8-438e-96c8-fac6a78b8638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.714285714285714" style="38" customWidth="1"/>
-    <col min="2" max="3" width="15.285714285714286" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.142857142857142" style="38" customWidth="1"/>
-    <col min="5" max="6" width="29.857142857142858" style="38" customWidth="1"/>
-    <col min="7" max="7" width="31.571428571428573" style="38" customWidth="1"/>
-    <col min="8" max="8" width="30.285714285714285" style="38" customWidth="1"/>
-    <col min="9" max="9" width="29.857142857142858" style="38" customWidth="1"/>
-    <col min="10" max="10" width="28.857142857142858" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="44.714285714285715" style="38"/>
+    <col min="1" max="1" customWidth="true" style="38" width="10.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="38" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="38" width="16.109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="38" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="38" width="31.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="38" width="30.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="38" width="29.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="38" width="28.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="38" width="44.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.7" customHeight="1">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>39</v>
       </c>
@@ -2530,7 +3155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.7" customHeight="1">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2550,7 +3175,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="14.9">
+    <row r="3" spans="1:10">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -2570,7 +3195,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="14.9">
+    <row r="4" spans="1:10">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -2590,7 +3215,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="14.05">
+    <row r="5" spans="1:10">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2610,7 +3235,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" ht="14.9">
+    <row r="6" spans="1:10">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -2630,7 +3255,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.9">
+    <row r="7" spans="1:10">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -2650,7 +3275,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" ht="14.9">
+    <row r="8" spans="1:10">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -2670,7 +3295,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.9">
+    <row r="9" spans="1:10">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -2690,7 +3315,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="14.05">
+    <row r="10" spans="1:10">
       <c r="A10" s="21"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -2702,7 +3327,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="14.05">
+    <row r="11" spans="1:10">
       <c r="A11" s="21"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -2714,7 +3339,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="14.05">
+    <row r="12" spans="1:10">
       <c r="A12" s="21"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2726,7 +3351,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="14.05">
+    <row r="13" spans="1:10">
       <c r="A13" s="21"/>
       <c r="B13" s="44"/>
       <c r="C13" s="45"/>
@@ -2740,13 +3365,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" priority="3" dxfId="0">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>NOT(ISERROR(SEARCH("Yes",#REF!)))</formula>
-      <formula/>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(ISERROR(SEARCH("No",#REF!)))</formula>
-      <formula/>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2754,7 +3377,7 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="9.309099999999999" bottom="9.309099999999999" header="9.1122" footer="9.1122"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="9.309099999999999" bottom="9.309099999999999" header="9.1121999999999996" footer="9.1121999999999996"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>9500</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>4500</t>
   </si>
 </sst>
 </file>
@@ -2002,14 +2008,14 @@
         <v>500</v>
       </c>
       <c r="M11" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
       <c r="R11" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="53">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="FMSParam_Control_Records" sheetId="10" r:id="rId10"/>
     <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId11"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId12"/>
+    <sheet name="FMS_Collateral_Management" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -410,6 +411,54 @@
   </si>
   <si>
     <t>Import L/C</t>
+  </si>
+  <si>
+    <t>AT_RF_158_Param</t>
+  </si>
+  <si>
+    <t>AT_RF_158_Core</t>
+  </si>
+  <si>
+    <t>DS01_AT_RF_158</t>
+  </si>
+  <si>
+    <t>DS02_AT_RF_158</t>
+  </si>
+  <si>
+    <t>Collateral Type</t>
+  </si>
+  <si>
+    <t>Valid From Date</t>
+  </si>
+  <si>
+    <t>Valid To Date</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>Collateral Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>05/01/2022</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
   </si>
 </sst>
 </file>
@@ -625,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -747,6 +796,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1674,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
@@ -2914,6 +2969,1074 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="52">
+        <v>540</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="52">
+        <v>840</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1270</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="62"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="62"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="62"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="62"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="62"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="62"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="62"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="62"/>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="62"/>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="62"/>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="62"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="62"/>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="62"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="62"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="62"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="62"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="62"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="62"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="62"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="62"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="62"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="62"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="62"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="62"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="62"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="62"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="62"/>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="62"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="62"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="62"/>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="62"/>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="62"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="62"/>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="62"/>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="62"/>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="62"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="62"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="62"/>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="62"/>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="62"/>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="62"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="62"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="62"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="62"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="62"/>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="62"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="62"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="62"/>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="62"/>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="62"/>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="62"/>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="62"/>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="62"/>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="62"/>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="62"/>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="62"/>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="62"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="62"/>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="62"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="62"/>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="62"/>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="62"/>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="62"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="62"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="62"/>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="62"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="62"/>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="62"/>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="62"/>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="62"/>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="62"/>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="62"/>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="62"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="62"/>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="62"/>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="62"/>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="62"/>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="62"/>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="62"/>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="62"/>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="62"/>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="62"/>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="62"/>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="62"/>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="62"/>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="62"/>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="62"/>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="62"/>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="62"/>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="62"/>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="62"/>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="62"/>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="62"/>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="62"/>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="62"/>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="62"/>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="62"/>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="62"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="62"/>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="62"/>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="62"/>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="62"/>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="62"/>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="62"/>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="62"/>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="62"/>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="62"/>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="62"/>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="62"/>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="62"/>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="62"/>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="62"/>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="62"/>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="62"/>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="62"/>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="62"/>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="62"/>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="62"/>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="62"/>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="62"/>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="62"/>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="62"/>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="62"/>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="62"/>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="62"/>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="62"/>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="62"/>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="62"/>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="62"/>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="62"/>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="62"/>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="62"/>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="62"/>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="62"/>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="62"/>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="62"/>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="62"/>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="62"/>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="62"/>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="62"/>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="62"/>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="62"/>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="62"/>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="62"/>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="62"/>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="62"/>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="62"/>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="62"/>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="62"/>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="62"/>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="62"/>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="62"/>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="62"/>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="62"/>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="62"/>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="62"/>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="62"/>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="62"/>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="62"/>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="62"/>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="62"/>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="62"/>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="62"/>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="62"/>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="62"/>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="62"/>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="62"/>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" s="62"/>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="62"/>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="62"/>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" s="62"/>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="62"/>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="62"/>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="62"/>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="62"/>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="62"/>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="62"/>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="62"/>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="62"/>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="62"/>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="62"/>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="62"/>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="62"/>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="62"/>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="62"/>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="62"/>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242" s="62"/>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="62"/>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="62"/>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" s="62"/>
+    </row>
+    <row r="246" spans="4:4">
+      <c r="D246" s="62"/>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" s="62"/>
+    </row>
+    <row r="248" spans="4:4">
+      <c r="D248" s="62"/>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" s="62"/>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" s="62"/>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" s="62"/>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" s="62"/>
+    </row>
+    <row r="253" spans="4:4">
+      <c r="D253" s="62"/>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="62"/>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" s="62"/>
+    </row>
+    <row r="256" spans="4:4">
+      <c r="D256" s="62"/>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257" s="62"/>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" s="62"/>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" s="62"/>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" s="62"/>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" s="62"/>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" s="62"/>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" s="62"/>
+    </row>
+    <row r="264" spans="4:4">
+      <c r="D264" s="62"/>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" s="62"/>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266" s="62"/>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" s="62"/>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" s="62"/>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" s="62"/>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" s="62"/>
+    </row>
+    <row r="271" spans="4:4">
+      <c r="D271" s="62"/>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" s="62"/>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" s="62"/>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" s="62"/>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" s="62"/>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" s="62"/>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="62"/>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" s="62"/>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" s="62"/>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" s="62"/>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" s="62"/>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" s="62"/>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" s="62"/>
+    </row>
+    <row r="284" spans="4:4">
+      <c r="D284" s="62"/>
+    </row>
+    <row r="285" spans="4:4">
+      <c r="D285" s="62"/>
+    </row>
+    <row r="286" spans="4:4">
+      <c r="D286" s="62"/>
+    </row>
+    <row r="287" spans="4:4">
+      <c r="D287" s="62"/>
+    </row>
+    <row r="288" spans="4:4">
+      <c r="D288" s="62"/>
+    </row>
+    <row r="289" spans="4:4">
+      <c r="D289" s="62"/>
+    </row>
+    <row r="290" spans="4:4">
+      <c r="D290" s="62"/>
+    </row>
+    <row r="291" spans="4:4">
+      <c r="D291" s="62"/>
+    </row>
+    <row r="292" spans="4:4">
+      <c r="D292" s="62"/>
+    </row>
+    <row r="293" spans="4:4">
+      <c r="D293" s="62"/>
+    </row>
+    <row r="294" spans="4:4">
+      <c r="D294" s="62"/>
+    </row>
+    <row r="295" spans="4:4">
+      <c r="D295" s="62"/>
+    </row>
+    <row r="296" spans="4:4">
+      <c r="D296" s="62"/>
+    </row>
+    <row r="297" spans="4:4">
+      <c r="D297" s="62"/>
+    </row>
+    <row r="298" spans="4:4">
+      <c r="D298" s="62"/>
+    </row>
+    <row r="299" spans="4:4">
+      <c r="D299" s="62"/>
+    </row>
+    <row r="300" spans="4:4">
+      <c r="D300" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
@@ -3421,7 +4544,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId11"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId12"/>
     <sheet name="FMS_Collateral_Management" sheetId="13" r:id="rId13"/>
+    <sheet name="Draw_Down_Request" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -459,6 +460,39 @@
   </si>
   <si>
     <t>Asset Type</t>
+  </si>
+  <si>
+    <t>AT_RF_157</t>
+  </si>
+  <si>
+    <t>DS01_AT_RF_157</t>
+  </si>
+  <si>
+    <t>Value Date</t>
+  </si>
+  <si>
+    <t>FC Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AT_RF_139</t>
+  </si>
+  <si>
+    <t>DS_AT_RF_139</t>
+  </si>
+  <si>
+    <t>01/05/2024</t>
+  </si>
+  <si>
+    <t>Approve Code</t>
+  </si>
+  <si>
+    <t>4071</t>
+  </si>
+  <si>
+    <t>4072</t>
   </si>
 </sst>
 </file>
@@ -546,7 +580,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +653,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -674,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -803,6 +843,15 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1142,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1158,15 +1207,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="32.33203125" style="12"/>
+    <col min="1" max="1" customWidth="true" style="12" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="13.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="16.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="20.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="15.0" collapsed="true"/>
+    <col min="9" max="16384" style="12" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1577,9 +1626,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.85" customHeight="1">
@@ -1624,13 +1673,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="13" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -1727,40 +1776,42 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" customWidth="1"/>
-    <col min="15" max="15" width="27.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="21.109375" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="13" max="13" style="68" width="13.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.6796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.4">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" s="50" t="s">
         <v>34</v>
       </c>
@@ -1797,53 +1848,59 @@
       <c r="L1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="V1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="Y1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="AB1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="50" t="s">
+      <c r="AC1" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="46">
         <v>843959</v>
       </c>
@@ -1872,29 +1929,33 @@
       <c r="L2" s="48">
         <v>1000</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="52"/>
+      <c r="M2" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="48"/>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
-      <c r="Q2" s="48">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="48">
         <v>600</v>
       </c>
-      <c r="R2" s="48"/>
       <c r="S2" s="48"/>
-      <c r="T2" s="49">
+      <c r="T2" s="48"/>
+      <c r="U2" s="49">
         <v>1</v>
       </c>
-      <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="52"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="52"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="46">
         <v>862019</v>
       </c>
@@ -1913,7 +1974,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -1928,8 +1989,10 @@
       <c r="Y3" s="52"/>
       <c r="Z3" s="52"/>
       <c r="AA3" s="52"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="46">
         <v>296063</v>
       </c>
@@ -1958,33 +2021,37 @@
       <c r="L4" s="48">
         <v>1000</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="52"/>
+      <c r="M4" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="48"/>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
-      <c r="Q4" s="48">
+      <c r="Q4" s="52"/>
+      <c r="R4" s="48">
         <v>1</v>
       </c>
-      <c r="R4" s="48"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="49">
+      <c r="T4" s="48"/>
+      <c r="U4" s="49">
         <v>1</v>
       </c>
-      <c r="U4" s="49"/>
       <c r="V4" s="49"/>
-      <c r="W4" s="49">
-        <v>1</v>
-      </c>
+      <c r="W4" s="49"/>
       <c r="X4" s="49">
         <v>1</v>
       </c>
-      <c r="Y4" s="47" t="s">
+      <c r="Y4" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="52"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="52"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="46">
         <v>834966</v>
       </c>
@@ -2015,31 +2082,35 @@
       <c r="L5" s="48">
         <v>10000</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="52"/>
+      <c r="M5" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="48"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="48">
+      <c r="Q5" s="52"/>
+      <c r="R5" s="48">
         <v>1</v>
       </c>
-      <c r="R5" s="48"/>
       <c r="S5" s="48"/>
-      <c r="T5" s="49"/>
+      <c r="T5" s="48"/>
       <c r="U5" s="49"/>
       <c r="V5" s="49"/>
-      <c r="W5" s="49">
-        <v>1</v>
-      </c>
+      <c r="W5" s="49"/>
       <c r="X5" s="49">
         <v>1</v>
       </c>
-      <c r="Y5" s="47" t="s">
+      <c r="Y5" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="52"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="52"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="46">
         <v>681303</v>
       </c>
@@ -2070,33 +2141,37 @@
       <c r="L6" s="48">
         <v>10000</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="48"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
-      <c r="Q6" s="48">
+      <c r="Q6" s="52"/>
+      <c r="R6" s="48">
         <v>1</v>
       </c>
-      <c r="R6" s="48"/>
       <c r="S6" s="48"/>
-      <c r="T6" s="49">
+      <c r="T6" s="48"/>
+      <c r="U6" s="49">
         <v>1</v>
       </c>
-      <c r="U6" s="49"/>
       <c r="V6" s="49"/>
-      <c r="W6" s="49">
-        <v>1</v>
-      </c>
+      <c r="W6" s="49"/>
       <c r="X6" s="49">
         <v>1</v>
       </c>
-      <c r="Y6" s="47" t="s">
+      <c r="Y6" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="52"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="52"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="46">
         <v>640861</v>
       </c>
@@ -2125,20 +2200,22 @@
       <c r="L7" s="48">
         <v>10000</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48">
-        <v>2</v>
-      </c>
+      <c r="M7" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="48"/>
       <c r="O7" s="48">
         <v>2</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48">
+      <c r="P7" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48">
         <v>1</v>
       </c>
-      <c r="R7" s="48"/>
       <c r="S7" s="48"/>
-      <c r="T7" s="52"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="52"/>
       <c r="V7" s="52"/>
       <c r="W7" s="52"/>
@@ -2146,14 +2223,2154 @@
       <c r="Y7" s="52"/>
       <c r="Z7" s="52"/>
       <c r="AA7" s="52"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="46" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>81</v>
       </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="52">
+        <v>3679</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="53">
+        <v>583895</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="48">
+        <v>369</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48">
+        <v>727</v>
+      </c>
+      <c r="I10" s="48">
+        <v>369</v>
+      </c>
+      <c r="J10" s="48">
+        <v>320</v>
+      </c>
+      <c r="K10" s="48">
+        <v>2</v>
+      </c>
+      <c r="L10" s="48">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" s="48"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="48">
+        <v>1</v>
+      </c>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="53">
+        <v>582426</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="49">
+        <v>1349</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52">
+        <v>2</v>
+      </c>
+      <c r="L11" s="52">
+        <v>500</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="53">
+        <v>582480</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="48">
+        <v>369</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48">
+        <v>727</v>
+      </c>
+      <c r="I12" s="48">
+        <v>369</v>
+      </c>
+      <c r="J12" s="48">
+        <v>320</v>
+      </c>
+      <c r="K12" s="48">
+        <v>2</v>
+      </c>
+      <c r="L12" s="48">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="48">
+        <v>1</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52">
+        <v>3455</v>
+      </c>
+      <c r="W12" s="52">
+        <v>2</v>
+      </c>
+      <c r="X12" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="53">
+        <v>582565</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48">
+        <v>727</v>
+      </c>
+      <c r="I13" s="48">
+        <v>369</v>
+      </c>
+      <c r="J13" s="48">
+        <v>320</v>
+      </c>
+      <c r="K13" s="48">
+        <v>2</v>
+      </c>
+      <c r="L13" s="48">
+        <v>10000</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52">
+        <v>2</v>
+      </c>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48">
+        <v>727</v>
+      </c>
+      <c r="I14" s="48">
+        <v>369</v>
+      </c>
+      <c r="J14" s="48">
+        <v>320</v>
+      </c>
+      <c r="K14" s="48">
+        <v>2</v>
+      </c>
+      <c r="L14" s="48">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="48">
+        <v>1</v>
+      </c>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K300"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="52">
+        <v>564</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="52">
+        <v>840</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1270</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="62"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="62"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="62"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="62"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="62"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="62"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="62"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="62"/>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="62"/>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="62"/>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="62"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="62"/>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="62"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="62"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="62"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="62"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="62"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="62"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="62"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="62"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="62"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="62"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="62"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="62"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="62"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="62"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="62"/>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="62"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="62"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="62"/>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="62"/>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="62"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="62"/>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="62"/>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="62"/>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="62"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="62"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="62"/>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="62"/>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="62"/>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="62"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="62"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="62"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="62"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="62"/>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="62"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="62"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="62"/>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="62"/>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="62"/>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="62"/>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="62"/>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="62"/>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="62"/>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="62"/>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="62"/>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="62"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="62"/>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="62"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="62"/>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="62"/>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="62"/>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="62"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="62"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="62"/>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="62"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="62"/>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="62"/>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="62"/>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="62"/>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="62"/>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="62"/>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="62"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="62"/>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="62"/>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="62"/>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="62"/>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="62"/>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="62"/>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="62"/>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="62"/>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="62"/>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="62"/>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="62"/>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="62"/>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="62"/>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="62"/>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="62"/>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="62"/>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="62"/>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="62"/>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="62"/>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="62"/>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="62"/>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="62"/>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="62"/>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="62"/>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="62"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="62"/>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="62"/>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="62"/>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="62"/>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="62"/>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="62"/>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="62"/>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="62"/>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="62"/>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="62"/>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="62"/>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="62"/>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="62"/>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="62"/>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="62"/>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="62"/>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="62"/>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="62"/>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="62"/>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="62"/>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="62"/>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="62"/>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="62"/>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="62"/>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="62"/>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="62"/>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="62"/>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="62"/>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="62"/>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="62"/>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="62"/>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="62"/>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="62"/>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="62"/>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="62"/>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="62"/>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="62"/>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="62"/>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="62"/>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="62"/>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="62"/>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="62"/>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="62"/>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="62"/>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="62"/>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="62"/>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="62"/>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="62"/>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="62"/>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="62"/>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="62"/>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="62"/>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="62"/>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="62"/>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="62"/>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="62"/>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="62"/>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="62"/>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="62"/>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="62"/>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="62"/>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="62"/>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="62"/>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="62"/>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="62"/>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="62"/>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="62"/>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="62"/>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="62"/>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" s="62"/>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="62"/>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="62"/>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" s="62"/>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="62"/>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="62"/>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="62"/>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="62"/>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="62"/>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="62"/>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="62"/>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="62"/>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="62"/>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="62"/>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="62"/>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="62"/>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="62"/>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="62"/>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="62"/>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242" s="62"/>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="62"/>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="62"/>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" s="62"/>
+    </row>
+    <row r="246" spans="4:4">
+      <c r="D246" s="62"/>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" s="62"/>
+    </row>
+    <row r="248" spans="4:4">
+      <c r="D248" s="62"/>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" s="62"/>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" s="62"/>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" s="62"/>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" s="62"/>
+    </row>
+    <row r="253" spans="4:4">
+      <c r="D253" s="62"/>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="62"/>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" s="62"/>
+    </row>
+    <row r="256" spans="4:4">
+      <c r="D256" s="62"/>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257" s="62"/>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" s="62"/>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" s="62"/>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" s="62"/>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" s="62"/>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" s="62"/>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" s="62"/>
+    </row>
+    <row r="264" spans="4:4">
+      <c r="D264" s="62"/>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" s="62"/>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266" s="62"/>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" s="62"/>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" s="62"/>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" s="62"/>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" s="62"/>
+    </row>
+    <row r="271" spans="4:4">
+      <c r="D271" s="62"/>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" s="62"/>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" s="62"/>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" s="62"/>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" s="62"/>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" s="62"/>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="62"/>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" s="62"/>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" s="62"/>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" s="62"/>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" s="62"/>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" s="62"/>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" s="62"/>
+    </row>
+    <row r="284" spans="4:4">
+      <c r="D284" s="62"/>
+    </row>
+    <row r="285" spans="4:4">
+      <c r="D285" s="62"/>
+    </row>
+    <row r="286" spans="4:4">
+      <c r="D286" s="62"/>
+    </row>
+    <row r="287" spans="4:4">
+      <c r="D287" s="62"/>
+    </row>
+    <row r="288" spans="4:4">
+      <c r="D288" s="62"/>
+    </row>
+    <row r="289" spans="4:4">
+      <c r="D289" s="62"/>
+    </row>
+    <row r="290" spans="4:4">
+      <c r="D290" s="62"/>
+    </row>
+    <row r="291" spans="4:4">
+      <c r="D291" s="62"/>
+    </row>
+    <row r="292" spans="4:4">
+      <c r="D292" s="62"/>
+    </row>
+    <row r="293" spans="4:4">
+      <c r="D293" s="62"/>
+    </row>
+    <row r="294" spans="4:4">
+      <c r="D294" s="62"/>
+    </row>
+    <row r="295" spans="4:4">
+      <c r="D295" s="62"/>
+    </row>
+    <row r="296" spans="4:4">
+      <c r="D296" s="62"/>
+    </row>
+    <row r="297" spans="4:4">
+      <c r="D297" s="62"/>
+    </row>
+    <row r="298" spans="4:4">
+      <c r="D298" s="62"/>
+    </row>
+    <row r="299" spans="4:4">
+      <c r="D299" s="62"/>
+    </row>
+    <row r="300" spans="4:4">
+      <c r="D300" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4">
+      <c r="A1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1471</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="52">
+        <v>500</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -2168,1868 +4385,6 @@
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="52">
-        <v>3679</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="53">
-        <v>583895</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="48">
-        <v>369</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48">
-        <v>727</v>
-      </c>
-      <c r="I10" s="48">
-        <v>369</v>
-      </c>
-      <c r="J10" s="48">
-        <v>320</v>
-      </c>
-      <c r="K10" s="48">
-        <v>2</v>
-      </c>
-      <c r="L10" s="48">
-        <v>10000</v>
-      </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="48">
-        <v>1</v>
-      </c>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="49">
-        <v>1</v>
-      </c>
-      <c r="X10" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="53">
-        <v>582426</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="49">
-        <v>1349</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52">
-        <v>2</v>
-      </c>
-      <c r="L11" s="52">
-        <v>500</v>
-      </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="49">
-        <v>1</v>
-      </c>
-      <c r="X11" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="53">
-        <v>582480</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="48">
-        <v>369</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48">
-        <v>727</v>
-      </c>
-      <c r="I12" s="48">
-        <v>369</v>
-      </c>
-      <c r="J12" s="48">
-        <v>320</v>
-      </c>
-      <c r="K12" s="48">
-        <v>2</v>
-      </c>
-      <c r="L12" s="48">
-        <v>10000</v>
-      </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="48">
-        <v>1</v>
-      </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52">
-        <v>3455</v>
-      </c>
-      <c r="V12" s="52">
-        <v>2</v>
-      </c>
-      <c r="W12" s="49">
-        <v>1</v>
-      </c>
-      <c r="X12" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="53">
-        <v>582565</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48">
-        <v>727</v>
-      </c>
-      <c r="I13" s="48">
-        <v>369</v>
-      </c>
-      <c r="J13" s="48">
-        <v>320</v>
-      </c>
-      <c r="K13" s="48">
-        <v>2</v>
-      </c>
-      <c r="L13" s="48">
-        <v>10000</v>
-      </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52">
-        <v>2</v>
-      </c>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="49">
-        <v>1</v>
-      </c>
-      <c r="X13" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K300"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="52">
-        <v>540</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="52">
-        <v>840</v>
-      </c>
-      <c r="I2" s="52">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="52">
-        <v>1270</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="D16" s="62"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="62"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="62"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="62"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="62"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="62"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="62"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="62"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="62"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="62"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="62"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="62"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="62"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="62"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="62"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="62"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="62"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="62"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="62"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="62"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="62"/>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="62"/>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="62"/>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="62"/>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="62"/>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="62"/>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="62"/>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="62"/>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="62"/>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="62"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="62"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="62"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="62"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="62"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="62"/>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="62"/>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="62"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="62"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="62"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="62"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="62"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="62"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="62"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="62"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="62"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="62"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="62"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="62"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="62"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="62"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="62"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="62"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="62"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="62"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="62"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="62"/>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="62"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="62"/>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="62"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="62"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="62"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="62"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="62"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="62"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="62"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="62"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="62"/>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="62"/>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="62"/>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" s="62"/>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="62"/>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="62"/>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="62"/>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="62"/>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="62"/>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="62"/>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="62"/>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="62"/>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="62"/>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="62"/>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="62"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="62"/>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="62"/>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="62"/>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="62"/>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="62"/>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="62"/>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="62"/>
-    </row>
-    <row r="107" spans="4:4">
-      <c r="D107" s="62"/>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="62"/>
-    </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="62"/>
-    </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="62"/>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="62"/>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="62"/>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="62"/>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="62"/>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="62"/>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="62"/>
-    </row>
-    <row r="117" spans="4:4">
-      <c r="D117" s="62"/>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="62"/>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="62"/>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="62"/>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="62"/>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="62"/>
-    </row>
-    <row r="123" spans="4:4">
-      <c r="D123" s="62"/>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="62"/>
-    </row>
-    <row r="125" spans="4:4">
-      <c r="D125" s="62"/>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="62"/>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" s="62"/>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" s="62"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="62"/>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="62"/>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="62"/>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="62"/>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="62"/>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="62"/>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" s="62"/>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" s="62"/>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" s="62"/>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" s="62"/>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="62"/>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" s="62"/>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="D141" s="62"/>
-    </row>
-    <row r="142" spans="4:4">
-      <c r="D142" s="62"/>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" s="62"/>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="D144" s="62"/>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="62"/>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" s="62"/>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" s="62"/>
-    </row>
-    <row r="148" spans="4:4">
-      <c r="D148" s="62"/>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" s="62"/>
-    </row>
-    <row r="150" spans="4:4">
-      <c r="D150" s="62"/>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" s="62"/>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" s="62"/>
-    </row>
-    <row r="153" spans="4:4">
-      <c r="D153" s="62"/>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="62"/>
-    </row>
-    <row r="155" spans="4:4">
-      <c r="D155" s="62"/>
-    </row>
-    <row r="156" spans="4:4">
-      <c r="D156" s="62"/>
-    </row>
-    <row r="157" spans="4:4">
-      <c r="D157" s="62"/>
-    </row>
-    <row r="158" spans="4:4">
-      <c r="D158" s="62"/>
-    </row>
-    <row r="159" spans="4:4">
-      <c r="D159" s="62"/>
-    </row>
-    <row r="160" spans="4:4">
-      <c r="D160" s="62"/>
-    </row>
-    <row r="161" spans="4:4">
-      <c r="D161" s="62"/>
-    </row>
-    <row r="162" spans="4:4">
-      <c r="D162" s="62"/>
-    </row>
-    <row r="163" spans="4:4">
-      <c r="D163" s="62"/>
-    </row>
-    <row r="164" spans="4:4">
-      <c r="D164" s="62"/>
-    </row>
-    <row r="165" spans="4:4">
-      <c r="D165" s="62"/>
-    </row>
-    <row r="166" spans="4:4">
-      <c r="D166" s="62"/>
-    </row>
-    <row r="167" spans="4:4">
-      <c r="D167" s="62"/>
-    </row>
-    <row r="168" spans="4:4">
-      <c r="D168" s="62"/>
-    </row>
-    <row r="169" spans="4:4">
-      <c r="D169" s="62"/>
-    </row>
-    <row r="170" spans="4:4">
-      <c r="D170" s="62"/>
-    </row>
-    <row r="171" spans="4:4">
-      <c r="D171" s="62"/>
-    </row>
-    <row r="172" spans="4:4">
-      <c r="D172" s="62"/>
-    </row>
-    <row r="173" spans="4:4">
-      <c r="D173" s="62"/>
-    </row>
-    <row r="174" spans="4:4">
-      <c r="D174" s="62"/>
-    </row>
-    <row r="175" spans="4:4">
-      <c r="D175" s="62"/>
-    </row>
-    <row r="176" spans="4:4">
-      <c r="D176" s="62"/>
-    </row>
-    <row r="177" spans="4:4">
-      <c r="D177" s="62"/>
-    </row>
-    <row r="178" spans="4:4">
-      <c r="D178" s="62"/>
-    </row>
-    <row r="179" spans="4:4">
-      <c r="D179" s="62"/>
-    </row>
-    <row r="180" spans="4:4">
-      <c r="D180" s="62"/>
-    </row>
-    <row r="181" spans="4:4">
-      <c r="D181" s="62"/>
-    </row>
-    <row r="182" spans="4:4">
-      <c r="D182" s="62"/>
-    </row>
-    <row r="183" spans="4:4">
-      <c r="D183" s="62"/>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184" s="62"/>
-    </row>
-    <row r="185" spans="4:4">
-      <c r="D185" s="62"/>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186" s="62"/>
-    </row>
-    <row r="187" spans="4:4">
-      <c r="D187" s="62"/>
-    </row>
-    <row r="188" spans="4:4">
-      <c r="D188" s="62"/>
-    </row>
-    <row r="189" spans="4:4">
-      <c r="D189" s="62"/>
-    </row>
-    <row r="190" spans="4:4">
-      <c r="D190" s="62"/>
-    </row>
-    <row r="191" spans="4:4">
-      <c r="D191" s="62"/>
-    </row>
-    <row r="192" spans="4:4">
-      <c r="D192" s="62"/>
-    </row>
-    <row r="193" spans="4:4">
-      <c r="D193" s="62"/>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" s="62"/>
-    </row>
-    <row r="195" spans="4:4">
-      <c r="D195" s="62"/>
-    </row>
-    <row r="196" spans="4:4">
-      <c r="D196" s="62"/>
-    </row>
-    <row r="197" spans="4:4">
-      <c r="D197" s="62"/>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198" s="62"/>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199" s="62"/>
-    </row>
-    <row r="200" spans="4:4">
-      <c r="D200" s="62"/>
-    </row>
-    <row r="201" spans="4:4">
-      <c r="D201" s="62"/>
-    </row>
-    <row r="202" spans="4:4">
-      <c r="D202" s="62"/>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" s="62"/>
-    </row>
-    <row r="204" spans="4:4">
-      <c r="D204" s="62"/>
-    </row>
-    <row r="205" spans="4:4">
-      <c r="D205" s="62"/>
-    </row>
-    <row r="206" spans="4:4">
-      <c r="D206" s="62"/>
-    </row>
-    <row r="207" spans="4:4">
-      <c r="D207" s="62"/>
-    </row>
-    <row r="208" spans="4:4">
-      <c r="D208" s="62"/>
-    </row>
-    <row r="209" spans="4:4">
-      <c r="D209" s="62"/>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" s="62"/>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" s="62"/>
-    </row>
-    <row r="212" spans="4:4">
-      <c r="D212" s="62"/>
-    </row>
-    <row r="213" spans="4:4">
-      <c r="D213" s="62"/>
-    </row>
-    <row r="214" spans="4:4">
-      <c r="D214" s="62"/>
-    </row>
-    <row r="215" spans="4:4">
-      <c r="D215" s="62"/>
-    </row>
-    <row r="216" spans="4:4">
-      <c r="D216" s="62"/>
-    </row>
-    <row r="217" spans="4:4">
-      <c r="D217" s="62"/>
-    </row>
-    <row r="218" spans="4:4">
-      <c r="D218" s="62"/>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" s="62"/>
-    </row>
-    <row r="220" spans="4:4">
-      <c r="D220" s="62"/>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" s="62"/>
-    </row>
-    <row r="222" spans="4:4">
-      <c r="D222" s="62"/>
-    </row>
-    <row r="223" spans="4:4">
-      <c r="D223" s="62"/>
-    </row>
-    <row r="224" spans="4:4">
-      <c r="D224" s="62"/>
-    </row>
-    <row r="225" spans="4:4">
-      <c r="D225" s="62"/>
-    </row>
-    <row r="226" spans="4:4">
-      <c r="D226" s="62"/>
-    </row>
-    <row r="227" spans="4:4">
-      <c r="D227" s="62"/>
-    </row>
-    <row r="228" spans="4:4">
-      <c r="D228" s="62"/>
-    </row>
-    <row r="229" spans="4:4">
-      <c r="D229" s="62"/>
-    </row>
-    <row r="230" spans="4:4">
-      <c r="D230" s="62"/>
-    </row>
-    <row r="231" spans="4:4">
-      <c r="D231" s="62"/>
-    </row>
-    <row r="232" spans="4:4">
-      <c r="D232" s="62"/>
-    </row>
-    <row r="233" spans="4:4">
-      <c r="D233" s="62"/>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" s="62"/>
-    </row>
-    <row r="235" spans="4:4">
-      <c r="D235" s="62"/>
-    </row>
-    <row r="236" spans="4:4">
-      <c r="D236" s="62"/>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237" s="62"/>
-    </row>
-    <row r="238" spans="4:4">
-      <c r="D238" s="62"/>
-    </row>
-    <row r="239" spans="4:4">
-      <c r="D239" s="62"/>
-    </row>
-    <row r="240" spans="4:4">
-      <c r="D240" s="62"/>
-    </row>
-    <row r="241" spans="4:4">
-      <c r="D241" s="62"/>
-    </row>
-    <row r="242" spans="4:4">
-      <c r="D242" s="62"/>
-    </row>
-    <row r="243" spans="4:4">
-      <c r="D243" s="62"/>
-    </row>
-    <row r="244" spans="4:4">
-      <c r="D244" s="62"/>
-    </row>
-    <row r="245" spans="4:4">
-      <c r="D245" s="62"/>
-    </row>
-    <row r="246" spans="4:4">
-      <c r="D246" s="62"/>
-    </row>
-    <row r="247" spans="4:4">
-      <c r="D247" s="62"/>
-    </row>
-    <row r="248" spans="4:4">
-      <c r="D248" s="62"/>
-    </row>
-    <row r="249" spans="4:4">
-      <c r="D249" s="62"/>
-    </row>
-    <row r="250" spans="4:4">
-      <c r="D250" s="62"/>
-    </row>
-    <row r="251" spans="4:4">
-      <c r="D251" s="62"/>
-    </row>
-    <row r="252" spans="4:4">
-      <c r="D252" s="62"/>
-    </row>
-    <row r="253" spans="4:4">
-      <c r="D253" s="62"/>
-    </row>
-    <row r="254" spans="4:4">
-      <c r="D254" s="62"/>
-    </row>
-    <row r="255" spans="4:4">
-      <c r="D255" s="62"/>
-    </row>
-    <row r="256" spans="4:4">
-      <c r="D256" s="62"/>
-    </row>
-    <row r="257" spans="4:4">
-      <c r="D257" s="62"/>
-    </row>
-    <row r="258" spans="4:4">
-      <c r="D258" s="62"/>
-    </row>
-    <row r="259" spans="4:4">
-      <c r="D259" s="62"/>
-    </row>
-    <row r="260" spans="4:4">
-      <c r="D260" s="62"/>
-    </row>
-    <row r="261" spans="4:4">
-      <c r="D261" s="62"/>
-    </row>
-    <row r="262" spans="4:4">
-      <c r="D262" s="62"/>
-    </row>
-    <row r="263" spans="4:4">
-      <c r="D263" s="62"/>
-    </row>
-    <row r="264" spans="4:4">
-      <c r="D264" s="62"/>
-    </row>
-    <row r="265" spans="4:4">
-      <c r="D265" s="62"/>
-    </row>
-    <row r="266" spans="4:4">
-      <c r="D266" s="62"/>
-    </row>
-    <row r="267" spans="4:4">
-      <c r="D267" s="62"/>
-    </row>
-    <row r="268" spans="4:4">
-      <c r="D268" s="62"/>
-    </row>
-    <row r="269" spans="4:4">
-      <c r="D269" s="62"/>
-    </row>
-    <row r="270" spans="4:4">
-      <c r="D270" s="62"/>
-    </row>
-    <row r="271" spans="4:4">
-      <c r="D271" s="62"/>
-    </row>
-    <row r="272" spans="4:4">
-      <c r="D272" s="62"/>
-    </row>
-    <row r="273" spans="4:4">
-      <c r="D273" s="62"/>
-    </row>
-    <row r="274" spans="4:4">
-      <c r="D274" s="62"/>
-    </row>
-    <row r="275" spans="4:4">
-      <c r="D275" s="62"/>
-    </row>
-    <row r="276" spans="4:4">
-      <c r="D276" s="62"/>
-    </row>
-    <row r="277" spans="4:4">
-      <c r="D277" s="62"/>
-    </row>
-    <row r="278" spans="4:4">
-      <c r="D278" s="62"/>
-    </row>
-    <row r="279" spans="4:4">
-      <c r="D279" s="62"/>
-    </row>
-    <row r="280" spans="4:4">
-      <c r="D280" s="62"/>
-    </row>
-    <row r="281" spans="4:4">
-      <c r="D281" s="62"/>
-    </row>
-    <row r="282" spans="4:4">
-      <c r="D282" s="62"/>
-    </row>
-    <row r="283" spans="4:4">
-      <c r="D283" s="62"/>
-    </row>
-    <row r="284" spans="4:4">
-      <c r="D284" s="62"/>
-    </row>
-    <row r="285" spans="4:4">
-      <c r="D285" s="62"/>
-    </row>
-    <row r="286" spans="4:4">
-      <c r="D286" s="62"/>
-    </row>
-    <row r="287" spans="4:4">
-      <c r="D287" s="62"/>
-    </row>
-    <row r="288" spans="4:4">
-      <c r="D288" s="62"/>
-    </row>
-    <row r="289" spans="4:4">
-      <c r="D289" s="62"/>
-    </row>
-    <row r="290" spans="4:4">
-      <c r="D290" s="62"/>
-    </row>
-    <row r="291" spans="4:4">
-      <c r="D291" s="62"/>
-    </row>
-    <row r="292" spans="4:4">
-      <c r="D292" s="62"/>
-    </row>
-    <row r="293" spans="4:4">
-      <c r="D293" s="62"/>
-    </row>
-    <row r="294" spans="4:4">
-      <c r="D294" s="62"/>
-    </row>
-    <row r="295" spans="4:4">
-      <c r="D295" s="62"/>
-    </row>
-    <row r="296" spans="4:4">
-      <c r="D296" s="62"/>
-    </row>
-    <row r="297" spans="4:4">
-      <c r="D297" s="62"/>
-    </row>
-    <row r="298" spans="4:4">
-      <c r="D298" s="62"/>
-    </row>
-    <row r="299" spans="4:4">
-      <c r="D299" s="62"/>
-    </row>
-    <row r="300" spans="4:4">
-      <c r="D300" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,10 +4402,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="12"/>
+    <col min="1" max="1" customWidth="true" style="12" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="42.88671875" collapsed="true"/>
+    <col min="4" max="16384" style="12" width="137.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4116,11 +4471,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -4194,9 +4549,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -4270,12 +4625,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="23"/>
-    <col min="4" max="4" width="15.44140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="23"/>
+    <col min="1" max="1" customWidth="true" style="23" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="23" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="23" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="23" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="23" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="23" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4345,12 +4700,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="23"/>
-    <col min="4" max="4" width="15.44140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="23"/>
+    <col min="1" max="1" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="23" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="23" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="23" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="23" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="23" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4420,8 +4775,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -4495,9 +4850,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="23"/>
+    <col min="1" max="1" customWidth="true" style="23" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="23" width="11.33203125" collapsed="true"/>
+    <col min="3" max="16384" style="23" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4549,15 +4904,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="34" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="34" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="10.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="34" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="34" width="16.109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="34" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="34" width="31.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="30.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="34" width="29.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="28.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="34" width="44.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,17 @@
     <sheet name="FMSParam_Control_Records" sheetId="10" r:id="rId10"/>
     <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId11"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId12"/>
-    <sheet name="FMS_Collateral_Management" sheetId="13" r:id="rId13"/>
-    <sheet name="Draw_Down_Request" sheetId="14" r:id="rId14"/>
+    <sheet name="Request_For_FinancingTestData" sheetId="15" r:id="rId13"/>
+    <sheet name="FMS_Collateral_Management" sheetId="13" r:id="rId14"/>
+    <sheet name="Draw_Down_Request" sheetId="14" r:id="rId15"/>
+    <sheet name="Facilities_ManagementTestData" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="221">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -619,6 +621,81 @@
   </si>
   <si>
     <t>DS_AT_AFF_036</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>AT_FM_043</t>
+  </si>
+  <si>
+    <t>AT_FM_035</t>
+  </si>
+  <si>
+    <t>AT_FM_036</t>
+  </si>
+  <si>
+    <t>AT_FM_037</t>
+  </si>
+  <si>
+    <t>AT_FM_038</t>
+  </si>
+  <si>
+    <t>Request Code</t>
+  </si>
+  <si>
+    <t>Decision Forward To</t>
+  </si>
+  <si>
+    <t>Approval Committee</t>
+  </si>
+  <si>
+    <t>DS_AT_FM_043</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Approve1 Decision</t>
+  </si>
+  <si>
+    <t>Investment Committee</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Committee Member</t>
+  </si>
+  <si>
+    <t>At Least One Member</t>
+  </si>
+  <si>
+    <t>DS_AT_FM_035</t>
+  </si>
+  <si>
+    <t>Facilities_Management_608</t>
+  </si>
+  <si>
+    <t>Request_For_Financing_608</t>
+  </si>
+  <si>
+    <t>New Request</t>
+  </si>
+  <si>
+    <t>Reason For Submission</t>
+  </si>
+  <si>
+    <t>Customer CIF</t>
+  </si>
+  <si>
+    <t>Total Limit</t>
+  </si>
+  <si>
+    <t>Margin Value</t>
+  </si>
+  <si>
+    <t>4192</t>
   </si>
 </sst>
 </file>
@@ -859,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1010,10 +1087,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1353,7 +1436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1364,21 +1447,21 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="3" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="3" width="15.0" collapsed="false"/>
+    <col min="10" max="16384" style="3" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1491,8 +1574,8 @@
       <c r="C5" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>186</v>
+      <c r="D5" s="61" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="61" t="s">
@@ -1532,7 +1615,7 @@
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="61" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>98</v>
@@ -1559,7 +1642,9 @@
       <c r="F8" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H8" s="67" t="s">
         <v>189</v>
       </c>
@@ -1582,7 +1667,9 @@
       <c r="F9" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H9" s="67" t="s">
         <v>187</v>
       </c>
@@ -1605,7 +1692,9 @@
       <c r="F10" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H10" s="67" t="s">
         <v>187</v>
       </c>
@@ -1671,7 +1760,7 @@
       <c r="C13" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="76" t="s">
         <v>186</v>
       </c>
       <c r="E13" s="62" t="s">
@@ -1698,7 +1787,7 @@
       <c r="C14" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="76" t="s">
         <v>186</v>
       </c>
       <c r="E14" s="62" t="s">
@@ -1743,7 +1832,9 @@
       <c r="F16" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H16" s="67" t="s">
         <v>174</v>
       </c>
@@ -1766,7 +1857,9 @@
       <c r="F17" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H17" s="67" t="s">
         <v>173</v>
       </c>
@@ -1835,7 +1928,9 @@
       <c r="F20" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H20" s="63" t="s">
         <v>161</v>
       </c>
@@ -1858,7 +1953,9 @@
       <c r="F21" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H21" s="67" t="s">
         <v>152</v>
       </c>
@@ -1892,7 +1989,9 @@
       <c r="F23" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H23" s="63" t="s">
         <v>100</v>
       </c>
@@ -1915,7 +2014,9 @@
       <c r="F24" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H24" s="63" t="s">
         <v>100</v>
       </c>
@@ -1938,7 +2039,9 @@
       <c r="F25" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="62"/>
+      <c r="G25" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H25" s="63" t="s">
         <v>161</v>
       </c>
@@ -1961,7 +2064,9 @@
       <c r="F26" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H26" s="63" t="s">
         <v>100</v>
       </c>
@@ -1984,7 +2089,9 @@
       <c r="F27" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H27" s="63" t="s">
         <v>161</v>
       </c>
@@ -2007,7 +2114,9 @@
       <c r="F28" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="62"/>
+      <c r="G28" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H28" s="63" t="s">
         <v>100</v>
       </c>
@@ -2041,7 +2150,9 @@
       <c r="F30" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H30" s="63" t="s">
         <v>100</v>
       </c>
@@ -2064,7 +2175,9 @@
       <c r="F31" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H31" s="67" t="s">
         <v>152</v>
       </c>
@@ -2087,7 +2200,9 @@
       <c r="F32" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H32" s="63" t="s">
         <v>100</v>
       </c>
@@ -2110,7 +2225,9 @@
       <c r="F33" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="H33" s="63" t="s">
         <v>100</v>
       </c>
@@ -2153,31 +2270,61 @@
       <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="A36" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="46">
+        <v>293979</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>97</v>
+      </c>
       <c r="E36" s="62"/>
       <c r="F36" s="62"/>
       <c r="G36" s="62"/>
-      <c r="H36" s="67"/>
+      <c r="H36" s="67" t="s">
+        <v>214</v>
+      </c>
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="A37" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="77">
+        <v>741265</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>97</v>
+      </c>
       <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="67"/>
+      <c r="F37" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>213</v>
+      </c>
       <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="77">
+        <v>289236</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>199</v>
+      </c>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
       <c r="F38" s="62"/>
@@ -2186,9 +2333,15 @@
       <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="77">
+        <v>288521</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>200</v>
+      </c>
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
       <c r="F39" s="62"/>
@@ -2197,9 +2350,15 @@
       <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="77">
+        <v>282194</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>201</v>
+      </c>
       <c r="D40" s="62"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
@@ -3235,9 +3394,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.85" customHeight="1">
@@ -3282,13 +3441,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="7" max="13" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -3387,38 +3546,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13" style="55"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" customWidth="1"/>
-    <col min="23" max="23" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.88671875" customWidth="1"/>
-    <col min="29" max="29" width="15.5546875" customWidth="1"/>
-    <col min="30" max="30" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="13" max="13" style="55" width="13.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="27.109375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="21.109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="8.88671875" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="17.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.4">
@@ -4767,6 +4926,279 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="6" max="9" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="13.64453125" collapsed="false" bestFit="true"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="23.6640625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="21.5546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.4">
+      <c r="A1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="39">
+        <v>19</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="39">
+        <v>727</v>
+      </c>
+      <c r="G2" s="39">
+        <v>100</v>
+      </c>
+      <c r="H2" s="39">
+        <v>1</v>
+      </c>
+      <c r="I2" s="39">
+        <v>1</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4775,16 +5207,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4">
@@ -5833,7 +6265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
@@ -5843,12 +6275,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
@@ -6025,6 +6457,83 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.4">
+      <c r="A1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="39">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="79"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="79"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="79"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="79"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="79"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="79"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
@@ -6035,10 +6544,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6104,11 +6613,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -6182,9 +6691,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -6258,12 +6767,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6333,12 +6842,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6408,8 +6917,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -6483,9 +6992,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6537,15 +7046,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="24" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="24"/>
+    <col min="1" max="1" customWidth="true" style="24" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="24" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="24" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="24" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="24" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="24" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="24" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="24" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="24" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="224">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -458,9 +458,6 @@
     <t>01/05/2024</t>
   </si>
   <si>
-    <t>Approve Code</t>
-  </si>
-  <si>
     <t>AT_RF_140</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Request_For_Financing</t>
-  </si>
-  <si>
     <t>No Need</t>
   </si>
   <si>
@@ -695,7 +689,22 @@
     <t>Margin Value</t>
   </si>
   <si>
-    <t>4192</t>
+    <t>DS_AT_FM_038</t>
+  </si>
+  <si>
+    <t>Reference Code</t>
+  </si>
+  <si>
+    <t>Forward To</t>
+  </si>
+  <si>
+    <t>Decision3</t>
+  </si>
+  <si>
+    <t>Approve Level 3</t>
+  </si>
+  <si>
+    <t>4227</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1456,8 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" s="56" t="s">
         <v>102</v>
@@ -1501,7 +1510,7 @@
         <v>843959</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" s="61" t="s">
         <v>97</v>
@@ -1526,7 +1535,7 @@
         <v>862019</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="61" t="s">
         <v>97</v>
@@ -1552,7 +1561,7 @@
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="62" t="s">
         <v>111</v>
@@ -1572,7 +1581,7 @@
         <v>296063</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>97</v>
@@ -1608,14 +1617,14 @@
         <v>294466</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>98</v>
@@ -1633,20 +1642,20 @@
         <v>299883</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="62"/>
     </row>
@@ -1658,7 +1667,7 @@
         <v>305703</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>97</v>
@@ -1671,7 +1680,7 @@
         <v>98</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I9" s="62"/>
     </row>
@@ -1683,20 +1692,20 @@
         <v>305607</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>98</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I10" s="62"/>
     </row>
@@ -1708,10 +1717,10 @@
         <v>534131</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="62" t="s">
         <v>107</v>
@@ -1733,10 +1742,10 @@
         <v>534148</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>108</v>
@@ -1758,22 +1767,22 @@
         <v>834966</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I13" s="62"/>
     </row>
@@ -1785,22 +1794,22 @@
         <v>834967</v>
       </c>
       <c r="C14" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>184</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>186</v>
       </c>
       <c r="E14" s="62" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I14" s="62"/>
     </row>
@@ -1823,7 +1832,7 @@
         <v>665923</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>97</v>
@@ -1836,7 +1845,7 @@
         <v>98</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I16" s="62"/>
     </row>
@@ -1848,20 +1857,20 @@
         <v>666161</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G17" s="62" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I17" s="62"/>
     </row>
@@ -1873,10 +1882,10 @@
         <v>678866</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="62" t="s">
         <v>111</v>
@@ -1896,10 +1905,10 @@
         <v>679200</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>109</v>
@@ -1919,7 +1928,7 @@
         <v>681303</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>97</v>
@@ -1932,7 +1941,7 @@
         <v>98</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I20" s="62"/>
     </row>
@@ -1944,20 +1953,20 @@
         <v>680390</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I21" s="62"/>
     </row>
@@ -1980,7 +1989,7 @@
         <v>640861</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" s="61" t="s">
         <v>97</v>
@@ -2005,7 +2014,7 @@
         <v>583893</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" s="61" t="s">
         <v>97</v>
@@ -2030,7 +2039,7 @@
         <v>583895</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="61" t="s">
         <v>97</v>
@@ -2043,7 +2052,7 @@
         <v>98</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I25" s="62"/>
     </row>
@@ -2055,7 +2064,7 @@
         <v>582426</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>97</v>
@@ -2080,7 +2089,7 @@
         <v>582480</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="61" t="s">
         <v>97</v>
@@ -2093,7 +2102,7 @@
         <v>98</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I27" s="62"/>
     </row>
@@ -2105,7 +2114,7 @@
         <v>582565</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>97</v>
@@ -2135,7 +2144,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="68">
         <v>739481</v>
@@ -2160,13 +2169,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="68">
         <v>739576</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="61" t="s">
         <v>97</v>
@@ -2179,13 +2188,13 @@
         <v>98</v>
       </c>
       <c r="H31" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="68">
         <v>844419</v>
@@ -2210,13 +2219,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="68">
         <v>844428</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="61" t="s">
         <v>97</v>
@@ -2235,26 +2244,26 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="68">
         <v>844429</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="62"/>
       <c r="F34" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G34" s="61" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="67" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="I34" s="62"/>
     </row>
@@ -2271,34 +2280,36 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B36" s="46">
         <v>293979</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="F36" s="61" t="s">
+        <v>98</v>
+      </c>
       <c r="G36" s="62"/>
       <c r="H36" s="67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B37" s="77">
         <v>741265</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="61" t="s">
         <v>97</v>
@@ -2311,19 +2322,19 @@
         <v>98</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" s="77">
         <v>289236</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
@@ -2334,13 +2345,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" s="77">
         <v>288521</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
@@ -2351,13 +2362,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B40" s="77">
         <v>282194</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D40" s="62"/>
       <c r="E40" s="62"/>
@@ -3412,10 +3423,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="18">
         <v>320</v>
@@ -3493,10 +3504,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
@@ -3544,10 +3555,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
@@ -3574,13 +3585,15 @@
     <col min="24" max="24" customWidth="true" width="8.88671875" collapsed="false"/>
     <col min="25" max="25" customWidth="true" width="14.5546875" collapsed="false"/>
     <col min="26" max="26" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.23828125" collapsed="false"/>
     <col min="28" max="28" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="17.44140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.4">
+    <row r="1" spans="1:32" ht="14.4">
       <c r="A1" s="40" t="s">
         <v>34</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>104</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X1" s="41" t="s">
         <v>105</v>
@@ -3660,24 +3673,30 @@
         <v>76</v>
       </c>
       <c r="AA1" s="41" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="AB1" s="41" t="s">
         <v>106</v>
       </c>
       <c r="AC1" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD1" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -3726,14 +3745,16 @@
         <v>77</v>
       </c>
       <c r="AC2" s="37"/>
-      <c r="AD2" s="42"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="42"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="38">
         <v>3451</v>
@@ -3765,13 +3786,15 @@
       <c r="AB3" s="42"/>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -3824,14 +3847,16 @@
         <v>77</v>
       </c>
       <c r="AC4" s="37"/>
-      <c r="AD4" s="42"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="42"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>183</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="C5" s="38">
         <v>369</v>
@@ -3884,14 +3909,16 @@
         <v>77</v>
       </c>
       <c r="AC5" s="37"/>
-      <c r="AD5" s="42"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="42"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>172</v>
       </c>
       <c r="C6" s="38">
         <v>369</v>
@@ -3946,14 +3973,16 @@
         <v>77</v>
       </c>
       <c r="AC6" s="37"/>
-      <c r="AD6" s="42"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="42"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -4003,13 +4032,15 @@
       <c r="AB7" s="42"/>
       <c r="AC7" s="42"/>
       <c r="AD7" s="42"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="42">
         <v>3679</v>
@@ -4040,16 +4071,18 @@
       <c r="AA8" s="42"/>
       <c r="AB8" s="42"/>
       <c r="AC8" s="42"/>
-      <c r="AD8" s="38" t="s">
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="38">
         <v>369</v>
@@ -4105,15 +4138,17 @@
       <c r="AB9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -4157,15 +4192,17 @@
       <c r="AB10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="38">
         <v>369</v>
@@ -4221,15 +4258,17 @@
       <c r="AB11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4281,10 +4320,12 @@
       <c r="AB12" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="44" t="s">
         <v>138</v>
       </c>
@@ -4339,15 +4380,17 @@
       <c r="AB13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -4386,7 +4429,7 @@
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
       <c r="W14" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X14" s="42"/>
       <c r="Y14" s="39">
@@ -4399,42 +4442,80 @@
       <c r="AB14" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="42"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="38">
+        <v>369</v>
+      </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="54"/>
+      <c r="F15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38">
+        <v>727</v>
+      </c>
+      <c r="I15" s="38">
+        <v>369</v>
+      </c>
+      <c r="J15" s="38">
+        <v>320</v>
+      </c>
+      <c r="K15" s="38">
+        <v>2</v>
+      </c>
+      <c r="L15" s="38">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
+      <c r="R15" s="38">
+        <v>1</v>
+      </c>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
+      <c r="W15" s="39"/>
       <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="Y15" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB15" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC15" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="43"/>
       <c r="B16" s="43"/>
       <c r="C16" s="42"/>
@@ -4465,8 +4546,10 @@
       <c r="AB16" s="42"/>
       <c r="AC16" s="42"/>
       <c r="AD16" s="42"/>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="C17" s="42"/>
@@ -4497,8 +4580,10 @@
       <c r="AB17" s="42"/>
       <c r="AC17" s="42"/>
       <c r="AD17" s="42"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="43"/>
       <c r="B18" s="43"/>
       <c r="C18" s="42"/>
@@ -4529,8 +4614,10 @@
       <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
       <c r="AD18" s="42"/>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="C19" s="42"/>
@@ -4561,8 +4648,10 @@
       <c r="AB19" s="42"/>
       <c r="AC19" s="42"/>
       <c r="AD19" s="42"/>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="42"/>
@@ -4593,8 +4682,10 @@
       <c r="AB20" s="42"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="42"/>
@@ -4625,8 +4716,10 @@
       <c r="AB21" s="42"/>
       <c r="AC21" s="42"/>
       <c r="AD21" s="42"/>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="42"/>
@@ -4657,8 +4750,10 @@
       <c r="AB22" s="42"/>
       <c r="AC22" s="42"/>
       <c r="AD22" s="42"/>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="42"/>
@@ -4689,8 +4784,10 @@
       <c r="AB23" s="42"/>
       <c r="AC23" s="42"/>
       <c r="AD23" s="42"/>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="42"/>
@@ -4721,8 +4818,10 @@
       <c r="AB24" s="42"/>
       <c r="AC24" s="42"/>
       <c r="AD24" s="42"/>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="42"/>
@@ -4753,8 +4852,10 @@
       <c r="AB25" s="42"/>
       <c r="AC25" s="42"/>
       <c r="AD25" s="42"/>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="42"/>
@@ -4785,8 +4886,10 @@
       <c r="AB26" s="42"/>
       <c r="AC26" s="42"/>
       <c r="AD26" s="42"/>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="42"/>
@@ -4817,8 +4920,10 @@
       <c r="AB27" s="42"/>
       <c r="AC27" s="42"/>
       <c r="AD27" s="42"/>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="42"/>
@@ -4849,8 +4954,10 @@
       <c r="AB28" s="42"/>
       <c r="AC28" s="42"/>
       <c r="AD28" s="42"/>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="42"/>
@@ -4881,8 +4988,10 @@
       <c r="AB29" s="42"/>
       <c r="AC29" s="42"/>
       <c r="AD29" s="42"/>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="42"/>
@@ -4913,6 +5022,8 @@
       <c r="AB30" s="42"/>
       <c r="AC30" s="42"/>
       <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
@@ -4928,7 +5039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -4940,7 +5051,7 @@
     <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="false"/>
     <col min="6" max="9" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="13.64453125" collapsed="false" bestFit="true"/>
+    <col min="10" max="10" customWidth="true" width="16.77734375" collapsed="false"/>
     <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
     <col min="12" max="12" customWidth="true" width="18.44140625" collapsed="false"/>
     <col min="13" max="13" customWidth="true" width="23.6640625" collapsed="false"/>
@@ -4958,34 +5069,34 @@
         <v>61</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>202</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>79</v>
@@ -4998,19 +5109,19 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="39">
         <v>19</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="39">
         <v>727</v>
@@ -5024,20 +5135,20 @@
       <c r="I2" s="39">
         <v>1</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>220</v>
+      <c r="J2" s="42">
+        <v>4123</v>
       </c>
       <c r="K2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>208</v>
-      </c>
       <c r="N2" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O2" s="79"/>
       <c r="P2" s="79"/>
@@ -6485,10 +6596,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="39">
         <v>671</v>

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="230">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -704,7 +704,25 @@
     <t>Approve Level 3</t>
   </si>
   <si>
-    <t>4227</t>
+    <t>WIFAK_Application_608</t>
+  </si>
+  <si>
+    <t>AT_FM_057</t>
+  </si>
+  <si>
+    <t>AT_FM_058</t>
+  </si>
+  <si>
+    <t>AT_FM_059</t>
+  </si>
+  <si>
+    <t>WIFAK_Application2_608</t>
+  </si>
+  <si>
+    <t>DS_AT_FM_058</t>
+  </si>
+  <si>
+    <t>No of Payments</t>
   </si>
 </sst>
 </file>
@@ -945,7 +963,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1106,6 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1445,7 +1464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1456,21 +1475,21 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="3" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="23.44140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="3" width="15.0" collapsed="false"/>
-    <col min="10" max="16384" style="3" width="32.33203125" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1523,7 +1542,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="I2" s="62"/>
     </row>
@@ -1548,7 +1567,7 @@
         <v>101</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="I3" s="62"/>
     </row>
@@ -2027,7 +2046,7 @@
         <v>98</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="I24" s="62"/>
     </row>
@@ -2336,10 +2355,14 @@
       <c r="C38" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="62"/>
+      <c r="D38" s="72" t="s">
+        <v>174</v>
+      </c>
       <c r="E38" s="62"/>
       <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
+      <c r="G38" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
     </row>
@@ -2353,10 +2376,14 @@
       <c r="C39" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="62"/>
+      <c r="D39" s="72" t="s">
+        <v>174</v>
+      </c>
       <c r="E39" s="62"/>
       <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
+      <c r="G39" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
     </row>
@@ -2370,28 +2397,52 @@
       <c r="C40" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="62"/>
+      <c r="D40" s="61" t="s">
+        <v>97</v>
+      </c>
       <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="67"/>
+      <c r="F40" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>227</v>
+      </c>
       <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
+      <c r="A41" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="46">
+        <v>127881</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>174</v>
+      </c>
       <c r="E41" s="62"/>
       <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
+      <c r="G41" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="H41" s="67"/>
       <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="46">
+        <v>127883</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>225</v>
+      </c>
       <c r="D42" s="62"/>
       <c r="E42" s="62"/>
       <c r="F42" s="62"/>
@@ -2400,9 +2451,15 @@
       <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="46">
+        <v>140587</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>226</v>
+      </c>
       <c r="D43" s="62"/>
       <c r="E43" s="62"/>
       <c r="F43" s="62"/>
@@ -3400,14 +3457,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.85" customHeight="1">
@@ -3452,13 +3509,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="7" max="13" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -3555,45 +3612,46 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="13" max="13" style="55" width="13.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="27.109375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="21.109375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="8.88671875" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.23828125" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13" style="55"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" customWidth="1"/>
+    <col min="24" max="24" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" customWidth="1"/>
+    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.88671875" customWidth="1"/>
+    <col min="30" max="30" width="19.6640625" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.4">
+    <row r="1" spans="1:33" ht="14.4">
       <c r="A1" s="40" t="s">
         <v>34</v>
       </c>
@@ -3655,43 +3713,46 @@
         <v>87</v>
       </c>
       <c r="U1" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="AA1" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AF1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" s="36" t="s">
         <v>188</v>
       </c>
@@ -3732,24 +3793,25 @@
       </c>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="39">
+      <c r="U2" s="38"/>
+      <c r="V2" s="39">
         <v>1</v>
       </c>
-      <c r="V2" s="39"/>
       <c r="W2" s="39"/>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
       <c r="Z2" s="39"/>
       <c r="AA2" s="39"/>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="37"/>
       <c r="AD2" s="37"/>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="42"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="42"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="36" t="s">
         <v>189</v>
       </c>
@@ -3788,8 +3850,9 @@
       <c r="AD3" s="42"/>
       <c r="AE3" s="42"/>
       <c r="AF3" s="42"/>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" s="42"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="36" t="s">
         <v>190</v>
       </c>
@@ -3830,28 +3893,29 @@
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="39">
+      <c r="U4" s="38"/>
+      <c r="V4" s="39">
         <v>1</v>
       </c>
-      <c r="V4" s="39"/>
       <c r="W4" s="39"/>
       <c r="X4" s="39"/>
-      <c r="Y4" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="39"/>
       <c r="Z4" s="39">
         <v>1</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="37" t="s">
+      <c r="AA4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="37"/>
       <c r="AD4" s="37"/>
       <c r="AE4" s="37"/>
-      <c r="AF4" s="42"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="42"/>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="36" t="s">
         <v>181</v>
       </c>
@@ -3894,26 +3958,27 @@
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="39"/>
       <c r="W5" s="39"/>
       <c r="X5" s="39"/>
-      <c r="Y5" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="39"/>
       <c r="Z5" s="39">
         <v>1</v>
       </c>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="37" t="s">
+      <c r="AA5" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="37"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="37"/>
-      <c r="AF5" s="42"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="42"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="36" t="s">
         <v>168</v>
       </c>
@@ -3956,28 +4021,29 @@
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
-      <c r="U6" s="39">
+      <c r="U6" s="38"/>
+      <c r="V6" s="39">
         <v>1</v>
       </c>
-      <c r="V6" s="39"/>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
-      <c r="Y6" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="39"/>
       <c r="Z6" s="39">
         <v>1</v>
       </c>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="37" t="s">
+      <c r="AA6" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="37"/>
       <c r="AD6" s="37"/>
       <c r="AE6" s="37"/>
-      <c r="AF6" s="42"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="42"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="36" t="s">
         <v>151</v>
       </c>
@@ -4022,7 +4088,7 @@
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
-      <c r="U7" s="42"/>
+      <c r="U7" s="38"/>
       <c r="V7" s="42"/>
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
@@ -4034,8 +4100,9 @@
       <c r="AD7" s="42"/>
       <c r="AE7" s="42"/>
       <c r="AF7" s="42"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="42"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="36" t="s">
         <v>152</v>
       </c>
@@ -4073,11 +4140,14 @@
       <c r="AC8" s="42"/>
       <c r="AD8" s="42"/>
       <c r="AE8" s="42"/>
-      <c r="AF8" s="38" t="s">
+      <c r="AF8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG8" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="A9" s="43" t="s">
         <v>153</v>
       </c>
@@ -4124,26 +4194,27 @@
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="42"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="42"/>
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
-      <c r="Y9" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="42"/>
       <c r="Z9" s="39">
         <v>1</v>
       </c>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="37" t="s">
+      <c r="AA9" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="37"/>
       <c r="AD9" s="37"/>
-      <c r="AE9" s="42"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="42"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="42"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="43" t="s">
         <v>154</v>
       </c>
@@ -4182,22 +4253,23 @@
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
-      <c r="Y10" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="42"/>
       <c r="Z10" s="39">
         <v>1</v>
       </c>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="37" t="s">
+      <c r="AA10" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC10" s="37"/>
       <c r="AD10" s="37"/>
-      <c r="AE10" s="42"/>
+      <c r="AE10" s="37"/>
       <c r="AF10" s="42"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="42"/>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="44" t="s">
         <v>155</v>
       </c>
@@ -4240,30 +4312,31 @@
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42">
+      <c r="U11" s="38"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42">
         <v>3455</v>
       </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42">
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42">
         <v>2</v>
-      </c>
-      <c r="Y11" s="39">
-        <v>1</v>
       </c>
       <c r="Z11" s="39">
         <v>1</v>
       </c>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="37" t="s">
+      <c r="AA11" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
-      <c r="AE11" s="42"/>
+      <c r="AE11" s="37"/>
       <c r="AF11" s="42"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="42"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="44" t="s">
         <v>156</v>
       </c>
@@ -4310,22 +4383,23 @@
       <c r="V12" s="42"/>
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
-      <c r="Y12" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="42"/>
       <c r="Z12" s="39">
         <v>1</v>
       </c>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="37" t="s">
+      <c r="AA12" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
-      <c r="AE12" s="42"/>
+      <c r="AE12" s="37"/>
       <c r="AF12" s="42"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="42"/>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="44" t="s">
         <v>138</v>
       </c>
@@ -4370,22 +4444,23 @@
       <c r="V13" s="42"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
-      <c r="Y13" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="42"/>
       <c r="Z13" s="39">
         <v>1</v>
       </c>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="37" t="s">
+      <c r="AA13" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
-      <c r="AE13" s="42"/>
+      <c r="AE13" s="37"/>
       <c r="AF13" s="42"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="42"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="44" t="s">
         <v>141</v>
       </c>
@@ -4428,26 +4503,27 @@
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
-      <c r="W14" s="39" t="s">
+      <c r="W14" s="42"/>
+      <c r="X14" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="39">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="42"/>
       <c r="Z14" s="39">
         <v>1</v>
       </c>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="37" t="s">
+      <c r="AA14" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
-      <c r="AE14" s="42"/>
+      <c r="AE14" s="37"/>
       <c r="AF14" s="42"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="42"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="44" t="s">
         <v>199</v>
       </c>
@@ -4492,64 +4568,96 @@
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="39">
-        <v>1</v>
-      </c>
+      <c r="W15" s="42"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="42"/>
       <c r="Z15" s="39">
         <v>1</v>
       </c>
-      <c r="AA15" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB15" s="37" t="s">
+      <c r="AA15" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="AC15" s="37" t="s">
+      <c r="AD15" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AD15" s="37" t="s">
+      <c r="AE15" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AE15" s="42"/>
       <c r="AF15" s="42"/>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="AG15" s="42"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>228</v>
+      </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="54"/>
+      <c r="F16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38">
+        <v>727</v>
+      </c>
+      <c r="I16" s="38">
+        <v>369</v>
+      </c>
+      <c r="J16" s="38">
+        <v>320</v>
+      </c>
+      <c r="K16" s="38">
+        <v>2</v>
+      </c>
+      <c r="L16" s="38">
+        <v>10000</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>140</v>
+      </c>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="R16" s="38">
+        <v>1</v>
+      </c>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
+      <c r="U16" s="39">
+        <v>10</v>
+      </c>
       <c r="V16" s="42"/>
       <c r="W16" s="42"/>
       <c r="X16" s="42"/>
       <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="Z16" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="39">
+        <v>1</v>
+      </c>
       <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
+      <c r="AC16" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD16" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE16" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="AF16" s="42"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="42"/>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="C17" s="42"/>
@@ -4582,8 +4690,9 @@
       <c r="AD17" s="42"/>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="42"/>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="43"/>
       <c r="B18" s="43"/>
       <c r="C18" s="42"/>
@@ -4616,8 +4725,9 @@
       <c r="AD18" s="42"/>
       <c r="AE18" s="42"/>
       <c r="AF18" s="42"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="42"/>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="C19" s="42"/>
@@ -4650,8 +4760,9 @@
       <c r="AD19" s="42"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="42"/>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="42"/>
@@ -4684,8 +4795,9 @@
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="42"/>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="42"/>
@@ -4718,8 +4830,9 @@
       <c r="AD21" s="42"/>
       <c r="AE21" s="42"/>
       <c r="AF21" s="42"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="42"/>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="42"/>
@@ -4752,8 +4865,9 @@
       <c r="AD22" s="42"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="42"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="42"/>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="42"/>
@@ -4786,8 +4900,9 @@
       <c r="AD23" s="42"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="42"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="42"/>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="42"/>
@@ -4820,8 +4935,9 @@
       <c r="AD24" s="42"/>
       <c r="AE24" s="42"/>
       <c r="AF24" s="42"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="42"/>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="42"/>
@@ -4854,8 +4970,9 @@
       <c r="AD25" s="42"/>
       <c r="AE25" s="42"/>
       <c r="AF25" s="42"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="42"/>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="42"/>
@@ -4888,8 +5005,9 @@
       <c r="AD26" s="42"/>
       <c r="AE26" s="42"/>
       <c r="AF26" s="42"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="42"/>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="42"/>
@@ -4922,8 +5040,9 @@
       <c r="AD27" s="42"/>
       <c r="AE27" s="42"/>
       <c r="AF27" s="42"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="42"/>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="42"/>
@@ -4956,8 +5075,9 @@
       <c r="AD28" s="42"/>
       <c r="AE28" s="42"/>
       <c r="AF28" s="42"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="42"/>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="42"/>
@@ -4990,8 +5110,9 @@
       <c r="AD29" s="42"/>
       <c r="AE29" s="42"/>
       <c r="AF29" s="42"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="42"/>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="42"/>
@@ -5024,6 +5145,7 @@
       <c r="AD30" s="42"/>
       <c r="AE30" s="42"/>
       <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
@@ -5037,28 +5159,28 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="6" max="9" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="23.6640625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4">
+    <row r="1" spans="1:20" ht="14.4">
       <c r="A1" s="40" t="s">
         <v>34</v>
       </c>
@@ -5087,27 +5209,30 @@
         <v>217</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
       <c r="R1" s="40"/>
       <c r="S1" s="40"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="40"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="47" t="s">
         <v>195</v>
       </c>
@@ -5135,40 +5260,59 @@
       <c r="I2" s="39">
         <v>1</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="39"/>
+      <c r="K2" s="42">
         <v>4123</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="O2" s="79"/>
       <c r="P2" s="79"/>
       <c r="Q2" s="79"/>
       <c r="R2" s="79"/>
       <c r="S2" s="79"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="79"/>
+      <c r="T2" s="79"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="39">
+        <v>19</v>
+      </c>
       <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="E3" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="39">
+        <v>727</v>
+      </c>
+      <c r="G3" s="39">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="39">
+        <v>1</v>
+      </c>
       <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="J3" s="42">
+        <v>10</v>
+      </c>
       <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="L3" s="80" t="s">
+        <v>77</v>
+      </c>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
       <c r="O3" s="79"/>
@@ -5176,8 +5320,9 @@
       <c r="Q3" s="79"/>
       <c r="R3" s="79"/>
       <c r="S3" s="79"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="79"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="79"/>
@@ -5197,8 +5342,9 @@
       <c r="Q4" s="79"/>
       <c r="R4" s="79"/>
       <c r="S4" s="79"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="79"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="79"/>
@@ -5218,8 +5364,9 @@
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
       <c r="S5" s="79"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="79"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="79"/>
@@ -5239,8 +5386,9 @@
       <c r="Q6" s="79"/>
       <c r="R6" s="79"/>
       <c r="S6" s="79"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="79"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="48"/>
       <c r="B7" s="48"/>
       <c r="C7" s="79"/>
@@ -5260,8 +5408,9 @@
       <c r="Q7" s="79"/>
       <c r="R7" s="79"/>
       <c r="S7" s="79"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="79"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="48"/>
       <c r="B8" s="48"/>
       <c r="C8" s="79"/>
@@ -5281,8 +5430,9 @@
       <c r="Q8" s="79"/>
       <c r="R8" s="79"/>
       <c r="S8" s="79"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="79"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="48"/>
       <c r="B9" s="48"/>
       <c r="C9" s="79"/>
@@ -5302,6 +5452,7 @@
       <c r="Q9" s="79"/>
       <c r="R9" s="79"/>
       <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5313,21 +5464,21 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4">
@@ -6386,12 +6537,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
@@ -6573,14 +6724,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
@@ -6655,10 +6806,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6724,11 +6875,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -6802,9 +6953,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -6878,12 +7029,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6953,12 +7104,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7028,8 +7179,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -7103,9 +7254,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7157,15 +7308,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="24" width="10.6640625" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="24" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="24" width="16.109375" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" style="24" width="29.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="24" width="31.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="24" width="30.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="24" width="29.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="24" width="28.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="24" width="44.6640625" collapsed="false"/>
+    <col min="1" max="1" width="10.6640625" style="24" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Draw_Down_Request" sheetId="14" r:id="rId14"/>
     <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId15"/>
     <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId16"/>
+    <sheet name="FMSParameterTestData" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="259">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -762,6 +763,54 @@
   </si>
   <si>
     <t>Need to do some</t>
+  </si>
+  <si>
+    <t>DS_AT_FM_104</t>
+  </si>
+  <si>
+    <t>DS_AT_FM_105</t>
+  </si>
+  <si>
+    <t>Solicitor Date Received</t>
+  </si>
+  <si>
+    <t>Estimator Date Received</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>Estimator Date Sent</t>
+  </si>
+  <si>
+    <t>Solicitor Date Sent</t>
+  </si>
+  <si>
+    <t>Custodian Date Sent</t>
+  </si>
+  <si>
+    <t>New Facility Rating</t>
+  </si>
+  <si>
+    <t>Suspend Reason</t>
+  </si>
+  <si>
+    <t>AT_FP_001</t>
+  </si>
+  <si>
+    <t>DS_AT_FP_001</t>
+  </si>
+  <si>
+    <t>Floating Rate</t>
+  </si>
+  <si>
+    <t>FR Periodicity</t>
+  </si>
+  <si>
+    <t>FR Periodicity Type</t>
+  </si>
+  <si>
+    <t>Month(s)</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1108,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1259,6 +1308,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1598,7 +1649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3787,7 +3838,7 @@
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.88671875" customWidth="1"/>
     <col min="31" max="31" width="19.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="32" max="32" width="15.33203125" customWidth="1"/>
     <col min="33" max="33" width="15.5546875" customWidth="1"/>
     <col min="34" max="34" width="17.44140625" customWidth="1"/>
   </cols>
@@ -5206,7 +5257,7 @@
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="18.44140625" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" customWidth="1"/>
@@ -6757,7 +6808,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L3" sqref="L3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6778,6 +6829,13 @@
     <col min="14" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.77734375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4">
@@ -6831,6 +6889,27 @@
       </c>
       <c r="Q1" s="40" t="s">
         <v>217</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="W1" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="95" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -6857,6 +6936,13 @@
       <c r="O2" s="78"/>
       <c r="P2" s="78"/>
       <c r="Q2" s="78"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="46" t="s">
@@ -6908,13 +6994,13 @@
       <c r="Q3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="86"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
       <c r="Y3" s="84"/>
       <c r="Z3" s="89"/>
       <c r="AA3" s="89"/>
@@ -6970,6 +7056,13 @@
       <c r="Q4" s="36" t="s">
         <v>77</v>
       </c>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="46" t="s">
@@ -7021,44 +7114,145 @@
       <c r="Q5" s="36" t="s">
         <v>77</v>
       </c>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
+      <c r="A6" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="37">
+        <v>727</v>
+      </c>
+      <c r="E6" s="37">
+        <v>369</v>
+      </c>
+      <c r="F6" s="37">
+        <v>320</v>
+      </c>
+      <c r="G6" s="37">
+        <v>2</v>
+      </c>
+      <c r="H6" s="37">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="37">
+        <v>1</v>
+      </c>
+      <c r="K6" s="41">
+        <v>10</v>
+      </c>
+      <c r="L6" s="37">
+        <v>1</v>
+      </c>
+      <c r="M6" s="37">
+        <v>1</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="A7" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="37">
+        <v>727</v>
+      </c>
+      <c r="E7" s="37">
+        <v>369</v>
+      </c>
+      <c r="F7" s="37">
+        <v>320</v>
+      </c>
+      <c r="G7" s="37">
+        <v>2</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="37">
+        <v>1</v>
+      </c>
+      <c r="K7" s="41">
+        <v>10</v>
+      </c>
+      <c r="L7" s="37">
+        <v>1</v>
+      </c>
+      <c r="M7" s="37">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37">
+        <v>4434</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="S7" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="T7" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="U7" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="V7" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" s="41">
+        <v>3</v>
+      </c>
+      <c r="X7" s="41">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="47"/>
@@ -7078,6 +7272,13 @@
       <c r="O8" s="78"/>
       <c r="P8" s="78"/>
       <c r="Q8" s="78"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="47"/>
@@ -7097,6 +7298,13 @@
       <c r="O9" s="78"/>
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="47"/>
@@ -7116,6 +7324,13 @@
       <c r="O10" s="78"/>
       <c r="P10" s="78"/>
       <c r="Q10" s="78"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
     </row>
     <row r="11" spans="1:37">
       <c r="K11" s="84"/>
@@ -7170,7 +7385,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7178,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -7199,7 +7414,7 @@
     <col min="13" max="13" width="14.5546875" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7571,6 +7786,156 @@
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.4">
+      <c r="A1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="37">
+        <v>727</v>
+      </c>
+      <c r="E2" s="37">
+        <v>369</v>
+      </c>
+      <c r="F2" s="37">
+        <v>320</v>
+      </c>
+      <c r="G2" s="37">
+        <v>2</v>
+      </c>
+      <c r="H2" s="37">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="87">
+        <v>2</v>
+      </c>
+      <c r="K2" s="87">
+        <v>98</v>
+      </c>
+      <c r="L2" s="87">
+        <v>2</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="37">
+        <v>1</v>
+      </c>
+      <c r="O2" s="37">
+        <v>1</v>
+      </c>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="TestExecution" sheetId="9" r:id="rId9"/>
     <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId10"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId11"/>
-    <sheet name="Request_For_FinancingTestData" sheetId="15" r:id="rId12"/>
+    <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId12"/>
     <sheet name="FMS_Collateral_Management" sheetId="13" r:id="rId13"/>
     <sheet name="Draw_Down_Request" sheetId="14" r:id="rId14"/>
     <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId15"/>
     <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId16"/>
     <sheet name="FMSParameterTestData" sheetId="18" r:id="rId17"/>
+    <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="267">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -549,9 +550,6 @@
     <t>FMSParam_Facility_Custom</t>
   </si>
   <si>
-    <t>IISParam</t>
-  </si>
-  <si>
     <t>DS_AT_RF_014</t>
   </si>
   <si>
@@ -811,6 +809,33 @@
   </si>
   <si>
     <t>Month(s)</t>
+  </si>
+  <si>
+    <t>RequestForFinancing_608</t>
+  </si>
+  <si>
+    <t>Down Payment Percent</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AT_DDR_020</t>
+  </si>
+  <si>
+    <t>DS_AT_DDR_020</t>
+  </si>
+  <si>
+    <t>Down Payment Amount</t>
+  </si>
+  <si>
+    <t>AT_DDR_021</t>
+  </si>
+  <si>
+    <t>DS_AT_DDR_021</t>
+  </si>
+  <si>
+    <t>4518</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1133,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1310,6 +1335,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1649,7 +1676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1660,21 +1687,21 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="3" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="3" width="15.0" collapsed="false"/>
+    <col min="10" max="16384" style="3" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1714,7 +1741,7 @@
         <v>843959</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>97</v>
@@ -1727,7 +1754,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" s="61"/>
     </row>
@@ -1739,7 +1766,7 @@
         <v>862019</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>97</v>
@@ -1752,7 +1779,7 @@
         <v>101</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I3" s="61"/>
     </row>
@@ -1765,7 +1792,7 @@
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>110</v>
@@ -1785,7 +1812,7 @@
         <v>296063</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>97</v>
@@ -1798,7 +1825,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -1821,7 +1848,7 @@
         <v>294466</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>97</v>
@@ -1834,7 +1861,7 @@
         <v>98</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I7" s="61"/>
     </row>
@@ -1846,7 +1873,7 @@
         <v>299883</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>97</v>
@@ -1859,7 +1886,7 @@
         <v>98</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" s="61"/>
     </row>
@@ -1871,7 +1898,7 @@
         <v>305703</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>97</v>
@@ -1884,10 +1911,10 @@
         <v>98</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1898,7 +1925,7 @@
         <v>305607</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>97</v>
@@ -1911,7 +1938,7 @@
         <v>98</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10" s="61"/>
     </row>
@@ -1923,10 +1950,10 @@
         <v>534131</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="61" t="s">
         <v>106</v>
@@ -1948,10 +1975,10 @@
         <v>534148</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>107</v>
@@ -1973,22 +2000,22 @@
         <v>834966</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="63" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="I13" s="61"/>
     </row>
@@ -2000,22 +2027,22 @@
         <v>834967</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="63" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="I14" s="61"/>
     </row>
@@ -2051,7 +2078,7 @@
         <v>98</v>
       </c>
       <c r="H16" s="66" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="I16" s="61"/>
     </row>
@@ -2091,7 +2118,7 @@
         <v>165</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>110</v>
@@ -2114,7 +2141,7 @@
         <v>166</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="61" t="s">
         <v>108</v>
@@ -2233,7 +2260,7 @@
         <v>98</v>
       </c>
       <c r="H24" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I24" s="61"/>
     </row>
@@ -2469,7 +2496,7 @@
         <v>98</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I34" s="61"/>
     </row>
@@ -2486,13 +2513,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="45">
         <v>293979</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="60" t="s">
         <v>97</v>
@@ -2503,19 +2530,19 @@
       </c>
       <c r="G36" s="61"/>
       <c r="H36" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I36" s="61"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="76">
         <v>741265</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>97</v>
@@ -2528,22 +2555,22 @@
         <v>98</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I37" s="61"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" s="76">
         <v>289236</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
@@ -2555,16 +2582,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="76">
         <v>288521</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
@@ -2576,13 +2603,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" s="76">
         <v>282194</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="60" t="s">
         <v>97</v>
@@ -2595,22 +2622,22 @@
         <v>98</v>
       </c>
       <c r="H40" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I40" s="61"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" s="45">
         <v>127881</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
@@ -2622,13 +2649,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" s="45">
         <v>127883</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="60" t="s">
         <v>97</v>
@@ -2639,25 +2666,25 @@
       </c>
       <c r="G42" s="61"/>
       <c r="H42" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I42" s="61"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="45">
         <v>140587</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="60" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F43" s="60" t="s">
         <v>98</v>
@@ -2666,7 +2693,7 @@
         <v>88</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I43" s="61"/>
     </row>
@@ -2683,13 +2710,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="45">
         <v>1102235</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="60" t="s">
         <v>97</v>
@@ -2700,19 +2727,19 @@
       </c>
       <c r="G45" s="61"/>
       <c r="H45" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I45" s="61"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="45">
         <v>1102236</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46" s="61"/>
       <c r="E46" s="61"/>
@@ -2723,13 +2750,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="45">
         <v>1105452</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
@@ -2740,13 +2767,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" s="80">
         <v>1105461</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
@@ -2757,13 +2784,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="45">
         <v>1105462</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" s="61"/>
       <c r="E49" s="61"/>
@@ -3696,18 +3723,22 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -3756,7 +3787,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
@@ -3812,35 +3843,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13" style="54"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" customWidth="1"/>
-    <col min="22" max="22" width="21.109375" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" customWidth="1"/>
-    <col min="24" max="24" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" customWidth="1"/>
-    <col min="26" max="26" width="14.5546875" customWidth="1"/>
-    <col min="27" max="28" width="15.5546875" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" customWidth="1"/>
-    <col min="33" max="33" width="15.5546875" customWidth="1"/>
-    <col min="34" max="34" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="13" max="13" style="54" width="13.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="27.109375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="21.109375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="8.88671875" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="27" max="28" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="17.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.4">
@@ -3905,7 +3936,7 @@
         <v>87</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>74</v>
@@ -3926,19 +3957,19 @@
         <v>76</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AD1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="AE1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF1" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="AF1" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="AG1" s="40" t="s">
         <v>79</v>
@@ -3949,10 +3980,10 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="37">
         <v>369</v>
@@ -4567,10 +4598,10 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="37">
         <v>369</v>
@@ -4622,10 +4653,10 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="41"/>
       <c r="AD12" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE12" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF12" s="36" t="s">
         <v>77</v>
@@ -4635,10 +4666,10 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -4690,10 +4721,10 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="41"/>
       <c r="AD13" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE13" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF13" s="36" t="s">
         <v>77</v>
@@ -4703,10 +4734,10 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -5245,23 +5276,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="6" max="10" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="23.6640625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="21.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4">
@@ -5275,37 +5306,37 @@
         <v>61</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>211</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>212</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K1" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="O1" s="39" t="s">
         <v>79</v>
@@ -5318,19 +5349,19 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="38">
         <v>19</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="38">
         <v>727</v>
@@ -5349,16 +5380,16 @@
         <v>4123</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N2" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>204</v>
       </c>
       <c r="P2" s="78"/>
       <c r="Q2" s="78"/>
@@ -5368,17 +5399,17 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="38">
         <v>19</v>
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="38">
         <v>727</v>
@@ -5553,16 +5584,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4">
@@ -6621,12 +6652,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
@@ -6808,34 +6839,34 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:Q3"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="14" max="15" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="22.77734375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="23.77734375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="96" width="17.88671875" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4">
@@ -6870,7 +6901,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>75</v>
@@ -6879,45 +6910,45 @@
         <v>76</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="P1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>217</v>
-      </c>
       <c r="R1" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="V1" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="W1" s="95" t="s">
+      <c r="X1" s="95" t="s">
         <v>251</v>
-      </c>
-      <c r="X1" s="95" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="38">
@@ -6946,10 +6977,10 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>68</v>
@@ -6986,10 +7017,10 @@
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q3" s="36" t="s">
         <v>77</v>
@@ -7014,10 +7045,10 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>68</v>
@@ -7066,10 +7097,10 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>68</v>
@@ -7106,10 +7137,10 @@
       </c>
       <c r="N5" s="37"/>
       <c r="O5" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>77</v>
@@ -7124,10 +7155,10 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>68</v>
@@ -7164,10 +7195,10 @@
       </c>
       <c r="N6" s="37"/>
       <c r="O6" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>77</v>
@@ -7182,10 +7213,10 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>68</v>
@@ -7224,28 +7255,28 @@
         <v>4434</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>77</v>
       </c>
       <c r="R7" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S7" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T7" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U7" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V7" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W7" s="41">
         <v>3</v>
@@ -7393,29 +7424,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="96" width="13.44140625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="9.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.4">
@@ -7462,21 +7493,21 @@
         <v>76</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -7529,10 +7560,10 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -7571,10 +7602,10 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>187</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>188</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="78"/>
@@ -7616,10 +7647,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="79"/>
       <c r="D5" s="78"/>
@@ -7635,16 +7666,16 @@
       <c r="N5" s="78"/>
       <c r="O5" s="78"/>
       <c r="P5" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="37">
         <v>320</v>
@@ -7666,10 +7697,10 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="41">
@@ -7796,29 +7827,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -7853,13 +7884,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>75</v>
@@ -7868,24 +7899,24 @@
         <v>76</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="R1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>253</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>254</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>68</v>
@@ -7918,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N2" s="37">
         <v>1</v>
@@ -7928,14 +7959,429 @@
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>77</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R9" sqref="Q9:R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="13.64453125" collapsed="false" bestFit="true"/>
+    <col min="20" max="20" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="11.77734375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="14.4">
+      <c r="A1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37">
+        <v>727</v>
+      </c>
+      <c r="G2" s="37">
+        <v>369</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="37">
+        <v>320</v>
+      </c>
+      <c r="J2" s="37">
+        <v>2</v>
+      </c>
+      <c r="K2" s="37">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="37">
+        <v>1</v>
+      </c>
+      <c r="P2" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>1</v>
+      </c>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="38">
+        <v>727</v>
+      </c>
+      <c r="F3" s="37">
+        <v>727</v>
+      </c>
+      <c r="G3" s="37">
+        <v>19</v>
+      </c>
+      <c r="H3" s="37">
+        <v>25000</v>
+      </c>
+      <c r="I3" s="37">
+        <v>320</v>
+      </c>
+      <c r="J3" s="37">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="37">
+        <v>1</v>
+      </c>
+      <c r="P3" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>1</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7952,10 +8398,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8021,11 +8467,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -8099,9 +8545,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -8175,12 +8621,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8250,12 +8696,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8325,8 +8771,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -8400,9 +8846,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8454,15 +8900,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="23" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="23"/>
+    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="23" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId10"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId11"/>
     <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId12"/>
-    <sheet name="FMS_Collateral_Management" sheetId="13" r:id="rId13"/>
+    <sheet name="CollateralManagementTestData" sheetId="13" r:id="rId13"/>
     <sheet name="Draw_Down_Request" sheetId="14" r:id="rId14"/>
     <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId15"/>
     <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId16"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="294">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -484,9 +484,6 @@
     <t>AT_RF_141</t>
   </si>
   <si>
-    <t>Collateral_Management</t>
-  </si>
-  <si>
     <t>AT_RF_040</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>DS_AT_RF_101</t>
   </si>
   <si>
-    <t>WIFAK_Application2</t>
-  </si>
-  <si>
     <t>DS_AT_RF_100</t>
   </si>
   <si>
@@ -893,6 +887,36 @@
   </si>
   <si>
     <t>To Code</t>
+  </si>
+  <si>
+    <t>DS_AT_DDR_025</t>
+  </si>
+  <si>
+    <t>CIF Blacklist Msg</t>
+  </si>
+  <si>
+    <t>CIF Already BlackListed</t>
+  </si>
+  <si>
+    <t>AT_CM_043</t>
+  </si>
+  <si>
+    <t>DS_AT_CM_043</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>Collateral Code</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>1092</t>
   </si>
 </sst>
 </file>
@@ -1372,9 +1396,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1428,6 +1449,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1767,7 +1793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1778,22 +1804,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="108" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="105" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1822,7 +1848,7 @@
         <v>99</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J1" s="55" t="s">
         <v>96</v>
@@ -1832,11 +1858,11 @@
       <c r="A2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="91">
         <v>843959</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>183</v>
+      <c r="C2" s="92" t="s">
+        <v>181</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>97</v>
@@ -1849,7 +1875,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="59"/>
@@ -1858,11 +1884,11 @@
       <c r="A3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="91">
         <v>862019</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>184</v>
+      <c r="C3" s="92" t="s">
+        <v>182</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>97</v>
@@ -1875,7 +1901,7 @@
         <v>101</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="59"/>
@@ -1884,12 +1910,12 @@
       <c r="A4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="91">
         <v>285050</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>110</v>
@@ -1906,11 +1932,11 @@
       <c r="A5" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="91">
         <v>296063</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>185</v>
+      <c r="C5" s="92" t="s">
+        <v>183</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>97</v>
@@ -1923,15 +1949,15 @@
         <v>98</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="57"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="58"/>
@@ -1944,11 +1970,11 @@
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="91">
         <v>294466</v>
       </c>
-      <c r="C7" s="97" t="s">
-        <v>172</v>
+      <c r="C7" s="94" t="s">
+        <v>170</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>97</v>
@@ -1961,7 +1987,7 @@
         <v>98</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I7" s="60"/>
       <c r="J7" s="59"/>
@@ -1970,11 +1996,11 @@
       <c r="A8" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="91">
         <v>299883</v>
       </c>
-      <c r="C8" s="97" t="s">
-        <v>173</v>
+      <c r="C8" s="94" t="s">
+        <v>171</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>97</v>
@@ -1987,7 +2013,7 @@
         <v>98</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I8" s="59" t="s">
         <v>98</v>
@@ -1998,11 +2024,11 @@
       <c r="A9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="95">
         <v>305703</v>
       </c>
-      <c r="C9" s="97" t="s">
-        <v>174</v>
+      <c r="C9" s="94" t="s">
+        <v>172</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>97</v>
@@ -2015,24 +2041,24 @@
         <v>98</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I9" s="59" t="s">
         <v>98</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="95">
         <v>305607</v>
       </c>
-      <c r="C10" s="97" t="s">
-        <v>175</v>
+      <c r="C10" s="94" t="s">
+        <v>173</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>97</v>
@@ -2045,7 +2071,7 @@
         <v>98</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>98</v>
@@ -2056,14 +2082,14 @@
       <c r="A11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="95">
         <v>534131</v>
       </c>
-      <c r="C11" s="95" t="s">
-        <v>176</v>
+      <c r="C11" s="92" t="s">
+        <v>174</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="59" t="s">
         <v>106</v>
@@ -2082,14 +2108,14 @@
       <c r="A12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="95">
         <v>534148</v>
       </c>
-      <c r="C12" s="95" t="s">
-        <v>177</v>
+      <c r="C12" s="92" t="s">
+        <v>175</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="59" t="s">
         <v>107</v>
@@ -2108,26 +2134,26 @@
       <c r="A13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="91">
         <v>834966</v>
       </c>
-      <c r="C13" s="97" t="s">
-        <v>178</v>
+      <c r="C13" s="94" t="s">
+        <v>176</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="59"/>
@@ -2136,34 +2162,34 @@
       <c r="A14" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="96">
         <v>834967</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>179</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>181</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I14" s="60"/>
       <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="57"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="58"/>
@@ -2176,11 +2202,11 @@
       <c r="A16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B16" s="98">
         <v>665923</v>
       </c>
-      <c r="C16" s="102" t="s">
-        <v>163</v>
+      <c r="C16" s="99" t="s">
+        <v>161</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>97</v>
@@ -2193,7 +2219,7 @@
         <v>98</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I16" s="59" t="s">
         <v>98</v>
@@ -2204,11 +2230,11 @@
       <c r="A17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="101">
+      <c r="B17" s="98">
         <v>666161</v>
       </c>
-      <c r="C17" s="102" t="s">
-        <v>164</v>
+      <c r="C17" s="99" t="s">
+        <v>162</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>97</v>
@@ -2221,7 +2247,7 @@
         <v>98</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I17" s="59" t="s">
         <v>98</v>
@@ -2232,14 +2258,14 @@
       <c r="A18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="101">
+      <c r="B18" s="98">
         <v>678866</v>
       </c>
-      <c r="C18" s="103" t="s">
-        <v>165</v>
+      <c r="C18" s="100" t="s">
+        <v>163</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>110</v>
@@ -2256,14 +2282,14 @@
       <c r="A19" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="98">
         <v>679200</v>
       </c>
-      <c r="C19" s="103" t="s">
-        <v>166</v>
+      <c r="C19" s="100" t="s">
+        <v>164</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="59" t="s">
         <v>108</v>
@@ -2280,11 +2306,11 @@
       <c r="A20" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="101">
+      <c r="B20" s="98">
         <v>681303</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>167</v>
+      <c r="C20" s="99" t="s">
+        <v>165</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>97</v>
@@ -2297,10 +2323,10 @@
         <v>98</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J20" s="59"/>
     </row>
@@ -2308,11 +2334,11 @@
       <c r="A21" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="98">
         <v>680390</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>168</v>
+      <c r="C21" s="99" t="s">
+        <v>166</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>97</v>
@@ -2325,7 +2351,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I21" s="59" t="s">
         <v>98</v>
@@ -2334,8 +2360,8 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="57"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -2348,11 +2374,11 @@
       <c r="A23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="98">
         <v>640861</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>150</v>
+      <c r="C23" s="99" t="s">
+        <v>149</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>97</v>
@@ -2365,20 +2391,22 @@
         <v>98</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" s="60"/>
+        <v>255</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="98">
         <v>583893</v>
       </c>
-      <c r="C24" s="102" t="s">
-        <v>151</v>
+      <c r="C24" s="99" t="s">
+        <v>150</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>97</v>
@@ -2390,21 +2418,23 @@
       <c r="G24" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="I24" s="60"/>
+      <c r="H24" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="98">
         <v>583895</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>152</v>
+      <c r="C25" s="99" t="s">
+        <v>151</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>97</v>
@@ -2416,21 +2446,23 @@
       <c r="G25" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="60"/>
+      <c r="H25" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="98">
         <v>582426</v>
       </c>
-      <c r="C26" s="102" t="s">
-        <v>153</v>
+      <c r="C26" s="99" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>97</v>
@@ -2442,21 +2474,23 @@
       <c r="G26" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="60"/>
+      <c r="H26" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="98">
         <v>582480</v>
       </c>
-      <c r="C27" s="102" t="s">
-        <v>154</v>
+      <c r="C27" s="99" t="s">
+        <v>153</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>97</v>
@@ -2468,21 +2502,23 @@
       <c r="G27" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="60"/>
+      <c r="H27" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="101">
+      <c r="B28" s="98">
         <v>582565</v>
       </c>
-      <c r="C28" s="102" t="s">
-        <v>155</v>
+      <c r="C28" s="99" t="s">
+        <v>154</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>97</v>
@@ -2494,16 +2530,18 @@
       <c r="G28" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="60"/>
+      <c r="H28" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="59"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -2516,10 +2554,10 @@
       <c r="A30" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="101">
+      <c r="B30" s="98">
         <v>739481</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="99" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="58" t="s">
@@ -2532,8 +2570,8 @@
       <c r="G30" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="60" t="s">
-        <v>100</v>
+      <c r="H30" s="64" t="s">
+        <v>255</v>
       </c>
       <c r="I30" s="60"/>
       <c r="J30" s="59"/>
@@ -2542,10 +2580,10 @@
       <c r="A31" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="101">
+      <c r="B31" s="98">
         <v>739576</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="99" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -2559,19 +2597,21 @@
         <v>98</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="64"/>
+        <v>255</v>
+      </c>
+      <c r="I31" s="64" t="s">
+        <v>266</v>
+      </c>
       <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="98">
         <v>844419</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="99" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -2594,10 +2634,10 @@
       <c r="A33" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="101">
+      <c r="B33" s="98">
         <v>844428</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="58" t="s">
@@ -2620,10 +2660,10 @@
       <c r="A34" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="101">
+      <c r="B34" s="98">
         <v>844429</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="99" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="58" t="s">
@@ -2637,15 +2677,15 @@
         <v>98</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I34" s="64"/>
       <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="59"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -2656,13 +2696,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="102">
+        <v>187</v>
+      </c>
+      <c r="B36" s="99">
         <v>293979</v>
       </c>
-      <c r="C36" s="97" t="s">
-        <v>190</v>
+      <c r="C36" s="94" t="s">
+        <v>188</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>97</v>
@@ -2673,20 +2713,20 @@
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I36" s="64"/>
       <c r="J36" s="59"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="101">
+        <v>741265</v>
+      </c>
+      <c r="C37" s="102" t="s">
         <v>189</v>
-      </c>
-      <c r="B37" s="104">
-        <v>741265</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>191</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>97</v>
@@ -2699,23 +2739,23 @@
         <v>98</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I37" s="64"/>
       <c r="J37" s="59"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="104">
+        <v>187</v>
+      </c>
+      <c r="B38" s="101">
         <v>289236</v>
       </c>
-      <c r="C38" s="105" t="s">
-        <v>192</v>
+      <c r="C38" s="102" t="s">
+        <v>190</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -2728,16 +2768,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="104">
+        <v>187</v>
+      </c>
+      <c r="B39" s="101">
         <v>288521</v>
       </c>
-      <c r="C39" s="105" t="s">
-        <v>193</v>
+      <c r="C39" s="102" t="s">
+        <v>191</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -2750,13 +2790,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="104">
+        <v>187</v>
+      </c>
+      <c r="B40" s="101">
         <v>282194</v>
       </c>
-      <c r="C40" s="105" t="s">
-        <v>194</v>
+      <c r="C40" s="102" t="s">
+        <v>192</v>
       </c>
       <c r="D40" s="58" t="s">
         <v>97</v>
@@ -2769,23 +2809,23 @@
         <v>98</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I40" s="60"/>
       <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="102">
+        <v>187</v>
+      </c>
+      <c r="B41" s="99">
         <v>127881</v>
       </c>
-      <c r="C41" s="97" t="s">
-        <v>218</v>
+      <c r="C41" s="94" t="s">
+        <v>216</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
@@ -2798,13 +2838,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="102">
+        <v>187</v>
+      </c>
+      <c r="B42" s="99">
         <v>127883</v>
       </c>
-      <c r="C42" s="97" t="s">
-        <v>219</v>
+      <c r="C42" s="94" t="s">
+        <v>217</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>97</v>
@@ -2815,26 +2855,26 @@
       </c>
       <c r="G42" s="59"/>
       <c r="H42" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I42" s="60"/>
       <c r="J42" s="59"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="102">
+        <v>187</v>
+      </c>
+      <c r="B43" s="99">
         <v>140587</v>
       </c>
-      <c r="C43" s="97" t="s">
-        <v>220</v>
+      <c r="C43" s="94" t="s">
+        <v>218</v>
       </c>
       <c r="D43" s="58" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F43" s="58" t="s">
         <v>98</v>
@@ -2843,15 +2883,15 @@
         <v>88</v>
       </c>
       <c r="H43" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I43" s="60"/>
       <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="59"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
@@ -2862,19 +2902,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="104">
+        <v>229</v>
+      </c>
+      <c r="B45" s="101">
         <v>402760</v>
       </c>
-      <c r="C45" s="105" t="s">
-        <v>273</v>
+      <c r="C45" s="102" t="s">
+        <v>271</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="61" t="s">
@@ -2885,13 +2925,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" s="104">
+        <v>229</v>
+      </c>
+      <c r="B46" s="101">
         <v>1102235</v>
       </c>
-      <c r="C46" s="105" t="s">
-        <v>226</v>
+      <c r="C46" s="102" t="s">
+        <v>224</v>
       </c>
       <c r="D46" s="58" t="s">
         <v>97</v>
@@ -2902,20 +2942,20 @@
       </c>
       <c r="G46" s="59"/>
       <c r="H46" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I46" s="64"/>
       <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" s="104">
+        <v>229</v>
+      </c>
+      <c r="B47" s="101">
         <v>1102236</v>
       </c>
-      <c r="C47" s="105" t="s">
-        <v>227</v>
+      <c r="C47" s="102" t="s">
+        <v>225</v>
       </c>
       <c r="D47" s="58" t="s">
         <v>97</v>
@@ -2926,20 +2966,20 @@
       </c>
       <c r="G47" s="59"/>
       <c r="H47" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I47" s="64"/>
       <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" s="104">
+        <v>229</v>
+      </c>
+      <c r="B48" s="101">
         <v>1105452</v>
       </c>
-      <c r="C48" s="105" t="s">
-        <v>228</v>
+      <c r="C48" s="102" t="s">
+        <v>226</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>97</v>
@@ -2950,20 +2990,20 @@
       </c>
       <c r="G48" s="59"/>
       <c r="H48" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I48" s="64"/>
       <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" s="106">
+      <c r="A49" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="103">
         <v>1105461</v>
       </c>
-      <c r="C49" s="107" t="s">
-        <v>229</v>
+      <c r="C49" s="104" t="s">
+        <v>227</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>97</v>
@@ -2974,26 +3014,26 @@
       </c>
       <c r="G49" s="59"/>
       <c r="H49" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I49" s="64"/>
       <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B50" s="104">
+        <v>229</v>
+      </c>
+      <c r="B50" s="101">
         <v>1105462</v>
       </c>
-      <c r="C50" s="105" t="s">
-        <v>230</v>
+      <c r="C50" s="102" t="s">
+        <v>228</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F50" s="59"/>
       <c r="G50" s="61" t="s">
@@ -3005,13 +3045,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" s="101">
+        <v>229</v>
+      </c>
+      <c r="B51" s="98">
         <v>949791</v>
       </c>
-      <c r="C51" s="95" t="s">
-        <v>251</v>
+      <c r="C51" s="92" t="s">
+        <v>249</v>
       </c>
       <c r="D51" s="58" t="s">
         <v>97</v>
@@ -3022,15 +3062,15 @@
       </c>
       <c r="G51" s="59"/>
       <c r="H51" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I51" s="64"/>
       <c r="J51" s="59"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="59"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -3041,13 +3081,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="102">
+        <v>270</v>
+      </c>
+      <c r="B53" s="99">
         <v>127834</v>
       </c>
-      <c r="C53" s="97" t="s">
-        <v>260</v>
+      <c r="C53" s="94" t="s">
+        <v>258</v>
       </c>
       <c r="D53" s="58" t="s">
         <v>97</v>
@@ -3058,20 +3098,20 @@
       </c>
       <c r="G53" s="59"/>
       <c r="H53" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I53" s="64"/>
       <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="102">
+        <v>270</v>
+      </c>
+      <c r="B54" s="99">
         <v>127836</v>
       </c>
-      <c r="C54" s="97" t="s">
-        <v>263</v>
+      <c r="C54" s="94" t="s">
+        <v>261</v>
       </c>
       <c r="D54" s="58" t="s">
         <v>97</v>
@@ -3082,20 +3122,20 @@
       </c>
       <c r="G54" s="59"/>
       <c r="H54" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I54" s="64"/>
       <c r="J54" s="59"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" s="102">
+        <v>270</v>
+      </c>
+      <c r="B55" s="99">
         <v>127921</v>
       </c>
-      <c r="C55" s="97" t="s">
-        <v>265</v>
+      <c r="C55" s="94" t="s">
+        <v>263</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>97</v>
@@ -3106,20 +3146,20 @@
       </c>
       <c r="G55" s="59"/>
       <c r="H55" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I55" s="64"/>
       <c r="J55" s="59"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B56" s="102">
+        <v>270</v>
+      </c>
+      <c r="B56" s="99">
         <v>127922</v>
       </c>
-      <c r="C56" s="97" t="s">
-        <v>276</v>
+      <c r="C56" s="94" t="s">
+        <v>274</v>
       </c>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
@@ -3131,13 +3171,13 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B57" s="102">
+        <v>270</v>
+      </c>
+      <c r="B57" s="99">
         <v>135019</v>
       </c>
-      <c r="C57" s="97" t="s">
-        <v>277</v>
+      <c r="C57" s="94" t="s">
+        <v>275</v>
       </c>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
@@ -3149,13 +3189,13 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58" s="102">
+        <v>270</v>
+      </c>
+      <c r="B58" s="99">
         <v>135022</v>
       </c>
-      <c r="C58" s="97" t="s">
-        <v>278</v>
+      <c r="C58" s="94" t="s">
+        <v>276</v>
       </c>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
@@ -3167,8 +3207,8 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="59"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -3179,8 +3219,8 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="59"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
@@ -3191,8 +3231,8 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="59"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -3203,8 +3243,8 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="59"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
@@ -3215,8 +3255,8 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="59"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -3227,8 +3267,8 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="59"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -3239,8 +3279,8 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="59"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="96"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -3251,8 +3291,8 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="59"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -3263,8 +3303,8 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="59"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -3275,8 +3315,8 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="59"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
@@ -3287,8 +3327,8 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="59"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
@@ -3299,8 +3339,8 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="59"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="96"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="93"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
@@ -3311,8 +3351,8 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="59"/>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -3323,8 +3363,8 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="59"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -3335,8 +3375,8 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="59"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -3347,8 +3387,8 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="59"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -3359,8 +3399,8 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="59"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -3371,8 +3411,8 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="59"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -3383,8 +3423,8 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="59"/>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
@@ -3395,8 +3435,8 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="59"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -3407,8 +3447,8 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="59"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -3419,8 +3459,8 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="59"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="96"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
@@ -3431,8 +3471,8 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="59"/>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
@@ -3443,8 +3483,8 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="59"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -3455,8 +3495,8 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="59"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
@@ -3467,8 +3507,8 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="59"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
@@ -3479,8 +3519,8 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="59"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
@@ -3491,8 +3531,8 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="59"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -3503,8 +3543,8 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="59"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
@@ -3515,8 +3555,8 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="59"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -3527,8 +3567,8 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="59"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="96"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -3539,8 +3579,8 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="59"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="96"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -3551,8 +3591,8 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="59"/>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -3563,8 +3603,8 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="59"/>
-      <c r="B92" s="96"/>
-      <c r="C92" s="96"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="93"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -3575,8 +3615,8 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="59"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="96"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -3587,8 +3627,8 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="59"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -3599,8 +3639,8 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="59"/>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -3611,8 +3651,8 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="59"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="96"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
@@ -3623,8 +3663,8 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="59"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="96"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -3635,8 +3675,8 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="59"/>
-      <c r="B98" s="96"/>
-      <c r="C98" s="96"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="93"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -3647,8 +3687,8 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="59"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="93"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -3659,8 +3699,8 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="59"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="96"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -3671,8 +3711,8 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="59"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -3683,8 +3723,8 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="59"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="96"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="93"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -3695,8 +3735,8 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="59"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="96"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="93"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -3707,8 +3747,8 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="59"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="96"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="93"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -3719,8 +3759,8 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="59"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="96"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="93"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -3731,8 +3771,8 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="59"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="96"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="93"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -3743,8 +3783,8 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="59"/>
-      <c r="B107" s="96"/>
-      <c r="C107" s="96"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="93"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -3755,8 +3795,8 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="59"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="96"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="93"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -3767,8 +3807,8 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="59"/>
-      <c r="B109" s="96"/>
-      <c r="C109" s="96"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="93"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -3779,8 +3819,8 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="59"/>
-      <c r="B110" s="96"/>
-      <c r="C110" s="96"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="93"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -3791,8 +3831,8 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="59"/>
-      <c r="B111" s="96"/>
-      <c r="C111" s="96"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="93"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -3803,8 +3843,8 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="59"/>
-      <c r="B112" s="96"/>
-      <c r="C112" s="96"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="93"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -3815,8 +3855,8 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="59"/>
-      <c r="B113" s="96"/>
-      <c r="C113" s="96"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="93"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -3827,8 +3867,8 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="59"/>
-      <c r="B114" s="96"/>
-      <c r="C114" s="96"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="93"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -3839,8 +3879,8 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="59"/>
-      <c r="B115" s="96"/>
-      <c r="C115" s="96"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="93"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -3851,8 +3891,8 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="59"/>
-      <c r="B116" s="96"/>
-      <c r="C116" s="96"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="93"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -3863,8 +3903,8 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="59"/>
-      <c r="B117" s="96"/>
-      <c r="C117" s="96"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="93"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -3875,8 +3915,8 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="59"/>
-      <c r="B118" s="96"/>
-      <c r="C118" s="96"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="93"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -3887,8 +3927,8 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="59"/>
-      <c r="B119" s="96"/>
-      <c r="C119" s="96"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="93"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -3899,8 +3939,8 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="59"/>
-      <c r="B120" s="96"/>
-      <c r="C120" s="96"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="93"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -3911,8 +3951,8 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="59"/>
-      <c r="B121" s="96"/>
-      <c r="C121" s="96"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="93"/>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59"/>
@@ -3923,8 +3963,8 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="59"/>
-      <c r="B122" s="96"/>
-      <c r="C122" s="96"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -3935,8 +3975,8 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="59"/>
-      <c r="B123" s="96"/>
-      <c r="C123" s="96"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="93"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -3947,8 +3987,8 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="59"/>
-      <c r="B124" s="96"/>
-      <c r="C124" s="96"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -3959,8 +3999,8 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="59"/>
-      <c r="B125" s="96"/>
-      <c r="C125" s="96"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -3971,8 +4011,8 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="59"/>
-      <c r="B126" s="96"/>
-      <c r="C126" s="96"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -3983,8 +4023,8 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="59"/>
-      <c r="B127" s="96"/>
-      <c r="C127" s="96"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -3995,8 +4035,8 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="59"/>
-      <c r="B128" s="96"/>
-      <c r="C128" s="96"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="93"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -4007,8 +4047,8 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="59"/>
-      <c r="B129" s="96"/>
-      <c r="C129" s="96"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="93"/>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59"/>
@@ -4019,8 +4059,8 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="59"/>
-      <c r="B130" s="96"/>
-      <c r="C130" s="96"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="93"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -4031,8 +4071,8 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="59"/>
-      <c r="B131" s="96"/>
-      <c r="C131" s="96"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="93"/>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59"/>
@@ -4043,8 +4083,8 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="59"/>
-      <c r="B132" s="96"/>
-      <c r="C132" s="96"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="93"/>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
@@ -4055,8 +4095,8 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="59"/>
-      <c r="B133" s="96"/>
-      <c r="C133" s="96"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="93"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -4067,8 +4107,8 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="59"/>
-      <c r="B134" s="96"/>
-      <c r="C134" s="96"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="93"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -4093,17 +4133,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4149,10 +4189,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
@@ -4202,47 +4242,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="91" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13" style="53"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.44140625" customWidth="1"/>
-    <col min="23" max="23" width="21.109375" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="14.5546875" customWidth="1"/>
-    <col min="28" max="29" width="15.5546875" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.88671875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" customWidth="1"/>
-    <col min="33" max="33" width="15.33203125" customWidth="1"/>
-    <col min="34" max="34" width="15.5546875" customWidth="1"/>
-    <col min="35" max="35" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="88" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="14" max="14" style="53" width="13.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.4">
-      <c r="A1" s="90" t="s">
-        <v>269</v>
+      <c r="A1" s="87" t="s">
+        <v>267</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>34</v>
@@ -4305,7 +4345,7 @@
         <v>87</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W1" s="40" t="s">
         <v>74</v>
@@ -4326,19 +4366,19 @@
         <v>76</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AD1" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AE1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AH1" s="40" t="s">
         <v>79</v>
@@ -4348,12 +4388,12 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="92"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>180</v>
       </c>
       <c r="D2" s="37">
         <v>369</v>
@@ -4413,14 +4453,14 @@
       <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="92" t="s">
-        <v>257</v>
+      <c r="A3" s="89" t="s">
+        <v>255</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D3" s="37">
         <v>369</v>
@@ -4482,14 +4522,14 @@
       <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="92" t="s">
-        <v>257</v>
+      <c r="A4" s="89" t="s">
+        <v>255</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -4545,12 +4585,14 @@
       <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="89" t="s">
+        <v>255</v>
+      </c>
       <c r="B5" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="41">
         <v>3679</v>
@@ -4592,12 +4634,14 @@
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="92"/>
+      <c r="A6" s="89" t="s">
+        <v>232</v>
+      </c>
       <c r="B6" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="37">
         <v>369</v>
@@ -4661,12 +4705,14 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="89" t="s">
+        <v>232</v>
+      </c>
       <c r="B7" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -4718,12 +4764,14 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="89" t="s">
+        <v>232</v>
+      </c>
       <c r="B8" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="37">
         <v>369</v>
@@ -4787,12 +4835,14 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="89" t="s">
+        <v>232</v>
+      </c>
       <c r="B9" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>156</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -4852,7 +4902,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="43" t="s">
         <v>137</v>
       </c>
@@ -4915,7 +4965,7 @@
       <c r="AI10" s="41"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="43" t="s">
         <v>140</v>
       </c>
@@ -4980,12 +5030,12 @@
       <c r="AI11" s="41"/>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" s="37">
         <v>369</v>
@@ -5037,10 +5087,10 @@
       <c r="AC12" s="38"/>
       <c r="AD12" s="41"/>
       <c r="AE12" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF12" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG12" s="36" t="s">
         <v>77</v>
@@ -5049,12 +5099,12 @@
       <c r="AI12" s="41"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -5106,10 +5156,10 @@
       <c r="AC13" s="38"/>
       <c r="AD13" s="41"/>
       <c r="AE13" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF13" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG13" s="36" t="s">
         <v>77</v>
@@ -5118,12 +5168,12 @@
       <c r="AI13" s="41"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -5181,7 +5231,7 @@
       <c r="AI14" s="41"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="41"/>
@@ -5218,7 +5268,7 @@
       <c r="AI15" s="41"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="41"/>
@@ -5255,7 +5305,7 @@
       <c r="AI16" s="41"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="41"/>
@@ -5292,7 +5342,7 @@
       <c r="AI17" s="41"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="92"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="41"/>
@@ -5329,7 +5379,7 @@
       <c r="AI18" s="41"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="41"/>
@@ -5366,7 +5416,7 @@
       <c r="AI19" s="41"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="92"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="41"/>
@@ -5403,7 +5453,7 @@
       <c r="AI20" s="41"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="41"/>
@@ -5440,7 +5490,7 @@
       <c r="AI21" s="41"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="92"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="41"/>
@@ -5477,7 +5527,7 @@
       <c r="AI22" s="41"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="92"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="41"/>
@@ -5514,7 +5564,7 @@
       <c r="AI23" s="41"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="92"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="41"/>
@@ -5551,7 +5601,7 @@
       <c r="AI24" s="41"/>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="41"/>
@@ -5588,7 +5638,7 @@
       <c r="AI25" s="41"/>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26" s="92"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
       <c r="D26" s="41"/>
@@ -5625,7 +5675,7 @@
       <c r="AI26" s="41"/>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" s="92"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="41"/>
@@ -5673,43 +5723,44 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.44140625" customWidth="1"/>
-    <col min="20" max="20" width="20.88671875" customWidth="1"/>
-    <col min="21" max="22" width="16.5546875" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" customWidth="1"/>
-    <col min="24" max="25" width="16.5546875" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" customWidth="1"/>
-    <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="28" width="18.44140625" customWidth="1"/>
-    <col min="29" max="29" width="23.6640625" customWidth="1"/>
-    <col min="30" max="30" width="21.5546875" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="34" max="35" customWidth="true" width="17.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.4">
@@ -5768,37 +5819,37 @@
         <v>61</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T1" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="V1" s="39" t="s">
         <v>208</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="V1" s="39" t="s">
-        <v>210</v>
       </c>
       <c r="W1" s="39" t="s">
         <v>66</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y1" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z1" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>197</v>
       </c>
       <c r="AD1" s="39" t="s">
         <v>79</v>
@@ -5812,15 +5863,19 @@
       <c r="AG1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
+      <c r="AH1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="39" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="C2" s="37">
         <v>369</v>
@@ -5886,10 +5941,10 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="36" t="s">
@@ -5946,13 +6001,15 @@
       <c r="AI3" s="68"/>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="41"/>
+      <c r="A4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="41">
+        <v>3679</v>
+      </c>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -5963,18 +6020,10 @@
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="41">
-        <v>1471</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" s="41">
-        <v>500</v>
-      </c>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="37"/>
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
@@ -5991,68 +6040,56 @@
       <c r="AE4" s="68"/>
       <c r="AF4" s="68"/>
       <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
+      <c r="AH4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="37" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38">
-        <v>19</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="U5" s="38">
-        <v>727</v>
-      </c>
-      <c r="V5" s="38">
-        <v>100</v>
-      </c>
-      <c r="W5" s="38">
-        <v>1</v>
-      </c>
-      <c r="X5" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="41">
-        <v>4123</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC5" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD5" s="38" t="s">
-        <v>202</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="41">
+        <v>1471</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>500</v>
+      </c>
+      <c r="R5" s="37"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
       <c r="AE5" s="68"/>
       <c r="AF5" s="68"/>
       <c r="AG5" s="68"/>
@@ -6061,53 +6098,63 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
+        <v>188</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
       <c r="R6" s="38">
         <v>19</v>
       </c>
-      <c r="S6" s="68"/>
+      <c r="S6" s="38" t="s">
+        <v>202</v>
+      </c>
       <c r="T6" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U6" s="38">
         <v>727</v>
       </c>
       <c r="V6" s="38">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="W6" s="38">
         <v>1</v>
       </c>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
+      <c r="X6" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="41">
+        <v>4123</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB6" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC6" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD6" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
       <c r="AG6" s="68"/>
@@ -6115,33 +6162,51 @@
       <c r="AI6" s="68"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="68"/>
+      <c r="A7" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="38">
+        <v>19</v>
+      </c>
       <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
+      <c r="T7" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="U7" s="38">
+        <v>727</v>
+      </c>
+      <c r="V7" s="38">
+        <v>1000</v>
+      </c>
+      <c r="W7" s="38">
+        <v>1</v>
+      </c>
       <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
+      <c r="Y7" s="41">
+        <v>10</v>
+      </c>
       <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
+      <c r="AA7" s="69" t="s">
+        <v>77</v>
+      </c>
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
       <c r="AD7" s="68"/>
@@ -6152,23 +6217,23 @@
       <c r="AI7" s="68"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="68"/>
       <c r="S8" s="68"/>
       <c r="T8" s="68"/>
@@ -6226,20 +6291,20 @@
       <c r="AI9" s="68"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
       <c r="L10" s="68"/>
       <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
       <c r="Q10" s="68"/>
@@ -6259,8 +6324,6 @@
       <c r="AE10" s="68"/>
       <c r="AF10" s="68"/>
       <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="46"/>
@@ -6336,6 +6399,43 @@
       <c r="AH12" s="68"/>
       <c r="AI12" s="68"/>
     </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6343,27 +6443,28 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K300"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.68359375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
+    <row r="1" spans="1:12" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -6392,11 +6493,14 @@
         <v>126</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="45" t="s">
         <v>117</v>
       </c>
@@ -6426,8 +6530,9 @@
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="45" t="s">
         <v>116</v>
       </c>
@@ -6447,25 +6552,47 @@
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="41">
+        <v>564</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="41">
+        <v>840</v>
+      </c>
+      <c r="I4" s="41">
+        <v>1500</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>293</v>
+      </c>
       <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="41"/>
@@ -6477,8 +6604,9 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="41"/>
@@ -6490,8 +6618,9 @@
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="41"/>
@@ -6503,8 +6632,9 @@
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="41"/>
@@ -6516,8 +6646,9 @@
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="41"/>
@@ -6529,26 +6660,27 @@
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="D10" s="47"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="D11" s="47"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="D12" s="47"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="D13" s="47"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="D14" s="47"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="D15" s="47"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="D16" s="47"/>
     </row>
     <row r="17" spans="4:4">
@@ -7419,12 +7551,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
@@ -7611,29 +7743,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" style="84" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="84" width="17.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4">
@@ -7668,7 +7800,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>75</v>
@@ -7677,45 +7809,45 @@
         <v>76</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="W1" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="40" t="s">
+      <c r="X1" s="83" t="s">
         <v>248</v>
-      </c>
-      <c r="W1" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="38">
@@ -7744,10 +7876,10 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>68</v>
@@ -7784,10 +7916,10 @@
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="36" t="s">
         <v>77</v>
@@ -7812,10 +7944,10 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>68</v>
@@ -7864,10 +7996,10 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>68</v>
@@ -7904,10 +8036,10 @@
       </c>
       <c r="N5" s="37"/>
       <c r="O5" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>77</v>
@@ -7922,10 +8054,10 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>68</v>
@@ -7962,10 +8094,10 @@
       </c>
       <c r="N6" s="37"/>
       <c r="O6" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>77</v>
@@ -7980,10 +8112,10 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>68</v>
@@ -8022,28 +8154,28 @@
         <v>4434</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>77</v>
       </c>
       <c r="R7" s="86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S7" s="86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U7" s="86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V7" s="86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W7" s="41">
         <v>3</v>
@@ -8189,34 +8321,41 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="84" width="11.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="84" width="15.44140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.4">
+    <row r="1" spans="1:42" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -8230,93 +8369,117 @@
         <v>71</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="N1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="O1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="W1" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="37">
+      <c r="H2" s="36"/>
+      <c r="I2" s="37">
         <v>727</v>
       </c>
-      <c r="G2" s="37">
+      <c r="J2" s="37">
         <v>369</v>
       </c>
-      <c r="H2" s="37">
+      <c r="K2" s="37">
         <v>320</v>
       </c>
-      <c r="I2" s="37">
+      <c r="L2" s="37">
         <v>2</v>
       </c>
-      <c r="J2" s="37">
+      <c r="M2" s="37">
         <v>1000</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="37">
+      <c r="O2" s="51"/>
+      <c r="P2" s="37">
         <v>600</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="72"/>
       <c r="AB2" s="73"/>
       <c r="AC2" s="73"/>
       <c r="AD2" s="73"/>
@@ -8324,40 +8487,48 @@
       <c r="AF2" s="73"/>
       <c r="AG2" s="73"/>
       <c r="AH2" s="73"/>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="37">
-        <v>3451</v>
-      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="37">
+        <v>3451</v>
+      </c>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="74"/>
       <c r="AA3" s="72"/>
       <c r="AB3" s="72"/>
       <c r="AC3" s="72"/>
@@ -8366,58 +8537,74 @@
       <c r="AF3" s="72"/>
       <c r="AG3" s="72"/>
       <c r="AH3" s="72"/>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="68"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="37">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37">
         <v>727</v>
       </c>
-      <c r="G4" s="37">
+      <c r="J4" s="37">
         <v>369</v>
       </c>
-      <c r="H4" s="37">
+      <c r="K4" s="37">
         <v>320</v>
       </c>
-      <c r="I4" s="37">
+      <c r="L4" s="37">
         <v>2</v>
       </c>
-      <c r="J4" s="37">
+      <c r="M4" s="37">
         <v>10000</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="N4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="41">
-        <v>1</v>
-      </c>
-      <c r="M4" s="38">
-        <v>1</v>
-      </c>
-      <c r="N4" s="38">
-        <v>1</v>
-      </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="36" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="38">
+        <v>1</v>
+      </c>
+      <c r="V4" s="38">
+        <v>1</v>
+      </c>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:42">
       <c r="A5" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="68"/>
@@ -8428,162 +8615,330 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
       <c r="O5" s="68"/>
-      <c r="P5" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q5" s="68"/>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y5" s="68"/>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="37">
         <v>320</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
       <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>180</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="41">
         <v>369</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="37">
+      <c r="H7" s="36"/>
+      <c r="I7" s="37">
         <v>727</v>
       </c>
-      <c r="G7" s="37">
+      <c r="J7" s="37">
         <v>369</v>
       </c>
-      <c r="H7" s="37">
+      <c r="K7" s="37">
         <v>320</v>
       </c>
-      <c r="I7" s="37">
+      <c r="L7" s="37">
         <v>2</v>
       </c>
-      <c r="J7" s="37">
+      <c r="M7" s="37">
         <v>10000</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="N7" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="41">
-        <v>1</v>
-      </c>
-      <c r="M7" s="38">
-        <v>1</v>
-      </c>
-      <c r="N7" s="38">
-        <v>1</v>
-      </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="51"/>
+      <c r="P7" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="38">
+        <v>1</v>
+      </c>
+      <c r="V7" s="38">
+        <v>1</v>
+      </c>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:42">
+      <c r="A8" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>158</v>
+      </c>
       <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="D8" s="37">
+        <v>369</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37">
+        <v>727</v>
+      </c>
+      <c r="J8" s="37">
+        <v>369</v>
+      </c>
+      <c r="K8" s="37">
+        <v>320</v>
+      </c>
+      <c r="L8" s="37">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37">
+        <v>15000</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="51"/>
+      <c r="P8" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="38">
+        <v>1</v>
+      </c>
+      <c r="V8" s="38">
+        <v>1</v>
+      </c>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="37">
+        <v>369</v>
+      </c>
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="38">
+        <v>1349</v>
+      </c>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="L9" s="37">
+        <v>2</v>
+      </c>
+      <c r="M9" s="41">
+        <v>1500</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="51"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="38">
+        <v>1</v>
+      </c>
+      <c r="V9" s="38">
+        <v>1</v>
+      </c>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>156</v>
+      </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
       <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="G10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37">
+        <v>727</v>
+      </c>
+      <c r="J10" s="37">
+        <v>369</v>
+      </c>
+      <c r="K10" s="37">
+        <v>320</v>
+      </c>
+      <c r="L10" s="37">
+        <v>2</v>
+      </c>
+      <c r="M10" s="37">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41">
+        <v>3455</v>
+      </c>
+      <c r="T10" s="41">
+        <v>2</v>
+      </c>
+      <c r="U10" s="38">
+        <v>1</v>
+      </c>
+      <c r="V10" s="38">
+        <v>1</v>
+      </c>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>155</v>
+      </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
       <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
+      <c r="G11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37">
+        <v>727</v>
+      </c>
+      <c r="J11" s="37">
+        <v>369</v>
+      </c>
+      <c r="K11" s="37">
+        <v>320</v>
+      </c>
+      <c r="L11" s="37">
+        <v>2</v>
+      </c>
+      <c r="M11" s="37">
+        <v>10000</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41">
+        <v>2</v>
+      </c>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="38">
+        <v>1</v>
+      </c>
+      <c r="V11" s="38">
+        <v>1</v>
+      </c>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="36" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8600,23 +8955,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -8651,13 +9006,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>253</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>255</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>75</v>
@@ -8666,24 +9021,24 @@
         <v>76</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>68</v>
@@ -8716,7 +9071,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N2" s="37">
         <v>1</v>
@@ -8726,10 +9081,10 @@
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>77</v>
@@ -8742,44 +9097,51 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="53" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" customWidth="1"/>
-    <col min="27" max="27" width="13.21875" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.88671875" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
-    <col min="31" max="33" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="53" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="14.4">
+    <row r="1" spans="1:40" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -8793,10 +9155,10 @@
         <v>59</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>60</v>
@@ -8805,7 +9167,7 @@
         <v>61</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>62</v>
@@ -8820,22 +9182,22 @@
         <v>65</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>253</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>255</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>75</v>
@@ -8844,19 +9206,19 @@
         <v>76</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X1" s="40" t="s">
         <v>105</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA1" s="40" t="s">
         <v>85</v>
@@ -8870,22 +9232,43 @@
       <c r="AD1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="110" t="s">
+      <c r="AE1" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF1" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="AF1" s="109" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG1" s="109" t="s">
+      <c r="AG1" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH1" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM1" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN1" s="109" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:40">
       <c r="A2" s="45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" s="37">
         <v>369</v>
@@ -8915,7 +9298,7 @@
         <v>139</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="37">
@@ -8933,7 +9316,7 @@
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
       <c r="X2" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y2" s="36"/>
       <c r="Z2" s="36" t="s">
@@ -8946,13 +9329,20 @@
       <c r="AE2" s="68"/>
       <c r="AF2" s="68"/>
       <c r="AG2" s="68"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="37">
         <v>369</v>
@@ -8961,7 +9351,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F3" s="38">
         <v>727</v>
@@ -8988,7 +9378,7 @@
         <v>139</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="37">
@@ -9013,13 +9403,20 @@
       <c r="AE3" s="68"/>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" s="37">
         <v>369</v>
@@ -9049,7 +9446,7 @@
         <v>139</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="37">
@@ -9062,7 +9459,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T4" s="37">
         <v>1</v>
@@ -9081,7 +9478,7 @@
         <v>1587</v>
       </c>
       <c r="AB4" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC4" s="48" t="s">
         <v>129</v>
@@ -9092,13 +9489,20 @@
       <c r="AE4" s="41"/>
       <c r="AF4" s="41"/>
       <c r="AG4" s="41"/>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="37">
         <v>369</v>
@@ -9139,7 +9543,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T5" s="37">
         <v>1</v>
@@ -9156,7 +9560,7 @@
       </c>
       <c r="AA5" s="41"/>
       <c r="AB5" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC5" s="48" t="s">
         <v>129</v>
@@ -9167,13 +9571,20 @@
       <c r="AE5" s="41"/>
       <c r="AF5" s="41"/>
       <c r="AG5" s="41"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C6" s="37">
         <v>369</v>
@@ -9225,13 +9636,13 @@
       </c>
       <c r="AA6" s="41"/>
       <c r="AB6" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC6" s="48" t="s">
         <v>129</v>
       </c>
       <c r="AD6" s="41">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AE6" s="41"/>
       <c r="AF6" s="41">
@@ -9240,181 +9651,245 @@
       <c r="AG6" s="41">
         <v>1030</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="37">
+        <v>77</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="41">
+        <v>564</v>
+      </c>
+      <c r="AI7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ7" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM7" s="41">
+        <v>840</v>
+      </c>
+      <c r="AN7" s="69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9432,10 +9907,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9501,11 +9976,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -9579,9 +10054,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -9655,12 +10130,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9730,12 +10205,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9805,8 +10280,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -9880,9 +10355,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9934,15 +10409,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="23" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="23"/>
+    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="23" width="44.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId16"/>
     <sheet name="FMSParameterTestData" sheetId="18" r:id="rId17"/>
     <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId18"/>
+    <sheet name="CommiteeApprovalTestData" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="310">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -694,9 +695,6 @@
     <t>AT_FM_059</t>
   </si>
   <si>
-    <t>WIFAK_Application2_608</t>
-  </si>
-  <si>
     <t>DS_AT_FM_058</t>
   </si>
   <si>
@@ -910,13 +908,64 @@
     <t>Collateral Code</t>
   </si>
   <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>1092</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>DS_AT_CM_044</t>
+  </si>
+  <si>
+    <t>AT_CM_044</t>
+  </si>
+  <si>
+    <t>08/04/2024</t>
+  </si>
+  <si>
+    <t>AT_CM_045</t>
+  </si>
+  <si>
+    <t>DS_AT_CM_045</t>
+  </si>
+  <si>
+    <t>Effective Until</t>
+  </si>
+  <si>
+    <t>Unutilized Expiry Date</t>
+  </si>
+  <si>
+    <t>28/06/2026</t>
+  </si>
+  <si>
+    <t>04/08/2024</t>
+  </si>
+  <si>
+    <t>AT_CA_008</t>
+  </si>
+  <si>
+    <t>DS_AT_CA_008</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Committee Recommendation</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>CollateralManagement_608</t>
+  </si>
+  <si>
+    <t>CommitteeApproval_608</t>
+  </si>
+  <si>
+    <t>4751</t>
+  </si>
+  <si>
+    <t>4753</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1269,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1454,6 +1503,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1804,8 +1857,8 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
@@ -1848,7 +1901,7 @@
         <v>99</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J1" s="55" t="s">
         <v>96</v>
@@ -1875,7 +1928,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="59"/>
@@ -1901,7 +1954,7 @@
         <v>101</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="59"/>
@@ -1949,7 +2002,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="59"/>
@@ -1987,7 +2040,7 @@
         <v>98</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="60"/>
       <c r="J7" s="59"/>
@@ -2013,7 +2066,7 @@
         <v>98</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="59" t="s">
         <v>98</v>
@@ -2041,13 +2094,13 @@
         <v>98</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" s="59" t="s">
         <v>98</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2071,7 +2124,7 @@
         <v>98</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>98</v>
@@ -2153,7 +2206,7 @@
         <v>88</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="59"/>
@@ -2181,7 +2234,7 @@
         <v>88</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I14" s="60"/>
       <c r="J14" s="59"/>
@@ -2219,7 +2272,7 @@
         <v>98</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="59" t="s">
         <v>98</v>
@@ -2247,7 +2300,7 @@
         <v>98</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" s="59" t="s">
         <v>98</v>
@@ -2323,10 +2376,10 @@
         <v>98</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J20" s="59"/>
     </row>
@@ -2351,7 +2404,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I21" s="59" t="s">
         <v>98</v>
@@ -2391,10 +2444,10 @@
         <v>98</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J23" s="59"/>
     </row>
@@ -2419,10 +2472,10 @@
         <v>98</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J24" s="59"/>
     </row>
@@ -2447,10 +2500,10 @@
         <v>98</v>
       </c>
       <c r="H25" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J25" s="59"/>
     </row>
@@ -2475,10 +2528,10 @@
         <v>98</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J26" s="59"/>
     </row>
@@ -2503,10 +2556,10 @@
         <v>98</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J27" s="59"/>
     </row>
@@ -2531,10 +2584,10 @@
         <v>98</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J28" s="59"/>
     </row>
@@ -2571,7 +2624,7 @@
         <v>98</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I30" s="60"/>
       <c r="J30" s="59"/>
@@ -2597,10 +2650,10 @@
         <v>98</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J31" s="59"/>
     </row>
@@ -2739,7 +2792,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I37" s="64"/>
       <c r="J37" s="59"/>
@@ -2808,10 +2861,12 @@
       <c r="G40" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="I40" s="60"/>
+      <c r="H40" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>265</v>
+      </c>
       <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:10">
@@ -2874,7 +2929,7 @@
         <v>97</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F43" s="58" t="s">
         <v>98</v>
@@ -2902,19 +2957,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="101">
         <v>402760</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="61" t="s">
@@ -2925,13 +2980,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" s="101">
         <v>1102235</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46" s="58" t="s">
         <v>97</v>
@@ -2942,20 +2997,20 @@
       </c>
       <c r="G46" s="59"/>
       <c r="H46" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I46" s="64"/>
       <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="101">
         <v>1102236</v>
       </c>
       <c r="C47" s="102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="58" t="s">
         <v>97</v>
@@ -2966,20 +3021,20 @@
       </c>
       <c r="G47" s="59"/>
       <c r="H47" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I47" s="64"/>
       <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B48" s="101">
         <v>1105452</v>
       </c>
       <c r="C48" s="102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>97</v>
@@ -2990,20 +3045,20 @@
       </c>
       <c r="G48" s="59"/>
       <c r="H48" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I48" s="64"/>
       <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B49" s="103">
         <v>1105461</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>97</v>
@@ -3014,26 +3069,26 @@
       </c>
       <c r="G49" s="59"/>
       <c r="H49" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I49" s="64"/>
       <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50" s="101">
         <v>1105462</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="65" t="s">
         <v>169</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F50" s="59"/>
       <c r="G50" s="61" t="s">
@@ -3045,13 +3100,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="98">
         <v>949791</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D51" s="58" t="s">
         <v>97</v>
@@ -3062,7 +3117,7 @@
       </c>
       <c r="G51" s="59"/>
       <c r="H51" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I51" s="64"/>
       <c r="J51" s="59"/>
@@ -3081,13 +3136,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" s="99">
         <v>127834</v>
       </c>
       <c r="C53" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D53" s="58" t="s">
         <v>97</v>
@@ -3098,20 +3153,20 @@
       </c>
       <c r="G53" s="59"/>
       <c r="H53" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I53" s="64"/>
       <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B54" s="99">
         <v>127836</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="58" t="s">
         <v>97</v>
@@ -3122,20 +3177,20 @@
       </c>
       <c r="G54" s="59"/>
       <c r="H54" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I54" s="64"/>
       <c r="J54" s="59"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" s="99">
         <v>127921</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>97</v>
@@ -3146,62 +3201,80 @@
       </c>
       <c r="G55" s="59"/>
       <c r="H55" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I55" s="64"/>
       <c r="J55" s="59"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B56" s="99">
         <v>127922</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="D56" s="59"/>
+        <v>273</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
+      <c r="F56" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G56" s="59"/>
-      <c r="H56" s="64"/>
+      <c r="H56" s="64" t="s">
+        <v>277</v>
+      </c>
       <c r="I56" s="64"/>
       <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B57" s="99">
         <v>135019</v>
       </c>
       <c r="C57" s="94" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="59"/>
+        <v>274</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
+      <c r="F57" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G57" s="59"/>
-      <c r="H57" s="64"/>
+      <c r="H57" s="64" t="s">
+        <v>277</v>
+      </c>
       <c r="I57" s="64"/>
       <c r="J57" s="59"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" s="99">
         <v>135022</v>
       </c>
       <c r="C58" s="94" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="59"/>
+        <v>275</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
+      <c r="F58" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G58" s="59"/>
-      <c r="H58" s="64"/>
+      <c r="H58" s="64" t="s">
+        <v>277</v>
+      </c>
       <c r="I58" s="64"/>
       <c r="J58" s="59"/>
     </row>
@@ -3218,57 +3291,103 @@
       <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="59"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" s="111">
+        <v>127831</v>
+      </c>
+      <c r="C60" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="F60" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G60" s="59"/>
-      <c r="H60" s="64"/>
+      <c r="H60" s="64" t="s">
+        <v>306</v>
+      </c>
       <c r="I60" s="64"/>
       <c r="J60" s="59"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="59"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="59"/>
+      <c r="A61" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="111">
+        <v>127843</v>
+      </c>
+      <c r="C61" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="F61" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G61" s="59"/>
-      <c r="H61" s="64"/>
+      <c r="H61" s="64" t="s">
+        <v>306</v>
+      </c>
       <c r="I61" s="64"/>
       <c r="J61" s="59"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="59"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="111">
+        <v>127850</v>
+      </c>
+      <c r="C62" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="F62" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G62" s="59"/>
-      <c r="H62" s="64"/>
+      <c r="H62" s="64" t="s">
+        <v>306</v>
+      </c>
       <c r="I62" s="64"/>
       <c r="J62" s="59"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="59"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="59"/>
+      <c r="A63" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="111">
+        <v>729500</v>
+      </c>
+      <c r="C63" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
+      <c r="F63" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="G63" s="59"/>
-      <c r="H63" s="64"/>
+      <c r="H63" s="64" t="s">
+        <v>307</v>
+      </c>
       <c r="I63" s="64"/>
       <c r="J63" s="59"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="59"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="93"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -4128,7 +4247,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
@@ -4240,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
@@ -4282,7 +4401,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.4">
       <c r="A1" s="87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>34</v>
@@ -4345,7 +4464,7 @@
         <v>87</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W1" s="40" t="s">
         <v>74</v>
@@ -4366,7 +4485,7 @@
         <v>76</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD1" s="40" t="s">
         <v>211</v>
@@ -4448,25 +4567,25 @@
         <v>77</v>
       </c>
       <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
+      <c r="AG2" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AH2" s="36"/>
       <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="37">
-        <v>369</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="36" t="s">
         <v>68</v>
       </c>
@@ -4490,86 +4609,64 @@
         <v>139</v>
       </c>
       <c r="O3" s="37"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="P3" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>2</v>
+      </c>
+      <c r="R3" s="37"/>
       <c r="S3" s="37">
         <v>1</v>
       </c>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
       <c r="V3" s="37"/>
-      <c r="W3" s="38">
-        <v>1</v>
-      </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
       <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>159</v>
+      </c>
+      <c r="D4" s="41">
+        <v>3679</v>
+      </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37">
-        <v>727</v>
-      </c>
-      <c r="J4" s="37">
-        <v>369</v>
-      </c>
-      <c r="K4" s="37">
-        <v>320</v>
-      </c>
-      <c r="L4" s="37">
-        <v>2</v>
-      </c>
-      <c r="M4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>2</v>
-      </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37">
-        <v>1</v>
-      </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
       <c r="W4" s="41"/>
       <c r="X4" s="41"/>
       <c r="Y4" s="41"/>
@@ -4581,109 +4678,125 @@
       <c r="AE4" s="41"/>
       <c r="AF4" s="41"/>
       <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
+      <c r="AH4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="37" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>150</v>
+        <v>231</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="41">
-        <v>3679</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="41"/>
+        <v>158</v>
+      </c>
+      <c r="D5" s="37">
+        <v>369</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37">
+        <v>727</v>
+      </c>
+      <c r="J5" s="37">
+        <v>369</v>
+      </c>
+      <c r="K5" s="37">
+        <v>320</v>
+      </c>
+      <c r="L5" s="37">
+        <v>2</v>
+      </c>
+      <c r="M5" s="37">
+        <v>10000</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="37"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
+      <c r="S5" s="37">
+        <v>1</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="36" t="s">
+      <c r="AA5" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AI5" s="37" t="s">
-        <v>78</v>
-      </c>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="37">
-        <v>369</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37">
-        <v>727</v>
-      </c>
-      <c r="J6" s="37">
-        <v>369</v>
-      </c>
-      <c r="K6" s="37">
-        <v>320</v>
-      </c>
-      <c r="L6" s="37">
+        <v>157</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1349</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41">
         <v>2</v>
       </c>
-      <c r="M6" s="37">
-        <v>10000</v>
+      <c r="M6" s="41">
+        <v>500</v>
       </c>
       <c r="N6" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="37"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="37">
-        <v>1</v>
-      </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="41"/>
       <c r="X6" s="41"/>
       <c r="Y6" s="41"/>
@@ -4700,53 +4813,67 @@
         <v>77</v>
       </c>
       <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
+      <c r="AG6" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AH6" s="41"/>
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="41"/>
+        <v>231</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="37">
+        <v>369</v>
+      </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1349</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="G7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37">
+        <v>727</v>
+      </c>
+      <c r="J7" s="37">
+        <v>369</v>
+      </c>
+      <c r="K7" s="37">
+        <v>320</v>
+      </c>
+      <c r="L7" s="37">
         <v>2</v>
       </c>
-      <c r="M7" s="41">
-        <v>500</v>
+      <c r="M7" s="37">
+        <v>10000</v>
       </c>
       <c r="N7" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+      <c r="S7" s="37">
+        <v>1</v>
+      </c>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
       <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
+      <c r="X7" s="41">
+        <v>3455</v>
+      </c>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Z7" s="41">
+        <v>2</v>
+      </c>
       <c r="AA7" s="38">
         <v>1</v>
       </c>
@@ -4759,23 +4886,23 @@
         <v>77</v>
       </c>
       <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
+      <c r="AG7" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AH7" s="41"/>
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="37">
-        <v>369</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="36" t="s">
@@ -4800,24 +4927,22 @@
       <c r="N8" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O8" s="37"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="37">
-        <v>1</v>
-      </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
+      <c r="R8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41">
+        <v>2</v>
+      </c>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="41"/>
-      <c r="X8" s="41">
-        <v>3455</v>
-      </c>
+      <c r="X8" s="41"/>
       <c r="Y8" s="41"/>
-      <c r="Z8" s="41">
-        <v>2</v>
-      </c>
+      <c r="Z8" s="41"/>
       <c r="AA8" s="38">
         <v>1</v>
       </c>
@@ -4830,19 +4955,19 @@
         <v>77</v>
       </c>
       <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
+      <c r="AG8" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="89" t="s">
-        <v>232</v>
-      </c>
+      <c r="A9" s="89"/>
       <c r="B9" s="43" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -4864,7 +4989,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="37">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>139</v>
@@ -4872,13 +4997,11 @@
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41">
-        <v>2</v>
-      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="37">
+        <v>1</v>
+      </c>
+      <c r="T9" s="41"/>
       <c r="U9" s="41"/>
       <c r="V9" s="41"/>
       <c r="W9" s="41"/>
@@ -4897,17 +5020,19 @@
         <v>77</v>
       </c>
       <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
+      <c r="AG9" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="89"/>
       <c r="B10" s="43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -4946,7 +5071,9 @@
       <c r="V10" s="41"/>
       <c r="W10" s="41"/>
       <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
+      <c r="Y10" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="Z10" s="41"/>
       <c r="AA10" s="38">
         <v>1</v>
@@ -4955,24 +5082,28 @@
         <v>1</v>
       </c>
       <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
+      <c r="AD10" s="41"/>
       <c r="AE10" s="36" t="s">
         <v>77</v>
       </c>
       <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
+      <c r="AG10" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AH10" s="41"/>
       <c r="AI10" s="41"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="89"/>
       <c r="B11" s="43" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="41"/>
+        <v>210</v>
+      </c>
+      <c r="D11" s="37">
+        <v>369</v>
+      </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="36" t="s">
@@ -5009,9 +5140,7 @@
       <c r="V11" s="41"/>
       <c r="W11" s="41"/>
       <c r="X11" s="41"/>
-      <c r="Y11" s="38" t="s">
-        <v>143</v>
-      </c>
+      <c r="Y11" s="38"/>
       <c r="Z11" s="41"/>
       <c r="AA11" s="38">
         <v>1</v>
@@ -5022,24 +5151,26 @@
       <c r="AC11" s="38"/>
       <c r="AD11" s="41"/>
       <c r="AE11" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF11" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="89"/>
-      <c r="B12" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="37">
-        <v>369</v>
-      </c>
+      <c r="B12" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="36" t="s">
@@ -5059,7 +5190,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="37">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="N12" s="51" t="s">
         <v>139</v>
@@ -5073,10 +5204,12 @@
       </c>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
+      <c r="V12" s="38">
+        <v>10</v>
+      </c>
       <c r="W12" s="41"/>
       <c r="X12" s="41"/>
-      <c r="Y12" s="38"/>
+      <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
       <c r="AA12" s="38">
         <v>1</v>
@@ -5101,10 +5234,10 @@
     <row r="13" spans="1:35">
       <c r="A13" s="89"/>
       <c r="B13" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -5140,9 +5273,7 @@
       </c>
       <c r="T13" s="41"/>
       <c r="U13" s="41"/>
-      <c r="V13" s="38">
-        <v>10</v>
-      </c>
+      <c r="V13" s="41"/>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
@@ -5153,60 +5284,36 @@
       <c r="AB13" s="38">
         <v>1</v>
       </c>
-      <c r="AC13" s="38"/>
+      <c r="AC13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="AD13" s="41"/>
-      <c r="AE13" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF13" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG13" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
       <c r="AH13" s="41"/>
       <c r="AI13" s="41"/>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="89"/>
-      <c r="B14" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>222</v>
-      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-      <c r="G14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37">
-        <v>727</v>
-      </c>
-      <c r="J14" s="37">
-        <v>369</v>
-      </c>
-      <c r="K14" s="37">
-        <v>320</v>
-      </c>
-      <c r="L14" s="37">
-        <v>2</v>
-      </c>
-      <c r="M14" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N14" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="52"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
-      <c r="S14" s="37">
-        <v>1</v>
-      </c>
+      <c r="S14" s="41"/>
       <c r="T14" s="41"/>
       <c r="U14" s="41"/>
       <c r="V14" s="41"/>
@@ -5214,15 +5321,9 @@
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
-      <c r="AA14" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
       <c r="AD14" s="41"/>
       <c r="AE14" s="41"/>
       <c r="AF14" s="41"/>
@@ -5674,43 +5775,6 @@
       <c r="AH26" s="41"/>
       <c r="AI26" s="41"/>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="89"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5723,10 +5787,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5746,20 +5810,20 @@
     <col min="15" max="15" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="15.88671875" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="11.21875" collapsed="true"/>
     <col min="34" max="35" customWidth="true" width="17.109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5816,52 +5880,52 @@
         <v>135</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V1" s="39" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Y1" s="39" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="Z1" s="39" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA1" s="39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD1" s="39" t="s">
         <v>79</v>
       </c>
+      <c r="AD1" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="AE1" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="AH1" s="40" t="s">
         <v>79</v>
@@ -5903,35 +5967,33 @@
       </c>
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
-      <c r="M2" s="37">
-        <v>1</v>
-      </c>
+      <c r="M2" s="37"/>
       <c r="N2" s="41"/>
       <c r="O2" s="38"/>
       <c r="P2" s="48"/>
-      <c r="Q2" s="41">
-        <v>500</v>
-      </c>
-      <c r="R2" s="37"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="68"/>
       <c r="S2" s="68"/>
       <c r="T2" s="68"/>
       <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="38">
+      <c r="V2" s="38">
         <v>1</v>
       </c>
+      <c r="W2" s="68"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="68"/>
       <c r="AA2" s="68"/>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
+      <c r="AD2" s="38">
+        <v>1</v>
+      </c>
       <c r="AE2" s="38">
         <v>1</v>
       </c>
-      <c r="AF2" s="38">
-        <v>1</v>
+      <c r="AF2" s="38" t="s">
+        <v>309</v>
       </c>
       <c r="AG2" s="36" t="s">
         <v>77</v>
@@ -5979,14 +6041,14 @@
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
-      <c r="R3" s="37"/>
+      <c r="R3" s="68"/>
       <c r="S3" s="68"/>
       <c r="T3" s="68"/>
       <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="38">
+      <c r="V3" s="38">
         <v>1</v>
       </c>
+      <c r="W3" s="68"/>
       <c r="X3" s="68"/>
       <c r="Y3" s="68"/>
       <c r="Z3" s="68"/>
@@ -5995,7 +6057,7 @@
       <c r="AC3" s="68"/>
       <c r="AD3" s="68"/>
       <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
+      <c r="AF3" s="37"/>
       <c r="AG3" s="68"/>
       <c r="AH3" s="68"/>
       <c r="AI3" s="68"/>
@@ -6024,12 +6086,12 @@
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
-      <c r="R4" s="37"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="68"/>
       <c r="X4" s="68"/>
       <c r="Y4" s="68"/>
       <c r="Z4" s="68"/>
@@ -6052,7 +6114,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="36"/>
@@ -6077,12 +6139,12 @@
       <c r="Q5" s="41">
         <v>500</v>
       </c>
-      <c r="R5" s="37"/>
+      <c r="R5" s="68"/>
       <c r="S5" s="68"/>
       <c r="T5" s="68"/>
       <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="68"/>
       <c r="X5" s="68"/>
       <c r="Y5" s="68"/>
       <c r="Z5" s="68"/>
@@ -6106,7 +6168,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38">
+        <v>19</v>
+      </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
@@ -6118,43 +6182,41 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
-      <c r="R6" s="38">
-        <v>19</v>
+      <c r="R6" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="T6" s="38" t="s">
         <v>205</v>
       </c>
+      <c r="T6" s="38">
+        <v>727</v>
+      </c>
       <c r="U6" s="38">
-        <v>727</v>
+        <v>100</v>
       </c>
       <c r="V6" s="38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W6" s="38">
         <v>1</v>
       </c>
-      <c r="X6" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="41">
+      <c r="X6" s="38"/>
+      <c r="Y6" s="41">
         <v>4123</v>
       </c>
+      <c r="Z6" s="38" t="s">
+        <v>197</v>
+      </c>
       <c r="AA6" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AB6" s="38" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AC6" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD6" s="38" t="s">
         <v>200</v>
       </c>
+      <c r="AD6" s="68"/>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
       <c r="AG6" s="68"/>
@@ -6166,12 +6228,14 @@
         <v>217</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="F7" s="38">
+        <v>19</v>
+      </c>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
@@ -6183,30 +6247,28 @@
       <c r="O7" s="69"/>
       <c r="P7" s="69"/>
       <c r="Q7" s="69"/>
-      <c r="R7" s="38">
-        <v>19</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="38" t="s">
+      <c r="R7" s="68"/>
+      <c r="S7" s="38" t="s">
         <v>205</v>
       </c>
+      <c r="T7" s="38">
+        <v>727</v>
+      </c>
       <c r="U7" s="38">
-        <v>727</v>
+        <v>1000</v>
       </c>
       <c r="V7" s="38">
-        <v>1000</v>
-      </c>
-      <c r="W7" s="38">
         <v>1</v>
       </c>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="41">
+      <c r="W7" s="68"/>
+      <c r="X7" s="41">
         <v>10</v>
       </c>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="69" t="s">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="69" t="s">
         <v>77</v>
       </c>
+      <c r="AA7" s="68"/>
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
       <c r="AD7" s="68"/>
@@ -6324,6 +6386,8 @@
       <c r="AE10" s="68"/>
       <c r="AF10" s="68"/>
       <c r="AG10" s="68"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="46"/>
@@ -6436,6 +6500,42 @@
       <c r="AH13" s="68"/>
       <c r="AI13" s="68"/>
     </row>
+    <row r="14" spans="1:35">
+      <c r="AF14" s="76"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="AF15" s="76"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="AF16" s="76"/>
+    </row>
+    <row r="17" spans="32:32">
+      <c r="AF17" s="76"/>
+    </row>
+    <row r="18" spans="32:32">
+      <c r="AF18" s="76"/>
+    </row>
+    <row r="19" spans="32:32">
+      <c r="AF19" s="76"/>
+    </row>
+    <row r="20" spans="32:32">
+      <c r="AF20" s="76"/>
+    </row>
+    <row r="21" spans="32:32">
+      <c r="AF21" s="76"/>
+    </row>
+    <row r="22" spans="32:32">
+      <c r="AF22" s="76"/>
+    </row>
+    <row r="23" spans="32:32">
+      <c r="AF23" s="76"/>
+    </row>
+    <row r="24" spans="32:32">
+      <c r="AF24" s="76"/>
+    </row>
+    <row r="25" spans="32:32">
+      <c r="AF25" s="76"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6443,10 +6543,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L300"/>
+  <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6460,11 +6560,17 @@
     <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.68359375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="53" width="16.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="53" width="20.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4">
+    <row r="1" spans="1:17" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -6493,14 +6599,27 @@
         <v>126</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="45" t="s">
         <v>117</v>
       </c>
@@ -6531,8 +6650,13 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="45" t="s">
         <v>116</v>
       </c>
@@ -6553,32 +6677,37 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>287</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>288</v>
       </c>
       <c r="C4" s="41">
         <v>564</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>129</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="41">
         <v>840</v>
@@ -6586,41 +6715,100 @@
       <c r="I4" s="41">
         <v>1500</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="41"/>
+      <c r="K4" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="41">
+        <v>564</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="41">
+        <v>840</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2500</v>
+      </c>
       <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="K5" s="38" t="s">
+        <v>291</v>
+      </c>
       <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="41">
+        <v>564</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" s="41">
+        <v>840</v>
+      </c>
+      <c r="I6" s="41">
+        <v>4000</v>
+      </c>
       <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="38" t="s">
+        <v>291</v>
+      </c>
       <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="41"/>
@@ -6633,8 +6821,13 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="41"/>
@@ -6647,8 +6840,13 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="41"/>
@@ -6661,26 +6859,31 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="D10" s="47"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:17">
       <c r="D11" s="47"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:17">
       <c r="D12" s="47"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:17">
       <c r="D13" s="47"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:17">
       <c r="D14" s="47"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:17">
       <c r="D15" s="47"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:17">
       <c r="D16" s="47"/>
     </row>
     <row r="17" spans="4:4">
@@ -7546,7 +7749,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7738,7 +7941,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7800,7 +8003,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>75</v>
@@ -7821,25 +8024,25 @@
         <v>213</v>
       </c>
       <c r="R1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="V1" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="X1" s="83" t="s">
         <v>247</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -7879,7 +8082,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>68</v>
@@ -7944,10 +8147,10 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>68</v>
@@ -7996,10 +8199,10 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>68</v>
@@ -8054,10 +8257,10 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>68</v>
@@ -8112,10 +8315,10 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>68</v>
@@ -8163,19 +8366,19 @@
         <v>77</v>
       </c>
       <c r="R7" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S7" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U7" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V7" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W7" s="41">
         <v>3</v>
@@ -8321,10 +8524,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8332,7 +8535,8 @@
     <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
@@ -8426,7 +8630,7 @@
         <v>211</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y1" s="40" t="s">
         <v>213</v>
@@ -8604,7 +8808,7 @@
         <v>170</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="68"/>
@@ -8628,7 +8832,7 @@
       <c r="V5" s="68"/>
       <c r="W5" s="68"/>
       <c r="X5" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y5" s="68"/>
     </row>
@@ -8939,6 +9143,388 @@
       <c r="Y11" s="36" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="36"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9006,13 +9592,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>252</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>253</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>75</v>
@@ -9035,10 +9621,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>250</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>68</v>
@@ -9071,7 +9657,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N2" s="37">
         <v>1</v>
@@ -9182,22 +9768,22 @@
         <v>65</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>252</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>253</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>75</v>
@@ -9233,13 +9819,13 @@
         <v>135</v>
       </c>
       <c r="AE1" s="107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF1" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG1" s="106" t="s">
         <v>282</v>
-      </c>
-      <c r="AG1" s="106" t="s">
-        <v>283</v>
       </c>
       <c r="AH1" s="40" t="s">
         <v>120</v>
@@ -9260,15 +9846,15 @@
         <v>125</v>
       </c>
       <c r="AN1" s="109" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>258</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>259</v>
       </c>
       <c r="C2" s="37">
         <v>369</v>
@@ -9298,7 +9884,7 @@
         <v>139</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="37">
@@ -9339,10 +9925,10 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>261</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>262</v>
       </c>
       <c r="C3" s="37">
         <v>369</v>
@@ -9378,7 +9964,7 @@
         <v>139</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="37">
@@ -9413,10 +9999,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>263</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>264</v>
       </c>
       <c r="C4" s="37">
         <v>369</v>
@@ -9446,7 +10032,7 @@
         <v>139</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="37">
@@ -9459,7 +10045,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T4" s="37">
         <v>1</v>
@@ -9478,7 +10064,7 @@
         <v>1587</v>
       </c>
       <c r="AB4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC4" s="48" t="s">
         <v>129</v>
@@ -9499,10 +10085,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="37">
         <v>369</v>
@@ -9543,7 +10129,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T5" s="37">
         <v>1</v>
@@ -9560,7 +10146,7 @@
       </c>
       <c r="AA5" s="41"/>
       <c r="AB5" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC5" s="48" t="s">
         <v>129</v>
@@ -9581,10 +10167,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="37">
         <v>369</v>
@@ -9636,7 +10222,7 @@
       </c>
       <c r="AA6" s="41"/>
       <c r="AB6" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC6" s="48" t="s">
         <v>129</v>
@@ -9661,10 +10247,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="36" t="s">
@@ -9711,16 +10297,16 @@
         <v>129</v>
       </c>
       <c r="AK7" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL7" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM7" s="41">
         <v>840</v>
       </c>
       <c r="AN7" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -9897,6 +10483,271 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.4">
+      <c r="A1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="38">
+        <v>369</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="37">
+        <v>727</v>
+      </c>
+      <c r="F2" s="37">
+        <v>369</v>
+      </c>
+      <c r="G2" s="37">
+        <v>320</v>
+      </c>
+      <c r="H2" s="37">
+        <v>2</v>
+      </c>
+      <c r="I2" s="37">
+        <v>25000</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="41">
+        <v>1</v>
+      </c>
+      <c r="L2" s="41">
+        <v>1</v>
+      </c>
+      <c r="M2" s="41">
+        <v>1</v>
+      </c>
+      <c r="N2" s="41"/>
+      <c r="O2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q2" s="36"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="311">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -962,10 +962,13 @@
     <t>CommitteeApproval_608</t>
   </si>
   <si>
-    <t>4751</t>
-  </si>
-  <si>
-    <t>4753</t>
+    <t>Comment Code</t>
+  </si>
+  <si>
+    <t>Done(doubt)</t>
+  </si>
+  <si>
+    <t>4809</t>
   </si>
 </sst>
 </file>
@@ -1857,22 +1860,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="105" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="105" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="15.0" collapsed="false"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2378,8 +2381,8 @@
       <c r="H20" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="I20" s="64" t="s">
-        <v>265</v>
+      <c r="I20" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="J20" s="59"/>
     </row>
@@ -2446,8 +2449,8 @@
       <c r="H23" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="I23" s="64" t="s">
-        <v>265</v>
+      <c r="I23" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="59"/>
     </row>
@@ -2474,8 +2477,8 @@
       <c r="H24" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="I24" s="64" t="s">
-        <v>265</v>
+      <c r="I24" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="J24" s="59"/>
     </row>
@@ -2502,8 +2505,8 @@
       <c r="H25" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="I25" s="64" t="s">
-        <v>265</v>
+      <c r="I25" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="J25" s="59"/>
     </row>
@@ -2530,8 +2533,8 @@
       <c r="H26" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="I26" s="64" t="s">
-        <v>265</v>
+      <c r="I26" s="59" t="s">
+        <v>309</v>
       </c>
       <c r="J26" s="59"/>
     </row>
@@ -2559,7 +2562,7 @@
         <v>254</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="J27" s="59"/>
     </row>
@@ -4252,17 +4255,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4359,44 +4362,44 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="14" max="14" style="53" width="13.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="38.5546875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="88" width="32.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="14" max="14" style="53" width="13.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="27.109375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="21.109375" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="8.88671875" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="28" max="29" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="17.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.4">
@@ -4578,50 +4581,32 @@
         <v>254</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="41"/>
+        <v>159</v>
+      </c>
+      <c r="D3" s="41">
+        <v>3679</v>
+      </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37">
-        <v>727</v>
-      </c>
-      <c r="J3" s="37">
-        <v>369</v>
-      </c>
-      <c r="K3" s="37">
-        <v>320</v>
-      </c>
-      <c r="L3" s="37">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="37">
-        <v>2</v>
-      </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37">
-        <v>1</v>
-      </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
@@ -4633,109 +4618,125 @@
       <c r="AE3" s="41"/>
       <c r="AF3" s="41"/>
       <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
+      <c r="AH3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" s="37" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>150</v>
+        <v>231</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="41">
-        <v>3679</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="41"/>
+        <v>158</v>
+      </c>
+      <c r="D4" s="37">
+        <v>369</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37">
+        <v>727</v>
+      </c>
+      <c r="J4" s="37">
+        <v>369</v>
+      </c>
+      <c r="K4" s="37">
+        <v>320</v>
+      </c>
+      <c r="L4" s="37">
+        <v>2</v>
+      </c>
+      <c r="M4" s="37">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="37"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
+      <c r="S4" s="37">
+        <v>1</v>
+      </c>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
       <c r="W4" s="41"/>
       <c r="X4" s="41"/>
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="36" t="s">
+      <c r="AA4" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="37" t="s">
-        <v>78</v>
-      </c>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="89" t="s">
         <v>231</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="37">
-        <v>369</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37">
-        <v>727</v>
-      </c>
-      <c r="J5" s="37">
-        <v>369</v>
-      </c>
-      <c r="K5" s="37">
-        <v>320</v>
-      </c>
-      <c r="L5" s="37">
+        <v>157</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1349</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41">
         <v>2</v>
       </c>
-      <c r="M5" s="37">
-        <v>10000</v>
+      <c r="M5" s="41">
+        <v>500</v>
       </c>
       <c r="N5" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="37"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="37">
-        <v>1</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
@@ -4762,45 +4763,57 @@
       <c r="A6" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="41"/>
+      <c r="B6" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="37">
+        <v>369</v>
+      </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="38">
-        <v>1349</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41">
+      <c r="G6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37">
+        <v>727</v>
+      </c>
+      <c r="J6" s="37">
+        <v>369</v>
+      </c>
+      <c r="K6" s="37">
+        <v>320</v>
+      </c>
+      <c r="L6" s="37">
         <v>2</v>
       </c>
-      <c r="M6" s="41">
-        <v>500</v>
+      <c r="M6" s="37">
+        <v>10000</v>
       </c>
       <c r="N6" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="41"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
+      <c r="S6" s="37">
+        <v>1</v>
+      </c>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
       <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
+      <c r="X6" s="41">
+        <v>3455</v>
+      </c>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Z6" s="41">
+        <v>2</v>
+      </c>
       <c r="AA6" s="38">
         <v>1</v>
       </c>
@@ -4824,14 +4837,12 @@
         <v>231</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="37">
-        <v>369</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="36" t="s">
@@ -4856,24 +4867,22 @@
       <c r="N7" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="37">
-        <v>1</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
+      <c r="R7" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41">
+        <v>2</v>
+      </c>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="41"/>
-      <c r="X7" s="41">
-        <v>3455</v>
-      </c>
+      <c r="X7" s="41"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="41">
-        <v>2</v>
-      </c>
+      <c r="Z7" s="41"/>
       <c r="AA7" s="38">
         <v>1</v>
       </c>
@@ -4893,14 +4902,12 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="89" t="s">
-        <v>231</v>
-      </c>
+      <c r="A8" s="89"/>
       <c r="B8" s="43" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -4922,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="37">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N8" s="51" t="s">
         <v>139</v>
@@ -4930,13 +4937,11 @@
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
-      <c r="R8" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41">
-        <v>2</v>
-      </c>
+      <c r="R8" s="41"/>
+      <c r="S8" s="37">
+        <v>1</v>
+      </c>
+      <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
       <c r="W8" s="41"/>
@@ -4964,10 +4969,10 @@
     <row r="9" spans="1:35">
       <c r="A9" s="89"/>
       <c r="B9" s="43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -5006,7 +5011,9 @@
       <c r="V9" s="41"/>
       <c r="W9" s="41"/>
       <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
+      <c r="Y9" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="Z9" s="41"/>
       <c r="AA9" s="38">
         <v>1</v>
@@ -5015,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
+      <c r="AD9" s="41"/>
       <c r="AE9" s="36" t="s">
         <v>77</v>
       </c>
@@ -5029,12 +5036,14 @@
     <row r="10" spans="1:35">
       <c r="A10" s="89"/>
       <c r="B10" s="43" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="41"/>
+        <v>210</v>
+      </c>
+      <c r="D10" s="37">
+        <v>369</v>
+      </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="36" t="s">
@@ -5071,9 +5080,7 @@
       <c r="V10" s="41"/>
       <c r="W10" s="41"/>
       <c r="X10" s="41"/>
-      <c r="Y10" s="38" t="s">
-        <v>143</v>
-      </c>
+      <c r="Y10" s="38"/>
       <c r="Z10" s="41"/>
       <c r="AA10" s="38">
         <v>1</v>
@@ -5084,9 +5091,11 @@
       <c r="AC10" s="38"/>
       <c r="AD10" s="41"/>
       <c r="AE10" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF10" s="36"/>
+        <v>197</v>
+      </c>
+      <c r="AF10" s="36" t="s">
+        <v>214</v>
+      </c>
       <c r="AG10" s="36" t="s">
         <v>77</v>
       </c>
@@ -5095,15 +5104,13 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="89"/>
-      <c r="B11" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="37">
-        <v>369</v>
-      </c>
+      <c r="B11" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="36" t="s">
@@ -5123,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="37">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="N11" s="51" t="s">
         <v>139</v>
@@ -5137,10 +5144,12 @@
       </c>
       <c r="T11" s="41"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
+      <c r="V11" s="38">
+        <v>10</v>
+      </c>
       <c r="W11" s="41"/>
       <c r="X11" s="41"/>
-      <c r="Y11" s="38"/>
+      <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
       <c r="AA11" s="38">
         <v>1</v>
@@ -5165,10 +5174,10 @@
     <row r="12" spans="1:35">
       <c r="A12" s="89"/>
       <c r="B12" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
@@ -5204,9 +5213,7 @@
       </c>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="38">
-        <v>10</v>
-      </c>
+      <c r="V12" s="41"/>
       <c r="W12" s="41"/>
       <c r="X12" s="41"/>
       <c r="Y12" s="41"/>
@@ -5217,60 +5224,36 @@
       <c r="AB12" s="38">
         <v>1</v>
       </c>
-      <c r="AC12" s="38"/>
+      <c r="AC12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="AD12" s="41"/>
-      <c r="AE12" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF12" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG12" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
       <c r="AH12" s="41"/>
       <c r="AI12" s="41"/>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="89"/>
-      <c r="B13" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>221</v>
-      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
-      <c r="G13" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37">
-        <v>727</v>
-      </c>
-      <c r="J13" s="37">
-        <v>369</v>
-      </c>
-      <c r="K13" s="37">
-        <v>320</v>
-      </c>
-      <c r="L13" s="37">
-        <v>2</v>
-      </c>
-      <c r="M13" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
-      <c r="S13" s="37">
-        <v>1</v>
-      </c>
+      <c r="S13" s="41"/>
       <c r="T13" s="41"/>
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
@@ -5278,15 +5261,9 @@
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
-      <c r="AA13" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
       <c r="AD13" s="41"/>
       <c r="AE13" s="41"/>
       <c r="AF13" s="41"/>
@@ -5738,43 +5715,6 @@
       <c r="AH25" s="41"/>
       <c r="AI25" s="41"/>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="89"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5787,47 +5727,56 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="34" max="35" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="11" max="13" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="25" max="26" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="23.6640625" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="16.23828125" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="42" max="42" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="43" max="43" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="44" max="44" customWidth="true" width="17.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.4">
+    <row r="1" spans="1:44" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -5838,103 +5787,130 @@
         <v>71</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="M1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="N1" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="W1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="X1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="Z1" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="AE1" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AF1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AI1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AJ1" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AN1" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AO1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AP1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AQ1" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR1" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:44">
       <c r="A2" s="35" t="s">
         <v>165</v>
       </c>
@@ -5944,64 +5920,71 @@
       <c r="C2" s="37">
         <v>369</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="37">
+      <c r="G2" s="36"/>
+      <c r="H2" s="37">
         <v>727</v>
       </c>
-      <c r="F2" s="37">
+      <c r="I2" s="37">
         <v>369</v>
       </c>
-      <c r="G2" s="37">
+      <c r="J2" s="37">
         <v>320</v>
       </c>
-      <c r="H2" s="37">
+      <c r="K2" s="37">
         <v>2</v>
       </c>
-      <c r="I2" s="37">
+      <c r="L2" s="37">
         <v>10000</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="38">
-        <v>1</v>
-      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="41"/>
       <c r="W2" s="68"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
+      <c r="AA2" s="38">
+        <v>1</v>
+      </c>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
-      <c r="AD2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG2" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
       <c r="AH2" s="68"/>
       <c r="AI2" s="68"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="35" t="s">
         <v>149</v>
       </c>
@@ -6009,146 +5992,178 @@
         <v>160</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="37">
+      <c r="G3" s="36"/>
+      <c r="H3" s="37">
         <v>727</v>
       </c>
-      <c r="F3" s="37">
+      <c r="I3" s="37">
         <v>369</v>
       </c>
-      <c r="G3" s="37">
+      <c r="J3" s="37">
         <v>320</v>
-      </c>
-      <c r="H3" s="37">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37">
-        <v>20000</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>139</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
       </c>
       <c r="L3" s="37">
+        <v>20000</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="37">
         <v>2</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="38">
-        <v>1</v>
-      </c>
+      <c r="P3" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
       <c r="W3" s="68"/>
       <c r="X3" s="68"/>
       <c r="Y3" s="68"/>
       <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
+      <c r="AA3" s="38">
+        <v>1</v>
+      </c>
       <c r="AB3" s="68"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="68"/>
       <c r="AE3" s="68"/>
-      <c r="AF3" s="37"/>
+      <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
       <c r="AH3" s="68"/>
       <c r="AI3" s="68"/>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="35" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="41">
-        <v>3679</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="51"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="38"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
       <c r="W4" s="68"/>
       <c r="X4" s="68"/>
       <c r="Y4" s="68"/>
       <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
+      <c r="AA4" s="38"/>
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
       <c r="AD4" s="68"/>
       <c r="AE4" s="68"/>
       <c r="AF4" s="68"/>
       <c r="AG4" s="68"/>
-      <c r="AH4" s="36" t="s">
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="37" t="s">
+      <c r="AQ4" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="41">
-        <v>1471</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>500</v>
-      </c>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="38"/>
+    <row r="5" spans="1:44">
+      <c r="A5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="37">
+        <v>369</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37">
+        <v>727</v>
+      </c>
+      <c r="I5" s="37">
+        <v>369</v>
+      </c>
+      <c r="J5" s="37">
+        <v>320</v>
+      </c>
+      <c r="K5" s="37">
+        <v>2</v>
+      </c>
+      <c r="L5" s="37">
+        <v>20000</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="51"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
       <c r="W5" s="68"/>
       <c r="X5" s="68"/>
       <c r="Y5" s="68"/>
       <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
+      <c r="AA5" s="38">
+        <v>1</v>
+      </c>
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
       <c r="AD5" s="68"/>
@@ -6157,64 +6172,69 @@
       <c r="AG5" s="68"/>
       <c r="AH5" s="68"/>
       <c r="AI5" s="68"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38">
-        <v>19</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="T6" s="38">
-        <v>727</v>
-      </c>
-      <c r="U6" s="38">
-        <v>100</v>
-      </c>
-      <c r="V6" s="38">
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="41">
         <v>1</v>
       </c>
-      <c r="W6" s="38">
+      <c r="AM5" s="41">
         <v>1</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="41">
-        <v>4123</v>
-      </c>
-      <c r="Z6" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA6" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC6" s="38" t="s">
-        <v>200</v>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="37"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="38">
+        <v>1537</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37">
+        <v>2</v>
+      </c>
+      <c r="L6" s="37">
+        <v>1500</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="37">
+        <v>0</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68">
+        <v>0</v>
       </c>
       <c r="AD6" s="68"/>
       <c r="AE6" s="68"/>
@@ -6222,53 +6242,72 @@
       <c r="AG6" s="68"/>
       <c r="AH6" s="68"/>
       <c r="AI6" s="68"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="38">
-        <v>19</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="T7" s="38">
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="37"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="37">
+        <v>369</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37">
         <v>727</v>
       </c>
-      <c r="U7" s="38">
-        <v>1000</v>
-      </c>
-      <c r="V7" s="38">
+      <c r="I7" s="37">
+        <v>369</v>
+      </c>
+      <c r="J7" s="37">
+        <v>320</v>
+      </c>
+      <c r="K7" s="37">
+        <v>2</v>
+      </c>
+      <c r="L7" s="37">
+        <v>20000</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="38">
         <v>1</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="68"/>
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
       <c r="AD7" s="68"/>
@@ -6277,35 +6316,76 @@
       <c r="AG7" s="68"/>
       <c r="AH7" s="68"/>
       <c r="AI7" s="68"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="AJ7" s="41">
+        <v>3455</v>
+      </c>
+      <c r="AK7" s="41">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="37"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>155</v>
+      </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="F8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37">
+        <v>727</v>
+      </c>
+      <c r="I8" s="37">
+        <v>369</v>
+      </c>
+      <c r="J8" s="37">
+        <v>320</v>
+      </c>
+      <c r="K8" s="37">
+        <v>2</v>
+      </c>
+      <c r="L8" s="37">
+        <v>25000</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>139</v>
+      </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
+      <c r="Q8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="37">
+        <v>2</v>
+      </c>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
+      <c r="AA8" s="38"/>
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
       <c r="AD8" s="68"/>
@@ -6314,35 +6394,64 @@
       <c r="AG8" s="68"/>
       <c r="AH8" s="68"/>
       <c r="AI8" s="68"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="37"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36">
+        <v>1471</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="V9" s="41">
+        <v>500</v>
+      </c>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
       <c r="Y9" s="68"/>
       <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="68"/>
       <c r="AC9" s="68"/>
       <c r="AD9" s="68"/>
@@ -6351,104 +6460,177 @@
       <c r="AG9" s="68"/>
       <c r="AH9" s="68"/>
       <c r="AI9" s="68"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="70"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="68"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="68"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38">
+        <v>19</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="X10" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>727</v>
+      </c>
+      <c r="Z10" s="38">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="41">
+        <v>4123</v>
+      </c>
+      <c r="AF10" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG10" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH10" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="68"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="38">
+        <v>19</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
       <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
+      <c r="X11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y11" s="38">
+        <v>727</v>
+      </c>
+      <c r="Z11" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AA11" s="38">
+        <v>1</v>
+      </c>
       <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
+      <c r="AD11" s="41">
+        <v>10</v>
+      </c>
       <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
+      <c r="AF11" s="69" t="s">
+        <v>77</v>
+      </c>
       <c r="AG11" s="68"/>
       <c r="AH11" s="68"/>
       <c r="AI11" s="68"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="68"/>
       <c r="X12" s="68"/>
       <c r="Y12" s="68"/>
@@ -6462,8 +6644,17 @@
       <c r="AG12" s="68"/>
       <c r="AH12" s="68"/>
       <c r="AI12" s="68"/>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="68"/>
@@ -6499,42 +6690,235 @@
       <c r="AG13" s="68"/>
       <c r="AH13" s="68"/>
       <c r="AI13" s="68"/>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="AF14" s="76"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="AF15" s="76"/>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="AF16" s="76"/>
-    </row>
-    <row r="17" spans="32:32">
-      <c r="AF17" s="76"/>
-    </row>
-    <row r="18" spans="32:32">
-      <c r="AF18" s="76"/>
-    </row>
-    <row r="19" spans="32:32">
-      <c r="AF19" s="76"/>
-    </row>
-    <row r="20" spans="32:32">
-      <c r="AF20" s="76"/>
-    </row>
-    <row r="21" spans="32:32">
-      <c r="AF21" s="76"/>
-    </row>
-    <row r="22" spans="32:32">
-      <c r="AF22" s="76"/>
-    </row>
-    <row r="23" spans="32:32">
-      <c r="AF23" s="76"/>
-    </row>
-    <row r="24" spans="32:32">
-      <c r="AF24" s="76"/>
-    </row>
-    <row r="25" spans="32:32">
-      <c r="AF25" s="76"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="AN18" s="76"/>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="AN19" s="76"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="AN20" s="76"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="AN21" s="76"/>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="AN22" s="76"/>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="AN23" s="76"/>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="AN24" s="76"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="AN25" s="76"/>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="AN26" s="76"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="AN27" s="76"/>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="AN28" s="76"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="AN29" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6551,23 +6935,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="53" width="16.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="53" width="20.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="53" width="16.77734375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="53" width="20.77734375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -7754,12 +8138,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
@@ -7946,29 +8330,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="84" width="17.88671875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="14" max="15" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="22.77734375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="23.77734375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="84" width="17.88671875" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4">
@@ -8532,31 +8916,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="84" width="11.44140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="84" width="15.44140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="84" width="13.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="84" width="13.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="84" width="11.44140625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="84" width="15.44140625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="84" width="13.44140625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -9541,23 +9925,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -9691,40 +10075,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="53" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="53" width="22.6640625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -10487,27 +10871,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10559,7 +10943,9 @@
       <c r="P1" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="40"/>
+      <c r="Q1" s="40" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="43" t="s">
@@ -10601,14 +10987,18 @@
       <c r="M2" s="41">
         <v>1</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41">
+        <v>4761</v>
+      </c>
       <c r="O2" s="36" t="s">
         <v>77</v>
       </c>
       <c r="P2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="Q2" s="36"/>
+      <c r="Q2" s="36" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="46"/>
@@ -10758,10 +11148,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10827,11 +11217,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10905,9 +11295,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10981,12 +11371,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11056,12 +11446,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11131,8 +11521,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11206,9 +11596,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11260,15 +11650,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="23" width="44.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="23" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="FMSParameterTestData" sheetId="18" r:id="rId17"/>
     <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId18"/>
     <sheet name="CommiteeApprovalTestData" sheetId="20" r:id="rId19"/>
+    <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="316">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -968,7 +969,22 @@
     <t>Done(doubt)</t>
   </si>
   <si>
-    <t>4809</t>
+    <t>AT_FAID_001</t>
+  </si>
+  <si>
+    <t>DS_AT_FAID_001</t>
+  </si>
+  <si>
+    <t>Currency Code</t>
+  </si>
+  <si>
+    <t>Limit Value</t>
+  </si>
+  <si>
+    <t>Possitive Limit</t>
+  </si>
+  <si>
+    <t>Negative Limit</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1860,22 +1876,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="105" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="15.0" collapsed="false"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2590,7 +2606,7 @@
         <v>254</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="J28" s="59"/>
     </row>
@@ -4255,17 +4271,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4362,44 +4378,44 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="32.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="14" max="14" style="53" width="13.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="27.109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="21.109375" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="8.88671875" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="28" max="29" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="1" max="1" width="32.33203125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13" style="53"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="21.109375" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" customWidth="1"/>
+    <col min="25" max="25" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="27" width="14.5546875" customWidth="1"/>
+    <col min="28" max="29" width="15.5546875" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.88671875" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.4">
@@ -4577,33 +4593,45 @@
       <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="41">
-        <v>3679</v>
-      </c>
+      <c r="A3" s="89"/>
+      <c r="B3" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="52"/>
+      <c r="G3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
+        <v>727</v>
+      </c>
+      <c r="J3" s="37">
+        <v>369</v>
+      </c>
+      <c r="K3" s="37">
+        <v>320</v>
+      </c>
+      <c r="L3" s="37">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>139</v>
+      </c>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="S3" s="37">
+        <v>1</v>
+      </c>
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
       <c r="V3" s="41"/>
@@ -4611,39 +4639,35 @@
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AA3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" s="37" t="s">
-        <v>78</v>
-      </c>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="37">
-        <v>369</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>83</v>
-      </c>
+      <c r="A4" s="89"/>
+      <c r="B4" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="36" t="s">
         <v>68</v>
       </c>
@@ -4661,24 +4685,26 @@
         <v>2</v>
       </c>
       <c r="M4" s="37">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
       <c r="S4" s="37">
         <v>1</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
       <c r="W4" s="41"/>
       <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="Y4" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="Z4" s="41"/>
       <c r="AA4" s="38">
         <v>1</v>
@@ -4687,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
+      <c r="AD4" s="41"/>
       <c r="AE4" s="36" t="s">
         <v>77</v>
       </c>
@@ -4699,32 +4725,36 @@
       <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="41"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="37">
+        <v>369</v>
+      </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
-      <c r="G5" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1349</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41">
+      <c r="G5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37">
+        <v>727</v>
+      </c>
+      <c r="J5" s="37">
+        <v>369</v>
+      </c>
+      <c r="K5" s="37">
+        <v>320</v>
+      </c>
+      <c r="L5" s="37">
         <v>2</v>
       </c>
-      <c r="M5" s="41">
-        <v>500</v>
+      <c r="M5" s="37">
+        <v>1000</v>
       </c>
       <c r="N5" s="51" t="s">
         <v>139</v>
@@ -4733,13 +4763,15 @@
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="S5" s="37">
+        <v>1</v>
+      </c>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
       <c r="V5" s="41"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
+      <c r="Y5" s="38"/>
       <c r="Z5" s="41"/>
       <c r="AA5" s="38">
         <v>1</v>
@@ -4748,11 +4780,13 @@
         <v>1</v>
       </c>
       <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
+      <c r="AD5" s="41"/>
       <c r="AE5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF5" s="36"/>
+        <v>197</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>214</v>
+      </c>
       <c r="AG5" s="36" t="s">
         <v>77</v>
       </c>
@@ -4760,18 +4794,14 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="37">
-        <v>369</v>
-      </c>
+      <c r="A6" s="89"/>
+      <c r="B6" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="36" t="s">
@@ -4796,24 +4826,22 @@
       <c r="N6" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="37"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="37">
         <v>1</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="38">
+        <v>10</v>
+      </c>
       <c r="W6" s="41"/>
-      <c r="X6" s="41">
-        <v>3455</v>
-      </c>
+      <c r="X6" s="41"/>
       <c r="Y6" s="41"/>
-      <c r="Z6" s="41">
-        <v>2</v>
-      </c>
+      <c r="Z6" s="41"/>
       <c r="AA6" s="38">
         <v>1</v>
       </c>
@@ -4821,11 +4849,13 @@
         <v>1</v>
       </c>
       <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
+      <c r="AD6" s="41"/>
       <c r="AE6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF6" s="36"/>
+        <v>197</v>
+      </c>
+      <c r="AF6" s="36" t="s">
+        <v>214</v>
+      </c>
       <c r="AG6" s="36" t="s">
         <v>77</v>
       </c>
@@ -4833,14 +4863,12 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>155</v>
+      <c r="A7" s="89"/>
+      <c r="B7" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -4870,13 +4898,11 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
-      <c r="R7" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41">
-        <v>2</v>
-      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="37">
+        <v>1</v>
+      </c>
+      <c r="T7" s="41"/>
       <c r="U7" s="41"/>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
@@ -4889,58 +4915,36 @@
       <c r="AB7" s="38">
         <v>1</v>
       </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AC7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
       <c r="AH7" s="41"/>
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="89"/>
-      <c r="B8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>138</v>
-      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
-      <c r="G8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37">
-        <v>727</v>
-      </c>
-      <c r="J8" s="37">
-        <v>369</v>
-      </c>
-      <c r="K8" s="37">
-        <v>320</v>
-      </c>
-      <c r="L8" s="37">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37">
-        <v>1000</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
-      <c r="S8" s="37">
-        <v>1</v>
-      </c>
+      <c r="S8" s="41"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
@@ -4948,269 +4952,147 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
-      <c r="AA8" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="89"/>
-      <c r="B9" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>142</v>
-      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37">
-        <v>727</v>
-      </c>
-      <c r="J9" s="37">
-        <v>369</v>
-      </c>
-      <c r="K9" s="37">
-        <v>320</v>
-      </c>
-      <c r="L9" s="37">
-        <v>2</v>
-      </c>
-      <c r="M9" s="37">
-        <v>1000</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
-      <c r="S9" s="37">
-        <v>1</v>
-      </c>
+      <c r="S9" s="41"/>
       <c r="T9" s="41"/>
       <c r="U9" s="41"/>
       <c r="V9" s="41"/>
       <c r="W9" s="41"/>
       <c r="X9" s="41"/>
-      <c r="Y9" s="38" t="s">
-        <v>143</v>
-      </c>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
-      <c r="AA9" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="38"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
       <c r="AD9" s="41"/>
-      <c r="AE9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="89"/>
-      <c r="B10" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="37">
-        <v>369</v>
-      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37">
-        <v>727</v>
-      </c>
-      <c r="J10" s="37">
-        <v>369</v>
-      </c>
-      <c r="K10" s="37">
-        <v>320</v>
-      </c>
-      <c r="L10" s="37">
-        <v>2</v>
-      </c>
-      <c r="M10" s="37">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="52"/>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
-      <c r="S10" s="37">
-        <v>1</v>
-      </c>
+      <c r="S10" s="41"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
       <c r="W10" s="41"/>
       <c r="X10" s="41"/>
-      <c r="Y10" s="38"/>
+      <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
-      <c r="AA10" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="38"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
       <c r="AD10" s="41"/>
-      <c r="AE10" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF10" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG10" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
       <c r="AH10" s="41"/>
       <c r="AI10" s="41"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="89"/>
-      <c r="B11" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>219</v>
-      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37">
-        <v>727</v>
-      </c>
-      <c r="J11" s="37">
-        <v>369</v>
-      </c>
-      <c r="K11" s="37">
-        <v>320</v>
-      </c>
-      <c r="L11" s="37">
-        <v>2</v>
-      </c>
-      <c r="M11" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
-      <c r="S11" s="37">
-        <v>1</v>
-      </c>
+      <c r="S11" s="41"/>
       <c r="T11" s="41"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="38">
-        <v>10</v>
-      </c>
+      <c r="V11" s="41"/>
       <c r="W11" s="41"/>
       <c r="X11" s="41"/>
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
-      <c r="AA11" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="38"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
       <c r="AD11" s="41"/>
-      <c r="AE11" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF11" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG11" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="89"/>
-      <c r="B12" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>221</v>
-      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37">
-        <v>727</v>
-      </c>
-      <c r="J12" s="37">
-        <v>369</v>
-      </c>
-      <c r="K12" s="37">
-        <v>320</v>
-      </c>
-      <c r="L12" s="37">
-        <v>2</v>
-      </c>
-      <c r="M12" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>139</v>
-      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
-      <c r="S12" s="37">
-        <v>1</v>
-      </c>
+      <c r="S12" s="41"/>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
@@ -5218,15 +5100,9 @@
       <c r="X12" s="41"/>
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
-      <c r="AA12" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
       <c r="AD12" s="41"/>
       <c r="AE12" s="41"/>
       <c r="AF12" s="41"/>
@@ -5530,191 +5406,6 @@
       <c r="AH20" s="41"/>
       <c r="AI20" s="41"/>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="89"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="89"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="89"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="89"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-    </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="89"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5729,51 +5420,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="11" max="13" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="20.109375" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="25" max="26" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="23.6640625" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="39" max="39" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="16.23828125" collapsed="false"/>
-    <col min="41" max="41" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="42" max="42" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="43" max="43" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="44" max="44" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="26" width="16.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.77734375" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="16.5546875" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19" customWidth="1"/>
+    <col min="33" max="33" width="18.44140625" customWidth="1"/>
+    <col min="34" max="34" width="23.6640625" customWidth="1"/>
+    <col min="35" max="35" width="21.5546875" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="38" width="17.33203125" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" customWidth="1"/>
+    <col min="40" max="40" width="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.21875" customWidth="1"/>
+    <col min="42" max="42" width="17.109375" customWidth="1"/>
+    <col min="43" max="43" width="14.44140625" customWidth="1"/>
+    <col min="44" max="44" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="14.4">
@@ -6402,9 +6093,7 @@
       <c r="AM8" s="41">
         <v>1</v>
       </c>
-      <c r="AN8" s="68" t="s">
-        <v>310</v>
-      </c>
+      <c r="AN8" s="68"/>
       <c r="AO8" s="36" t="s">
         <v>77</v>
       </c>
@@ -6935,23 +6624,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="53" width="16.77734375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="53" width="20.77734375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="53" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="53" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -8138,12 +7827,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
@@ -8325,34 +8014,34 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="14" max="15" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="22.77734375" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="23.77734375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="84" width="17.88671875" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.77734375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" style="84" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4">
@@ -8911,36 +8600,36 @@
   <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="84" width="13.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="84" width="13.44140625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="84" width="11.44140625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="84" width="15.44140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="84" width="13.44140625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="84" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="84" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="84" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="84" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -9920,28 +9609,28 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -10075,40 +9764,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="53" width="22.6640625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="53" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
+    <col min="27" max="27" width="13.21875" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="31" max="33" width="10.77734375" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" customWidth="1"/>
+    <col min="39" max="39" width="18.33203125" customWidth="1"/>
+    <col min="40" max="40" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -10871,27 +10560,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -11148,10 +10837,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11204,6 +10893,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="7.5381999999999998" bottom="7.5381999999999998" header="7.3412999999999995" footer="7.3412999999999995"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="38">
+        <v>380</v>
+      </c>
+      <c r="D2" s="36">
+        <v>840</v>
+      </c>
+      <c r="E2" s="37">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="37">
+        <v>-2</v>
+      </c>
+      <c r="G2" s="37">
+        <v>1500</v>
+      </c>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11217,11 +11049,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11295,9 +11127,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11371,12 +11203,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11446,12 +11278,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11521,8 +11353,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11596,9 +11428,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11650,15 +11482,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="23" width="44.6640625" collapsed="false"/>
+    <col min="1" max="1" width="10.6640625" style="23" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="23" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,21 @@
     <sheet name="SadsLogin" sheetId="8" r:id="rId8"/>
     <sheet name="TestExecution" sheetId="9" r:id="rId9"/>
     <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId10"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId11"/>
-    <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId12"/>
-    <sheet name="CollateralManagementTestData" sheetId="13" r:id="rId13"/>
-    <sheet name="Draw_Down_Request" sheetId="14" r:id="rId14"/>
-    <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId15"/>
-    <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId16"/>
-    <sheet name="FMSParameterTestData" sheetId="18" r:id="rId17"/>
-    <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId18"/>
-    <sheet name="CommiteeApprovalTestData" sheetId="20" r:id="rId19"/>
-    <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId20"/>
+    <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId11"/>
+    <sheet name="CollateralManagementTestData" sheetId="13" r:id="rId12"/>
+    <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId13"/>
+    <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId14"/>
+    <sheet name="FMSParameterTestData" sheetId="18" r:id="rId15"/>
+    <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId16"/>
+    <sheet name="CommiteeApprovalTestData" sheetId="20" r:id="rId17"/>
+    <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="320">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -327,9 +325,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Report file Name</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -339,9 +334,6 @@
     <t>Feature File Name</t>
   </si>
   <si>
-    <t>WIFAK_Application</t>
-  </si>
-  <si>
     <t>Need to validate</t>
   </si>
   <si>
@@ -438,9 +430,6 @@
     <t>AT_RF_157</t>
   </si>
   <si>
-    <t>DS01_AT_RF_157</t>
-  </si>
-  <si>
     <t>Value Date</t>
   </si>
   <si>
@@ -621,9 +610,6 @@
     <t>Request Code</t>
   </si>
   <si>
-    <t>Decision Forward To</t>
-  </si>
-  <si>
     <t>Approval Committee</t>
   </si>
   <si>
@@ -651,9 +637,6 @@
     <t>DS_AT_FM_035</t>
   </si>
   <si>
-    <t>Request_For_Financing_608</t>
-  </si>
-  <si>
     <t>New Request</t>
   </si>
   <si>
@@ -684,9 +667,6 @@
     <t>Approve Level 3</t>
   </si>
   <si>
-    <t>WIFAK_Application_608</t>
-  </si>
-  <si>
     <t>AT_FM_057</t>
   </si>
   <si>
@@ -837,9 +817,6 @@
     <t>Need to Execute</t>
   </si>
   <si>
-    <t>Feature Name</t>
-  </si>
-  <si>
     <t>DS_AT_RF_157</t>
   </si>
   <si>
@@ -985,6 +962,39 @@
   </si>
   <si>
     <t>Negative Limit</t>
+  </si>
+  <si>
+    <t>AT_FAID_002</t>
+  </si>
+  <si>
+    <t>AT_FAID_003</t>
+  </si>
+  <si>
+    <t>AT_FAID_004</t>
+  </si>
+  <si>
+    <t>AT_FAID_005</t>
+  </si>
+  <si>
+    <t>AT_FAID_006</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>FacilityApplication_608</t>
+  </si>
+  <si>
+    <t>DS_AT_FAID_002</t>
+  </si>
+  <si>
+    <t>FX Nominal Limit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CollateralManagementTestData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1082,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,12 +1158,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1292,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1464,9 +1468,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1526,6 +1527,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1865,7 +1880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1876,21 +1891,21 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="105" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="102" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
     <col min="11" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
@@ -1902,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>95</v>
@@ -1917,37 +1932,37 @@
         <v>1</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>96</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="88">
         <v>843959</v>
       </c>
-      <c r="C2" s="92" t="s">
-        <v>181</v>
+      <c r="C2" s="89" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="59"/>
@@ -1956,24 +1971,24 @@
       <c r="A3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="88">
         <v>862019</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>182</v>
+      <c r="C3" s="89" t="s">
+        <v>179</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="59"/>
@@ -1982,15 +1997,15 @@
       <c r="A4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="88">
         <v>285050</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="61" t="s">
@@ -2004,32 +2019,32 @@
       <c r="A5" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="88">
         <v>296063</v>
       </c>
-      <c r="C5" s="92" t="s">
-        <v>183</v>
+      <c r="C5" s="89" t="s">
+        <v>180</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="57"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="58"/>
@@ -2042,24 +2057,24 @@
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="88">
         <v>294466</v>
       </c>
-      <c r="C7" s="94" t="s">
-        <v>170</v>
+      <c r="C7" s="91" t="s">
+        <v>167</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I7" s="60"/>
       <c r="J7" s="59"/>
@@ -2068,27 +2083,27 @@
       <c r="A8" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="88">
         <v>299883</v>
       </c>
-      <c r="C8" s="94" t="s">
-        <v>171</v>
+      <c r="C8" s="91" t="s">
+        <v>168</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="59"/>
     </row>
@@ -2096,57 +2111,57 @@
       <c r="A9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="92">
         <v>305703</v>
       </c>
-      <c r="C9" s="94" t="s">
-        <v>172</v>
+      <c r="C9" s="91" t="s">
+        <v>169</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="59" t="s">
         <v>231</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="92">
         <v>305607</v>
       </c>
-      <c r="C10" s="94" t="s">
-        <v>173</v>
+      <c r="C10" s="91" t="s">
+        <v>170</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="63"/>
       <c r="F10" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="59"/>
     </row>
@@ -2154,17 +2169,17 @@
       <c r="A11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="92">
         <v>534131</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>174</v>
+      <c r="C11" s="89" t="s">
+        <v>171</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="61" t="s">
@@ -2173,24 +2188,24 @@
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
       <c r="J11" s="59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="92">
         <v>534148</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>175</v>
+      <c r="C12" s="89" t="s">
+        <v>172</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="61" t="s">
@@ -2199,33 +2214,33 @@
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
       <c r="J12" s="59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="88">
         <v>834966</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>179</v>
-      </c>
       <c r="E13" s="59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="59"/>
@@ -2234,34 +2249,34 @@
       <c r="A14" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="93">
         <v>834967</v>
       </c>
-      <c r="C14" s="97" t="s">
-        <v>177</v>
+      <c r="C14" s="94" t="s">
+        <v>174</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I14" s="60"/>
       <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="57"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="58"/>
@@ -2274,27 +2289,27 @@
       <c r="A16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="95">
         <v>665923</v>
       </c>
-      <c r="C16" s="99" t="s">
-        <v>161</v>
+      <c r="C16" s="96" t="s">
+        <v>158</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J16" s="59"/>
     </row>
@@ -2302,27 +2317,27 @@
       <c r="A17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="95">
         <v>666161</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>162</v>
+      <c r="C17" s="96" t="s">
+        <v>159</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="59"/>
       <c r="F17" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" s="59"/>
     </row>
@@ -2330,17 +2345,17 @@
       <c r="A18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="95">
         <v>678866</v>
       </c>
-      <c r="C18" s="100" t="s">
-        <v>163</v>
+      <c r="C18" s="97" t="s">
+        <v>160</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="61" t="s">
@@ -2354,17 +2369,17 @@
       <c r="A19" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="95">
         <v>679200</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>164</v>
+      <c r="C19" s="97" t="s">
+        <v>161</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="61" t="s">
@@ -2378,27 +2393,27 @@
       <c r="A20" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="95">
         <v>681303</v>
       </c>
-      <c r="C20" s="99" t="s">
-        <v>165</v>
+      <c r="C20" s="96" t="s">
+        <v>162</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" s="59"/>
     </row>
@@ -2406,34 +2421,34 @@
       <c r="A21" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="95">
         <v>680390</v>
       </c>
-      <c r="C21" s="99" t="s">
-        <v>166</v>
+      <c r="C21" s="96" t="s">
+        <v>163</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="57"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -2446,27 +2461,27 @@
       <c r="A23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="95">
         <v>640861</v>
       </c>
-      <c r="C23" s="99" t="s">
-        <v>149</v>
+      <c r="C23" s="96" t="s">
+        <v>146</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="59"/>
     </row>
@@ -2474,27 +2489,27 @@
       <c r="A24" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="95">
         <v>583893</v>
       </c>
-      <c r="C24" s="99" t="s">
-        <v>150</v>
+      <c r="C24" s="96" t="s">
+        <v>147</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I24" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="59"/>
     </row>
@@ -2502,27 +2517,27 @@
       <c r="A25" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="95">
         <v>583895</v>
       </c>
-      <c r="C25" s="99" t="s">
-        <v>151</v>
+      <c r="C25" s="96" t="s">
+        <v>148</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I25" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="59"/>
     </row>
@@ -2530,27 +2545,27 @@
       <c r="A26" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="95">
         <v>582426</v>
       </c>
-      <c r="C26" s="99" t="s">
-        <v>152</v>
+      <c r="C26" s="96" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J26" s="59"/>
     </row>
@@ -2558,27 +2573,27 @@
       <c r="A27" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="95">
         <v>582480</v>
       </c>
-      <c r="C27" s="99" t="s">
-        <v>153</v>
+      <c r="C27" s="96" t="s">
+        <v>150</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="59"/>
     </row>
@@ -2586,34 +2601,34 @@
       <c r="A28" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="95">
         <v>582565</v>
       </c>
-      <c r="C28" s="99" t="s">
-        <v>154</v>
+      <c r="C28" s="96" t="s">
+        <v>151</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="59"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -2624,140 +2639,150 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="98">
+        <v>141</v>
+      </c>
+      <c r="B30" s="95">
         <v>739481</v>
       </c>
-      <c r="C30" s="99" t="s">
-        <v>132</v>
+      <c r="C30" s="96" t="s">
+        <v>130</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30" s="60"/>
+        <v>248</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="95">
+        <v>739576</v>
+      </c>
+      <c r="C31" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="98">
-        <v>739576</v>
-      </c>
-      <c r="C31" s="99" t="s">
-        <v>147</v>
-      </c>
       <c r="D31" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="59"/>
       <c r="F31" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="J31" s="59"/>
+        <v>259</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="98">
+        <v>141</v>
+      </c>
+      <c r="B32" s="95">
         <v>844419</v>
       </c>
-      <c r="C32" s="99" t="s">
-        <v>137</v>
+      <c r="C32" s="96" t="s">
+        <v>134</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="59"/>
       <c r="F32" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="60"/>
+        <v>97</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="98">
+        <v>141</v>
+      </c>
+      <c r="B33" s="95">
         <v>844428</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>140</v>
+      <c r="C33" s="96" t="s">
+        <v>137</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="59"/>
       <c r="F33" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="60"/>
+        <v>97</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="98">
+        <v>141</v>
+      </c>
+      <c r="B34" s="95">
         <v>844429</v>
       </c>
-      <c r="C34" s="99" t="s">
-        <v>148</v>
+      <c r="C34" s="96" t="s">
+        <v>145</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="59"/>
       <c r="F34" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="I34" s="64"/>
+        <v>248</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="59"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -2768,66 +2793,68 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="99">
+        <v>184</v>
+      </c>
+      <c r="B36" s="96">
         <v>293979</v>
       </c>
-      <c r="C36" s="94" t="s">
-        <v>188</v>
+      <c r="C36" s="91" t="s">
+        <v>185</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="59"/>
       <c r="F36" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="64"/>
+        <v>226</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J36" s="59"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="101">
+        <v>184</v>
+      </c>
+      <c r="B37" s="98">
         <v>741265</v>
       </c>
-      <c r="C37" s="102" t="s">
-        <v>189</v>
+      <c r="C37" s="99" t="s">
+        <v>186</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="59"/>
       <c r="F37" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I37" s="64"/>
       <c r="J37" s="59"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="98">
+        <v>289236</v>
+      </c>
+      <c r="C38" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="101">
-        <v>289236</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>190</v>
-      </c>
       <c r="D38" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -2840,16 +2867,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="101">
+        <v>184</v>
+      </c>
+      <c r="B39" s="98">
         <v>288521</v>
       </c>
-      <c r="C39" s="102" t="s">
-        <v>191</v>
+      <c r="C39" s="99" t="s">
+        <v>188</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -2862,44 +2889,44 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="101">
+        <v>184</v>
+      </c>
+      <c r="B40" s="98">
         <v>282194</v>
       </c>
-      <c r="C40" s="102" t="s">
-        <v>192</v>
+      <c r="C40" s="99" t="s">
+        <v>189</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="59"/>
       <c r="F40" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I40" s="64" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="99">
+        <v>184</v>
+      </c>
+      <c r="B41" s="96">
         <v>127881</v>
       </c>
-      <c r="C41" s="94" t="s">
-        <v>216</v>
+      <c r="C41" s="91" t="s">
+        <v>210</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
@@ -2912,60 +2939,60 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="99">
+        <v>184</v>
+      </c>
+      <c r="B42" s="96">
         <v>127883</v>
       </c>
-      <c r="C42" s="94" t="s">
-        <v>217</v>
+      <c r="C42" s="91" t="s">
+        <v>211</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="59"/>
       <c r="F42" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" s="59"/>
-      <c r="H42" s="60" t="s">
-        <v>215</v>
+      <c r="H42" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="I42" s="60"/>
       <c r="J42" s="59"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="99">
+        <v>184</v>
+      </c>
+      <c r="B43" s="96">
         <v>140587</v>
       </c>
-      <c r="C43" s="94" t="s">
-        <v>218</v>
+      <c r="C43" s="91" t="s">
+        <v>212</v>
       </c>
       <c r="D43" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="58" t="s">
         <v>97</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>98</v>
       </c>
       <c r="G43" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="60" t="s">
-        <v>215</v>
+      <c r="H43" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="I43" s="60"/>
       <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="59"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
@@ -2976,19 +3003,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="101">
+        <v>222</v>
+      </c>
+      <c r="B45" s="98">
         <v>402760</v>
       </c>
-      <c r="C45" s="102" t="s">
-        <v>270</v>
+      <c r="C45" s="99" t="s">
+        <v>263</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="61" t="s">
@@ -2999,115 +3026,115 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" s="101">
+        <v>222</v>
+      </c>
+      <c r="B46" s="98">
         <v>1102235</v>
       </c>
-      <c r="C46" s="102" t="s">
-        <v>223</v>
+      <c r="C46" s="99" t="s">
+        <v>217</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="59"/>
       <c r="F46" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G46" s="59"/>
       <c r="H46" s="64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I46" s="64"/>
       <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="101">
+        <v>222</v>
+      </c>
+      <c r="B47" s="98">
         <v>1102236</v>
       </c>
-      <c r="C47" s="102" t="s">
-        <v>224</v>
+      <c r="C47" s="99" t="s">
+        <v>218</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="59"/>
       <c r="F47" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="59"/>
       <c r="H47" s="64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I47" s="64"/>
       <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" s="101">
+        <v>222</v>
+      </c>
+      <c r="B48" s="98">
         <v>1105452</v>
       </c>
-      <c r="C48" s="102" t="s">
-        <v>225</v>
+      <c r="C48" s="99" t="s">
+        <v>219</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="59"/>
       <c r="F48" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G48" s="59"/>
       <c r="H48" s="64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I48" s="64"/>
       <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="103">
+      <c r="A49" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="100">
         <v>1105461</v>
       </c>
-      <c r="C49" s="104" t="s">
-        <v>226</v>
+      <c r="C49" s="101" t="s">
+        <v>220</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="59"/>
       <c r="F49" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G49" s="59"/>
       <c r="H49" s="64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I49" s="64"/>
       <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B50" s="101">
+        <v>222</v>
+      </c>
+      <c r="B50" s="98">
         <v>1105462</v>
       </c>
-      <c r="C50" s="102" t="s">
-        <v>227</v>
+      <c r="C50" s="99" t="s">
+        <v>221</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F50" s="59"/>
       <c r="G50" s="61" t="s">
@@ -3119,32 +3146,32 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B51" s="98">
+        <v>222</v>
+      </c>
+      <c r="B51" s="95">
         <v>949791</v>
       </c>
-      <c r="C51" s="92" t="s">
-        <v>248</v>
+      <c r="C51" s="89" t="s">
+        <v>242</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E51" s="59"/>
       <c r="F51" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G51" s="59"/>
       <c r="H51" s="64" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I51" s="64"/>
       <c r="J51" s="59"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="59"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -3155,152 +3182,152 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="99">
+        <v>262</v>
+      </c>
+      <c r="B53" s="96">
         <v>127834</v>
       </c>
-      <c r="C53" s="94" t="s">
-        <v>257</v>
+      <c r="C53" s="91" t="s">
+        <v>251</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" s="59"/>
       <c r="F53" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G53" s="59"/>
       <c r="H53" s="64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I53" s="64"/>
       <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54" s="99">
+        <v>262</v>
+      </c>
+      <c r="B54" s="96">
         <v>127836</v>
       </c>
-      <c r="C54" s="94" t="s">
-        <v>260</v>
+      <c r="C54" s="91" t="s">
+        <v>254</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E54" s="59"/>
       <c r="F54" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" s="59"/>
       <c r="H54" s="64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I54" s="64"/>
       <c r="J54" s="59"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="99">
+        <v>262</v>
+      </c>
+      <c r="B55" s="96">
         <v>127921</v>
       </c>
-      <c r="C55" s="94" t="s">
-        <v>262</v>
+      <c r="C55" s="91" t="s">
+        <v>256</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55" s="59"/>
       <c r="F55" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" s="59"/>
       <c r="H55" s="64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I55" s="64"/>
       <c r="J55" s="59"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B56" s="99">
+        <v>262</v>
+      </c>
+      <c r="B56" s="96">
         <v>127922</v>
       </c>
-      <c r="C56" s="94" t="s">
-        <v>273</v>
+      <c r="C56" s="91" t="s">
+        <v>266</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E56" s="59"/>
       <c r="F56" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G56" s="59"/>
       <c r="H56" s="64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I56" s="64"/>
       <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" s="99">
+        <v>262</v>
+      </c>
+      <c r="B57" s="96">
         <v>135019</v>
       </c>
-      <c r="C57" s="94" t="s">
-        <v>274</v>
+      <c r="C57" s="91" t="s">
+        <v>267</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E57" s="59"/>
       <c r="F57" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G57" s="59"/>
       <c r="H57" s="64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I57" s="64"/>
       <c r="J57" s="59"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B58" s="99">
+        <v>262</v>
+      </c>
+      <c r="B58" s="96">
         <v>135022</v>
       </c>
-      <c r="C58" s="94" t="s">
-        <v>275</v>
+      <c r="C58" s="91" t="s">
+        <v>268</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" s="59"/>
       <c r="F58" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G58" s="59"/>
       <c r="H58" s="64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I58" s="64"/>
       <c r="J58" s="59"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="59"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -3311,96 +3338,96 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B60" s="111">
+        <v>298</v>
+      </c>
+      <c r="B60" s="108">
         <v>127831</v>
       </c>
-      <c r="C60" s="112" t="s">
-        <v>286</v>
+      <c r="C60" s="109" t="s">
+        <v>279</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" s="59"/>
       <c r="F60" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G60" s="59"/>
       <c r="H60" s="64" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I60" s="64"/>
       <c r="J60" s="59"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B61" s="111">
+        <v>298</v>
+      </c>
+      <c r="B61" s="108">
         <v>127843</v>
       </c>
-      <c r="C61" s="112" t="s">
-        <v>293</v>
+      <c r="C61" s="109" t="s">
+        <v>286</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G61" s="59"/>
       <c r="H61" s="64" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I61" s="64"/>
       <c r="J61" s="59"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B62" s="111">
+        <v>298</v>
+      </c>
+      <c r="B62" s="108">
         <v>127850</v>
       </c>
-      <c r="C62" s="112" t="s">
-        <v>295</v>
+      <c r="C62" s="109" t="s">
+        <v>288</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" s="59"/>
       <c r="F62" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G62" s="59"/>
       <c r="H62" s="64" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I62" s="64"/>
       <c r="J62" s="59"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B63" s="111">
+        <v>298</v>
+      </c>
+      <c r="B63" s="108">
         <v>729500</v>
       </c>
-      <c r="C63" s="112" t="s">
-        <v>301</v>
+      <c r="C63" s="109" t="s">
+        <v>294</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="59"/>
       <c r="F63" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G63" s="59"/>
       <c r="H63" s="64" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I63" s="64"/>
       <c r="J63" s="59"/>
@@ -3416,33 +3443,59 @@
       <c r="J64" s="59"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="59"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="59"/>
+      <c r="A65" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="108">
+        <v>976171</v>
+      </c>
+      <c r="C65" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
+      <c r="F65" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="G65" s="59"/>
-      <c r="H65" s="64"/>
+      <c r="H65" s="64" t="s">
+        <v>315</v>
+      </c>
       <c r="I65" s="64"/>
       <c r="J65" s="59"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="59"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
+      <c r="A66" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="108">
+        <v>959740</v>
+      </c>
+      <c r="C66" s="109" t="s">
+        <v>309</v>
+      </c>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
       <c r="G66" s="59"/>
-      <c r="H66" s="64"/>
+      <c r="H66" s="64" t="s">
+        <v>315</v>
+      </c>
       <c r="I66" s="64"/>
       <c r="J66" s="59"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="59"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
+      <c r="A67" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="108">
+        <v>1106992</v>
+      </c>
+      <c r="C67" s="109" t="s">
+        <v>310</v>
+      </c>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -3452,9 +3505,15 @@
       <c r="J67" s="59"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="59"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
+      <c r="A68" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="108">
+        <v>260800</v>
+      </c>
+      <c r="C68" s="109" t="s">
+        <v>311</v>
+      </c>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
@@ -3464,9 +3523,15 @@
       <c r="J68" s="59"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="59"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
+      <c r="A69" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" s="108">
+        <v>273538</v>
+      </c>
+      <c r="C69" s="109" t="s">
+        <v>312</v>
+      </c>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
@@ -3476,9 +3541,15 @@
       <c r="J69" s="59"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="59"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
+      <c r="A70" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="108">
+        <v>276979</v>
+      </c>
+      <c r="C70" s="109" t="s">
+        <v>313</v>
+      </c>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
@@ -3489,8 +3560,8 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="59"/>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -3501,8 +3572,8 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="59"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -3513,8 +3584,8 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="59"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -3525,8 +3596,8 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="59"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -3537,8 +3608,8 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="59"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -3549,8 +3620,8 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="59"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -3561,8 +3632,8 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="59"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
@@ -3573,8 +3644,8 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="59"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -3585,8 +3656,8 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="59"/>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -3597,8 +3668,8 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="59"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
@@ -3609,8 +3680,8 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="59"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
@@ -3621,8 +3692,8 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="59"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -3633,8 +3704,8 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="59"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
@@ -3645,8 +3716,8 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="59"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
@@ -3657,8 +3728,8 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="59"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
@@ -3669,8 +3740,8 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="59"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -3681,8 +3752,8 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="59"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
@@ -3693,8 +3764,8 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="59"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -3705,8 +3776,8 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="59"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -3717,8 +3788,8 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="59"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -3729,8 +3800,8 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="59"/>
-      <c r="B91" s="93"/>
-      <c r="C91" s="93"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -3741,8 +3812,8 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="59"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="93"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -3753,8 +3824,8 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="59"/>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -3765,8 +3836,8 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="59"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -3777,8 +3848,8 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="59"/>
-      <c r="B95" s="93"/>
-      <c r="C95" s="93"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -3789,8 +3860,8 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="59"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="93"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
@@ -3801,8 +3872,8 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="59"/>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -3813,8 +3884,8 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="59"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="93"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -3825,8 +3896,8 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="59"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -3837,8 +3908,8 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="59"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -3849,8 +3920,8 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="59"/>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -3861,8 +3932,8 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="59"/>
-      <c r="B102" s="93"/>
-      <c r="C102" s="93"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -3873,8 +3944,8 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="59"/>
-      <c r="B103" s="93"/>
-      <c r="C103" s="93"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -3885,8 +3956,8 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="59"/>
-      <c r="B104" s="93"/>
-      <c r="C104" s="93"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -3897,8 +3968,8 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="59"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -3909,8 +3980,8 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="59"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="93"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -3921,8 +3992,8 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="59"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="93"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -3933,8 +4004,8 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="59"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="93"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -3945,8 +4016,8 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="59"/>
-      <c r="B109" s="93"/>
-      <c r="C109" s="93"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -3957,8 +4028,8 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="59"/>
-      <c r="B110" s="93"/>
-      <c r="C110" s="93"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -3969,8 +4040,8 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="59"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -3981,8 +4052,8 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="59"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="93"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -3993,8 +4064,8 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="59"/>
-      <c r="B113" s="93"/>
-      <c r="C113" s="93"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -4005,8 +4076,8 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="59"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="93"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="90"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -4017,8 +4088,8 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="59"/>
-      <c r="B115" s="93"/>
-      <c r="C115" s="93"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="90"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -4029,8 +4100,8 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="59"/>
-      <c r="B116" s="93"/>
-      <c r="C116" s="93"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -4041,8 +4112,8 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="59"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -4053,8 +4124,8 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="59"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="93"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -4065,8 +4136,8 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="59"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="93"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -4077,8 +4148,8 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="59"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="93"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -4089,8 +4160,8 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="59"/>
-      <c r="B121" s="93"/>
-      <c r="C121" s="93"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59"/>
@@ -4101,8 +4172,8 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="59"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="93"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -4113,8 +4184,8 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="59"/>
-      <c r="B123" s="93"/>
-      <c r="C123" s="93"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -4125,8 +4196,8 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="59"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="93"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -4137,8 +4208,8 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="59"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="93"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -4149,8 +4220,8 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="59"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="93"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="90"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -4161,8 +4232,8 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="59"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="93"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -4173,8 +4244,8 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="59"/>
-      <c r="B128" s="93"/>
-      <c r="C128" s="93"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -4185,8 +4256,8 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="59"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="93"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59"/>
@@ -4197,8 +4268,8 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="59"/>
-      <c r="B130" s="93"/>
-      <c r="C130" s="93"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="90"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -4209,8 +4280,8 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="59"/>
-      <c r="B131" s="93"/>
-      <c r="C131" s="93"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59"/>
@@ -4221,8 +4292,8 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="59"/>
-      <c r="B132" s="93"/>
-      <c r="C132" s="93"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="90"/>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
@@ -4233,8 +4304,8 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="59"/>
-      <c r="B133" s="93"/>
-      <c r="C133" s="93"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="90"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -4245,8 +4316,8 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="59"/>
-      <c r="B134" s="93"/>
-      <c r="C134" s="93"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -4327,10 +4398,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
@@ -4378,1050 +4449,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="32.33203125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13" style="53"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.44140625" customWidth="1"/>
-    <col min="23" max="23" width="21.109375" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="14.5546875" customWidth="1"/>
-    <col min="28" max="29" width="15.5546875" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.88671875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" customWidth="1"/>
-    <col min="33" max="33" width="15.33203125" customWidth="1"/>
-    <col min="34" max="34" width="15.5546875" customWidth="1"/>
-    <col min="35" max="35" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="14.4">
-      <c r="A1" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z1" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB1" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF1" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG1" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI1" s="39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="89"/>
-      <c r="B2" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="37">
-        <v>369</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37">
-        <v>727</v>
-      </c>
-      <c r="J2" s="37">
-        <v>369</v>
-      </c>
-      <c r="K2" s="37">
-        <v>320</v>
-      </c>
-      <c r="L2" s="37">
-        <v>2</v>
-      </c>
-      <c r="M2" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="37">
-        <v>1</v>
-      </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="41"/>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="89"/>
-      <c r="B3" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37">
-        <v>727</v>
-      </c>
-      <c r="J3" s="37">
-        <v>369</v>
-      </c>
-      <c r="K3" s="37">
-        <v>320</v>
-      </c>
-      <c r="L3" s="37">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37">
-        <v>1000</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="37">
-        <v>1</v>
-      </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="89"/>
-      <c r="B4" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37">
-        <v>727</v>
-      </c>
-      <c r="J4" s="37">
-        <v>369</v>
-      </c>
-      <c r="K4" s="37">
-        <v>320</v>
-      </c>
-      <c r="L4" s="37">
-        <v>2</v>
-      </c>
-      <c r="M4" s="37">
-        <v>1000</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="37">
-        <v>1</v>
-      </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="89"/>
-      <c r="B5" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="37">
-        <v>369</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37">
-        <v>727</v>
-      </c>
-      <c r="J5" s="37">
-        <v>369</v>
-      </c>
-      <c r="K5" s="37">
-        <v>320</v>
-      </c>
-      <c r="L5" s="37">
-        <v>2</v>
-      </c>
-      <c r="M5" s="37">
-        <v>1000</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="37">
-        <v>1</v>
-      </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF5" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="89"/>
-      <c r="B6" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37">
-        <v>727</v>
-      </c>
-      <c r="J6" s="37">
-        <v>369</v>
-      </c>
-      <c r="K6" s="37">
-        <v>320</v>
-      </c>
-      <c r="L6" s="37">
-        <v>2</v>
-      </c>
-      <c r="M6" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="37">
-        <v>1</v>
-      </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="38">
-        <v>10</v>
-      </c>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="89"/>
-      <c r="B7" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37">
-        <v>727</v>
-      </c>
-      <c r="J7" s="37">
-        <v>369</v>
-      </c>
-      <c r="K7" s="37">
-        <v>320</v>
-      </c>
-      <c r="L7" s="37">
-        <v>2</v>
-      </c>
-      <c r="M7" s="37">
-        <v>10000</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="37">
-        <v>1</v>
-      </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="89"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="89"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="89"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="89"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="89"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-    </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="89"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="89"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="89"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="89"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-    </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="89"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="89"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="89"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="89"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0833999999999999" bottom="1.0833999999999999" header="0.94450000000000001" footer="0.94450000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5444,30 +4475,28 @@
     <col min="20" max="20" width="11.6640625" customWidth="1"/>
     <col min="21" max="21" width="15.88671875" customWidth="1"/>
     <col min="22" max="22" width="15.21875" customWidth="1"/>
-    <col min="23" max="23" width="19.44140625" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="26" width="16.5546875" customWidth="1"/>
-    <col min="27" max="27" width="14.77734375" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="16.5546875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
-    <col min="32" max="32" width="19" customWidth="1"/>
-    <col min="33" max="33" width="18.44140625" customWidth="1"/>
-    <col min="34" max="34" width="23.6640625" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="38" max="38" width="17.33203125" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" customWidth="1"/>
-    <col min="40" max="40" width="15" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.21875" customWidth="1"/>
-    <col min="42" max="42" width="17.109375" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" customWidth="1"/>
-    <col min="44" max="44" width="17.109375" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.21875" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" customWidth="1"/>
+    <col min="27" max="27" width="16.5546875" customWidth="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" customWidth="1"/>
+    <col min="30" max="30" width="37.5546875" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="32" max="32" width="17.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" customWidth="1"/>
+    <col min="34" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.21875" customWidth="1"/>
+    <col min="39" max="39" width="17.109375" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" customWidth="1"/>
+    <col min="41" max="41" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="14.4">
+    <row r="1" spans="1:41" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -5517,96 +4546,87 @@
         <v>73</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S1" s="40" t="s">
         <v>74</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="U1" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V1" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W1" s="39" t="s">
         <v>201</v>
       </c>
       <c r="X1" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF1" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="Y1" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AL1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="AA1" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD1" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE1" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG1" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH1" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AM1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK1" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>76</v>
-      </c>
       <c r="AN1" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO1" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ1" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR1" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO1" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:41">
       <c r="A2" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C2" s="37">
         <v>369</v>
@@ -5633,7 +4653,7 @@
         <v>10000</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
@@ -5647,10 +4667,10 @@
       <c r="W2" s="68"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="38">
+      <c r="Z2" s="38">
         <v>1</v>
       </c>
+      <c r="AA2" s="68"/>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
       <c r="AD2" s="68"/>
@@ -5658,29 +4678,26 @@
       <c r="AF2" s="68"/>
       <c r="AG2" s="68"/>
       <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="38">
+      <c r="AI2" s="38">
         <v>1</v>
       </c>
-      <c r="AM2" s="38">
+      <c r="AJ2" s="38">
         <v>1</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="36" t="s">
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-    </row>
-    <row r="3" spans="1:44">
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -5705,7 +4722,7 @@
         <v>20000</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="37">
@@ -5723,10 +4740,10 @@
       <c r="W3" s="68"/>
       <c r="X3" s="68"/>
       <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="38">
+      <c r="Z3" s="38">
         <v>1</v>
       </c>
+      <c r="AA3" s="68"/>
       <c r="AB3" s="68"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="68"/>
@@ -5736,21 +4753,18 @@
       <c r="AH3" s="68"/>
       <c r="AI3" s="68"/>
       <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
+      <c r="AK3" s="37"/>
       <c r="AL3" s="68"/>
       <c r="AM3" s="68"/>
-      <c r="AN3" s="37"/>
+      <c r="AN3" s="68"/>
       <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-    </row>
-    <row r="4" spans="1:44">
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -5775,8 +4789,8 @@
       <c r="W4" s="68"/>
       <c r="X4" s="68"/>
       <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="68"/>
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
       <c r="AD4" s="68"/>
@@ -5788,25 +4802,22 @@
       <c r="AJ4" s="68"/>
       <c r="AK4" s="68"/>
       <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="36" t="s">
+      <c r="AM4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AQ4" s="36">
+      <c r="AN4" s="36">
         <v>1</v>
       </c>
-      <c r="AR4" s="37" t="s">
+      <c r="AO4" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:41">
       <c r="A5" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="37">
         <v>369</v>
@@ -5837,7 +4848,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="37"/>
@@ -5851,10 +4862,10 @@
       <c r="W5" s="68"/>
       <c r="X5" s="68"/>
       <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="38">
+      <c r="Z5" s="38">
         <v>1</v>
       </c>
+      <c r="AA5" s="68"/>
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
       <c r="AD5" s="68"/>
@@ -5862,29 +4873,26 @@
       <c r="AF5" s="68"/>
       <c r="AG5" s="68"/>
       <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
+      <c r="AI5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="41">
+        <v>1</v>
+      </c>
       <c r="AK5" s="68"/>
-      <c r="AL5" s="41">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="41">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="36" t="s">
+      <c r="AL5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="37"/>
-    </row>
-    <row r="6" spans="1:44">
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="37"/>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -5905,7 +4913,7 @@
         <v>1500</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N6" s="37">
         <v>0</v>
@@ -5921,40 +4929,37 @@
       <c r="W6" s="68"/>
       <c r="X6" s="68"/>
       <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68">
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68">
         <v>0</v>
       </c>
+      <c r="AC6" s="68"/>
       <c r="AD6" s="68"/>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
       <c r="AG6" s="68"/>
       <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
+      <c r="AI6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="41">
+        <v>1</v>
+      </c>
       <c r="AK6" s="68"/>
-      <c r="AL6" s="41">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="41">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="36" t="s">
+      <c r="AL6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="37"/>
-    </row>
-    <row r="7" spans="1:44">
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>153</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>156</v>
       </c>
       <c r="C7" s="37">
         <v>369</v>
@@ -5981,7 +4986,7 @@
         <v>20000</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
@@ -5995,44 +5000,41 @@
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
       <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="38">
+      <c r="Z7" s="38">
         <v>1</v>
       </c>
+      <c r="AA7" s="68"/>
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
       <c r="AD7" s="68"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
+      <c r="AG7" s="41">
+        <v>3455</v>
+      </c>
+      <c r="AH7" s="41">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="41">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="41">
-        <v>3455</v>
-      </c>
-      <c r="AK7" s="41">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="41">
         <v>1</v>
       </c>
-      <c r="AM7" s="41">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="36" t="s">
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="37"/>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -6057,13 +5059,13 @@
         <v>25000</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R8" s="37">
         <v>2</v>
@@ -6075,38 +5077,35 @@
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
       <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="68"/>
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
       <c r="AD8" s="68"/>
       <c r="AE8" s="68"/>
       <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41">
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41">
         <v>1</v>
       </c>
-      <c r="AM8" s="41">
+      <c r="AJ8" s="41">
         <v>1</v>
       </c>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="36" t="s">
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="37"/>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="37"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -6128,10 +5127,10 @@
       <c r="R9" s="37"/>
       <c r="S9" s="51"/>
       <c r="T9" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U9" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V9" s="41">
         <v>500</v>
@@ -6139,8 +5138,8 @@
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
       <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="68"/>
       <c r="AB9" s="68"/>
       <c r="AC9" s="68"/>
       <c r="AD9" s="68"/>
@@ -6155,149 +5154,148 @@
       <c r="AM9" s="68"/>
       <c r="AN9" s="68"/>
       <c r="AO9" s="68"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-    </row>
-    <row r="10" spans="1:44">
-      <c r="A10" s="45" t="s">
-        <v>188</v>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38">
-        <v>19</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+        <v>135</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37">
+        <v>727</v>
+      </c>
+      <c r="I10" s="37">
+        <v>369</v>
+      </c>
+      <c r="J10" s="37">
+        <v>320</v>
+      </c>
+      <c r="K10" s="37">
+        <v>2</v>
+      </c>
+      <c r="L10" s="37">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="51"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="X10" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y10" s="38">
-        <v>727</v>
-      </c>
+      <c r="U10" s="48"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
       <c r="Z10" s="38">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="38">
         <v>1</v>
       </c>
-      <c r="AB10" s="38">
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="41">
         <v>1</v>
       </c>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="41">
-        <v>4123</v>
-      </c>
-      <c r="AF10" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG10" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH10" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI10" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="68"/>
+      <c r="AJ10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AM10" s="68"/>
       <c r="AN10" s="68"/>
       <c r="AO10" s="68"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-    </row>
-    <row r="11" spans="1:44">
-      <c r="A11" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="38">
-        <v>19</v>
-      </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37">
+        <v>727</v>
+      </c>
+      <c r="I11" s="37">
+        <v>369</v>
+      </c>
+      <c r="J11" s="37">
+        <v>320</v>
+      </c>
+      <c r="K11" s="37">
+        <v>2</v>
+      </c>
+      <c r="L11" s="37">
+        <v>25000</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="68"/>
-      <c r="X11" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y11" s="38">
-        <v>727</v>
-      </c>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
       <c r="Z11" s="38">
-        <v>1000</v>
-      </c>
-      <c r="AA11" s="38">
         <v>1</v>
       </c>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
-      <c r="AD11" s="41">
-        <v>10</v>
+      <c r="AD11" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="AE11" s="68"/>
-      <c r="AF11" s="69" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF11" s="68"/>
       <c r="AG11" s="68"/>
       <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
+      <c r="AI11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>1</v>
+      </c>
       <c r="AK11" s="68"/>
-      <c r="AL11" s="68"/>
+      <c r="AL11" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="AM11" s="68"/>
       <c r="AN11" s="68"/>
       <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-    </row>
-    <row r="12" spans="1:44">
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="37"/>
@@ -6339,11 +5337,8 @@
       <c r="AM12" s="68"/>
       <c r="AN12" s="68"/>
       <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-    </row>
-    <row r="13" spans="1:44">
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="68"/>
@@ -6385,11 +5380,8 @@
       <c r="AM13" s="68"/>
       <c r="AN13" s="68"/>
       <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-    </row>
-    <row r="14" spans="1:44">
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="45"/>
       <c r="B14" s="43"/>
       <c r="C14" s="68"/>
@@ -6431,11 +5423,8 @@
       <c r="AM14" s="68"/>
       <c r="AN14" s="68"/>
       <c r="AO14" s="68"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-    </row>
-    <row r="15" spans="1:44">
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="68"/>
@@ -6477,11 +5466,8 @@
       <c r="AM15" s="68"/>
       <c r="AN15" s="68"/>
       <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-    </row>
-    <row r="16" spans="1:44">
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="68"/>
@@ -6523,11 +5509,8 @@
       <c r="AM16" s="68"/>
       <c r="AN16" s="68"/>
       <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-    </row>
-    <row r="17" spans="1:44">
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="68"/>
@@ -6569,57 +5552,54 @@
       <c r="AM17" s="68"/>
       <c r="AN17" s="68"/>
       <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-    </row>
-    <row r="18" spans="1:44">
-      <c r="AN18" s="76"/>
-    </row>
-    <row r="19" spans="1:44">
-      <c r="AN19" s="76"/>
-    </row>
-    <row r="20" spans="1:44">
-      <c r="AN20" s="76"/>
-    </row>
-    <row r="21" spans="1:44">
-      <c r="AN21" s="76"/>
-    </row>
-    <row r="22" spans="1:44">
-      <c r="AN22" s="76"/>
-    </row>
-    <row r="23" spans="1:44">
-      <c r="AN23" s="76"/>
-    </row>
-    <row r="24" spans="1:44">
-      <c r="AN24" s="76"/>
-    </row>
-    <row r="25" spans="1:44">
-      <c r="AN25" s="76"/>
-    </row>
-    <row r="26" spans="1:44">
-      <c r="AN26" s="76"/>
-    </row>
-    <row r="27" spans="1:44">
-      <c r="AN27" s="76"/>
-    </row>
-    <row r="28" spans="1:44">
-      <c r="AN28" s="76"/>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="AN29" s="76"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="AK18" s="76"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="AK19" s="76"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="AK20" s="76"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="AK21" s="76"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="AK22" s="76"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="AK23" s="76"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="AK24" s="76"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="AK25" s="76"/>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="AK26" s="76"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="AK27" s="76"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="AK28" s="76"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="AK29" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6651,68 +5631,68 @@
         <v>54</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>126</v>
-      </c>
       <c r="J1" s="40" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>297</v>
-      </c>
       <c r="N1" s="50" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="41">
         <v>564</v>
       </c>
       <c r="D2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>129</v>
-      </c>
       <c r="F2" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" s="41">
         <v>840</v>
@@ -6731,10 +5711,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="41">
         <v>1270</v>
@@ -6742,10 +5722,10 @@
       <c r="D3" s="48"/>
       <c r="E3" s="41"/>
       <c r="F3" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
@@ -6755,32 +5735,32 @@
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="46" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C4" s="41">
         <v>564</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H4" s="41">
         <v>840</v>
@@ -6790,7 +5770,7 @@
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="38" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="48"/>
@@ -6801,25 +5781,25 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="45" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C5" s="41">
         <v>564</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H5" s="41">
         <v>840</v>
@@ -6829,7 +5809,7 @@
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="38" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="52"/>
@@ -6840,25 +5820,25 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="45" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C6" s="41">
         <v>564</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H6" s="41">
         <v>840</v>
@@ -6868,14 +5848,14 @@
       </c>
       <c r="J6" s="41"/>
       <c r="K6" s="38" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="48" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N6" s="48" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
@@ -7817,234 +6797,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:AT30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="14.4">
-      <c r="A1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="41">
-        <v>1586</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="41">
-        <v>500</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK27"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" style="84" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15" customWidth="1"/>
+    <col min="23" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" customWidth="1"/>
+    <col min="27" max="27" width="19.77734375" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="23.77734375" customWidth="1"/>
+    <col min="31" max="31" width="19.77734375" customWidth="1"/>
+    <col min="32" max="32" width="17.88671875" style="84" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="18.5546875" customWidth="1"/>
+    <col min="35" max="35" width="17.88671875" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.4">
+    <row r="1" spans="1:46" ht="15.6" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -8052,542 +6850,849 @@
         <v>54</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="P1" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC1" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="A2" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="41">
+        <v>19</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="38">
+        <v>727</v>
+      </c>
+      <c r="N2" s="38">
+        <v>100</v>
+      </c>
+      <c r="O2" s="41">
+        <v>1</v>
+      </c>
+      <c r="P2" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="38">
+        <v>671</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="38">
+        <v>369</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="37">
+        <v>727</v>
+      </c>
+      <c r="F4" s="37">
+        <v>369</v>
+      </c>
+      <c r="G4" s="37">
+        <v>320</v>
+      </c>
+      <c r="H4" s="37">
+        <v>2</v>
+      </c>
+      <c r="I4" s="37">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="41">
+        <v>1</v>
+      </c>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37">
+        <v>1</v>
+      </c>
+      <c r="S4" s="37">
+        <v>1</v>
+      </c>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="37">
+        <v>727</v>
+      </c>
+      <c r="F5" s="37">
+        <v>369</v>
+      </c>
+      <c r="G5" s="37">
+        <v>320</v>
+      </c>
+      <c r="H5" s="37">
+        <v>2</v>
+      </c>
+      <c r="I5" s="37">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="37">
+        <v>1</v>
+      </c>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38">
+        <v>10</v>
+      </c>
+      <c r="R5" s="37">
+        <v>1</v>
+      </c>
+      <c r="S5" s="37">
+        <v>1</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="37">
+        <v>727</v>
+      </c>
+      <c r="F6" s="37">
+        <v>369</v>
+      </c>
+      <c r="G6" s="37">
+        <v>320</v>
+      </c>
+      <c r="H6" s="37">
+        <v>2</v>
+      </c>
+      <c r="I6" s="37">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="37">
+        <v>1</v>
+      </c>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="37">
+        <v>1</v>
+      </c>
+      <c r="S6" s="37">
+        <v>1</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="41"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="37">
+        <v>727</v>
+      </c>
+      <c r="F7" s="37">
+        <v>369</v>
+      </c>
+      <c r="G7" s="37">
+        <v>320</v>
+      </c>
+      <c r="H7" s="37">
+        <v>2</v>
+      </c>
+      <c r="I7" s="37">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="37">
+        <v>1</v>
+      </c>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37">
+        <v>1</v>
+      </c>
+      <c r="S7" s="37">
+        <v>1</v>
+      </c>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="37">
+        <v>727</v>
+      </c>
+      <c r="F8" s="37">
+        <v>369</v>
+      </c>
+      <c r="G8" s="37">
+        <v>320</v>
+      </c>
+      <c r="H8" s="37">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="37">
+        <v>1</v>
+      </c>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="41">
+        <v>10</v>
+      </c>
+      <c r="R8" s="37">
+        <v>1</v>
+      </c>
+      <c r="S8" s="37">
+        <v>1</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="37">
+        <v>727</v>
+      </c>
+      <c r="F9" s="37">
+        <v>369</v>
+      </c>
+      <c r="G9" s="37">
+        <v>320</v>
+      </c>
+      <c r="H9" s="37">
+        <v>2</v>
+      </c>
+      <c r="I9" s="37">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="37">
+        <v>1</v>
+      </c>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="41">
+        <v>10</v>
+      </c>
+      <c r="R9" s="37">
+        <v>1</v>
+      </c>
+      <c r="S9" s="37">
+        <v>1</v>
+      </c>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="W1" s="83" t="s">
-        <v>246</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="38">
-        <v>671</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="B10" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="37">
+      <c r="E10" s="37">
         <v>727</v>
       </c>
-      <c r="E3" s="37">
+      <c r="F10" s="37">
         <v>369</v>
       </c>
-      <c r="F3" s="37">
+      <c r="G10" s="37">
         <v>320</v>
       </c>
-      <c r="G3" s="37">
+      <c r="H10" s="37">
         <v>2</v>
       </c>
-      <c r="H3" s="37">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="75">
+      <c r="I10" s="37">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="37">
         <v>1</v>
       </c>
-      <c r="K3" s="38">
+      <c r="P10" s="37"/>
+      <c r="Q10" s="41">
         <v>10</v>
       </c>
-      <c r="L3" s="37">
+      <c r="R10" s="37">
         <v>1</v>
       </c>
-      <c r="M3" s="37">
+      <c r="S10" s="37">
         <v>1</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q3" s="36" t="s">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37">
+        <v>4434</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="37">
-        <v>727</v>
-      </c>
-      <c r="E4" s="37">
-        <v>369</v>
-      </c>
-      <c r="F4" s="37">
-        <v>320</v>
-      </c>
-      <c r="G4" s="37">
-        <v>2</v>
-      </c>
-      <c r="H4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="37">
-        <v>1</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37">
-        <v>1</v>
-      </c>
-      <c r="M4" s="37">
-        <v>1</v>
-      </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="AA10" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="37">
-        <v>727</v>
-      </c>
-      <c r="E5" s="37">
-        <v>369</v>
-      </c>
-      <c r="F5" s="37">
-        <v>320</v>
-      </c>
-      <c r="G5" s="37">
-        <v>2</v>
-      </c>
-      <c r="H5" s="37">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="37">
-        <v>1</v>
-      </c>
-      <c r="K5" s="41">
-        <v>10</v>
-      </c>
-      <c r="L5" s="37">
-        <v>1</v>
-      </c>
-      <c r="M5" s="37">
-        <v>1</v>
-      </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="37">
-        <v>727</v>
-      </c>
-      <c r="E6" s="37">
-        <v>369</v>
-      </c>
-      <c r="F6" s="37">
-        <v>320</v>
-      </c>
-      <c r="G6" s="37">
-        <v>2</v>
-      </c>
-      <c r="H6" s="37">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="37">
-        <v>1</v>
-      </c>
-      <c r="K6" s="41">
-        <v>10</v>
-      </c>
-      <c r="L6" s="37">
-        <v>1</v>
-      </c>
-      <c r="M6" s="37">
-        <v>1</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="37">
-        <v>727</v>
-      </c>
-      <c r="E7" s="37">
-        <v>369</v>
-      </c>
-      <c r="F7" s="37">
-        <v>320</v>
-      </c>
-      <c r="G7" s="37">
-        <v>2</v>
-      </c>
-      <c r="H7" s="37">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="37">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
-        <v>10</v>
-      </c>
-      <c r="L7" s="37">
-        <v>1</v>
-      </c>
-      <c r="M7" s="37">
-        <v>1</v>
-      </c>
-      <c r="N7" s="37">
-        <v>4434</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="S7" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="T7" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="U7" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="V7" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="W7" s="41">
+      <c r="AB10" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC10" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD10" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE10" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF10" s="41">
         <v>3</v>
       </c>
-      <c r="X7" s="41">
+      <c r="AG10" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="K11" s="72"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="K12" s="72"/>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="K13" s="76"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="K14" s="72"/>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="K15" s="72"/>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="K16" s="72"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="72"/>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" s="72"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="72"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="72"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="72"/>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" s="72"/>
-    </row>
-    <row r="23" spans="11:11">
-      <c r="K23" s="72"/>
-    </row>
-    <row r="24" spans="11:11">
-      <c r="K24" s="72"/>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25" s="72"/>
-    </row>
-    <row r="26" spans="11:11">
-      <c r="K26" s="72"/>
-    </row>
-    <row r="27" spans="11:11">
-      <c r="K27" s="72"/>
+    <row r="11" spans="1:46">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="Q14" s="112"/>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="Q15" s="112"/>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="Q17" s="112"/>
+    </row>
+    <row r="18" spans="17:17">
+      <c r="Q18" s="112"/>
+    </row>
+    <row r="19" spans="17:17">
+      <c r="Q19" s="112"/>
+    </row>
+    <row r="20" spans="17:17">
+      <c r="Q20" s="112"/>
+    </row>
+    <row r="21" spans="17:17">
+      <c r="Q21" s="112"/>
+    </row>
+    <row r="22" spans="17:17">
+      <c r="Q22" s="112"/>
+    </row>
+    <row r="23" spans="17:17">
+      <c r="Q23" s="112"/>
+    </row>
+    <row r="24" spans="17:17">
+      <c r="Q24" s="112"/>
+    </row>
+    <row r="25" spans="17:17">
+      <c r="Q25" s="112"/>
+    </row>
+    <row r="26" spans="17:17">
+      <c r="Q26" s="112"/>
+    </row>
+    <row r="27" spans="17:17">
+      <c r="Q27" s="112"/>
+    </row>
+    <row r="28" spans="17:17">
+      <c r="Q28" s="112"/>
+    </row>
+    <row r="29" spans="17:17">
+      <c r="Q29" s="112"/>
+    </row>
+    <row r="30" spans="17:17">
+      <c r="Q30" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8595,12 +7700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8676,22 +7781,22 @@
         <v>65</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="83" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>87</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U1" s="40" t="s">
         <v>75</v>
@@ -8700,21 +7805,21 @@
         <v>76</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -8740,7 +7845,7 @@
         <v>1000</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="37">
@@ -8775,15 +7880,15 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>185</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="108"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
       <c r="I3" s="37"/>
@@ -8825,10 +7930,10 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="68"/>
@@ -8854,7 +7959,7 @@
         <v>10000</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="41">
@@ -8878,10 +7983,10 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="68"/>
@@ -8905,16 +8010,16 @@
       <c r="V5" s="68"/>
       <c r="W5" s="68"/>
       <c r="X5" s="69" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Y5" s="68"/>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="37">
         <v>320</v>
@@ -8944,10 +8049,10 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="41">
@@ -8975,7 +8080,7 @@
         <v>10000</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O7" s="51"/>
       <c r="P7" s="41">
@@ -8999,10 +8104,10 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="37">
@@ -9034,7 +8139,7 @@
         <v>15000</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O8" s="51"/>
       <c r="P8" s="41">
@@ -9058,10 +8163,10 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="37">
@@ -9085,7 +8190,7 @@
         <v>1500</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="41"/>
@@ -9107,10 +8212,10 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>153</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>156</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -9136,7 +8241,7 @@
         <v>10000</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="41">
@@ -9164,10 +8269,10 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -9193,10 +8298,10 @@
         <v>10000</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P11" s="41"/>
       <c r="Q11" s="41">
@@ -9604,7 +8709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -9665,13 +8770,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>75</v>
@@ -9680,24 +8785,24 @@
         <v>76</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>68</v>
@@ -9718,7 +8823,7 @@
         <v>10000</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J2" s="75">
         <v>2</v>
@@ -9730,7 +8835,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="75" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N2" s="37">
         <v>1</v>
@@ -9740,10 +8845,10 @@
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>77</v>
@@ -9754,11 +8859,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
@@ -9814,10 +8919,10 @@
         <v>59</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>60</v>
@@ -9826,7 +8931,7 @@
         <v>61</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>62</v>
@@ -9841,22 +8946,22 @@
         <v>65</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="T1" s="40" t="s">
         <v>75</v>
@@ -9865,69 +8970,69 @@
         <v>76</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AA1" s="40" t="s">
         <v>85</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AC1" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AD1" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE1" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF1" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG1" s="106" t="s">
-        <v>282</v>
+        <v>132</v>
+      </c>
+      <c r="AE1" s="104" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF1" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG1" s="103" t="s">
+        <v>275</v>
       </c>
       <c r="AH1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AM1" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="AL1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM1" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN1" s="109" t="s">
-        <v>284</v>
+      <c r="AN1" s="106" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="45" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2" s="37">
         <v>369</v>
@@ -9954,10 +9059,10 @@
         <v>10000</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="37">
@@ -9975,7 +9080,7 @@
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
       <c r="X2" s="36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y2" s="36"/>
       <c r="Z2" s="36" t="s">
@@ -9998,10 +9103,10 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="45" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C3" s="37">
         <v>369</v>
@@ -10010,7 +9115,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F3" s="38">
         <v>727</v>
@@ -10034,10 +9139,10 @@
         <v>10000</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="37">
@@ -10072,10 +9177,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="45" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C4" s="37">
         <v>369</v>
@@ -10102,10 +9207,10 @@
         <v>15000</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="37">
@@ -10118,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T4" s="37">
         <v>1</v>
@@ -10137,10 +9242,10 @@
         <v>1587</v>
       </c>
       <c r="AB4" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AC4" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD4" s="41">
         <v>1000</v>
@@ -10158,10 +9263,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="45" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C5" s="37">
         <v>369</v>
@@ -10188,7 +9293,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
@@ -10202,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T5" s="37">
         <v>1</v>
@@ -10219,10 +9324,10 @@
       </c>
       <c r="AA5" s="41"/>
       <c r="AB5" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AC5" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD5" s="41">
         <v>500</v>
@@ -10240,10 +9345,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="45" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C6" s="37">
         <v>369</v>
@@ -10270,7 +9375,7 @@
         <v>25000</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -10295,10 +9400,10 @@
       </c>
       <c r="AA6" s="41"/>
       <c r="AB6" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AC6" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD6" s="41">
         <v>1500</v>
@@ -10320,10 +9425,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="45" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="36" t="s">
@@ -10364,22 +9469,22 @@
         <v>564</v>
       </c>
       <c r="AI7" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ7" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AJ7" s="48" t="s">
-        <v>129</v>
-      </c>
       <c r="AK7" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AL7" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AM7" s="41">
         <v>840</v>
       </c>
       <c r="AN7" s="69" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -10556,12 +9661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10624,24 +9729,24 @@
         <v>76</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="43" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C2" s="38">
         <v>369</v>
@@ -10665,7 +9770,7 @@
         <v>25000</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K2" s="41">
         <v>1</v>
@@ -10683,10 +9788,10 @@
         <v>77</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -10821,6 +9926,332 @@
       <c r="O9" s="68"/>
       <c r="P9" s="68"/>
       <c r="Q9" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" customWidth="1"/>
+    <col min="19" max="20" width="14.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4">
+      <c r="A1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="38">
+        <v>380</v>
+      </c>
+      <c r="D2" s="36">
+        <v>840</v>
+      </c>
+      <c r="E2" s="37">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="37">
+        <v>-2</v>
+      </c>
+      <c r="G2" s="37">
+        <v>1500</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41">
+        <v>369</v>
+      </c>
+      <c r="L3" s="41">
+        <v>320</v>
+      </c>
+      <c r="M3" s="41">
+        <v>2</v>
+      </c>
+      <c r="N3" s="41">
+        <v>15000</v>
+      </c>
+      <c r="O3" s="41">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>1</v>
+      </c>
+      <c r="R3" s="41">
+        <v>1</v>
+      </c>
+      <c r="S3" s="41">
+        <v>1</v>
+      </c>
+      <c r="T3" s="41"/>
+      <c r="U3" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10893,149 +10324,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="7.5381999999999998" bottom="7.5381999999999998" header="7.3412999999999995" footer="7.3412999999999995"/>
   <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="38">
-        <v>380</v>
-      </c>
-      <c r="D2" s="36">
-        <v>840</v>
-      </c>
-      <c r="E2" s="37">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="37">
-        <v>-2</v>
-      </c>
-      <c r="G2" s="37">
-        <v>1500</v>
-      </c>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="333">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -995,6 +995,45 @@
   </si>
   <si>
     <t>CollateralManagementTestData.xlsx</t>
+  </si>
+  <si>
+    <t>DS_AT_FAID_003</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Facility Value</t>
+  </si>
+  <si>
+    <t>Application For 1</t>
+  </si>
+  <si>
+    <t>4878</t>
+  </si>
+  <si>
+    <t>4879</t>
+  </si>
+  <si>
+    <t>4880</t>
+  </si>
+  <si>
+    <t>4887</t>
+  </si>
+  <si>
+    <t>4888</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>4912</t>
+  </si>
+  <si>
+    <t>1636</t>
+  </si>
+  <si>
+    <t>4916</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1897,16 +1936,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="102" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4342,17 +4381,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4449,54 +4488,56 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" customWidth="1"/>
-    <col min="23" max="23" width="20.88671875" customWidth="1"/>
-    <col min="24" max="24" width="12.21875" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" customWidth="1"/>
-    <col min="26" max="26" width="14.77734375" customWidth="1"/>
-    <col min="27" max="27" width="16.5546875" customWidth="1"/>
-    <col min="28" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" customWidth="1"/>
-    <col min="30" max="30" width="37.5546875" customWidth="1"/>
-    <col min="31" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="17.109375" customWidth="1"/>
-    <col min="33" max="33" width="15.21875" customWidth="1"/>
-    <col min="34" max="34" width="10" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.21875" customWidth="1"/>
-    <col min="39" max="39" width="17.109375" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" customWidth="1"/>
-    <col min="41" max="41" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.68359375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="17.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="14.4">
+    <row r="1" spans="1:42" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -4516,112 +4557,115 @@
         <v>59</v>
       </c>
       <c r="G1" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="N1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="W1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="X1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Z1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AD1" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AF1" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="40" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="AM1" s="40" t="s">
+      <c r="AN1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AN1" s="40" t="s">
+      <c r="AO1" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2" s="35" t="s">
         <v>162</v>
       </c>
@@ -4637,40 +4681,40 @@
         <v>68</v>
       </c>
       <c r="G2" s="36"/>
-      <c r="H2" s="37">
+      <c r="H2" s="36"/>
+      <c r="I2" s="37">
         <v>727</v>
       </c>
-      <c r="I2" s="37">
+      <c r="J2" s="37">
         <v>369</v>
       </c>
-      <c r="J2" s="37">
+      <c r="K2" s="37">
         <v>320</v>
       </c>
-      <c r="K2" s="37">
+      <c r="L2" s="37">
         <v>2</v>
       </c>
-      <c r="L2" s="37">
+      <c r="M2" s="37">
         <v>10000</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="51"/>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="68"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="41"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
-      <c r="Z2" s="38">
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="38">
         <v>1</v>
       </c>
-      <c r="AA2" s="68"/>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
       <c r="AD2" s="68"/>
@@ -4678,21 +4722,22 @@
       <c r="AF2" s="68"/>
       <c r="AG2" s="68"/>
       <c r="AH2" s="68"/>
-      <c r="AI2" s="38">
-        <v>1</v>
-      </c>
+      <c r="AI2" s="68"/>
       <c r="AJ2" s="38">
         <v>1</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="36" t="s">
+      <c r="AK2" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" s="68"/>
       <c r="AN2" s="68"/>
       <c r="AO2" s="68"/>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AP2" s="68"/>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="35" t="s">
         <v>146</v>
       </c>
@@ -4706,44 +4751,44 @@
         <v>68</v>
       </c>
       <c r="G3" s="36"/>
-      <c r="H3" s="37">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>727</v>
       </c>
-      <c r="I3" s="37">
+      <c r="J3" s="37">
         <v>369</v>
       </c>
-      <c r="J3" s="37">
+      <c r="K3" s="37">
         <v>320</v>
       </c>
-      <c r="K3" s="37">
+      <c r="L3" s="37">
         <v>2</v>
       </c>
-      <c r="L3" s="37">
+      <c r="M3" s="37">
         <v>20000</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="N3" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="37">
-        <v>2</v>
-      </c>
+      <c r="O3" s="51"/>
       <c r="P3" s="37">
         <v>2</v>
       </c>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="37">
+        <v>2</v>
+      </c>
       <c r="R3" s="37"/>
-      <c r="S3" s="51"/>
+      <c r="S3" s="37"/>
       <c r="T3" s="51"/>
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
-      <c r="W3" s="68"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="68"/>
       <c r="Y3" s="68"/>
-      <c r="Z3" s="38">
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="38">
         <v>1</v>
       </c>
-      <c r="AA3" s="68"/>
       <c r="AB3" s="68"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="68"/>
@@ -4753,13 +4798,14 @@
       <c r="AH3" s="68"/>
       <c r="AI3" s="68"/>
       <c r="AJ3" s="68"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="37"/>
       <c r="AM3" s="68"/>
       <c r="AN3" s="68"/>
       <c r="AO3" s="68"/>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AP3" s="68"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="35" t="s">
         <v>147</v>
       </c>
@@ -4771,26 +4817,26 @@
       <c r="E4" s="41"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
-      <c r="M4" s="51"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="51"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
-      <c r="S4" s="51"/>
+      <c r="S4" s="37"/>
       <c r="T4" s="51"/>
       <c r="U4" s="51"/>
       <c r="V4" s="51"/>
-      <c r="W4" s="68"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="68"/>
       <c r="Y4" s="68"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="38"/>
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
       <c r="AD4" s="68"/>
@@ -4802,17 +4848,18 @@
       <c r="AJ4" s="68"/>
       <c r="AK4" s="68"/>
       <c r="AL4" s="68"/>
-      <c r="AM4" s="36" t="s">
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" s="36">
+      <c r="AO4" s="36">
         <v>1</v>
       </c>
-      <c r="AO4" s="37" t="s">
+      <c r="AP4" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5" s="42" t="s">
         <v>148</v>
       </c>
@@ -4832,40 +4879,40 @@
         <v>68</v>
       </c>
       <c r="G5" s="36"/>
-      <c r="H5" s="37">
+      <c r="H5" s="36"/>
+      <c r="I5" s="37">
         <v>727</v>
       </c>
-      <c r="I5" s="37">
+      <c r="J5" s="37">
         <v>369</v>
       </c>
-      <c r="J5" s="37">
+      <c r="K5" s="37">
         <v>320</v>
       </c>
-      <c r="K5" s="37">
+      <c r="L5" s="37">
         <v>2</v>
       </c>
-      <c r="L5" s="37">
+      <c r="M5" s="37">
         <v>20000</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="N5" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
-      <c r="S5" s="51"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="51"/>
       <c r="U5" s="51"/>
       <c r="V5" s="51"/>
-      <c r="W5" s="68"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="68"/>
       <c r="Y5" s="68"/>
-      <c r="Z5" s="38">
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="38">
         <v>1</v>
       </c>
-      <c r="AA5" s="68"/>
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
       <c r="AD5" s="68"/>
@@ -4873,21 +4920,22 @@
       <c r="AF5" s="68"/>
       <c r="AG5" s="68"/>
       <c r="AH5" s="68"/>
-      <c r="AI5" s="41">
-        <v>1</v>
-      </c>
+      <c r="AI5" s="68"/>
       <c r="AJ5" s="41">
         <v>1</v>
       </c>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM5" s="36"/>
       <c r="AN5" s="36"/>
-      <c r="AO5" s="37"/>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="37"/>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="42" t="s">
         <v>149</v>
       </c>
@@ -4897,64 +4945,77 @@
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="38">
-        <v>1537</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6" s="37">
+        <v>727</v>
+      </c>
+      <c r="J6" s="37">
+        <v>369</v>
+      </c>
       <c r="K6" s="37">
+        <v>320</v>
+      </c>
+      <c r="L6" s="37">
         <v>2</v>
       </c>
-      <c r="L6" s="37">
-        <v>1500</v>
-      </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="37">
+        <v>5000</v>
+      </c>
+      <c r="N6" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="37">
+      <c r="O6" s="37">
         <v>0</v>
       </c>
-      <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
-      <c r="S6" s="51"/>
+      <c r="S6" s="37"/>
       <c r="T6" s="51"/>
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
-      <c r="W6" s="68"/>
+      <c r="W6" s="51"/>
       <c r="X6" s="68"/>
       <c r="Y6" s="68"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68">
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68">
         <v>0</v>
       </c>
-      <c r="AC6" s="68"/>
       <c r="AD6" s="68"/>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
       <c r="AG6" s="68"/>
       <c r="AH6" s="68"/>
-      <c r="AI6" s="41">
-        <v>1</v>
-      </c>
+      <c r="AI6" s="68"/>
       <c r="AJ6" s="41">
         <v>1</v>
       </c>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="36" t="s">
+      <c r="AK6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM6" s="36"/>
       <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="37"/>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="43" t="s">
         <v>150</v>
       </c>
@@ -4969,67 +5030,68 @@
       <c r="F7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37">
+      <c r="G7" s="36"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37">
         <v>727</v>
       </c>
-      <c r="I7" s="37">
+      <c r="J7" s="37">
         <v>369</v>
       </c>
-      <c r="J7" s="37">
+      <c r="K7" s="37">
         <v>320</v>
       </c>
-      <c r="K7" s="37">
+      <c r="L7" s="37">
         <v>2</v>
       </c>
-      <c r="L7" s="37">
+      <c r="M7" s="37">
         <v>20000</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="N7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="37"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
-      <c r="S7" s="51"/>
+      <c r="S7" s="37"/>
       <c r="T7" s="51"/>
       <c r="U7" s="51"/>
       <c r="V7" s="51"/>
-      <c r="W7" s="68"/>
+      <c r="W7" s="51"/>
       <c r="X7" s="68"/>
       <c r="Y7" s="68"/>
-      <c r="Z7" s="38">
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="38">
         <v>1</v>
       </c>
-      <c r="AA7" s="68"/>
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
       <c r="AD7" s="68"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
-      <c r="AG7" s="41">
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="41">
         <v>3455</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AI7" s="41">
         <v>2</v>
-      </c>
-      <c r="AI7" s="41">
-        <v>1</v>
       </c>
       <c r="AJ7" s="41">
         <v>1</v>
       </c>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="36" t="s">
+      <c r="AK7" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM7" s="36"/>
       <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-    </row>
-    <row r="8" spans="1:41">
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="37"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="43" t="s">
         <v>151</v>
       </c>
@@ -5042,65 +5104,66 @@
       <c r="F8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="37">
+      <c r="G8" s="36"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37">
         <v>727</v>
       </c>
-      <c r="I8" s="37">
+      <c r="J8" s="37">
         <v>369</v>
       </c>
-      <c r="J8" s="37">
+      <c r="K8" s="37">
         <v>320</v>
       </c>
-      <c r="K8" s="37">
+      <c r="L8" s="37">
         <v>2</v>
       </c>
-      <c r="L8" s="37">
+      <c r="M8" s="37">
         <v>25000</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="N8" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
-      <c r="Q8" s="41" t="s">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="R8" s="37">
+      <c r="S8" s="37">
         <v>2</v>
       </c>
-      <c r="S8" s="51"/>
       <c r="T8" s="51"/>
       <c r="U8" s="51"/>
       <c r="V8" s="51"/>
-      <c r="W8" s="68"/>
+      <c r="W8" s="51"/>
       <c r="X8" s="68"/>
       <c r="Y8" s="68"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="38"/>
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
       <c r="AD8" s="68"/>
       <c r="AE8" s="68"/>
       <c r="AF8" s="68"/>
-      <c r="AG8" s="41"/>
+      <c r="AG8" s="68"/>
       <c r="AH8" s="41"/>
-      <c r="AI8" s="41">
-        <v>1</v>
-      </c>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="41">
         <v>1</v>
       </c>
-      <c r="AK8" s="68"/>
-      <c r="AL8" s="36" t="s">
+      <c r="AK8" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM8" s="36"/>
       <c r="AN8" s="36"/>
-      <c r="AO8" s="37"/>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="37"/>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="45" t="s">
         <v>130</v>
       </c>
@@ -5111,35 +5174,35 @@
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36">
         <v>1471</v>
       </c>
-      <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="51"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="38" t="s">
+      <c r="S9" s="37"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="48" t="s">
+      <c r="V9" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="41">
+      <c r="W9" s="41">
         <v>500</v>
       </c>
-      <c r="W9" s="68"/>
       <c r="X9" s="68"/>
       <c r="Y9" s="68"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="68"/>
       <c r="AC9" s="68"/>
       <c r="AD9" s="68"/>
@@ -5154,8 +5217,9 @@
       <c r="AM9" s="68"/>
       <c r="AN9" s="68"/>
       <c r="AO9" s="68"/>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AP9" s="68"/>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="43" t="s">
         <v>134</v>
       </c>
@@ -5169,40 +5233,40 @@
         <v>68</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="37">
+      <c r="H10" s="36"/>
+      <c r="I10" s="37">
         <v>727</v>
       </c>
-      <c r="I10" s="37">
+      <c r="J10" s="37">
         <v>369</v>
       </c>
-      <c r="J10" s="37">
+      <c r="K10" s="37">
         <v>320</v>
       </c>
-      <c r="K10" s="37">
+      <c r="L10" s="37">
         <v>2</v>
       </c>
-      <c r="L10" s="37">
+      <c r="M10" s="37">
         <v>1000</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="N10" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="37"/>
+      <c r="O10" s="51"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="68"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="41"/>
       <c r="X10" s="68"/>
       <c r="Y10" s="68"/>
-      <c r="Z10" s="38">
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="38">
         <v>1</v>
       </c>
-      <c r="AA10" s="68"/>
       <c r="AB10" s="68"/>
       <c r="AC10" s="68"/>
       <c r="AD10" s="68"/>
@@ -5210,21 +5274,22 @@
       <c r="AF10" s="68"/>
       <c r="AG10" s="68"/>
       <c r="AH10" s="68"/>
-      <c r="AI10" s="41">
-        <v>1</v>
-      </c>
+      <c r="AI10" s="68"/>
       <c r="AJ10" s="41">
         <v>1</v>
       </c>
-      <c r="AK10" s="68"/>
-      <c r="AL10" s="36" t="s">
+      <c r="AK10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM10" s="68"/>
       <c r="AN10" s="68"/>
       <c r="AO10" s="68"/>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" s="68"/>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="43" t="s">
         <v>137</v>
       </c>
@@ -5238,64 +5303,65 @@
         <v>68</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="H11" s="37">
+      <c r="H11" s="36"/>
+      <c r="I11" s="37">
         <v>727</v>
       </c>
-      <c r="I11" s="37">
+      <c r="J11" s="37">
         <v>369</v>
       </c>
-      <c r="J11" s="37">
+      <c r="K11" s="37">
         <v>320</v>
       </c>
-      <c r="K11" s="37">
+      <c r="L11" s="37">
         <v>2</v>
       </c>
-      <c r="L11" s="37">
+      <c r="M11" s="37">
         <v>25000</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="N11" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="37"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="68"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="41"/>
       <c r="X11" s="68"/>
       <c r="Y11" s="68"/>
-      <c r="Z11" s="38">
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="38">
         <v>1</v>
       </c>
-      <c r="AA11" s="68"/>
       <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
-      <c r="AD11" s="38" t="s">
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="AE11" s="68"/>
       <c r="AF11" s="68"/>
       <c r="AG11" s="68"/>
       <c r="AH11" s="68"/>
-      <c r="AI11" s="41">
-        <v>1</v>
-      </c>
+      <c r="AI11" s="68"/>
       <c r="AJ11" s="41">
         <v>1</v>
       </c>
-      <c r="AK11" s="68"/>
-      <c r="AL11" s="36" t="s">
+      <c r="AK11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AM11" s="68"/>
       <c r="AN11" s="68"/>
       <c r="AO11" s="68"/>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AP11" s="68"/>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="37"/>
@@ -5318,7 +5384,7 @@
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
-      <c r="W12" s="68"/>
+      <c r="W12" s="37"/>
       <c r="X12" s="68"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="68"/>
@@ -5337,8 +5403,9 @@
       <c r="AM12" s="68"/>
       <c r="AN12" s="68"/>
       <c r="AO12" s="68"/>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="AP12" s="68"/>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="68"/>
@@ -5380,8 +5447,9 @@
       <c r="AM13" s="68"/>
       <c r="AN13" s="68"/>
       <c r="AO13" s="68"/>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" s="68"/>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="45"/>
       <c r="B14" s="43"/>
       <c r="C14" s="68"/>
@@ -5389,10 +5457,10 @@
       <c r="E14" s="68"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="68"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="68"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
@@ -5423,8 +5491,9 @@
       <c r="AM14" s="68"/>
       <c r="AN14" s="68"/>
       <c r="AO14" s="68"/>
-    </row>
-    <row r="15" spans="1:41">
+      <c r="AP14" s="68"/>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="68"/>
@@ -5466,8 +5535,9 @@
       <c r="AM15" s="68"/>
       <c r="AN15" s="68"/>
       <c r="AO15" s="68"/>
-    </row>
-    <row r="16" spans="1:41">
+      <c r="AP15" s="68"/>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="68"/>
@@ -5509,8 +5579,9 @@
       <c r="AM16" s="68"/>
       <c r="AN16" s="68"/>
       <c r="AO16" s="68"/>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="AP16" s="68"/>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="68"/>
@@ -5552,42 +5623,43 @@
       <c r="AM17" s="68"/>
       <c r="AN17" s="68"/>
       <c r="AO17" s="68"/>
-    </row>
-    <row r="18" spans="1:41">
-      <c r="AK18" s="76"/>
-    </row>
-    <row r="19" spans="1:41">
-      <c r="AK19" s="76"/>
-    </row>
-    <row r="20" spans="1:41">
-      <c r="AK20" s="76"/>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="AK21" s="76"/>
-    </row>
-    <row r="22" spans="1:41">
-      <c r="AK22" s="76"/>
-    </row>
-    <row r="23" spans="1:41">
-      <c r="AK23" s="76"/>
-    </row>
-    <row r="24" spans="1:41">
-      <c r="AK24" s="76"/>
-    </row>
-    <row r="25" spans="1:41">
-      <c r="AK25" s="76"/>
-    </row>
-    <row r="26" spans="1:41">
-      <c r="AK26" s="76"/>
-    </row>
-    <row r="27" spans="1:41">
-      <c r="AK27" s="76"/>
-    </row>
-    <row r="28" spans="1:41">
-      <c r="AK28" s="76"/>
-    </row>
-    <row r="29" spans="1:41">
-      <c r="AK29" s="76"/>
+      <c r="AP17" s="68"/>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="AL18" s="76"/>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="AL19" s="76"/>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="AL20" s="76"/>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="AL21" s="76"/>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="AL22" s="76"/>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="AL23" s="76"/>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="AL24" s="76"/>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="AL25" s="76"/>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="AL26" s="76"/>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="AL27" s="76"/>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="AL28" s="76"/>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="AL29" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5604,23 +5676,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="53" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="53" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="53" width="16.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="53" width="20.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -6801,45 +6873,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="15" customWidth="1"/>
-    <col min="23" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="10.44140625" customWidth="1"/>
-    <col min="27" max="27" width="19.77734375" customWidth="1"/>
-    <col min="28" max="28" width="22.77734375" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.77734375" customWidth="1"/>
-    <col min="31" max="31" width="19.77734375" customWidth="1"/>
-    <col min="32" max="32" width="17.88671875" style="84" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" customWidth="1"/>
-    <col min="34" max="34" width="18.5546875" customWidth="1"/>
-    <col min="35" max="35" width="17.88671875" customWidth="1"/>
-    <col min="36" max="36" width="16.6640625" customWidth="1"/>
-    <col min="37" max="37" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="84" width="17.88671875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1">
@@ -7710,31 +7782,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="84" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="84" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" style="84" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="84" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="84" width="11.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="84" width="15.44140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -8719,23 +8791,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -8869,40 +8941,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="53" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" customWidth="1"/>
-    <col min="27" max="27" width="13.21875" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.88671875" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
-    <col min="31" max="33" width="10.77734375" customWidth="1"/>
-    <col min="34" max="34" width="15.21875" customWidth="1"/>
-    <col min="35" max="35" width="15.109375" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" customWidth="1"/>
-    <col min="37" max="37" width="15.109375" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" customWidth="1"/>
-    <col min="39" max="39" width="18.33203125" customWidth="1"/>
-    <col min="40" max="40" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="53" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -9671,21 +9743,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="25.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -9934,37 +10006,38 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" customWidth="1"/>
-    <col min="19" max="20" width="14.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.4">
+    <row r="1" spans="1:22" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -10016,20 +10089,23 @@
       <c r="Q1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="43" t="s">
         <v>303</v>
       </c>
@@ -10065,8 +10141,9 @@
       <c r="S2" s="41"/>
       <c r="T2" s="41"/>
       <c r="U2" s="41"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="41"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="45" t="s">
         <v>309</v>
       </c>
@@ -10104,41 +10181,57 @@
       <c r="Q3" s="41">
         <v>1</v>
       </c>
-      <c r="R3" s="41">
-        <v>1</v>
-      </c>
+      <c r="R3" s="41"/>
       <c r="S3" s="41">
         <v>1</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="36" t="s">
+      <c r="T3" s="41">
+        <v>1</v>
+      </c>
+      <c r="U3" s="41"/>
+      <c r="V3" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:22">
+      <c r="A4" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>320</v>
+      </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" s="41">
+        <v>1627</v>
+      </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="M4" s="41">
+        <v>2</v>
+      </c>
+      <c r="N4" s="41">
+        <v>150</v>
+      </c>
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="41">
+        <v>10100</v>
+      </c>
       <c r="S4" s="41"/>
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="41"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="41"/>
@@ -10160,8 +10253,9 @@
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="41"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="41"/>
@@ -10183,8 +10277,9 @@
       <c r="S6" s="41"/>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="41"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="41"/>
@@ -10206,8 +10301,9 @@
       <c r="S7" s="41"/>
       <c r="T7" s="41"/>
       <c r="U7" s="41"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="41"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="41"/>
@@ -10229,8 +10325,9 @@
       <c r="S8" s="41"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="41"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="41"/>
@@ -10252,6 +10349,7 @@
       <c r="S9" s="41"/>
       <c r="T9" s="41"/>
       <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10268,10 +10366,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10337,11 +10435,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10415,9 +10513,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10491,12 +10589,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10566,12 +10664,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10641,8 +10739,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10716,9 +10814,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10770,15 +10868,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="23" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="23"/>
+    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="23" width="44.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,23 @@
     <sheet name="IISParam_Login" sheetId="7" r:id="rId7"/>
     <sheet name="SadsLogin" sheetId="8" r:id="rId8"/>
     <sheet name="TestExecution" sheetId="9" r:id="rId9"/>
-    <sheet name="IIS_Param_TestData" sheetId="11" r:id="rId10"/>
+    <sheet name="IISParamTestData" sheetId="11" r:id="rId10"/>
     <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId11"/>
     <sheet name="CollateralManagementTestData" sheetId="13" r:id="rId12"/>
     <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId13"/>
     <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId14"/>
     <sheet name="FMSParameterTestData" sheetId="18" r:id="rId15"/>
     <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId16"/>
-    <sheet name="CommiteeApprovalTestData" sheetId="20" r:id="rId17"/>
+    <sheet name="CommitteeApprovalTestData" sheetId="20" r:id="rId17"/>
     <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId18"/>
+    <sheet name="AccountingEntriesTestData" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="338">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1006,34 +1007,49 @@
     <t>Facility Value</t>
   </si>
   <si>
-    <t>Application For 1</t>
-  </si>
-  <si>
-    <t>4878</t>
-  </si>
-  <si>
-    <t>4879</t>
-  </si>
-  <si>
-    <t>4880</t>
-  </si>
-  <si>
-    <t>4887</t>
-  </si>
-  <si>
-    <t>4888</t>
-  </si>
-  <si>
-    <t>1635</t>
-  </si>
-  <si>
-    <t>4912</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>4916</t>
+    <t>DS_AT_FAID_006</t>
+  </si>
+  <si>
+    <t>Decrease FC Amount</t>
+  </si>
+  <si>
+    <t>DS_AT_FAID_005</t>
+  </si>
+  <si>
+    <t>For Decrease</t>
+  </si>
+  <si>
+    <t>For Increase</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Decrease Value</t>
+  </si>
+  <si>
+    <t>Increase Value</t>
+  </si>
+  <si>
+    <t>Marketed By</t>
+  </si>
+  <si>
+    <t>AT_AE_009</t>
+  </si>
+  <si>
+    <t>DS_AT_AE_009</t>
+  </si>
+  <si>
+    <t>AT_AE_010</t>
+  </si>
+  <si>
+    <t>DS_AT_AE_010</t>
+  </si>
+  <si>
+    <t>Required DD</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1347,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1580,6 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1919,7 +1936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1930,22 +1947,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="102" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3502,7 +3519,9 @@
       <c r="H65" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="I65" s="64"/>
+      <c r="I65" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J65" s="59"/>
     </row>
     <row r="66" spans="1:10">
@@ -3515,14 +3534,20 @@
       <c r="C66" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="D66" s="59"/>
+      <c r="D66" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
+      <c r="F66" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="G66" s="59"/>
       <c r="H66" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="I66" s="64"/>
+      <c r="I66" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J66" s="59"/>
     </row>
     <row r="67" spans="1:10">
@@ -3535,12 +3560,20 @@
       <c r="C67" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="D67" s="59"/>
+      <c r="D67" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
+      <c r="F67" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="G67" s="59"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
+      <c r="H67" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="I67" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J67" s="59"/>
     </row>
     <row r="68" spans="1:10">
@@ -3553,10 +3586,16 @@
       <c r="C68" s="109" t="s">
         <v>311</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
+      <c r="D68" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>328</v>
+      </c>
       <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
+      <c r="G68" s="61" t="s">
+        <v>89</v>
+      </c>
       <c r="H68" s="64"/>
       <c r="I68" s="64"/>
       <c r="J68" s="59"/>
@@ -3571,12 +3610,20 @@
       <c r="C69" s="109" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="59"/>
+      <c r="D69" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="F69" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="G69" s="59"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
+      <c r="H69" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="I69" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J69" s="59"/>
     </row>
     <row r="70" spans="1:10">
@@ -3589,12 +3636,18 @@
       <c r="C70" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="D70" s="59"/>
+      <c r="D70" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="59"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
+      <c r="H70" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="J70" s="59"/>
     </row>
     <row r="71" spans="1:10">
@@ -4376,22 +4429,22 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4488,56 +4541,59 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP29"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.68359375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" customWidth="1"/>
+    <col min="32" max="32" width="37.5546875" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="17.109375" customWidth="1"/>
+    <col min="35" max="35" width="15.21875" customWidth="1"/>
+    <col min="36" max="36" width="10" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.21875" customWidth="1"/>
+    <col min="41" max="41" width="17.109375" customWidth="1"/>
+    <col min="42" max="42" width="14.44140625" customWidth="1"/>
+    <col min="43" max="43" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.4">
+    <row r="1" spans="1:43" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -4557,7 +4613,7 @@
         <v>59</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>85</v>
@@ -4577,95 +4633,98 @@
       <c r="M1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="W1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="X1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Z1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AD1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AE1" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="AI1" s="40" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="AM1" s="40" t="s">
+      <c r="AN1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="AN1" s="40" t="s">
+      <c r="AO1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AO1" s="40" t="s">
+      <c r="AP1" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AQ1" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="35" t="s">
         <v>162</v>
       </c>
@@ -4697,25 +4756,25 @@
       <c r="M2" s="37">
         <v>10000</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="51"/>
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="68"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="68"/>
-      <c r="AA2" s="38">
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="38">
         <v>1</v>
       </c>
-      <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
       <c r="AD2" s="68"/>
       <c r="AE2" s="68"/>
@@ -4723,21 +4782,22 @@
       <c r="AG2" s="68"/>
       <c r="AH2" s="68"/>
       <c r="AI2" s="68"/>
-      <c r="AJ2" s="38">
-        <v>1</v>
-      </c>
+      <c r="AJ2" s="68"/>
       <c r="AK2" s="38">
         <v>1</v>
       </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="36" t="s">
+      <c r="AL2" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="68"/>
       <c r="AO2" s="68"/>
       <c r="AP2" s="68"/>
-    </row>
-    <row r="3" spans="1:42">
+      <c r="AQ2" s="68"/>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="35" t="s">
         <v>146</v>
       </c>
@@ -4767,29 +4827,29 @@
       <c r="M3" s="37">
         <v>20000</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="37"/>
+      <c r="O3" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="37">
-        <v>2</v>
-      </c>
+      <c r="P3" s="51"/>
       <c r="Q3" s="37">
         <v>2</v>
       </c>
-      <c r="R3" s="37"/>
+      <c r="R3" s="37">
+        <v>2</v>
+      </c>
       <c r="S3" s="37"/>
-      <c r="T3" s="51"/>
+      <c r="T3" s="37"/>
       <c r="U3" s="51"/>
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
-      <c r="X3" s="68"/>
+      <c r="X3" s="51"/>
       <c r="Y3" s="68"/>
       <c r="Z3" s="68"/>
-      <c r="AA3" s="38">
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="38">
         <v>1</v>
       </c>
-      <c r="AB3" s="68"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="68"/>
       <c r="AE3" s="68"/>
@@ -4799,13 +4859,14 @@
       <c r="AI3" s="68"/>
       <c r="AJ3" s="68"/>
       <c r="AK3" s="68"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="37"/>
       <c r="AN3" s="68"/>
       <c r="AO3" s="68"/>
       <c r="AP3" s="68"/>
-    </row>
-    <row r="4" spans="1:42">
+      <c r="AQ3" s="68"/>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="35" t="s">
         <v>147</v>
       </c>
@@ -4823,21 +4884,21 @@
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
-      <c r="N4" s="51"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="51"/>
-      <c r="P4" s="37"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
-      <c r="T4" s="51"/>
+      <c r="T4" s="37"/>
       <c r="U4" s="51"/>
       <c r="V4" s="51"/>
       <c r="W4" s="51"/>
-      <c r="X4" s="68"/>
+      <c r="X4" s="51"/>
       <c r="Y4" s="68"/>
       <c r="Z4" s="68"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="38"/>
       <c r="AC4" s="68"/>
       <c r="AD4" s="68"/>
       <c r="AE4" s="68"/>
@@ -4849,17 +4910,18 @@
       <c r="AK4" s="68"/>
       <c r="AL4" s="68"/>
       <c r="AM4" s="68"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="36">
+      <c r="AP4" s="36">
         <v>1</v>
       </c>
-      <c r="AP4" s="37" t="s">
+      <c r="AQ4" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" s="42" t="s">
         <v>148</v>
       </c>
@@ -4895,25 +4957,25 @@
       <c r="M5" s="37">
         <v>20000</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="37"/>
+      <c r="O5" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
-      <c r="T5" s="51"/>
+      <c r="T5" s="37"/>
       <c r="U5" s="51"/>
       <c r="V5" s="51"/>
       <c r="W5" s="51"/>
-      <c r="X5" s="68"/>
+      <c r="X5" s="51"/>
       <c r="Y5" s="68"/>
       <c r="Z5" s="68"/>
-      <c r="AA5" s="38">
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="38">
         <v>1</v>
       </c>
-      <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
       <c r="AD5" s="68"/>
       <c r="AE5" s="68"/>
@@ -4921,21 +4983,22 @@
       <c r="AG5" s="68"/>
       <c r="AH5" s="68"/>
       <c r="AI5" s="68"/>
-      <c r="AJ5" s="41">
-        <v>1</v>
-      </c>
+      <c r="AJ5" s="68"/>
       <c r="AK5" s="41">
         <v>1</v>
       </c>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="36" t="s">
+      <c r="AL5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN5" s="36"/>
       <c r="AO5" s="36"/>
-      <c r="AP5" s="37"/>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="37"/>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="42" t="s">
         <v>149</v>
       </c>
@@ -4951,8 +5014,8 @@
       <c r="G6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>331</v>
+      <c r="H6" s="38">
+        <v>1537</v>
       </c>
       <c r="I6" s="37">
         <v>727</v>
@@ -4969,53 +5032,54 @@
       <c r="M6" s="37">
         <v>5000</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="37">
+        <v>3500</v>
+      </c>
+      <c r="O6" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O6" s="37">
+      <c r="P6" s="37">
         <v>0</v>
       </c>
-      <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
-      <c r="T6" s="51"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
       <c r="W6" s="51"/>
-      <c r="X6" s="68"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="68"/>
       <c r="Z6" s="68"/>
-      <c r="AA6" s="38">
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="38">
         <v>1</v>
       </c>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68">
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68">
         <v>0</v>
       </c>
-      <c r="AD6" s="68"/>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
       <c r="AG6" s="68"/>
       <c r="AH6" s="68"/>
       <c r="AI6" s="68"/>
-      <c r="AJ6" s="41">
-        <v>1</v>
-      </c>
+      <c r="AJ6" s="68"/>
       <c r="AK6" s="41">
         <v>1</v>
       </c>
-      <c r="AL6" s="68" t="s">
-        <v>332</v>
-      </c>
-      <c r="AM6" s="36" t="s">
+      <c r="AL6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN6" s="36"/>
       <c r="AO6" s="36"/>
-      <c r="AP6" s="37"/>
-    </row>
-    <row r="7" spans="1:42">
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="37"/>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="43" t="s">
         <v>150</v>
       </c>
@@ -5047,51 +5111,52 @@
       <c r="M7" s="37">
         <v>20000</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
-      <c r="T7" s="51"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="51"/>
       <c r="V7" s="51"/>
       <c r="W7" s="51"/>
-      <c r="X7" s="68"/>
+      <c r="X7" s="51"/>
       <c r="Y7" s="68"/>
       <c r="Z7" s="68"/>
-      <c r="AA7" s="38">
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="38">
         <v>1</v>
       </c>
-      <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
       <c r="AD7" s="68"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
       <c r="AG7" s="68"/>
-      <c r="AH7" s="41">
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="41">
         <v>3455</v>
       </c>
-      <c r="AI7" s="41">
+      <c r="AJ7" s="41">
         <v>2</v>
-      </c>
-      <c r="AJ7" s="41">
-        <v>1</v>
       </c>
       <c r="AK7" s="41">
         <v>1</v>
       </c>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="36" t="s">
+      <c r="AL7" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN7" s="36"/>
       <c r="AO7" s="36"/>
-      <c r="AP7" s="37"/>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="37"/>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="43" t="s">
         <v>151</v>
       </c>
@@ -5121,49 +5186,50 @@
       <c r="M8" s="37">
         <v>25000</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="37"/>
+      <c r="S8" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="S8" s="37">
+      <c r="T8" s="37">
         <v>2</v>
       </c>
-      <c r="T8" s="51"/>
       <c r="U8" s="51"/>
       <c r="V8" s="51"/>
       <c r="W8" s="51"/>
-      <c r="X8" s="68"/>
+      <c r="X8" s="51"/>
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="38"/>
       <c r="AC8" s="68"/>
       <c r="AD8" s="68"/>
       <c r="AE8" s="68"/>
       <c r="AF8" s="68"/>
       <c r="AG8" s="68"/>
-      <c r="AH8" s="41"/>
+      <c r="AH8" s="68"/>
       <c r="AI8" s="41"/>
-      <c r="AJ8" s="41">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="41"/>
       <c r="AK8" s="41">
         <v>1</v>
       </c>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="36" t="s">
+      <c r="AL8" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN8" s="36"/>
       <c r="AO8" s="36"/>
-      <c r="AP8" s="37"/>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="37"/>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="45" t="s">
         <v>130</v>
       </c>
@@ -5183,27 +5249,27 @@
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="51"/>
-      <c r="P9" s="37"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="38" t="s">
+      <c r="T9" s="37"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="48" t="s">
+      <c r="W9" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="41">
+      <c r="X9" s="41">
         <v>500</v>
       </c>
-      <c r="X9" s="68"/>
       <c r="Y9" s="68"/>
       <c r="Z9" s="68"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="38"/>
       <c r="AC9" s="68"/>
       <c r="AD9" s="68"/>
       <c r="AE9" s="68"/>
@@ -5218,8 +5284,9 @@
       <c r="AN9" s="68"/>
       <c r="AO9" s="68"/>
       <c r="AP9" s="68"/>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="AQ9" s="68"/>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="43" t="s">
         <v>134</v>
       </c>
@@ -5249,25 +5316,25 @@
       <c r="M10" s="37">
         <v>1000</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="37"/>
+      <c r="O10" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="37"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="68"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="41"/>
       <c r="Y10" s="68"/>
       <c r="Z10" s="68"/>
-      <c r="AA10" s="38">
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="38">
         <v>1</v>
       </c>
-      <c r="AB10" s="68"/>
       <c r="AC10" s="68"/>
       <c r="AD10" s="68"/>
       <c r="AE10" s="68"/>
@@ -5275,21 +5342,22 @@
       <c r="AG10" s="68"/>
       <c r="AH10" s="68"/>
       <c r="AI10" s="68"/>
-      <c r="AJ10" s="41">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="68"/>
       <c r="AK10" s="41">
         <v>1</v>
       </c>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="36" t="s">
+      <c r="AL10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN10" s="68"/>
       <c r="AO10" s="68"/>
       <c r="AP10" s="68"/>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="AQ10" s="68"/>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="43" t="s">
         <v>137</v>
       </c>
@@ -5319,49 +5387,50 @@
       <c r="M11" s="37">
         <v>25000</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="37"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="68"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="41"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="68"/>
-      <c r="AA11" s="38">
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="38">
         <v>1</v>
       </c>
-      <c r="AB11" s="68"/>
       <c r="AC11" s="68"/>
       <c r="AD11" s="68"/>
-      <c r="AE11" s="38" t="s">
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="AF11" s="68"/>
       <c r="AG11" s="68"/>
       <c r="AH11" s="68"/>
       <c r="AI11" s="68"/>
-      <c r="AJ11" s="41">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="68"/>
       <c r="AK11" s="41">
         <v>1</v>
       </c>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="36" t="s">
+      <c r="AL11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AN11" s="68"/>
       <c r="AO11" s="68"/>
       <c r="AP11" s="68"/>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="AQ11" s="68"/>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="37"/>
@@ -5385,7 +5454,7 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
-      <c r="X12" s="68"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="68"/>
       <c r="AA12" s="68"/>
@@ -5404,8 +5473,9 @@
       <c r="AN12" s="68"/>
       <c r="AO12" s="68"/>
       <c r="AP12" s="68"/>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="AQ12" s="68"/>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="68"/>
@@ -5448,8 +5518,9 @@
       <c r="AN13" s="68"/>
       <c r="AO13" s="68"/>
       <c r="AP13" s="68"/>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="AQ13" s="68"/>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="45"/>
       <c r="B14" s="43"/>
       <c r="C14" s="68"/>
@@ -5492,8 +5563,9 @@
       <c r="AN14" s="68"/>
       <c r="AO14" s="68"/>
       <c r="AP14" s="68"/>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="AQ14" s="68"/>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="68"/>
@@ -5536,8 +5608,9 @@
       <c r="AN15" s="68"/>
       <c r="AO15" s="68"/>
       <c r="AP15" s="68"/>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="AQ15" s="68"/>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="68"/>
@@ -5580,8 +5653,9 @@
       <c r="AN16" s="68"/>
       <c r="AO16" s="68"/>
       <c r="AP16" s="68"/>
-    </row>
-    <row r="17" spans="1:42">
+      <c r="AQ16" s="68"/>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="68"/>
@@ -5624,42 +5698,43 @@
       <c r="AN17" s="68"/>
       <c r="AO17" s="68"/>
       <c r="AP17" s="68"/>
-    </row>
-    <row r="18" spans="1:42">
-      <c r="AL18" s="76"/>
-    </row>
-    <row r="19" spans="1:42">
-      <c r="AL19" s="76"/>
-    </row>
-    <row r="20" spans="1:42">
-      <c r="AL20" s="76"/>
-    </row>
-    <row r="21" spans="1:42">
-      <c r="AL21" s="76"/>
-    </row>
-    <row r="22" spans="1:42">
-      <c r="AL22" s="76"/>
-    </row>
-    <row r="23" spans="1:42">
-      <c r="AL23" s="76"/>
-    </row>
-    <row r="24" spans="1:42">
-      <c r="AL24" s="76"/>
-    </row>
-    <row r="25" spans="1:42">
-      <c r="AL25" s="76"/>
-    </row>
-    <row r="26" spans="1:42">
-      <c r="AL26" s="76"/>
-    </row>
-    <row r="27" spans="1:42">
-      <c r="AL27" s="76"/>
-    </row>
-    <row r="28" spans="1:42">
-      <c r="AL28" s="76"/>
-    </row>
-    <row r="29" spans="1:42">
-      <c r="AL29" s="76"/>
+      <c r="AQ17" s="68"/>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="AM18" s="76"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="AM19" s="76"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="AM20" s="76"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="AM21" s="76"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="AM22" s="76"/>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="AM23" s="76"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="AM24" s="76"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="AM25" s="76"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="AM26" s="76"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="AM27" s="76"/>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="AM28" s="76"/>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="AM29" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,23 +5751,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="53" width="16.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="53" width="20.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="53" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="53" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -6879,39 +6954,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="84" width="17.88671875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15" customWidth="1"/>
+    <col min="23" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" customWidth="1"/>
+    <col min="27" max="27" width="19.77734375" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="23.77734375" customWidth="1"/>
+    <col min="31" max="31" width="19.77734375" customWidth="1"/>
+    <col min="32" max="32" width="17.88671875" style="84" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="18.5546875" customWidth="1"/>
+    <col min="35" max="35" width="17.88671875" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1">
@@ -7777,36 +7852,36 @@
   <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="84" width="11.44140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="84" width="15.44140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="84" width="13.44140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="84" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="84" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="84" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="84" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -8791,23 +8866,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -8941,40 +9016,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="53" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="53" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
+    <col min="27" max="27" width="13.21875" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="31" max="33" width="10.77734375" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" customWidth="1"/>
+    <col min="39" max="39" width="18.33203125" customWidth="1"/>
+    <col min="40" max="40" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -9738,26 +9813,26 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10006,38 +10081,47 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" customWidth="1"/>
+    <col min="26" max="27" width="14.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" customWidth="1"/>
+    <col min="29" max="29" width="14.109375" customWidth="1"/>
+    <col min="30" max="30" width="13.21875" customWidth="1"/>
+    <col min="31" max="31" width="11.88671875" customWidth="1"/>
+    <col min="32" max="32" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.4">
+    <row r="1" spans="1:32" ht="14.4">
       <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
@@ -10063,49 +10147,79 @@
         <v>59</v>
       </c>
       <c r="I1" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="P1" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="R1" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="V1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="W1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="X1" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="AC1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="43" t="s">
         <v>303</v>
       </c>
@@ -10129,8 +10243,8 @@
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
@@ -10142,8 +10256,18 @@
       <c r="T2" s="41"/>
       <c r="U2" s="41"/>
       <c r="V2" s="41"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="45" t="s">
         <v>309</v>
       </c>
@@ -10158,42 +10282,52 @@
       <c r="H3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41">
         <v>369</v>
       </c>
-      <c r="L3" s="41">
+      <c r="N3" s="41">
         <v>320</v>
       </c>
-      <c r="M3" s="41">
+      <c r="O3" s="41">
         <v>2</v>
       </c>
-      <c r="N3" s="41">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41">
         <v>15000</v>
       </c>
-      <c r="O3" s="41">
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41">
         <v>10000</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="V3" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="W3" s="41">
         <v>1</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41">
         <v>1</v>
       </c>
-      <c r="T3" s="41">
+      <c r="Z3" s="41">
         <v>1</v>
       </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="36" t="s">
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="45" t="s">
         <v>310</v>
       </c>
@@ -10205,81 +10339,185 @@
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="I4" s="41">
+      <c r="K4" s="41">
         <v>1627</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="41">
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41">
         <v>2</v>
       </c>
-      <c r="N4" s="41">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41">
         <v>150</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41">
-        <v>10100</v>
-      </c>
+      <c r="R4" s="41"/>
       <c r="S4" s="41"/>
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
       <c r="V4" s="41"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41">
+        <v>10100</v>
+      </c>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>325</v>
+      </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
+      <c r="H5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K5" s="41">
+        <v>1626</v>
+      </c>
+      <c r="L5" s="41">
+        <v>727</v>
+      </c>
+      <c r="M5" s="41">
+        <v>369</v>
+      </c>
+      <c r="N5" s="41">
+        <v>320</v>
+      </c>
+      <c r="O5" s="41">
+        <v>2</v>
+      </c>
+      <c r="P5" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>10000</v>
+      </c>
+      <c r="R5" s="41">
+        <v>1500</v>
+      </c>
+      <c r="S5" s="41">
+        <v>2500</v>
+      </c>
+      <c r="T5" s="41">
+        <v>0</v>
+      </c>
       <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="V5" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="W5" s="41">
+        <v>1</v>
+      </c>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>323</v>
+      </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="H6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="L6" s="41">
+        <v>727</v>
+      </c>
+      <c r="M6" s="41">
+        <v>369</v>
+      </c>
+      <c r="N6" s="41">
+        <v>320</v>
+      </c>
+      <c r="O6" s="41">
+        <v>2</v>
+      </c>
       <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="41">
+        <v>15000</v>
+      </c>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="V6" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="W6" s="41">
+        <v>1</v>
+      </c>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD6" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE6" s="41">
+        <v>3000</v>
+      </c>
+      <c r="AF6" s="41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="41"/>
@@ -10302,8 +10540,18 @@
       <c r="T7" s="41"/>
       <c r="U7" s="41"/>
       <c r="V7" s="41"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="41"/>
@@ -10326,8 +10574,18 @@
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="41"/>
@@ -10350,6 +10608,184 @@
       <c r="T9" s="41"/>
       <c r="U9" s="41"/>
       <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.4">
+      <c r="A1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="41">
+        <v>727</v>
+      </c>
+      <c r="F2" s="41">
+        <v>369</v>
+      </c>
+      <c r="G2" s="41">
+        <v>320</v>
+      </c>
+      <c r="H2" s="41">
+        <v>2</v>
+      </c>
+      <c r="I2" s="41">
+        <v>120524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="41">
+        <v>727</v>
+      </c>
+      <c r="F3" s="41">
+        <v>369</v>
+      </c>
+      <c r="G3" s="41">
+        <v>320</v>
+      </c>
+      <c r="H3" s="41">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41">
+        <v>120524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10366,10 +10802,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10435,11 +10871,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10513,9 +10949,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10589,12 +11025,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10664,12 +11100,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10739,8 +11175,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -10814,9 +11250,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10868,15 +11304,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="23" width="10.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="23" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="23" width="16.109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="23" width="31.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="23" width="30.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="23" width="29.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="28.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="23" width="44.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" style="23" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="23" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="CommitteeApprovalTestData" sheetId="20" r:id="rId17"/>
     <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId18"/>
     <sheet name="AccountingEntriesTestData" sheetId="22" r:id="rId19"/>
+    <sheet name="ClientResponseTestData" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="352">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1059,6 +1060,39 @@
   </si>
   <si>
     <t>DS_AT_AE_011</t>
+  </si>
+  <si>
+    <t>AT_AE_012</t>
+  </si>
+  <si>
+    <t>AT_AE_013</t>
+  </si>
+  <si>
+    <t>AT_AE_014</t>
+  </si>
+  <si>
+    <t>AT_CR_005</t>
+  </si>
+  <si>
+    <t>AT_CR_006</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>AccountingEntries_608</t>
+  </si>
+  <si>
+    <t>DS_AT_AE_012</t>
+  </si>
+  <si>
+    <t>DS_AT_CR_005</t>
+  </si>
+  <si>
+    <t>DS_AT_CR_006</t>
+  </si>
+  <si>
+    <t>Rejected by Client</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1954,8 +1988,8 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
@@ -1963,7 +1997,7 @@
     <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" style="99" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
@@ -3647,7 +3681,9 @@
         <v>95</v>
       </c>
       <c r="E70" s="56"/>
-      <c r="F70" s="55"/>
+      <c r="F70" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G70" s="56"/>
       <c r="H70" s="61" t="s">
         <v>314</v>
@@ -3670,81 +3706,151 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="56"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="56"/>
+      <c r="A72" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="105">
+        <v>834959</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="F72" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G72" s="56"/>
-      <c r="H72" s="61"/>
+      <c r="H72" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="I72" s="61"/>
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="56"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="56"/>
+      <c r="A73" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="105">
+        <v>834962</v>
+      </c>
+      <c r="C73" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
+      <c r="F73" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G73" s="56"/>
-      <c r="H73" s="61"/>
+      <c r="H73" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="I73" s="61"/>
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="56"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="56"/>
+      <c r="A74" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="105">
+        <v>834969</v>
+      </c>
+      <c r="C74" s="106" t="s">
+        <v>339</v>
+      </c>
+      <c r="D74" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="F74" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G74" s="56"/>
-      <c r="H74" s="61"/>
+      <c r="H74" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="I74" s="61"/>
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="56"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
+      <c r="A75" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="105">
+        <v>834970</v>
+      </c>
+      <c r="C75" s="106" t="s">
+        <v>341</v>
+      </c>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="56"/>
       <c r="G75" s="56"/>
-      <c r="H75" s="61"/>
+      <c r="H75" s="61" t="s">
+        <v>347</v>
+      </c>
       <c r="I75" s="61"/>
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="56"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="56"/>
+      <c r="A76" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="105">
+        <v>834971</v>
+      </c>
+      <c r="C76" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="62" t="s">
+        <v>165</v>
+      </c>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
+      <c r="G76" s="58" t="s">
+        <v>87</v>
+      </c>
       <c r="H76" s="61"/>
       <c r="I76" s="61"/>
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="56"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="56"/>
+      <c r="A77" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="105">
+        <v>834973</v>
+      </c>
+      <c r="C77" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>165</v>
+      </c>
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
+      <c r="G77" s="58" t="s">
+        <v>87</v>
+      </c>
       <c r="H77" s="61"/>
       <c r="I77" s="61"/>
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="56"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
+      <c r="A78" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="105">
+        <v>127913</v>
+      </c>
+      <c r="C78" s="106" t="s">
+        <v>344</v>
+      </c>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
       <c r="F78" s="56"/>
@@ -3754,9 +3860,15 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="56"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="87"/>
+      <c r="A79" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="105">
+        <v>135015</v>
+      </c>
+      <c r="C79" s="106" t="s">
+        <v>345</v>
+      </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
@@ -4435,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4551,7 +4663,7 @@
   <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4880,7 +4992,9 @@
       <c r="B4" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="38">
+        <v>4888</v>
+      </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="33"/>
@@ -8867,8 +8981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9017,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10671,7 +10785,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10882,23 +10996,49 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>348</v>
+      </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="E5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="38">
+        <v>727</v>
+      </c>
+      <c r="G5" s="38">
+        <v>369</v>
+      </c>
+      <c r="H5" s="38">
+        <v>320</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2</v>
+      </c>
       <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="K5" s="38">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="38">
+        <v>1</v>
+      </c>
+      <c r="N5" s="38">
+        <v>1</v>
+      </c>
+      <c r="O5" s="38">
+        <v>1</v>
+      </c>
       <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10971,6 +11111,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="7.5381999999999998" bottom="7.5381999999999998" header="7.3412999999999995" footer="7.3412999999999995"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="34">
+        <v>727</v>
+      </c>
+      <c r="E2" s="34">
+        <v>369</v>
+      </c>
+      <c r="F2" s="34">
+        <v>320</v>
+      </c>
+      <c r="G2" s="34">
+        <v>2</v>
+      </c>
+      <c r="H2" s="34">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="34">
+        <v>2</v>
+      </c>
+      <c r="K2" s="72">
+        <v>98</v>
+      </c>
+      <c r="L2" s="72">
+        <v>2</v>
+      </c>
+      <c r="M2" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="34">
+        <v>1</v>
+      </c>
+      <c r="O2" s="34">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="34">
+        <v>727</v>
+      </c>
+      <c r="E3" s="34">
+        <v>369</v>
+      </c>
+      <c r="F3" s="34">
+        <v>320</v>
+      </c>
+      <c r="G3" s="34">
+        <v>2</v>
+      </c>
+      <c r="H3" s="34">
+        <v>15000</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="34">
+        <v>1</v>
+      </c>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="34">
+        <v>1</v>
+      </c>
+      <c r="O3" s="34">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38">
+        <v>5086</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11133,7 +11506,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
@@ -11171,7 +11544,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="12">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="353">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -942,9 +942,6 @@
     <t>Comment Code</t>
   </si>
   <si>
-    <t>Done(doubt)</t>
-  </si>
-  <si>
     <t>AT_FAID_001</t>
   </si>
   <si>
@@ -1093,6 +1090,12 @@
   </si>
   <si>
     <t>Rejected by Client</t>
+  </si>
+  <si>
+    <t>05/06/2021</t>
+  </si>
+  <si>
+    <t>1147</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1988,22 +1991,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="99" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="99" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2035,7 +2038,7 @@
         <v>257</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2662,7 +2665,7 @@
         <v>247</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="J26" s="56"/>
     </row>
@@ -2789,7 +2792,7 @@
         <v>258</v>
       </c>
       <c r="J31" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3541,13 +3544,13 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B65" s="105">
         <v>976171</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D65" s="55" t="s">
         <v>95</v>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="G65" s="56"/>
       <c r="H65" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I65" s="61" t="s">
         <v>258</v>
@@ -3567,13 +3570,13 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B66" s="105">
         <v>959740</v>
       </c>
       <c r="C66" s="106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D66" s="55" t="s">
         <v>95</v>
@@ -3584,7 +3587,7 @@
       </c>
       <c r="G66" s="56"/>
       <c r="H66" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I66" s="61" t="s">
         <v>258</v>
@@ -3593,13 +3596,13 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B67" s="105">
         <v>1106992</v>
       </c>
       <c r="C67" s="106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>95</v>
@@ -3610,7 +3613,7 @@
       </c>
       <c r="G67" s="56"/>
       <c r="H67" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I67" s="61" t="s">
         <v>258</v>
@@ -3619,19 +3622,19 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B68" s="105">
         <v>260800</v>
       </c>
       <c r="C68" s="106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="58" t="s">
@@ -3643,13 +3646,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B69" s="105">
         <v>273538</v>
       </c>
       <c r="C69" s="106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>95</v>
@@ -3660,7 +3663,7 @@
       </c>
       <c r="G69" s="56"/>
       <c r="H69" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I69" s="61" t="s">
         <v>258</v>
@@ -3669,13 +3672,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B70" s="105">
         <v>276979</v>
       </c>
       <c r="C70" s="106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>95</v>
@@ -3686,7 +3689,7 @@
       </c>
       <c r="G70" s="56"/>
       <c r="H70" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I70" s="61" t="s">
         <v>258</v>
@@ -3707,13 +3710,13 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B72" s="105">
         <v>834959</v>
       </c>
       <c r="C72" s="106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D72" s="55" t="s">
         <v>95</v>
@@ -3724,20 +3727,20 @@
       </c>
       <c r="G72" s="56"/>
       <c r="H72" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I72" s="61"/>
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" s="105">
         <v>834962</v>
       </c>
       <c r="C73" s="106" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>95</v>
@@ -3748,20 +3751,20 @@
       </c>
       <c r="G73" s="56"/>
       <c r="H73" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I73" s="61"/>
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="105">
         <v>834969</v>
       </c>
       <c r="C74" s="106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>95</v>
@@ -3772,40 +3775,40 @@
       </c>
       <c r="G74" s="56"/>
       <c r="H74" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I74" s="61"/>
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B75" s="105">
         <v>834970</v>
       </c>
       <c r="C75" s="106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="56"/>
       <c r="G75" s="56"/>
       <c r="H75" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I75" s="61"/>
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="105">
         <v>834971</v>
       </c>
       <c r="C76" s="106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D76" s="62" t="s">
         <v>165</v>
@@ -3821,13 +3824,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="105">
         <v>834973</v>
       </c>
       <c r="C77" s="106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D77" s="62" t="s">
         <v>165</v>
@@ -3843,13 +3846,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B78" s="105">
         <v>127913</v>
       </c>
       <c r="C78" s="106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
@@ -3861,13 +3864,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B79" s="105">
         <v>135015</v>
       </c>
       <c r="C79" s="106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
@@ -4553,17 +4556,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4662,54 +4665,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="20.88671875" customWidth="1"/>
-    <col min="26" max="26" width="12.21875" customWidth="1"/>
-    <col min="27" max="27" width="10.44140625" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="16.5546875" customWidth="1"/>
-    <col min="32" max="32" width="37.5546875" customWidth="1"/>
-    <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="17.109375" customWidth="1"/>
-    <col min="35" max="35" width="15.21875" customWidth="1"/>
-    <col min="36" max="36" width="10" customWidth="1"/>
-    <col min="37" max="37" width="17.33203125" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" customWidth="1"/>
-    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.21875" customWidth="1"/>
-    <col min="41" max="41" width="17.109375" customWidth="1"/>
-    <col min="42" max="42" width="14.44140625" customWidth="1"/>
-    <col min="43" max="43" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="12.21875" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="37.5546875" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="40" max="40" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="42" max="42" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="43" max="43" customWidth="true" width="17.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="14.4">
@@ -4732,7 +4735,7 @@
         <v>59</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>84</v>
@@ -4753,7 +4756,7 @@
         <v>64</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O1" s="47" t="s">
         <v>65</v>
@@ -5363,7 +5366,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33">
-        <v>1471</v>
+        <v>1675</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -5382,7 +5385,7 @@
         <v>125</v>
       </c>
       <c r="W9" s="45" t="s">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="X9" s="38">
         <v>500</v>
@@ -5872,23 +5875,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="50" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="50" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="15.68359375" collapsed="false" bestFit="true"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="50" width="16.77734375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="50" width="20.77734375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -5968,7 +5971,9 @@
       <c r="I2" s="38">
         <v>1000</v>
       </c>
-      <c r="J2" s="38"/>
+      <c r="J2" s="38" t="s">
+        <v>352</v>
+      </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="49"/>
@@ -7075,39 +7080,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="15" customWidth="1"/>
-    <col min="23" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="10.44140625" customWidth="1"/>
-    <col min="27" max="27" width="19.77734375" customWidth="1"/>
-    <col min="28" max="28" width="22.77734375" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.77734375" customWidth="1"/>
-    <col min="31" max="31" width="19.77734375" customWidth="1"/>
-    <col min="32" max="32" width="17.88671875" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" customWidth="1"/>
-    <col min="34" max="34" width="18.5546875" customWidth="1"/>
-    <col min="35" max="35" width="17.88671875" customWidth="1"/>
-    <col min="36" max="36" width="16.6640625" customWidth="1"/>
-    <col min="37" max="37" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="20" max="22" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="81" width="17.88671875" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1">
@@ -7978,31 +7983,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="81" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="81" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" style="81" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="81" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="81" width="11.44140625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="81" width="15.44140625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -8987,23 +8992,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -9137,40 +9142,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" customWidth="1"/>
-    <col min="27" max="27" width="13.21875" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.88671875" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
-    <col min="31" max="33" width="10.77734375" customWidth="1"/>
-    <col min="34" max="34" width="15.21875" customWidth="1"/>
-    <col min="35" max="35" width="15.109375" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" customWidth="1"/>
-    <col min="37" max="37" width="15.109375" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" customWidth="1"/>
-    <col min="39" max="39" width="18.33203125" customWidth="1"/>
-    <col min="40" max="40" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="50" width="22.6640625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -9939,21 +9944,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="25.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10210,36 +10215,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" customWidth="1"/>
-    <col min="23" max="23" width="13.5546875" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" customWidth="1"/>
-    <col min="25" max="25" width="13.77734375" customWidth="1"/>
-    <col min="26" max="27" width="14.5546875" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="14.109375" customWidth="1"/>
-    <col min="30" max="30" width="13.21875" customWidth="1"/>
-    <col min="31" max="31" width="11.88671875" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="8.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="15" max="16" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="26" max="27" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="19.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.4">
@@ -10253,25 +10258,25 @@
         <v>55</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>305</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>306</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I1" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>325</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>326</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>84</v>
@@ -10295,16 +10300,16 @@
         <v>64</v>
       </c>
       <c r="R1" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>329</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>86</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V1" s="47" t="s">
         <v>65</v>
@@ -10313,7 +10318,7 @@
         <v>66</v>
       </c>
       <c r="X1" s="80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y1" s="37" t="s">
         <v>74</v>
@@ -10337,15 +10342,15 @@
         <v>131</v>
       </c>
       <c r="AF1" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="C2" s="35">
         <v>380</v>
@@ -10390,10 +10395,10 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -10450,10 +10455,10 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -10463,7 +10468,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K4" s="38">
         <v>1627</v>
@@ -10498,10 +10503,10 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -10515,7 +10520,7 @@
         <v>83</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K5" s="38">
         <v>1626</v>
@@ -10572,10 +10577,10 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -10790,23 +10795,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="9.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10817,10 +10822,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" s="80" t="s">
         <v>59</v>
@@ -10838,7 +10843,7 @@
         <v>63</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>64</v>
@@ -10864,10 +10869,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>331</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>332</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -10899,16 +10904,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>334</v>
-      </c>
       <c r="C3" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>336</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>337</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>68</v>
@@ -10950,10 +10955,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>340</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -10997,10 +11002,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -11055,10 +11060,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11118,30 +11123,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
-    <col min="18" max="18" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="20.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4">
@@ -11202,10 +11207,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>68</v>
@@ -11254,10 +11259,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>68</v>
@@ -11299,7 +11304,7 @@
         <v>76</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -11357,11 +11362,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11435,9 +11440,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11511,12 +11516,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11586,12 +11591,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11661,8 +11666,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11736,9 +11741,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11790,15 +11795,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="20" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="20"/>
+    <col min="1" max="1" customWidth="true" style="20" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="20" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="20" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="20" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="20" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="20" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="20" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="20" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="20" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId18"/>
     <sheet name="AccountingEntriesTestData" sheetId="22" r:id="rId19"/>
     <sheet name="ClientResponseTestData" sheetId="23" r:id="rId20"/>
+    <sheet name="AuthorizeRejectTestData" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="362">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1095,7 +1096,34 @@
     <t>05/06/2021</t>
   </si>
   <si>
-    <t>1147</t>
+    <t>AT_AR_001</t>
+  </si>
+  <si>
+    <t>DS_AT_AR_001</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>5191</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>5211</t>
+  </si>
+  <si>
+    <t>5213</t>
+  </si>
+  <si>
+    <t>5214</t>
+  </si>
+  <si>
+    <t>1708</t>
   </si>
 </sst>
 </file>
@@ -1991,22 +2019,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="99" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="99" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4551,22 +4579,22 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4665,54 +4693,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="20.109375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="10.5546875" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="12.21875" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="37.5546875" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="40" max="40" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="41" max="41" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="42" max="42" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="43" max="43" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.68359375" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="17.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="14.4">
@@ -4911,7 +4939,9 @@
       <c r="AL2" s="35">
         <v>1</v>
       </c>
-      <c r="AM2" s="35"/>
+      <c r="AM2" s="35" t="s">
+        <v>357</v>
+      </c>
       <c r="AN2" s="33" t="s">
         <v>76</v>
       </c>
@@ -5114,7 +5144,9 @@
       <c r="AL5" s="38">
         <v>1</v>
       </c>
-      <c r="AM5" s="65"/>
+      <c r="AM5" s="65" t="s">
+        <v>358</v>
+      </c>
       <c r="AN5" s="33" t="s">
         <v>76</v>
       </c>
@@ -5272,7 +5304,9 @@
       <c r="AL7" s="38">
         <v>1</v>
       </c>
-      <c r="AM7" s="65"/>
+      <c r="AM7" s="65" t="s">
+        <v>359</v>
+      </c>
       <c r="AN7" s="33" t="s">
         <v>76</v>
       </c>
@@ -5345,7 +5379,9 @@
       <c r="AL8" s="38">
         <v>1</v>
       </c>
-      <c r="AM8" s="65"/>
+      <c r="AM8" s="65" t="s">
+        <v>360</v>
+      </c>
       <c r="AN8" s="33" t="s">
         <v>76</v>
       </c>
@@ -5365,8 +5401,8 @@
       <c r="E9" s="38"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="33">
-        <v>1675</v>
+      <c r="H9" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -5875,23 +5911,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="15.68359375" collapsed="false" bestFit="true"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="50" width="16.77734375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="50" width="20.77734375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="50" width="16.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="50" width="20.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -5971,9 +6007,7 @@
       <c r="I2" s="38">
         <v>1000</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>352</v>
-      </c>
+      <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="49"/>
@@ -7080,39 +7114,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="20" max="22" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="81" width="17.88671875" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="81" width="17.88671875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1">
@@ -7983,31 +8017,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="81" width="11.44140625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="81" width="15.44140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="81" width="13.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="81" width="13.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="81" width="11.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="81" width="15.44140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="81" width="13.44140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -8992,23 +9026,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -9142,40 +9176,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="50" width="22.6640625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="50" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -9944,21 +9978,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10215,36 +10249,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="8.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="15" max="16" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="9.6640625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="26" max="27" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="19.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="26" max="27" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.4">
@@ -10795,23 +10829,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="9.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -11060,10 +11094,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11123,30 +11157,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="20.21875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4">
@@ -11352,6 +11386,221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.4">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="34">
+        <v>727</v>
+      </c>
+      <c r="E2" s="34">
+        <v>369</v>
+      </c>
+      <c r="F2" s="34">
+        <v>320</v>
+      </c>
+      <c r="G2" s="34">
+        <v>2</v>
+      </c>
+      <c r="H2" s="34">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="34">
+        <v>2</v>
+      </c>
+      <c r="K2" s="34">
+        <v>98</v>
+      </c>
+      <c r="L2" s="34">
+        <v>2</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="34">
+        <v>1</v>
+      </c>
+      <c r="O2" s="34">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
@@ -11362,11 +11611,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11440,9 +11689,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11516,12 +11765,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11591,12 +11840,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11666,8 +11915,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11741,9 +11990,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11795,15 +12044,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="10.6640625" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="20" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="20" width="16.109375" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" style="20" width="29.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="20" width="31.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="20" width="30.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="20" width="29.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="20" width="28.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="20" width="44.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="20" width="10.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="20" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="20" width="16.109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="20" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="20" width="31.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="20" width="30.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="20" width="29.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="20" width="28.88671875" collapsed="true"/>
+    <col min="11" max="16384" style="20" width="44.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="367">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -358,9 +358,6 @@
     <t>IMAL-6458</t>
   </si>
   <si>
-    <t>IMAL-6414</t>
-  </si>
-  <si>
     <t>IIS KT Need</t>
   </si>
   <si>
@@ -811,9 +808,6 @@
     <t>DS_AT_DDR_022</t>
   </si>
   <si>
-    <t>New Execution</t>
-  </si>
-  <si>
     <t>Need to Execute</t>
   </si>
   <si>
@@ -1105,25 +1099,46 @@
     <t>14/08/2024</t>
   </si>
   <si>
-    <t>5191</t>
-  </si>
-  <si>
-    <t>5202</t>
-  </si>
-  <si>
-    <t>5209</t>
-  </si>
-  <si>
-    <t>5211</t>
-  </si>
-  <si>
-    <t>5213</t>
-  </si>
-  <si>
-    <t>5214</t>
-  </si>
-  <si>
-    <t>1708</t>
+    <t>AT_CR_007</t>
+  </si>
+  <si>
+    <t>ClientResponse_608</t>
+  </si>
+  <si>
+    <t>Authorize_Reject_608</t>
+  </si>
+  <si>
+    <t>AT_AR_003</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>IMAL-8466</t>
+  </si>
+  <si>
+    <t>Batch Execution</t>
+  </si>
+  <si>
+    <t>DS_AT_AR_003</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Final Approval</t>
+  </si>
+  <si>
+    <t>Authorize Status</t>
+  </si>
+  <si>
+    <t>Reject Status</t>
+  </si>
+  <si>
+    <t>5238</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1430,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1669,6 +1684,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -2019,22 +2038,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="99" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="99" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2045,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>94</v>
@@ -2063,10 +2082,10 @@
         <v>97</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2077,7 +2096,7 @@
         <v>843959</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>95</v>
@@ -2090,7 +2109,7 @@
         <v>96</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I2" s="57"/>
       <c r="J2" s="56"/>
@@ -2103,7 +2122,7 @@
         <v>862019</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>95</v>
@@ -2116,7 +2135,7 @@
         <v>98</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="57"/>
       <c r="J3" s="56"/>
@@ -2130,10 +2149,10 @@
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="58" t="s">
@@ -2151,7 +2170,7 @@
         <v>296063</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>95</v>
@@ -2164,7 +2183,7 @@
         <v>96</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" s="57"/>
       <c r="J5" s="56"/>
@@ -2189,7 +2208,7 @@
         <v>294466</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>95</v>
@@ -2202,7 +2221,7 @@
         <v>96</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="56"/>
@@ -2215,20 +2234,20 @@
         <v>299883</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="56" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I8" s="56" t="s">
         <v>96</v>
@@ -2243,7 +2262,7 @@
         <v>305703</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>95</v>
@@ -2256,13 +2275,13 @@
         <v>96</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>96</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2273,20 +2292,20 @@
         <v>305607</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>96</v>
@@ -2301,10 +2320,10 @@
         <v>534131</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>103</v>
@@ -2316,7 +2335,7 @@
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2327,10 +2346,10 @@
         <v>534148</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>104</v>
@@ -2342,7 +2361,7 @@
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2353,22 +2372,22 @@
         <v>834966</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I13" s="57"/>
       <c r="J13" s="56"/>
@@ -2381,22 +2400,22 @@
         <v>834967</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I14" s="57"/>
       <c r="J14" s="56"/>
@@ -2421,7 +2440,7 @@
         <v>665923</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>95</v>
@@ -2434,7 +2453,7 @@
         <v>96</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>96</v>
@@ -2449,20 +2468,20 @@
         <v>666161</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="56" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I17" s="56" t="s">
         <v>96</v>
@@ -2477,13 +2496,13 @@
         <v>678866</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="58" t="s">
@@ -2501,10 +2520,10 @@
         <v>679200</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="56" t="s">
         <v>105</v>
@@ -2525,7 +2544,7 @@
         <v>681303</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>95</v>
@@ -2538,7 +2557,7 @@
         <v>96</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="56" t="s">
         <v>96</v>
@@ -2553,20 +2572,20 @@
         <v>680390</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="56" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>96</v>
@@ -2593,7 +2612,7 @@
         <v>640861</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>95</v>
@@ -2606,7 +2625,7 @@
         <v>96</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I23" s="56" t="s">
         <v>96</v>
@@ -2621,7 +2640,7 @@
         <v>583893</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>95</v>
@@ -2634,7 +2653,7 @@
         <v>96</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" s="56" t="s">
         <v>96</v>
@@ -2649,7 +2668,7 @@
         <v>583895</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>95</v>
@@ -2662,7 +2681,7 @@
         <v>96</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I25" s="56" t="s">
         <v>96</v>
@@ -2677,7 +2696,7 @@
         <v>582426</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>95</v>
@@ -2690,7 +2709,7 @@
         <v>96</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" s="56" t="s">
         <v>96</v>
@@ -2705,7 +2724,7 @@
         <v>582480</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>95</v>
@@ -2718,7 +2737,7 @@
         <v>96</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="61" t="s">
         <v>96</v>
@@ -2733,7 +2752,7 @@
         <v>582565</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>95</v>
@@ -2746,7 +2765,7 @@
         <v>96</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I28" s="61" t="s">
         <v>96</v>
@@ -2767,13 +2786,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="92">
         <v>739481</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>95</v>
@@ -2786,22 +2805,22 @@
         <v>96</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="92">
         <v>739576</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>95</v>
@@ -2814,24 +2833,24 @@
         <v>96</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J31" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="92">
         <v>844419</v>
       </c>
       <c r="C32" s="93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>95</v>
@@ -2844,22 +2863,22 @@
         <v>96</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="92">
         <v>844428</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>95</v>
@@ -2872,38 +2891,38 @@
         <v>96</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="92">
         <v>844429</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I34" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J34" s="56"/>
     </row>
@@ -2921,13 +2940,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="93">
         <v>293979</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>95</v>
@@ -2938,22 +2957,22 @@
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J36" s="56"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="95">
         <v>741265</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>95</v>
@@ -2966,23 +2985,23 @@
         <v>96</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I37" s="61"/>
       <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="95">
         <v>289236</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
@@ -2995,16 +3014,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="95">
         <v>288521</v>
       </c>
       <c r="C39" s="96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
@@ -3017,13 +3036,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="95">
         <v>282194</v>
       </c>
       <c r="C40" s="96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="55" t="s">
         <v>95</v>
@@ -3036,25 +3055,25 @@
         <v>96</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I40" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J40" s="56"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" s="93">
         <v>127881</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
@@ -3067,13 +3086,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="93">
         <v>127883</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="55" t="s">
         <v>95</v>
@@ -3084,26 +3103,26 @@
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I42" s="57"/>
       <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="93">
         <v>140587</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>96</v>
@@ -3112,7 +3131,7 @@
         <v>87</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="56"/>
@@ -3131,19 +3150,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="95">
         <v>402760</v>
       </c>
       <c r="C45" s="96" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F45" s="55"/>
       <c r="G45" s="58" t="s">
@@ -3154,13 +3173,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="95">
         <v>1102235</v>
       </c>
       <c r="C46" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>95</v>
@@ -3171,20 +3190,20 @@
       </c>
       <c r="G46" s="56"/>
       <c r="H46" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I46" s="61"/>
       <c r="J46" s="56"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" s="95">
         <v>1102236</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>95</v>
@@ -3195,20 +3214,20 @@
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I47" s="61"/>
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="95">
         <v>1105452</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>95</v>
@@ -3219,20 +3238,20 @@
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I48" s="61"/>
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B49" s="97">
         <v>1105461</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>95</v>
@@ -3243,26 +3262,26 @@
       </c>
       <c r="G49" s="56"/>
       <c r="H49" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I49" s="61"/>
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="95">
         <v>1105462</v>
       </c>
       <c r="C50" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="58" t="s">
@@ -3274,13 +3293,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B51" s="92">
         <v>949791</v>
       </c>
       <c r="C51" s="86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>95</v>
@@ -3291,7 +3310,7 @@
       </c>
       <c r="G51" s="56"/>
       <c r="H51" s="61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I51" s="61"/>
       <c r="J51" s="56"/>
@@ -3310,13 +3329,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B53" s="93">
         <v>127834</v>
       </c>
       <c r="C53" s="88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D53" s="55" t="s">
         <v>95</v>
@@ -3327,20 +3346,20 @@
       </c>
       <c r="G53" s="56"/>
       <c r="H53" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I53" s="61"/>
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B54" s="93">
         <v>127836</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D54" s="55" t="s">
         <v>95</v>
@@ -3351,20 +3370,20 @@
       </c>
       <c r="G54" s="56"/>
       <c r="H54" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I54" s="61"/>
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B55" s="93">
         <v>127921</v>
       </c>
       <c r="C55" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>95</v>
@@ -3375,20 +3394,20 @@
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I55" s="61"/>
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B56" s="93">
         <v>127922</v>
       </c>
       <c r="C56" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D56" s="55" t="s">
         <v>95</v>
@@ -3399,20 +3418,20 @@
       </c>
       <c r="G56" s="56"/>
       <c r="H56" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I56" s="61"/>
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B57" s="93">
         <v>135019</v>
       </c>
       <c r="C57" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D57" s="55" t="s">
         <v>95</v>
@@ -3423,20 +3442,20 @@
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I57" s="61"/>
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B58" s="93">
         <v>135022</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>95</v>
@@ -3447,7 +3466,7 @@
       </c>
       <c r="G58" s="56"/>
       <c r="H58" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I58" s="61"/>
       <c r="J58" s="56"/>
@@ -3466,13 +3485,13 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B60" s="105">
         <v>127831</v>
       </c>
       <c r="C60" s="106" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D60" s="55" t="s">
         <v>95</v>
@@ -3483,20 +3502,20 @@
       </c>
       <c r="G60" s="56"/>
       <c r="H60" s="61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I60" s="61"/>
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B61" s="105">
         <v>127843</v>
       </c>
       <c r="C61" s="106" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D61" s="55" t="s">
         <v>95</v>
@@ -3507,20 +3526,20 @@
       </c>
       <c r="G61" s="56"/>
       <c r="H61" s="61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I61" s="61"/>
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B62" s="105">
         <v>127850</v>
       </c>
       <c r="C62" s="106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D62" s="55" t="s">
         <v>95</v>
@@ -3531,20 +3550,20 @@
       </c>
       <c r="G62" s="56"/>
       <c r="H62" s="61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I62" s="61"/>
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B63" s="105">
         <v>729500</v>
       </c>
       <c r="C63" s="106" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D63" s="55" t="s">
         <v>95</v>
@@ -3555,7 +3574,7 @@
       </c>
       <c r="G63" s="56"/>
       <c r="H63" s="61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I63" s="61"/>
       <c r="J63" s="56"/>
@@ -3572,13 +3591,13 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B65" s="105">
         <v>976171</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D65" s="55" t="s">
         <v>95</v>
@@ -3589,22 +3608,22 @@
       </c>
       <c r="G65" s="56"/>
       <c r="H65" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>258</v>
+        <v>311</v>
+      </c>
+      <c r="I65" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B66" s="105">
         <v>959740</v>
       </c>
       <c r="C66" s="106" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D66" s="55" t="s">
         <v>95</v>
@@ -3615,22 +3634,22 @@
       </c>
       <c r="G66" s="56"/>
       <c r="H66" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="I66" s="61" t="s">
-        <v>258</v>
+        <v>311</v>
+      </c>
+      <c r="I66" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B67" s="105">
         <v>1106992</v>
       </c>
       <c r="C67" s="106" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>95</v>
@@ -3641,28 +3660,28 @@
       </c>
       <c r="G67" s="56"/>
       <c r="H67" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="I67" s="61" t="s">
-        <v>258</v>
+        <v>311</v>
+      </c>
+      <c r="I67" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B68" s="105">
         <v>260800</v>
       </c>
       <c r="C68" s="106" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D68" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68" s="56" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="58" t="s">
@@ -3674,13 +3693,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B69" s="105">
         <v>273538</v>
       </c>
       <c r="C69" s="106" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>95</v>
@@ -3691,22 +3710,22 @@
       </c>
       <c r="G69" s="56"/>
       <c r="H69" s="61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B70" s="105">
         <v>276979</v>
       </c>
       <c r="C70" s="106" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>95</v>
@@ -3717,10 +3736,10 @@
       </c>
       <c r="G70" s="56"/>
       <c r="H70" s="61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J70" s="56"/>
     </row>
@@ -3738,13 +3757,13 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B72" s="105">
         <v>834959</v>
       </c>
       <c r="C72" s="106" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D72" s="55" t="s">
         <v>95</v>
@@ -3755,20 +3774,22 @@
       </c>
       <c r="G72" s="56"/>
       <c r="H72" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="I72" s="61"/>
+        <v>344</v>
+      </c>
+      <c r="I72" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B73" s="105">
         <v>834962</v>
       </c>
       <c r="C73" s="106" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>95</v>
@@ -3779,20 +3800,22 @@
       </c>
       <c r="G73" s="56"/>
       <c r="H73" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="I73" s="61"/>
+        <v>344</v>
+      </c>
+      <c r="I73" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B74" s="105">
         <v>834969</v>
       </c>
       <c r="C74" s="106" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>95</v>
@@ -3803,45 +3826,55 @@
       </c>
       <c r="G74" s="56"/>
       <c r="H74" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="I74" s="61"/>
+        <v>344</v>
+      </c>
+      <c r="I74" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B75" s="105">
         <v>834970</v>
       </c>
       <c r="C75" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="D75" s="56"/>
+        <v>338</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
+      <c r="F75" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G75" s="56"/>
       <c r="H75" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="I75" s="61"/>
+        <v>344</v>
+      </c>
+      <c r="I75" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B76" s="105">
         <v>834971</v>
       </c>
       <c r="C76" s="106" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="56"/>
+        <v>164</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>358</v>
+      </c>
       <c r="F76" s="56"/>
       <c r="G76" s="58" t="s">
         <v>87</v>
@@ -3852,18 +3885,20 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B77" s="105">
         <v>834973</v>
       </c>
       <c r="C77" s="106" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" s="56"/>
+        <v>164</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>358</v>
+      </c>
       <c r="F77" s="56"/>
       <c r="G77" s="58" t="s">
         <v>87</v>
@@ -3874,62 +3909,104 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B78" s="105">
         <v>127913</v>
       </c>
       <c r="C78" s="106" t="s">
-        <v>343</v>
-      </c>
-      <c r="D78" s="56"/>
+        <v>341</v>
+      </c>
+      <c r="D78" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
+      <c r="F78" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G78" s="56"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
+      <c r="H78" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="I78" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B79" s="105">
         <v>135015</v>
       </c>
       <c r="C79" s="106" t="s">
-        <v>344</v>
-      </c>
-      <c r="D79" s="56"/>
+        <v>342</v>
+      </c>
+      <c r="D79" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="F79" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G79" s="56"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
+      <c r="H79" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="I79" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="56"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
+      <c r="A80" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" s="117">
+        <v>140582</v>
+      </c>
+      <c r="C80" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>221</v>
+      </c>
       <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
+      <c r="G80" s="58" t="s">
+        <v>87</v>
+      </c>
       <c r="H80" s="61"/>
       <c r="I80" s="61"/>
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="56"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="56"/>
+      <c r="A81" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="117">
+        <v>127910</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>350</v>
+      </c>
+      <c r="D81" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
+      <c r="F81" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G81" s="56"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
+      <c r="H81" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="1:10">
@@ -3945,9 +4022,15 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="56"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
+      <c r="A83" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" s="117">
+        <v>135013</v>
+      </c>
+      <c r="C83" s="118" t="s">
+        <v>356</v>
+      </c>
       <c r="D83" s="56"/>
       <c r="E83" s="56"/>
       <c r="F83" s="56"/>
@@ -3957,9 +4040,11 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="56"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
+      <c r="A84" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84" s="117"/>
+      <c r="C84" s="118"/>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
       <c r="F84" s="56"/>
@@ -3969,9 +4054,11 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="56"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="87"/>
+      <c r="A85" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B85" s="117"/>
+      <c r="C85" s="118"/>
       <c r="D85" s="56"/>
       <c r="E85" s="56"/>
       <c r="F85" s="56"/>
@@ -3981,9 +4068,11 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="56"/>
-      <c r="B86" s="87"/>
-      <c r="C86" s="87"/>
+      <c r="A86" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B86" s="117"/>
+      <c r="C86" s="118"/>
       <c r="D86" s="56"/>
       <c r="E86" s="56"/>
       <c r="F86" s="56"/>
@@ -3993,9 +4082,11 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="56"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
+      <c r="A87" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" s="117"/>
+      <c r="C87" s="118"/>
       <c r="D87" s="56"/>
       <c r="E87" s="56"/>
       <c r="F87" s="56"/>
@@ -4005,9 +4096,11 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="56"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
+      <c r="A88" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" s="117"/>
+      <c r="C88" s="118"/>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
       <c r="F88" s="56"/>
@@ -4584,17 +4677,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4640,10 +4733,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="116">
         <v>1</v>
@@ -4673,7 +4766,7 @@
         <v>10000</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M2" s="115">
         <v>1</v>
@@ -4699,48 +4792,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.68359375" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="12.21875" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="37.5546875" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="40" max="40" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="42" max="42" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="43" max="43" customWidth="true" width="17.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="14.4">
@@ -4763,7 +4856,7 @@
         <v>59</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>84</v>
@@ -4784,7 +4877,7 @@
         <v>64</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O1" s="47" t="s">
         <v>65</v>
@@ -4799,52 +4892,52 @@
         <v>72</v>
       </c>
       <c r="S1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="U1" s="37" t="s">
         <v>73</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W1" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="46" t="s">
-        <v>131</v>
-      </c>
       <c r="Y1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>202</v>
       </c>
       <c r="AB1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="AC1" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD1" s="36" t="s">
         <v>86</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG1" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH1" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI1" s="37" t="s">
         <v>100</v>
@@ -4859,16 +4952,16 @@
         <v>75</v>
       </c>
       <c r="AM1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO1" s="37" t="s">
         <v>78</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AQ1" s="36" t="s">
         <v>69</v>
@@ -4876,10 +4969,10 @@
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="34">
         <v>369</v>
@@ -4908,7 +5001,7 @@
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
@@ -4939,9 +5032,7 @@
       <c r="AL2" s="35">
         <v>1</v>
       </c>
-      <c r="AM2" s="35" t="s">
-        <v>357</v>
-      </c>
+      <c r="AM2" s="35"/>
       <c r="AN2" s="33" t="s">
         <v>76</v>
       </c>
@@ -4951,10 +5042,10 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -4981,7 +5072,7 @@
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P3" s="48"/>
       <c r="Q3" s="34">
@@ -5020,10 +5111,10 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="38">
         <v>4888</v>
@@ -5077,10 +5168,10 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="34">
         <v>369</v>
@@ -5113,7 +5204,7 @@
       </c>
       <c r="N5" s="34"/>
       <c r="O5" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="34"/>
@@ -5144,9 +5235,7 @@
       <c r="AL5" s="38">
         <v>1</v>
       </c>
-      <c r="AM5" s="65" t="s">
-        <v>358</v>
-      </c>
+      <c r="AM5" s="65"/>
       <c r="AN5" s="33" t="s">
         <v>76</v>
       </c>
@@ -5156,10 +5245,10 @@
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -5192,7 +5281,7 @@
         <v>3500</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P6" s="34">
         <v>0</v>
@@ -5237,10 +5326,10 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="34">
         <v>369</v>
@@ -5269,7 +5358,7 @@
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
@@ -5304,9 +5393,7 @@
       <c r="AL7" s="38">
         <v>1</v>
       </c>
-      <c r="AM7" s="65" t="s">
-        <v>359</v>
-      </c>
+      <c r="AM7" s="65"/>
       <c r="AN7" s="33" t="s">
         <v>76</v>
       </c>
@@ -5316,10 +5403,10 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>151</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -5346,13 +5433,13 @@
       </c>
       <c r="N8" s="34"/>
       <c r="O8" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
       <c r="S8" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T8" s="34">
         <v>2</v>
@@ -5379,9 +5466,7 @@
       <c r="AL8" s="38">
         <v>1</v>
       </c>
-      <c r="AM8" s="65" t="s">
-        <v>360</v>
-      </c>
+      <c r="AM8" s="65"/>
       <c r="AN8" s="33" t="s">
         <v>76</v>
       </c>
@@ -5391,18 +5476,18 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="33" t="s">
-        <v>361</v>
+      <c r="H9" s="33">
+        <v>1675</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -5418,10 +5503,10 @@
       <c r="T9" s="34"/>
       <c r="U9" s="48"/>
       <c r="V9" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W9" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X9" s="38">
         <v>500</v>
@@ -5448,10 +5533,10 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>133</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>134</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -5478,7 +5563,7 @@
       </c>
       <c r="N10" s="34"/>
       <c r="O10" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" s="48"/>
       <c r="Q10" s="34"/>
@@ -5519,10 +5604,10 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -5549,7 +5634,7 @@
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P11" s="48"/>
       <c r="Q11" s="34"/>
@@ -5570,7 +5655,7 @@
       <c r="AD11" s="65"/>
       <c r="AE11" s="65"/>
       <c r="AF11" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG11" s="65"/>
       <c r="AH11" s="65"/>
@@ -5911,23 +5996,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="50" width="16.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="50" width="20.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="50" width="16.77734375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="50" width="20.77734375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -5938,68 +6023,68 @@
         <v>54</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>123</v>
-      </c>
       <c r="J1" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P1" s="37"/>
       <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>115</v>
       </c>
       <c r="C2" s="38">
         <v>564</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>125</v>
-      </c>
       <c r="G2" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="38">
         <v>840</v>
@@ -6018,10 +6103,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="38">
         <v>1270</v>
@@ -6029,10 +6114,10 @@
       <c r="D3" s="45"/>
       <c r="E3" s="38"/>
       <c r="F3" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
@@ -6042,32 +6127,32 @@
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
       <c r="O3" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="38">
         <v>564</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H4" s="38">
         <v>840</v>
@@ -6077,7 +6162,7 @@
       </c>
       <c r="J4" s="38"/>
       <c r="K4" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="45"/>
@@ -6088,25 +6173,25 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="38">
         <v>564</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H5" s="38">
         <v>840</v>
@@ -6116,7 +6201,7 @@
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="49"/>
@@ -6127,25 +6212,25 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="38">
         <v>564</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H6" s="38">
         <v>840</v>
@@ -6155,14 +6240,14 @@
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -7114,39 +7199,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="81" width="17.88671875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="20" max="22" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="81" width="17.88671875" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1">
@@ -7181,25 +7266,25 @@
         <v>65</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>202</v>
       </c>
       <c r="O1" s="37" t="s">
         <v>66</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R1" s="37" t="s">
         <v>74</v>
@@ -7208,54 +7293,54 @@
         <v>75</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V1" s="37" t="s">
         <v>102</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y1" s="36" t="s">
         <v>78</v>
       </c>
       <c r="Z1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA1" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE1" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD1" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AF1" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="80" t="s">
+      <c r="AG1" s="80" t="s">
         <v>239</v>
-      </c>
-      <c r="AG1" s="80" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="A2" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="107"/>
@@ -7268,10 +7353,10 @@
       <c r="I2" s="107"/>
       <c r="J2" s="108"/>
       <c r="K2" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M2" s="35">
         <v>727</v>
@@ -7291,16 +7376,16 @@
       <c r="T2" s="107"/>
       <c r="U2" s="107"/>
       <c r="V2" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X2" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y2" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="Y2" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
@@ -7313,10 +7398,10 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="65"/>
@@ -7354,10 +7439,10 @@
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="35">
         <v>369</v>
@@ -7381,7 +7466,7 @@
         <v>10000</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" s="65"/>
       <c r="L4" s="65"/>
@@ -7401,10 +7486,10 @@
       <c r="T4" s="65"/>
       <c r="U4" s="65"/>
       <c r="V4" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X4" s="65"/>
       <c r="Y4" s="65"/>
@@ -7421,10 +7506,10 @@
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="33" t="s">
@@ -7446,7 +7531,7 @@
         <v>10000</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -7468,10 +7553,10 @@
       <c r="T5" s="34"/>
       <c r="U5" s="38"/>
       <c r="V5" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
@@ -7498,10 +7583,10 @@
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="33" t="s">
@@ -7523,7 +7608,7 @@
         <v>15000</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -7569,10 +7654,10 @@
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="33" t="s">
@@ -7594,7 +7679,7 @@
         <v>10000</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -7630,10 +7715,10 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
@@ -7655,7 +7740,7 @@
         <v>10000</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
@@ -7677,10 +7762,10 @@
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="V8" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W8" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
@@ -7697,10 +7782,10 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="33" t="s">
@@ -7722,7 +7807,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -7744,10 +7829,10 @@
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
@@ -7764,10 +7849,10 @@
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="33" t="s">
@@ -7789,7 +7874,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
@@ -7813,10 +7898,10 @@
         <v>4434</v>
       </c>
       <c r="V10" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
@@ -7824,19 +7909,19 @@
         <v>76</v>
       </c>
       <c r="AA10" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB10" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC10" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD10" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AE10" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF10" s="38">
         <v>3</v>
@@ -8017,31 +8102,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="81" width="13.44140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="81" width="13.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="81" width="11.44140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="81" width="15.44140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="81" width="13.44140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="81" width="11.44140625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="81" width="15.44140625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -8088,13 +8173,13 @@
         <v>65</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="80" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R1" s="37" t="s">
         <v>86</v>
@@ -8112,21 +8197,21 @@
         <v>75</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -8152,7 +8237,7 @@
         <v>1000</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" s="48"/>
       <c r="P2" s="34">
@@ -8187,10 +8272,10 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -8237,10 +8322,10 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>179</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>180</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="65"/>
@@ -8266,7 +8351,7 @@
         <v>10000</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O4" s="48"/>
       <c r="P4" s="38">
@@ -8290,10 +8375,10 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="65"/>
@@ -8317,16 +8402,16 @@
       <c r="V5" s="65"/>
       <c r="W5" s="65"/>
       <c r="X5" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="34">
         <v>320</v>
@@ -8356,10 +8441,10 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="38">
@@ -8387,7 +8472,7 @@
         <v>10000</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O7" s="48"/>
       <c r="P7" s="38">
@@ -8411,10 +8496,10 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="34">
@@ -8446,7 +8531,7 @@
         <v>15000</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O8" s="48"/>
       <c r="P8" s="38">
@@ -8470,10 +8555,10 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="34">
@@ -8497,7 +8582,7 @@
         <v>1500</v>
       </c>
       <c r="N9" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O9" s="48"/>
       <c r="P9" s="38"/>
@@ -8519,10 +8604,10 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -8548,7 +8633,7 @@
         <v>10000</v>
       </c>
       <c r="N10" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="38">
@@ -8576,10 +8661,10 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>151</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -8605,10 +8690,10 @@
         <v>10000</v>
       </c>
       <c r="N11" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="38"/>
       <c r="Q11" s="38">
@@ -9026,23 +9111,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -9077,13 +9162,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>244</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>245</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>74</v>
@@ -9092,24 +9177,24 @@
         <v>75</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="37" t="s">
         <v>102</v>
       </c>
       <c r="R1" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>68</v>
@@ -9130,7 +9215,7 @@
         <v>10000</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="72">
         <v>2</v>
@@ -9142,7 +9227,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N2" s="34">
         <v>1</v>
@@ -9152,10 +9237,10 @@
       </c>
       <c r="P2" s="38"/>
       <c r="Q2" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>76</v>
@@ -9176,40 +9261,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="50" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="50" width="22.6640625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -9226,10 +9311,10 @@
         <v>59</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>201</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>60</v>
@@ -9238,7 +9323,7 @@
         <v>61</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>62</v>
@@ -9253,22 +9338,22 @@
         <v>65</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="R1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>244</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>245</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>74</v>
@@ -9277,69 +9362,69 @@
         <v>75</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X1" s="37" t="s">
         <v>102</v>
       </c>
       <c r="Y1" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>207</v>
       </c>
       <c r="AA1" s="37" t="s">
         <v>84</v>
       </c>
       <c r="AB1" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC1" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" s="46" t="s">
-        <v>131</v>
-      </c>
       <c r="AE1" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF1" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="AF1" s="100" t="s">
-        <v>273</v>
-      </c>
       <c r="AG1" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="103" t="s">
         <v>274</v>
-      </c>
-      <c r="AH1" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK1" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM1" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN1" s="103" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="34">
         <v>369</v>
@@ -9366,10 +9451,10 @@
         <v>10000</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O2" s="48"/>
       <c r="P2" s="34">
@@ -9387,7 +9472,7 @@
       <c r="V2" s="38"/>
       <c r="W2" s="38"/>
       <c r="X2" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y2" s="33"/>
       <c r="Z2" s="33" t="s">
@@ -9410,10 +9495,10 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>253</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>254</v>
       </c>
       <c r="C3" s="34">
         <v>369</v>
@@ -9422,7 +9507,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="35">
         <v>727</v>
@@ -9446,10 +9531,10 @@
         <v>10000</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N3" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O3" s="48"/>
       <c r="P3" s="34">
@@ -9484,10 +9569,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="C4" s="34">
         <v>369</v>
@@ -9514,10 +9599,10 @@
         <v>15000</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O4" s="48"/>
       <c r="P4" s="34">
@@ -9530,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T4" s="34">
         <v>1</v>
@@ -9549,10 +9634,10 @@
         <v>1587</v>
       </c>
       <c r="AB4" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC4" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD4" s="38">
         <v>1000</v>
@@ -9570,10 +9655,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="34">
         <v>369</v>
@@ -9600,7 +9685,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
@@ -9614,7 +9699,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T5" s="34">
         <v>1</v>
@@ -9631,10 +9716,10 @@
       </c>
       <c r="AA5" s="38"/>
       <c r="AB5" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC5" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD5" s="38">
         <v>500</v>
@@ -9652,10 +9737,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" s="34">
         <v>369</v>
@@ -9682,7 +9767,7 @@
         <v>25000</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
@@ -9707,10 +9792,10 @@
       </c>
       <c r="AA6" s="38"/>
       <c r="AB6" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD6" s="38">
         <v>1500</v>
@@ -9732,10 +9817,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="33" t="s">
@@ -9776,22 +9861,22 @@
         <v>564</v>
       </c>
       <c r="AI7" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ7" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK7" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM7" s="38">
         <v>840</v>
       </c>
       <c r="AN7" s="66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -9978,21 +10063,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10036,24 +10121,24 @@
         <v>75</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C2" s="35">
         <v>369</v>
@@ -10077,7 +10162,7 @@
         <v>25000</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="38">
         <v>1</v>
@@ -10095,10 +10180,10 @@
         <v>76</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -10243,42 +10328,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="26" max="27" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="8.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="19.5546875" collapsed="false"/>
+    <col min="15" max="16" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="26" max="27" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="19.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.4">
@@ -10292,25 +10377,25 @@
         <v>55</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>303</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>305</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>84</v>
@@ -10334,16 +10419,16 @@
         <v>64</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>86</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="V1" s="47" t="s">
         <v>65</v>
@@ -10352,7 +10437,7 @@
         <v>66</v>
       </c>
       <c r="X1" s="80" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y1" s="37" t="s">
         <v>74</v>
@@ -10361,33 +10446,33 @@
         <v>75</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD1" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="46" t="s">
-        <v>131</v>
-      </c>
       <c r="AF1" s="46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" s="35">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="D2" s="33">
         <v>840</v>
@@ -10429,10 +10514,10 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -10442,10 +10527,16 @@
       <c r="H3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="J3" s="33"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38">
+        <v>526</v>
+      </c>
       <c r="M3" s="38">
         <v>369</v>
       </c>
@@ -10466,7 +10557,7 @@
         <v>10000</v>
       </c>
       <c r="V3" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W3" s="38">
         <v>1</v>
@@ -10489,10 +10580,10 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -10502,10 +10593,10 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K4" s="38">
-        <v>1627</v>
+        <v>1704</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -10521,7 +10612,9 @@
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
+      <c r="V4" s="48" t="s">
+        <v>134</v>
+      </c>
       <c r="W4" s="38"/>
       <c r="X4" s="38">
         <v>10100</v>
@@ -10537,10 +10630,10 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -10554,10 +10647,10 @@
         <v>83</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K5" s="38">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="L5" s="38">
         <v>727</v>
@@ -10588,7 +10681,7 @@
       </c>
       <c r="U5" s="38"/>
       <c r="V5" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W5" s="38">
         <v>1</v>
@@ -10611,10 +10704,10 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -10648,7 +10741,7 @@
       <c r="T6" s="38"/>
       <c r="U6" s="38"/>
       <c r="V6" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W6" s="38">
         <v>1</v>
@@ -10665,10 +10758,10 @@
         <v>76</v>
       </c>
       <c r="AC6" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AD6" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE6" s="38">
         <v>3000</v>
@@ -10829,23 +10922,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="9.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10856,10 +10949,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E1" s="80" t="s">
         <v>59</v>
@@ -10877,7 +10970,7 @@
         <v>63</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>64</v>
@@ -10895,18 +10988,18 @@
         <v>75</v>
       </c>
       <c r="P1" s="80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -10938,16 +11031,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>335</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>68</v>
@@ -10971,7 +11064,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M3" s="38">
         <v>1</v>
@@ -10989,10 +11082,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -11018,7 +11111,7 @@
         <v>15000</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M4" s="38">
         <v>1</v>
@@ -11036,10 +11129,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -11063,7 +11156,7 @@
         <v>20000</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="38">
         <v>1</v>
@@ -11094,10 +11187,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11157,30 +11250,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="20.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4">
@@ -11215,13 +11308,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>244</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>245</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>74</v>
@@ -11230,21 +11323,21 @@
         <v>75</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>68</v>
@@ -11265,7 +11358,7 @@
         <v>10000</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="34">
         <v>2</v>
@@ -11277,7 +11370,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N2" s="34">
         <v>1</v>
@@ -11293,10 +11386,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>68</v>
@@ -11317,7 +11410,7 @@
         <v>15000</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" s="34">
         <v>1</v>
@@ -11338,7 +11431,7 @@
         <v>76</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -11388,33 +11481,35 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.23828125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="9.21875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.21875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="14" max="15" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="16.23828125" collapsed="false" bestFit="true"/>
+    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="12.88671875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
+    <row r="1" spans="1:19" ht="14.4">
       <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
@@ -11446,13 +11541,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>244</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>245</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>74</v>
@@ -11461,18 +11556,24 @@
         <v>75</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>206</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>68</v>
@@ -11493,7 +11594,7 @@
         <v>25000</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J2" s="34">
         <v>2</v>
@@ -11505,7 +11606,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N2" s="34">
         <v>1</v>
@@ -11513,33 +11614,67 @@
       <c r="O2" s="34">
         <v>1</v>
       </c>
-      <c r="P2" s="38" t="s">
-        <v>356</v>
-      </c>
+      <c r="P2" s="38"/>
       <c r="Q2" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="34">
+        <v>727</v>
+      </c>
+      <c r="E3" s="34">
+        <v>369</v>
+      </c>
+      <c r="F3" s="34">
+        <v>320</v>
+      </c>
+      <c r="G3" s="34">
+        <v>2</v>
+      </c>
+      <c r="H3" s="34">
+        <v>15000</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1</v>
+      </c>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="N3" s="34">
+        <v>1</v>
+      </c>
+      <c r="O3" s="34">
+        <v>1</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="65"/>
@@ -11557,8 +11692,10 @@
       <c r="O4" s="65"/>
       <c r="P4" s="65"/>
       <c r="Q4" s="65"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="C5" s="65"/>
@@ -11576,8 +11713,10 @@
       <c r="O5" s="65"/>
       <c r="P5" s="65"/>
       <c r="Q5" s="65"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="C6" s="65"/>
@@ -11595,6 +11734,8 @@
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11611,11 +11752,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11689,9 +11830,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11765,12 +11906,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11840,12 +11981,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11915,8 +12056,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -11990,9 +12131,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12044,15 +12185,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="10.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="20" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="20" width="16.109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="20" width="29.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="20" width="31.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="20" width="30.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="20" width="29.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="20" width="28.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="20" width="44.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="20" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="20" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="20" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="20" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="20" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="20" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="20" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="20" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="20" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/FMS_SankarS2/TestData/FMSTestData.xlsx
+++ b/FMS_SankarS2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -13,28 +13,29 @@
     <sheet name="CSM_Login" sheetId="4" r:id="rId4"/>
     <sheet name="FMS_Login" sheetId="5" r:id="rId5"/>
     <sheet name="FMSParam_login" sheetId="6" r:id="rId6"/>
-    <sheet name="IISParam_Login" sheetId="7" r:id="rId7"/>
-    <sheet name="SadsLogin" sheetId="8" r:id="rId8"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId9"/>
-    <sheet name="IISParamTestData" sheetId="11" r:id="rId10"/>
-    <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId11"/>
-    <sheet name="CollateralManagementTestData" sheetId="13" r:id="rId12"/>
-    <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId13"/>
-    <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId14"/>
-    <sheet name="FMSParameterTestData" sheetId="18" r:id="rId15"/>
-    <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId16"/>
-    <sheet name="CommitteeApprovalTestData" sheetId="20" r:id="rId17"/>
-    <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId18"/>
-    <sheet name="AccountingEntriesTestData" sheetId="22" r:id="rId19"/>
-    <sheet name="ClientResponseTestData" sheetId="23" r:id="rId20"/>
-    <sheet name="AuthorizeRejectTestData" sheetId="24" r:id="rId21"/>
+    <sheet name="IIS_login" sheetId="25" r:id="rId7"/>
+    <sheet name="IISParam_Login" sheetId="7" r:id="rId8"/>
+    <sheet name="SadsLogin" sheetId="8" r:id="rId9"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId10"/>
+    <sheet name="IISParamTestData" sheetId="11" r:id="rId11"/>
+    <sheet name="RequestForFinancingTestData" sheetId="15" r:id="rId12"/>
+    <sheet name="CollateralManagementTestData" sheetId="13" r:id="rId13"/>
+    <sheet name="FacilitiesManagementTestData" sheetId="16" r:id="rId14"/>
+    <sheet name="ApplicationFinancialFacility" sheetId="17" r:id="rId15"/>
+    <sheet name="FMSParameterTestData" sheetId="18" r:id="rId16"/>
+    <sheet name="DrawDownRequestTestData" sheetId="19" r:id="rId17"/>
+    <sheet name="CommitteeApprovalTestData" sheetId="20" r:id="rId18"/>
+    <sheet name="FacilityApplicationTestData" sheetId="21" r:id="rId19"/>
+    <sheet name="AccountingEntriesTestData" sheetId="22" r:id="rId20"/>
+    <sheet name="ClientResponseTestData" sheetId="23" r:id="rId21"/>
+    <sheet name="AuthorizeRejectTestData" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="373">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1138,7 +1139,25 @@
     <t>Reject Status</t>
   </si>
   <si>
-    <t>5238</t>
+    <t>AT_IC_010</t>
+  </si>
+  <si>
+    <t>AT_IC_022</t>
+  </si>
+  <si>
+    <t>AT_AD_003</t>
+  </si>
+  <si>
+    <t>AT_AD_015</t>
+  </si>
+  <si>
+    <t>AT_AD_018</t>
+  </si>
+  <si>
+    <t>IIS_User1</t>
+  </si>
+  <si>
+    <t>IIS_User2</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1449,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1688,6 +1707,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -2027,7 +2049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2038,22 +2060,22 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="99" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="99" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4025,26 +4047,38 @@
       <c r="A83" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B83" s="117">
+      <c r="B83" s="119">
         <v>135013</v>
       </c>
       <c r="C83" s="118" t="s">
         <v>356</v>
       </c>
-      <c r="D83" s="56"/>
+      <c r="D83" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
+      <c r="F83" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="G83" s="56"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
+      <c r="H83" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="I83" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="118"/>
+      <c r="B84" s="106">
+        <v>130741</v>
+      </c>
+      <c r="C84" s="106" t="s">
+        <v>366</v>
+      </c>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
       <c r="F84" s="56"/>
@@ -4057,8 +4091,12 @@
       <c r="A85" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="118"/>
+      <c r="B85" s="106">
+        <v>1166871</v>
+      </c>
+      <c r="C85" s="106" t="s">
+        <v>367</v>
+      </c>
       <c r="D85" s="56"/>
       <c r="E85" s="56"/>
       <c r="F85" s="56"/>
@@ -4071,8 +4109,12 @@
       <c r="A86" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="118"/>
+      <c r="B86" s="106">
+        <v>128350</v>
+      </c>
+      <c r="C86" s="106" t="s">
+        <v>368</v>
+      </c>
       <c r="D86" s="56"/>
       <c r="E86" s="56"/>
       <c r="F86" s="56"/>
@@ -4085,8 +4127,12 @@
       <c r="A87" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="118"/>
+      <c r="B87" s="106">
+        <v>128362</v>
+      </c>
+      <c r="C87" s="106" t="s">
+        <v>369</v>
+      </c>
       <c r="D87" s="56"/>
       <c r="E87" s="56"/>
       <c r="F87" s="56"/>
@@ -4099,8 +4145,12 @@
       <c r="A88" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="118"/>
+      <c r="B88" s="106">
+        <v>128365</v>
+      </c>
+      <c r="C88" s="106" t="s">
+        <v>370</v>
+      </c>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
       <c r="F88" s="56"/>
@@ -4669,6 +4719,286 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="20" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>862019</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>843959</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>296063</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>305703</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>834966</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>681303</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>NOT(ISERROR(SEARCH("Yes",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>NOT(ISERROR(SEARCH("No",#REF!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="9.309099999999999" bottom="9.309099999999999" header="9.1121999999999996" footer="9.1121999999999996"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4677,17 +5007,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="12" max="13" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -4782,7 +5112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ29"/>
   <sheetViews>
@@ -4792,48 +5122,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="20.109375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="10.5546875" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="12.21875" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="37.5546875" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="40" max="40" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="41" max="41" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="42" max="42" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="43" max="43" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" customWidth="1"/>
+    <col min="32" max="32" width="37.5546875" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="17.109375" customWidth="1"/>
+    <col min="35" max="35" width="15.21875" customWidth="1"/>
+    <col min="36" max="36" width="10" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.21875" customWidth="1"/>
+    <col min="41" max="41" width="17.109375" customWidth="1"/>
+    <col min="42" max="42" width="14.44140625" customWidth="1"/>
+    <col min="43" max="43" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="14.4">
@@ -5986,7 +6316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q300"/>
   <sheetViews>
@@ -5996,23 +6326,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="50" width="16.77734375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="50" width="20.77734375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="50" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="50" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -7189,7 +7519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT30"/>
   <sheetViews>
@@ -7199,39 +7529,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="20" max="22" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="23" max="25" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="22.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="23.77734375" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="81" width="17.88671875" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="17.88671875" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="17.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15" customWidth="1"/>
+    <col min="23" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" customWidth="1"/>
+    <col min="27" max="27" width="19.77734375" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="23.77734375" customWidth="1"/>
+    <col min="31" max="31" width="19.77734375" customWidth="1"/>
+    <col min="32" max="32" width="17.88671875" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="18.5546875" customWidth="1"/>
+    <col min="35" max="35" width="17.88671875" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1">
@@ -8092,7 +8422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP26"/>
   <sheetViews>
@@ -8102,31 +8432,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="81" width="11.44140625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="81" width="15.44140625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="81" width="13.44140625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="81" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="81" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="81" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="81" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="14.4">
@@ -9101,7 +9431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -9111,23 +9441,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="10" max="12" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.33203125" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4">
@@ -9251,7 +9581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN11"/>
   <sheetViews>
@@ -9261,40 +9591,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="50" width="22.6640625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="17" max="18" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="31" max="33" customWidth="true" width="10.77734375" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="16.33203125" collapsed="false"/>
-    <col min="39" max="39" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="40" max="40" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="50" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
+    <col min="27" max="27" width="13.21875" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="31" max="33" width="10.77734375" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" customWidth="1"/>
+    <col min="39" max="39" width="18.33203125" customWidth="1"/>
+    <col min="40" max="40" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.4">
@@ -10053,7 +10383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -10063,21 +10393,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="25.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4">
@@ -10324,7 +10654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF10"/>
   <sheetViews>
@@ -10334,36 +10664,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="8.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="15" max="16" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="9.6640625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="26" max="27" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="19.33203125" collapsed="false"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" customWidth="1"/>
+    <col min="26" max="27" width="14.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" customWidth="1"/>
+    <col min="29" max="29" width="14.109375" customWidth="1"/>
+    <col min="30" max="30" width="13.21875" customWidth="1"/>
+    <col min="31" max="31" width="11.88671875" customWidth="1"/>
+    <col min="32" max="32" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.4">
@@ -10912,271 +11242,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="9.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.109375" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q1" s="80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="38">
-        <v>727</v>
-      </c>
-      <c r="G2" s="38">
-        <v>369</v>
-      </c>
-      <c r="H2" s="38">
-        <v>320</v>
-      </c>
-      <c r="I2" s="38">
-        <v>2</v>
-      </c>
-      <c r="J2" s="38">
-        <v>120524</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="38">
-        <v>727</v>
-      </c>
-      <c r="G3" s="38">
-        <v>369</v>
-      </c>
-      <c r="H3" s="38">
-        <v>320</v>
-      </c>
-      <c r="I3" s="38">
-        <v>2</v>
-      </c>
-      <c r="J3" s="38">
-        <v>120524</v>
-      </c>
-      <c r="K3" s="38">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="38">
-        <v>1</v>
-      </c>
-      <c r="N3" s="38">
-        <v>1</v>
-      </c>
-      <c r="O3" s="38">
-        <v>1</v>
-      </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="38">
-        <v>727</v>
-      </c>
-      <c r="G4" s="38">
-        <v>369</v>
-      </c>
-      <c r="H4" s="38">
-        <v>320</v>
-      </c>
-      <c r="I4" s="38">
-        <v>2</v>
-      </c>
-      <c r="J4" s="38">
-        <v>120524</v>
-      </c>
-      <c r="K4" s="38">
-        <v>15000</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="38">
-        <v>1</v>
-      </c>
-      <c r="N4" s="38">
-        <v>1</v>
-      </c>
-      <c r="O4" s="38">
-        <v>1</v>
-      </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="38">
-        <v>727</v>
-      </c>
-      <c r="G5" s="38">
-        <v>369</v>
-      </c>
-      <c r="H5" s="38">
-        <v>320</v>
-      </c>
-      <c r="I5" s="38">
-        <v>2</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38">
-        <v>20000</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="38">
-        <v>1</v>
-      </c>
-      <c r="N5" s="38">
-        <v>1</v>
-      </c>
-      <c r="O5" s="38">
-        <v>1</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
@@ -11187,10 +11252,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11247,6 +11312,271 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.4">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="38">
+        <v>727</v>
+      </c>
+      <c r="G2" s="38">
+        <v>369</v>
+      </c>
+      <c r="H2" s="38">
+        <v>320</v>
+      </c>
+      <c r="I2" s="38">
+        <v>2</v>
+      </c>
+      <c r="J2" s="38">
+        <v>120524</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="38">
+        <v>727</v>
+      </c>
+      <c r="G3" s="38">
+        <v>369</v>
+      </c>
+      <c r="H3" s="38">
+        <v>320</v>
+      </c>
+      <c r="I3" s="38">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38">
+        <v>120524</v>
+      </c>
+      <c r="K3" s="38">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="38">
+        <v>1</v>
+      </c>
+      <c r="N3" s="38">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="38">
+        <v>727</v>
+      </c>
+      <c r="G4" s="38">
+        <v>369</v>
+      </c>
+      <c r="H4" s="38">
+        <v>320</v>
+      </c>
+      <c r="I4" s="38">
+        <v>2</v>
+      </c>
+      <c r="J4" s="38">
+        <v>120524</v>
+      </c>
+      <c r="K4" s="38">
+        <v>15000</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="38">
+        <v>1</v>
+      </c>
+      <c r="N4" s="38">
+        <v>1</v>
+      </c>
+      <c r="O4" s="38">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="38">
+        <v>727</v>
+      </c>
+      <c r="G5" s="38">
+        <v>369</v>
+      </c>
+      <c r="H5" s="38">
+        <v>320</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="38">
+        <v>1</v>
+      </c>
+      <c r="N5" s="38">
+        <v>1</v>
+      </c>
+      <c r="O5" s="38">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -11256,24 +11586,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="20.21875" collapsed="false"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4">
@@ -11479,34 +11809,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="9.21875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="19.21875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.109375" collapsed="false